--- a/周数据/《个人上线率统计表》-徐沛华.xlsx
+++ b/周数据/《个人上线率统计表》-徐沛华.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -139,6 +139,15 @@
     <t>沈芳芳</t>
   </si>
   <si>
+    <t>熊掌柜餐厅</t>
+  </si>
+  <si>
+    <t>12或者13号安装</t>
+  </si>
+  <si>
+    <t>万彤</t>
+  </si>
+  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -152,11 +161,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -243,7 +253,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,7 +261,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,6 +277,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,14 +305,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -304,15 +313,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,37 +324,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,6 +341,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -378,7 +365,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -443,31 +453,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,48 +490,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,6 +513,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -563,6 +543,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -575,25 +603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,60 +920,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -979,7 +935,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1002,8 +958,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,10 +1025,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1027,7 +1037,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1036,128 +1046,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1188,34 +1198,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1675,8 +1688,8 @@
   <sheetPr/>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1689,247 +1702,253 @@
     <col min="7" max="7" width="15.5083333333333" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="28" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="29" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="50"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="51"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:13">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="56" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="37">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="39">
         <v>1</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="40">
         <v>1</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41">
         <f>C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="41">
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="42">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="56">
+      <c r="I3" s="57">
         <v>0</v>
       </c>
-      <c r="J3" s="57" t="e">
+      <c r="J3" s="58" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="58">
+      <c r="K3" s="59">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="59">
+      <c r="L3" s="60">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="60">
+      <c r="M3" s="61">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="41">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39">
+        <v>2</v>
+      </c>
+      <c r="C4" s="40">
+        <v>1</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41">
+        <v>1</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="42">
         <f t="shared" ref="H4:H8" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="56"/>
-      <c r="J4" s="57" t="e">
+      <c r="I4" s="57"/>
+      <c r="J4" s="58" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="58">
+      <c r="K4" s="59">
+        <v>1</v>
+      </c>
+      <c r="L4" s="60">
         <v>0</v>
       </c>
-      <c r="L4" s="59">
+      <c r="M4" s="61">
+        <f t="shared" ref="M4:M8" si="1">L4/K4*100%</f>
         <v>0</v>
       </c>
-      <c r="M4" s="60" t="e">
-        <f t="shared" ref="M4:M8" si="1">L4/K4*100%</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="41">
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="57" t="e">
+      <c r="I5" s="57"/>
+      <c r="J5" s="58" t="e">
         <f t="shared" ref="J5:J8" si="2">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="58">
+      <c r="K5" s="59">
         <v>0</v>
       </c>
-      <c r="L5" s="59">
+      <c r="L5" s="60">
         <v>0</v>
       </c>
-      <c r="M5" s="60" t="e">
+      <c r="M5" s="61" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="41">
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="57" t="e">
+      <c r="I6" s="57"/>
+      <c r="J6" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="58">
+      <c r="K6" s="59">
         <v>0</v>
       </c>
-      <c r="L6" s="59">
+      <c r="L6" s="60">
         <v>0</v>
       </c>
-      <c r="M6" s="60" t="e">
+      <c r="M6" s="61" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="41">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="57" t="e">
+      <c r="I7" s="57"/>
+      <c r="J7" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="58">
+      <c r="K7" s="59">
         <v>0</v>
       </c>
-      <c r="L7" s="59">
+      <c r="L7" s="60">
         <v>0</v>
       </c>
-      <c r="M7" s="60" t="e">
+      <c r="M7" s="61" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="47">
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="61"/>
-      <c r="J8" s="62" t="e">
+      <c r="I8" s="62"/>
+      <c r="J8" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="63">
+      <c r="K8" s="64">
         <v>0</v>
       </c>
-      <c r="L8" s="64">
+      <c r="L8" s="65">
         <v>0</v>
       </c>
-      <c r="M8" s="65" t="e">
+      <c r="M8" s="66" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1951,7 +1970,7 @@
   <dimension ref="A1:O300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1970,62 +1989,62 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="21" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1"/>
-      <c r="B2" s="23"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2038,7 +2057,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -7126,41 +7145,41 @@
   <sheetPr/>
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.625" style="9" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="10" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="11" customWidth="1"/>
     <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -7168,13 +7187,13 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="16">
         <v>43102</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -7188,793 +7207,807 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="8"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="16">
+        <v>43110</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="8"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="8"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="8"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="8"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="8"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="8"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="8"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="8"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="8"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="8"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="8"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="8"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="8"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="8"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="8"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="8"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="8"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="8"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="8"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="8"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="8"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="8"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="8"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="8"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="8"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="8"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="8"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="8"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="8"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="8"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="8"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="8"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="8"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="8"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="8"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="8"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="8"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="8"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="8"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="8"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="8"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="8"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="17"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="8"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="17"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="8"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="17"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="8"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="17"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="8"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="17"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="8"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="17"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="8"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="17"/>
       <c r="E50" s="8"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="8"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="17"/>
       <c r="E51" s="8"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="8"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="17"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="8"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="17"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="8"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="17"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="8"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="17"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="8"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="17"/>
       <c r="E56" s="8"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="8"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="17"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="8"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="17"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="8"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="17"/>
       <c r="E59" s="8"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
     </row>
     <row r="60" ht="14.25" spans="1:7">
       <c r="A60" s="8"/>
-      <c r="B60" s="13"/>
+      <c r="B60" s="15"/>
       <c r="C60" s="16"/>
-      <c r="D60" s="17"/>
+      <c r="D60" s="18"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="18"/>
+      <c r="G60" s="19"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="8"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="17"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="8"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="17"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="8"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="17"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="8"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="17"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="8"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="17"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="8"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="17"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="8"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="17"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="8"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="17"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
     <row r="69" ht="14.25" spans="1:7">
       <c r="A69" s="8"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="17"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="18"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="13"/>
+      <c r="G69" s="15"/>
     </row>
     <row r="70" ht="14.25" spans="1:7">
       <c r="A70" s="8"/>
-      <c r="B70" s="13"/>
+      <c r="B70" s="15"/>
       <c r="C70" s="16"/>
-      <c r="D70" s="17"/>
+      <c r="D70" s="18"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="8"/>
     </row>
     <row r="71" ht="14.25" spans="1:7">
       <c r="A71" s="8"/>
-      <c r="B71" s="13"/>
+      <c r="B71" s="15"/>
       <c r="C71" s="16"/>
-      <c r="D71" s="17"/>
+      <c r="D71" s="18"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="8"/>
     </row>
     <row r="72" ht="14.25" spans="1:7">
       <c r="A72" s="8"/>
-      <c r="B72" s="13"/>
+      <c r="B72" s="15"/>
       <c r="C72" s="16"/>
-      <c r="D72" s="17"/>
+      <c r="D72" s="18"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="18"/>
+      <c r="G72" s="19"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="8"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="17"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="8"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="17"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="8"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="15"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="17"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="8"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="17"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="8"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="15"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="17"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="8"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="15"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="17"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="8"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="17"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="8"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="17"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
     <row r="81" ht="14.25" spans="1:7">
       <c r="A81" s="8"/>
-      <c r="B81" s="13"/>
+      <c r="B81" s="15"/>
       <c r="C81" s="16"/>
-      <c r="D81" s="17"/>
+      <c r="D81" s="18"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="8"/>
     </row>
     <row r="82" ht="14.25" spans="1:7">
       <c r="A82" s="8"/>
-      <c r="B82" s="13"/>
+      <c r="B82" s="15"/>
       <c r="C82" s="16"/>
-      <c r="D82" s="17"/>
+      <c r="D82" s="18"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="18"/>
+      <c r="G82" s="19"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="8"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="15"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="17"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="8"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="15"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="17"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="8"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="17"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="8"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="15"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="17"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="8"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="15"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="17"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="8"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="15"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="17"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="8"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="15"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="17"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="8"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="15"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="17"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -8018,13 +8051,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/周数据/《个人上线率统计表》-徐沛华.xlsx
+++ b/周数据/《个人上线率统计表》-徐沛华.xlsx
@@ -142,7 +142,7 @@
     <t>熊掌柜餐厅</t>
   </si>
   <si>
-    <t>12或者13号安装</t>
+    <t>12号安装</t>
   </si>
   <si>
     <t>万彤</t>
@@ -163,9 +163,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="31">
@@ -253,6 +253,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -260,10 +267,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,28 +287,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -319,16 +312,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,14 +354,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,14 +373,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -381,16 +381,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,19 +453,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,7 +507,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,13 +525,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,7 +567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,25 +579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,19 +591,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,25 +603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,17 +922,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -951,6 +940,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1003,17 +1007,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1025,10 +1025,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1037,133 +1037,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1689,7 +1689,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -7146,7 +7146,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/周数据/《个人上线率统计表》-徐沛华.xlsx
+++ b/周数据/《个人上线率统计表》-徐沛华.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -15,12 +15,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">项目明细表!$F:$F</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -156,19 +156,63 @@
   <si>
     <t>加班内容</t>
   </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AAS</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊掌柜</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊掌柜的餐厅</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐沛华</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>李倩</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>店长</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新品牌</t>
+  </si>
+  <si>
+    <t>熊掌柜餐厅</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,30 +268,17 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9.95"/>
-      <color rgb="FF333333"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF777777"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -255,148 +286,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9.9499999999999993"/>
+      <color rgb="FF333333"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,7 +315,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,13 +333,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,7 +351,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,164 +361,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="32">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -919,251 +673,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1198,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1207,7 +719,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1216,7 +728,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1228,7 +740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1240,26 +752,11 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1280,9 +777,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1298,9 +792,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1314,12 +805,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1367,58 +852,38 @@
     <xf numFmtId="9" fontId="0" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1680,275 +1145,279 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.125" style="9" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="9" customWidth="1"/>
     <col min="3" max="4" width="16.25" style="9" customWidth="1"/>
     <col min="5" max="5" width="17.75" style="9" customWidth="1"/>
     <col min="6" max="6" width="15.875" style="9" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5083333333333" style="9" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="26" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:13" ht="14.25">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="51"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="61"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="47" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="38">
+      <c r="A3" s="62">
         <v>1</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="33">
         <v>1</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="34">
         <v>1</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41">
+      <c r="D3" s="35"/>
+      <c r="E3" s="35">
         <f>C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="42">
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="36">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="57">
+      <c r="I3" s="48">
         <v>0</v>
       </c>
-      <c r="J3" s="58" t="e">
+      <c r="J3" s="49" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="59">
+      <c r="K3" s="50">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="60">
+      <c r="L3" s="51">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="61">
+      <c r="M3" s="52">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39">
+      <c r="A4" s="62"/>
+      <c r="B4" s="33">
         <v>2</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="34">
         <v>1</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35">
         <v>1</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="42">
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="36">
         <f t="shared" ref="H4:H8" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58" t="e">
+      <c r="I4" s="48"/>
+      <c r="J4" s="49" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="59">
+      <c r="K4" s="50">
         <v>1</v>
       </c>
-      <c r="L4" s="60">
+      <c r="L4" s="51">
         <v>0</v>
       </c>
-      <c r="M4" s="61">
+      <c r="M4" s="52">
         <f t="shared" ref="M4:M8" si="1">L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="42">
+      <c r="A5" s="62"/>
+      <c r="B5" s="33">
+        <v>3</v>
+      </c>
+      <c r="C5" s="34">
+        <v>0</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58" t="e">
+      <c r="I5" s="48"/>
+      <c r="J5" s="49" t="e">
         <f t="shared" ref="J5:J8" si="2">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="59">
+      <c r="K5" s="50">
         <v>0</v>
       </c>
-      <c r="L5" s="60">
+      <c r="L5" s="51">
         <v>0</v>
       </c>
-      <c r="M5" s="61" t="e">
+      <c r="M5" s="52" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="42">
+      <c r="A6" s="62"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58" t="e">
+      <c r="I6" s="48"/>
+      <c r="J6" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="59">
+      <c r="K6" s="50">
         <v>0</v>
       </c>
-      <c r="L6" s="60">
+      <c r="L6" s="51">
         <v>0</v>
       </c>
-      <c r="M6" s="61" t="e">
+      <c r="M6" s="52" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="42">
+      <c r="A7" s="62"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58" t="e">
+      <c r="I7" s="48"/>
+      <c r="J7" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="59">
+      <c r="K7" s="50">
         <v>0</v>
       </c>
-      <c r="L7" s="60">
+      <c r="L7" s="51">
         <v>0</v>
       </c>
-      <c r="M7" s="61" t="e">
+      <c r="M7" s="52" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="48">
+    <row r="8" spans="1:13">
+      <c r="A8" s="63"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="63" t="e">
+      <c r="I8" s="53"/>
+      <c r="J8" s="54" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="64">
+      <c r="K8" s="55">
         <v>0</v>
       </c>
-      <c r="L8" s="65">
+      <c r="L8" s="56">
         <v>0</v>
       </c>
-      <c r="M8" s="66" t="e">
+      <c r="M8" s="57" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1958,38 +1427,35 @@
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:A8"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.8416666666667" customWidth="1"/>
-    <col min="2" max="3" width="11.4833333333333" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="26.875" customWidth="1"/>
-    <col min="5" max="5" width="9.73333333333333"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="10.2666666666667" customWidth="1"/>
-    <col min="8" max="8" width="17.1583333333333" customWidth="1"/>
-    <col min="9" max="9" width="9.86666666666667" customWidth="1"/>
-    <col min="10" max="10" width="13.9166666666667" customWidth="1"/>
-    <col min="11" max="11" width="17.975" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="14" width="15" customWidth="1"/>
-    <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="1" ht="27" spans="1:15">
+    <row r="1" spans="1:15" s="21" customFormat="1" ht="27">
       <c r="A1" s="22" t="s">
         <v>14</v>
       </c>
@@ -2014,7 +1480,7 @@
       <c r="H1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="25" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="23" t="s">
@@ -2037,30 +1503,59 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" ht="14.25" spans="1:15">
+      <c r="A2" s="8">
+        <v>3</v>
+      </c>
+      <c r="B2" s="64">
+        <v>43116</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="1">
+        <v>76123117</v>
+      </c>
+      <c r="H2" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="1">
+        <v>17625903469</v>
+      </c>
+      <c r="L2" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="1">
+        <v>13951705734</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="14.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="27"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -7120,6 +6615,7 @@
       <c r="O300" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>42736</formula1>
@@ -7134,28 +6630,26 @@
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.625" style="9" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="10" customWidth="1"/>
     <col min="4" max="4" width="35.25" style="11" customWidth="1"/>
-    <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
@@ -7733,7 +7227,7 @@
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" ht="14.25" spans="1:7">
+    <row r="60" spans="1:7" ht="14.25">
       <c r="A60" s="8"/>
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
@@ -7814,7 +7308,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" ht="14.25" spans="1:7">
+    <row r="69" spans="1:7" ht="14.25">
       <c r="A69" s="8"/>
       <c r="B69" s="15"/>
       <c r="C69" s="20"/>
@@ -7823,7 +7317,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="15"/>
     </row>
-    <row r="70" ht="14.25" spans="1:7">
+    <row r="70" spans="1:7" ht="14.25">
       <c r="A70" s="8"/>
       <c r="B70" s="15"/>
       <c r="C70" s="16"/>
@@ -7832,7 +7326,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="8"/>
     </row>
-    <row r="71" ht="14.25" spans="1:7">
+    <row r="71" spans="1:7" ht="14.25">
       <c r="A71" s="8"/>
       <c r="B71" s="15"/>
       <c r="C71" s="16"/>
@@ -7841,7 +7335,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="72" ht="14.25" spans="1:7">
+    <row r="72" spans="1:7" ht="14.25">
       <c r="A72" s="8"/>
       <c r="B72" s="15"/>
       <c r="C72" s="16"/>
@@ -7922,7 +7416,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" ht="14.25" spans="1:7">
+    <row r="81" spans="1:7" ht="14.25">
       <c r="A81" s="8"/>
       <c r="B81" s="15"/>
       <c r="C81" s="16"/>
@@ -7931,7 +7425,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="8"/>
     </row>
-    <row r="82" ht="14.25" spans="1:7">
+    <row r="82" spans="1:7" ht="14.25">
       <c r="A82" s="8"/>
       <c r="B82" s="15"/>
       <c r="C82" s="16"/>
@@ -8013,6 +7507,7 @@
       <c r="G90" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
@@ -8022,22 +7517,20 @@
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
@@ -8046,7 +7539,7 @@
     <col min="5" max="5" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:4">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -8066,59 +7559,59 @@
       <c r="C2" s="7"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="1:4">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="1:4">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="1:4">
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="1:4">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="1:4">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="1:4">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="1:4">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="1:4">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="1:4">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="1:4">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/周数据/《个人上线率统计表》-徐沛华.xlsx
+++ b/周数据/《个人上线率统计表》-徐沛华.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -210,7 +210,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -679,7 +679,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -719,7 +719,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -728,7 +728,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -740,7 +740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -852,6 +852,9 @@
     <xf numFmtId="9" fontId="0" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -870,14 +873,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1153,7 +1156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -1174,21 +1177,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="61"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="62"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="27" t="s">
@@ -1232,7 +1235,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="62">
+      <c r="A3" s="63">
         <v>1</v>
       </c>
       <c r="B3" s="33">
@@ -1273,7 +1276,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="62"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="33">
         <v>2</v>
       </c>
@@ -1307,7 +1310,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="62"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="33">
         <v>3</v>
       </c>
@@ -1339,7 +1342,7 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="62"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="33"/>
       <c r="C6" s="34"/>
       <c r="D6" s="35"/>
@@ -1367,7 +1370,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="62"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="33"/>
       <c r="C7" s="34"/>
       <c r="D7" s="35"/>
@@ -1395,7 +1398,7 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="63"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="38"/>
       <c r="C8" s="39"/>
       <c r="D8" s="40"/>
@@ -1437,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -1506,7 +1509,7 @@
       <c r="A2" s="8">
         <v>3</v>
       </c>
-      <c r="B2" s="64">
+      <c r="B2" s="66">
         <v>43116</v>
       </c>
       <c r="C2" s="65" t="s">
@@ -1515,7 +1518,7 @@
       <c r="D2" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="58" t="s">
         <v>53</v>
       </c>
       <c r="F2" s="65" t="s">
@@ -1524,7 +1527,7 @@
       <c r="G2" s="1">
         <v>76123117</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="67" t="s">
         <v>48</v>
       </c>
       <c r="I2" s="65" t="s">
@@ -1533,7 +1536,7 @@
       <c r="J2" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="8">
         <v>17625903469</v>
       </c>
       <c r="L2" s="65" t="s">
@@ -1542,10 +1545,10 @@
       <c r="M2" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="8">
         <v>13951705734</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="8" t="s">
         <v>52</v>
       </c>
     </row>

--- a/周数据/《个人上线率统计表》-徐沛华.xlsx
+++ b/周数据/《个人上线率统计表》-徐沛华.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -202,6 +202,10 @@
   </si>
   <si>
     <t>熊掌柜餐厅</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -855,6 +859,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -872,15 +885,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1156,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1177,21 +1181,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="65"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="27" t="s">
@@ -1235,7 +1239,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="63">
+      <c r="A3" s="66">
         <v>1</v>
       </c>
       <c r="B3" s="33">
@@ -1276,7 +1280,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="63"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="33">
         <v>2</v>
       </c>
@@ -1310,7 +1314,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="63"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="33">
         <v>3</v>
       </c>
@@ -1342,9 +1346,13 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="63"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="33">
+        <v>4</v>
+      </c>
+      <c r="C6" s="34">
+        <v>0</v>
+      </c>
       <c r="D6" s="35"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
@@ -1370,7 +1378,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="63"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="33"/>
       <c r="C7" s="34"/>
       <c r="D7" s="35"/>
@@ -1398,7 +1406,7 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="64"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="38"/>
       <c r="C8" s="39"/>
       <c r="D8" s="40"/>
@@ -1440,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -1509,40 +1517,40 @@
       <c r="A2" s="8">
         <v>3</v>
       </c>
-      <c r="B2" s="66">
+      <c r="B2" s="60">
         <v>43116</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="59" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="59" t="s">
         <v>47</v>
       </c>
       <c r="G2" s="1">
         <v>76123117</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="59" t="s">
         <v>49</v>
       </c>
       <c r="K2" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="M2" s="59" t="s">
         <v>51</v>
       </c>
       <c r="N2" s="8">
@@ -1553,8 +1561,12 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="8">
+        <v>4</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>54</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="24"/>
       <c r="E3" s="1"/>

--- a/周数据/《个人上线率统计表》-徐沛华.xlsx
+++ b/周数据/《个人上线率统计表》-徐沛华.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -15,12 +15,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">项目明细表!$F:$F</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -109,6 +109,62 @@
     <t>新老品牌</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AAS</t>
+    </r>
+  </si>
+  <si>
+    <t>熊掌柜</t>
+  </si>
+  <si>
+    <t>熊掌柜餐厅</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>熊掌柜的餐厅</t>
+  </si>
+  <si>
+    <t>徐沛华</t>
+  </si>
+  <si>
+    <t>李倩</t>
+  </si>
+  <si>
+    <t>店长</t>
+  </si>
+  <si>
+    <t>新品牌</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>SAAS</t>
+  </si>
+  <si>
+    <t>彭德楷黄焖鸡米饭</t>
+  </si>
+  <si>
+    <t>江飞</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -139,13 +195,19 @@
     <t>沈芳芳</t>
   </si>
   <si>
-    <t>熊掌柜餐厅</t>
-  </si>
-  <si>
     <t>12号安装</t>
   </si>
   <si>
     <t>万彤</t>
+  </si>
+  <si>
+    <t>牛的故事</t>
+  </si>
+  <si>
+    <t>店铺装修，安装时间再约</t>
+  </si>
+  <si>
+    <t>李雪磊</t>
   </si>
   <si>
     <t>姓名</t>
@@ -156,67 +218,19 @@
   <si>
     <t>加班内容</t>
   </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AAS</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊掌柜</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊掌柜的餐厅</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐沛华</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>李倩</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>店长</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>新品牌</t>
-  </si>
-  <si>
-    <t>熊掌柜餐厅</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,18 +285,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.95"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF777777"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -290,27 +316,148 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9.9499999999999993"/>
-      <color rgb="FF333333"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,7 +466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,13 +484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +502,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39994506668294322"/>
+        <fgColor theme="7" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,8 +512,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -677,13 +1010,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -756,13 +1331,40 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -781,6 +1383,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -796,6 +1401,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -811,6 +1419,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -856,41 +1470,58 @@
     <xf numFmtId="9" fontId="0" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1152,19 +1783,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="5.125" style="9" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="9" customWidth="1"/>
@@ -1174,261 +1805,269 @@
     <col min="7" max="7" width="15.5" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="26" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="33" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25">
-      <c r="A1" s="62" t="s">
+    <row r="1" ht="15" spans="1:13">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="65"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="55"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:13">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="60" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="66">
+      <c r="A3" s="42">
         <v>1</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="43">
         <v>1</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="44">
         <v>1</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35">
+      <c r="D3" s="45"/>
+      <c r="E3" s="45">
         <f>C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="36">
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="46">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="48">
-        <v>0</v>
-      </c>
-      <c r="J3" s="49" t="e">
+      <c r="I3" s="61"/>
+      <c r="J3" s="62" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="50">
+      <c r="K3" s="63">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="64">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="52">
+      <c r="M3" s="65">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="66"/>
-      <c r="B4" s="33">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43">
         <v>2</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="44">
         <v>1</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45">
         <v>1</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="36">
+      <c r="F4" s="46"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="46">
         <f t="shared" ref="H4:H8" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="49" t="e">
+      <c r="I4" s="61"/>
+      <c r="J4" s="62" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="50">
+      <c r="K4" s="63">
         <v>1</v>
       </c>
-      <c r="L4" s="51">
+      <c r="L4" s="64">
         <v>0</v>
       </c>
-      <c r="M4" s="52">
+      <c r="M4" s="65">
         <f t="shared" ref="M4:M8" si="1">L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="66"/>
-      <c r="B5" s="33">
+      <c r="A5" s="42"/>
+      <c r="B5" s="43">
         <v>3</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="44">
         <v>0</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="36">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45">
+        <v>0</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="49" t="e">
+      <c r="I5" s="61"/>
+      <c r="J5" s="62" t="e">
         <f t="shared" ref="J5:J8" si="2">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="50">
+      <c r="K5" s="63">
         <v>0</v>
       </c>
-      <c r="L5" s="51">
+      <c r="L5" s="64">
         <v>0</v>
       </c>
-      <c r="M5" s="52" t="e">
+      <c r="M5" s="65" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="66"/>
-      <c r="B6" s="33">
+      <c r="A6" s="42"/>
+      <c r="B6" s="43">
         <v>4</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="44">
         <v>0</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="36">
+      <c r="D6" s="45"/>
+      <c r="E6" s="45">
+        <v>0</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="49" t="e">
+      <c r="I6" s="61"/>
+      <c r="J6" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="50">
+      <c r="K6" s="63">
         <v>0</v>
       </c>
-      <c r="L6" s="51">
+      <c r="L6" s="64">
         <v>0</v>
       </c>
-      <c r="M6" s="52" t="e">
+      <c r="M6" s="65" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="66"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="36">
+      <c r="A7" s="42"/>
+      <c r="B7" s="43">
+        <v>5</v>
+      </c>
+      <c r="C7" s="44">
+        <v>1</v>
+      </c>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45">
+        <v>1</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="49" t="e">
+      <c r="I7" s="61"/>
+      <c r="J7" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="50">
+      <c r="K7" s="63">
+        <v>1</v>
+      </c>
+      <c r="L7" s="64">
         <v>0</v>
       </c>
-      <c r="L7" s="51">
+      <c r="M7" s="65">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M7" s="52" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="67"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="41">
+    </row>
+    <row r="8" ht="14.25" spans="1:13">
+      <c r="A8" s="48"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54" t="e">
+      <c r="I8" s="66"/>
+      <c r="J8" s="67" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="55">
+      <c r="K8" s="68">
         <v>0</v>
       </c>
-      <c r="L8" s="56">
+      <c r="L8" s="69">
         <v>0</v>
       </c>
-      <c r="M8" s="57" t="e">
+      <c r="M8" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1438,18 +2077,19 @@
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:A8"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -1457,6 +2097,7 @@
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="26.875" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="10.25" customWidth="1"/>
     <col min="8" max="8" width="17.125" customWidth="1"/>
@@ -1466,7 +2107,7 @@
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="21" customFormat="1" ht="27">
+    <row r="1" s="21" customFormat="1" ht="27" spans="1:15">
       <c r="A1" s="22" t="s">
         <v>14</v>
       </c>
@@ -1491,7 +2132,7 @@
       <c r="H1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="32" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="23" t="s">
@@ -1517,58 +2158,58 @@
       <c r="A2" s="8">
         <v>3</v>
       </c>
-      <c r="B2" s="60">
+      <c r="B2" s="24">
         <v>43116</v>
       </c>
-      <c r="C2" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="C2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="27">
         <v>76123117</v>
       </c>
-      <c r="H2" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="59" t="s">
-        <v>49</v>
+      <c r="H2" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="K2" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L2" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="59" t="s">
-        <v>51</v>
+      <c r="L2" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="N2" s="8">
         <v>13951705734</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="14.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:15">
       <c r="A3" s="8">
         <v>4</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>54</v>
+      <c r="B3" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="24"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="H3" s="1"/>
@@ -1581,21 +2222,51 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="A4" s="27">
+        <v>5</v>
+      </c>
+      <c r="B4" s="30">
+        <v>43117</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="27">
+        <v>76126162</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="27">
+        <v>17625903469</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="27">
+        <v>13951856747</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1"/>
@@ -6630,7 +7301,6 @@
       <c r="O300" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>42736</formula1>
@@ -6645,20 +7315,22 @@
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.625" style="9" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
@@ -6677,19 +7349,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -6697,22 +7369,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C2" s="16">
         <v>43102</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6720,32 +7392,46 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C3" s="16">
         <v>43110</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="8"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="A4" s="8">
+        <v>5</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="16">
+        <v>43126</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="8"/>
@@ -7242,7 +7928,7 @@
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" spans="1:7" ht="14.25">
+    <row r="60" ht="14.25" spans="1:7">
       <c r="A60" s="8"/>
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
@@ -7323,7 +8009,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" ht="14.25">
+    <row r="69" ht="14.25" spans="1:7">
       <c r="A69" s="8"/>
       <c r="B69" s="15"/>
       <c r="C69" s="20"/>
@@ -7332,7 +8018,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="15"/>
     </row>
-    <row r="70" spans="1:7" ht="14.25">
+    <row r="70" ht="14.25" spans="1:7">
       <c r="A70" s="8"/>
       <c r="B70" s="15"/>
       <c r="C70" s="16"/>
@@ -7341,7 +8027,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="8"/>
     </row>
-    <row r="71" spans="1:7" ht="14.25">
+    <row r="71" ht="14.25" spans="1:7">
       <c r="A71" s="8"/>
       <c r="B71" s="15"/>
       <c r="C71" s="16"/>
@@ -7350,7 +8036,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="72" spans="1:7" ht="14.25">
+    <row r="72" ht="14.25" spans="1:7">
       <c r="A72" s="8"/>
       <c r="B72" s="15"/>
       <c r="C72" s="16"/>
@@ -7431,7 +8117,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" ht="14.25">
+    <row r="81" ht="14.25" spans="1:7">
       <c r="A81" s="8"/>
       <c r="B81" s="15"/>
       <c r="C81" s="16"/>
@@ -7440,7 +8126,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="8"/>
     </row>
-    <row r="82" spans="1:7" ht="14.25">
+    <row r="82" ht="14.25" spans="1:7">
       <c r="A82" s="8"/>
       <c r="B82" s="15"/>
       <c r="C82" s="16"/>
@@ -7522,7 +8208,6 @@
       <c r="G90" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
@@ -7532,20 +8217,22 @@
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
@@ -7554,18 +8241,18 @@
     <col min="5" max="5" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7574,59 +8261,59 @@
       <c r="C2" s="7"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="2:4">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="2:4">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="2:4">
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="2:4">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="2:4">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="2:4">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="2:4">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="2:4">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="2:4">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="2:4">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/周数据/《个人上线率统计表》-徐沛华.xlsx
+++ b/周数据/《个人上线率统计表》-徐沛华.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -210,6 +210,15 @@
     <t>李雪磊</t>
   </si>
   <si>
+    <t>韩式石锅饭</t>
+  </si>
+  <si>
+    <t>未确定安装时间</t>
+  </si>
+  <si>
+    <t>崔冰冰</t>
+  </si>
+  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -224,11 +233,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -285,13 +294,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9.95"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
@@ -315,36 +317,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,7 +347,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,39 +355,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,14 +412,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,7 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,13 +546,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,61 +564,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,7 +600,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,13 +618,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,6 +636,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -688,13 +684,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,15 +1007,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1037,50 +1024,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1108,6 +1054,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1116,10 +1112,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1128,7 +1124,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1137,128 +1133,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1334,35 +1330,23 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1419,10 +1403,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1789,13 +1773,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.125" style="9" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="9" customWidth="1"/>
@@ -1805,277 +1789,456 @@
     <col min="7" max="7" width="15.5" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="29" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="55"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="M2" s="56" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="42">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="39">
         <v>1</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="40">
         <v>1</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41">
         <f>C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="46">
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="42">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62" t="e">
+      <c r="I3" s="57"/>
+      <c r="J3" s="58" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="63">
+      <c r="K3" s="59">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="64">
+      <c r="L3" s="60">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="65">
+      <c r="M3" s="61">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39">
         <v>2</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="40">
         <v>1</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41">
         <v>1</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="46">
-        <f t="shared" ref="H4:H8" si="0">F4-G4</f>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="42">
+        <f t="shared" ref="H4:H14" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="62" t="e">
+      <c r="I4" s="57"/>
+      <c r="J4" s="58" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="59">
         <v>1</v>
       </c>
-      <c r="L4" s="64">
+      <c r="L4" s="60">
         <v>0</v>
       </c>
-      <c r="M4" s="65">
-        <f t="shared" ref="M4:M8" si="1">L4/K4*100%</f>
+      <c r="M4" s="61">
+        <f t="shared" ref="M4:M14" si="1">L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43">
+      <c r="A5" s="38"/>
+      <c r="B5" s="39">
         <v>3</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="40">
         <v>0</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41">
         <v>0</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="46">
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="61"/>
-      <c r="J5" s="62" t="e">
-        <f t="shared" ref="J5:J8" si="2">I5/L5*100%</f>
+      <c r="I5" s="57"/>
+      <c r="J5" s="58" t="e">
+        <f t="shared" ref="J5:J14" si="2">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="63">
+      <c r="K5" s="59">
         <v>0</v>
       </c>
-      <c r="L5" s="64">
+      <c r="L5" s="60">
         <v>0</v>
       </c>
-      <c r="M5" s="65" t="e">
+      <c r="M5" s="61" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43">
+      <c r="A6" s="38"/>
+      <c r="B6" s="39">
         <v>4</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="40">
         <v>0</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45">
+      <c r="D6" s="41"/>
+      <c r="E6" s="41">
         <v>0</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="46">
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="62" t="e">
+      <c r="I6" s="57"/>
+      <c r="J6" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="63">
+      <c r="K6" s="59">
         <v>0</v>
       </c>
-      <c r="L6" s="64">
+      <c r="L6" s="60">
         <v>0</v>
       </c>
-      <c r="M6" s="65" t="e">
+      <c r="M6" s="61" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39">
         <v>5</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="40">
         <v>1</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45">
+      <c r="D7" s="41"/>
+      <c r="E7" s="41">
         <v>1</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="46">
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62" t="e">
+      <c r="I7" s="57"/>
+      <c r="J7" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="63">
+      <c r="K7" s="59">
         <v>1</v>
       </c>
-      <c r="L7" s="64">
+      <c r="L7" s="60">
         <v>0</v>
       </c>
-      <c r="M7" s="65">
+      <c r="M7" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="52">
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67" t="e">
+      <c r="I8" s="62"/>
+      <c r="J8" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="68">
+      <c r="K8" s="64">
         <v>0</v>
       </c>
-      <c r="L8" s="69">
+      <c r="L8" s="65">
         <v>0</v>
       </c>
-      <c r="M8" s="70" t="e">
+      <c r="M8" s="66" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="38">
+        <v>2</v>
+      </c>
+      <c r="B9" s="39">
+        <v>1</v>
+      </c>
+      <c r="C9" s="40">
+        <v>1</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41">
+        <v>1</v>
+      </c>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" s="59">
+        <f>C9+G9</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="60">
+        <f>D9+G9</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="59">
+        <v>1</v>
+      </c>
+      <c r="L10" s="60">
+        <v>0</v>
+      </c>
+      <c r="M10" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" s="59">
+        <v>0</v>
+      </c>
+      <c r="L11" s="60">
+        <v>0</v>
+      </c>
+      <c r="M11" s="61" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="57"/>
+      <c r="J12" s="58" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" s="59">
+        <v>0</v>
+      </c>
+      <c r="L12" s="60">
+        <v>0</v>
+      </c>
+      <c r="M12" s="61" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="57"/>
+      <c r="J13" s="58" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="59">
+        <v>1</v>
+      </c>
+      <c r="L13" s="60">
+        <v>0</v>
+      </c>
+      <c r="M13" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:13">
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="62"/>
+      <c r="J14" s="63" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" s="64">
+        <v>0</v>
+      </c>
+      <c r="L14" s="65">
+        <v>0</v>
+      </c>
+      <c r="M14" s="66" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2089,7 +2252,7 @@
   <dimension ref="A1:O300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -2132,7 +2295,7 @@
       <c r="H1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="28" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="23" t="s">
@@ -2161,37 +2324,37 @@
       <c r="B2" s="24">
         <v>43116</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="8">
         <v>76123117</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="19" t="s">
         <v>34</v>
       </c>
       <c r="K2" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="19" t="s">
         <v>36</v>
       </c>
       <c r="N2" s="8">
@@ -2205,11 +2368,11 @@
       <c r="A3" s="8">
         <v>4</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="29"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="H3" s="1"/>
@@ -2222,49 +2385,49 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="27">
+      <c r="A4" s="8">
         <v>5</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="27">
         <v>43117</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="8">
         <v>76126162</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="8">
         <v>13951856747</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="O4" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7326,8 +7489,8 @@
   <sheetPr/>
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -7434,13 +7597,27 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="8"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="A5" s="8">
+        <v>6</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="16">
+        <v>43133</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="8"/>
@@ -8246,13 +8423,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/周数据/《个人上线率统计表》-徐沛华.xlsx
+++ b/周数据/《个人上线率统计表》-徐沛华.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -165,6 +165,18 @@
     <t>江飞</t>
   </si>
   <si>
+    <t>牛的故事</t>
+  </si>
+  <si>
+    <t>牛的故事卤肉锅</t>
+  </si>
+  <si>
+    <t>冯国爱</t>
+  </si>
+  <si>
+    <t>老板姐姐收银</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -201,9 +213,6 @@
     <t>万彤</t>
   </si>
   <si>
-    <t>牛的故事</t>
-  </si>
-  <si>
     <t>店铺装修，安装时间再约</t>
   </si>
   <si>
@@ -233,11 +242,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -322,6 +331,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -353,31 +385,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,46 +458,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -522,6 +531,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -546,19 +573,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,12 +657,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -631,42 +676,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,50 +1041,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1104,6 +1069,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1112,10 +1121,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1124,94 +1133,94 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1220,41 +1229,41 @@
     <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1334,6 +1343,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1775,7 +1790,7 @@
   <sheetPr/>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -1789,447 +1804,447 @@
     <col min="7" max="7" width="15.5" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="31" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="51"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="53"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="58" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="38">
+      <c r="A3" s="40">
         <v>1</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="41">
         <v>1</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="42">
         <v>1</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41">
+      <c r="D3" s="43"/>
+      <c r="E3" s="43">
         <f>C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="42">
+      <c r="F3" s="44"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="44">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58" t="e">
+      <c r="I3" s="59"/>
+      <c r="J3" s="60" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="59">
+      <c r="K3" s="61">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="60">
+      <c r="L3" s="62">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="61">
+      <c r="M3" s="63">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39">
+      <c r="A4" s="40"/>
+      <c r="B4" s="41">
         <v>2</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="42">
         <v>1</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41">
+      <c r="D4" s="43"/>
+      <c r="E4" s="43">
         <v>1</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="42">
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="44">
         <f t="shared" ref="H4:H14" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58" t="e">
+      <c r="I4" s="59"/>
+      <c r="J4" s="60" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="59">
+      <c r="K4" s="61">
         <v>1</v>
       </c>
-      <c r="L4" s="60">
+      <c r="L4" s="62">
         <v>0</v>
       </c>
-      <c r="M4" s="61">
+      <c r="M4" s="63">
         <f t="shared" ref="M4:M14" si="1">L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41">
         <v>3</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="42">
         <v>0</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43">
         <v>0</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="42">
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58" t="e">
+      <c r="I5" s="59"/>
+      <c r="J5" s="60" t="e">
         <f t="shared" ref="J5:J14" si="2">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="59">
+      <c r="K5" s="61">
         <v>0</v>
       </c>
-      <c r="L5" s="60">
+      <c r="L5" s="62">
         <v>0</v>
       </c>
-      <c r="M5" s="61" t="e">
+      <c r="M5" s="63" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39">
+      <c r="A6" s="40"/>
+      <c r="B6" s="41">
         <v>4</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="42">
         <v>0</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41">
+      <c r="D6" s="43"/>
+      <c r="E6" s="43">
         <v>0</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="42">
+      <c r="F6" s="44"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58" t="e">
+      <c r="I6" s="59"/>
+      <c r="J6" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="59">
+      <c r="K6" s="61">
         <v>0</v>
       </c>
-      <c r="L6" s="60">
+      <c r="L6" s="62">
         <v>0</v>
       </c>
-      <c r="M6" s="61" t="e">
+      <c r="M6" s="63" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39">
+      <c r="A7" s="40"/>
+      <c r="B7" s="41">
         <v>5</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="42">
         <v>1</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41">
+      <c r="D7" s="43"/>
+      <c r="E7" s="43">
         <v>1</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="42">
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58" t="e">
+      <c r="I7" s="59"/>
+      <c r="J7" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="59">
+      <c r="K7" s="61">
         <v>1</v>
       </c>
-      <c r="L7" s="60">
+      <c r="L7" s="62">
         <v>0</v>
       </c>
-      <c r="M7" s="61">
+      <c r="M7" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="48">
+      <c r="A8" s="46"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="63" t="e">
+      <c r="I8" s="64"/>
+      <c r="J8" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="64">
+      <c r="K8" s="66">
         <v>0</v>
       </c>
-      <c r="L8" s="65">
+      <c r="L8" s="67">
         <v>0</v>
       </c>
-      <c r="M8" s="66" t="e">
+      <c r="M8" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="38">
+      <c r="A9" s="40">
         <v>2</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="41">
         <v>1</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="42">
         <v>1</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41">
+      <c r="D9" s="43"/>
+      <c r="E9" s="43">
         <v>1</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="42">
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58" t="e">
+      <c r="I9" s="59"/>
+      <c r="J9" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K9" s="59">
+      <c r="K9" s="61">
         <f>C9+G9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="60">
+      <c r="L9" s="62">
         <f>D9+G9</f>
         <v>0</v>
       </c>
-      <c r="M9" s="61">
+      <c r="M9" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="42">
+      <c r="A10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58" t="e">
+      <c r="I10" s="59"/>
+      <c r="J10" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="59">
+      <c r="K10" s="61">
         <v>1</v>
       </c>
-      <c r="L10" s="60">
+      <c r="L10" s="62">
         <v>0</v>
       </c>
-      <c r="M10" s="61">
+      <c r="M10" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="42">
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58" t="e">
+      <c r="I11" s="59"/>
+      <c r="J11" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="59">
+      <c r="K11" s="61">
         <v>0</v>
       </c>
-      <c r="L11" s="60">
+      <c r="L11" s="62">
         <v>0</v>
       </c>
-      <c r="M11" s="61" t="e">
+      <c r="M11" s="63" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="42">
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58" t="e">
+      <c r="I12" s="59"/>
+      <c r="J12" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="59">
+      <c r="K12" s="61">
         <v>0</v>
       </c>
-      <c r="L12" s="60">
+      <c r="L12" s="62">
         <v>0</v>
       </c>
-      <c r="M12" s="61" t="e">
+      <c r="M12" s="63" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="42">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="57"/>
-      <c r="J13" s="58" t="e">
+      <c r="I13" s="59"/>
+      <c r="J13" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="59">
+      <c r="K13" s="61">
         <v>1</v>
       </c>
-      <c r="L13" s="60">
+      <c r="L13" s="62">
         <v>0</v>
       </c>
-      <c r="M13" s="61">
+      <c r="M13" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:13">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="48">
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="63" t="e">
+      <c r="I14" s="64"/>
+      <c r="J14" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="64">
+      <c r="K14" s="66">
         <v>0</v>
       </c>
-      <c r="L14" s="65">
+      <c r="L14" s="67">
         <v>0</v>
       </c>
-      <c r="M14" s="66" t="e">
+      <c r="M14" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2251,8 +2266,8 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -2295,7 +2310,7 @@
       <c r="H1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="30" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="23" t="s">
@@ -2432,21 +2447,51 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="A5" s="28">
+        <v>6</v>
+      </c>
+      <c r="B5" s="29">
+        <v>43139</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="28">
+        <v>76128986</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="28">
+        <v>17625903469</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="28">
+        <v>15920612473</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1"/>
@@ -7512,19 +7557,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7532,22 +7577,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C2" s="16">
         <v>43102</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7561,16 +7606,16 @@
         <v>43110</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7578,22 +7623,22 @@
         <v>5</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C4" s="16">
         <v>43126</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7601,22 +7646,22 @@
         <v>6</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C5" s="16">
         <v>43133</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8423,13 +8468,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/周数据/《个人上线率统计表》-徐沛华.xlsx
+++ b/周数据/《个人上线率统计表》-徐沛华.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -228,6 +228,12 @@
     <t>崔冰冰</t>
   </si>
   <si>
+    <t>下周一老板上班再联系</t>
+  </si>
+  <si>
+    <t>销售说老系统升级可以用了，暂时不安装。</t>
+  </si>
+  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -242,11 +248,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -331,24 +337,100 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,44 +445,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -409,48 +453,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,7 +468,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,7 +537,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,31 +651,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,19 +669,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,73 +681,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,19 +693,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,6 +1022,62 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1040,43 +1102,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,30 +1119,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1121,10 +1127,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1133,137 +1139,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1343,12 +1349,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1804,447 +1804,447 @@
     <col min="7" max="7" width="15.5" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="31" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="29" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="53"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="58" t="s">
+      <c r="M2" s="56" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="40">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="39">
         <v>1</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="40">
         <v>1</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41">
         <f>C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="44">
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="42">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="60" t="e">
+      <c r="I3" s="57"/>
+      <c r="J3" s="58" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="61">
+      <c r="K3" s="59">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="62">
+      <c r="L3" s="60">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="63">
+      <c r="M3" s="61">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39">
         <v>2</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="40">
         <v>1</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41">
         <v>1</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="44">
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="42">
         <f t="shared" ref="H4:H14" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="60" t="e">
+      <c r="I4" s="57"/>
+      <c r="J4" s="58" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="61">
+      <c r="K4" s="59">
         <v>1</v>
       </c>
-      <c r="L4" s="62">
+      <c r="L4" s="60">
         <v>0</v>
       </c>
-      <c r="M4" s="63">
+      <c r="M4" s="61">
         <f t="shared" ref="M4:M14" si="1">L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41">
+      <c r="A5" s="38"/>
+      <c r="B5" s="39">
         <v>3</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="40">
         <v>0</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41">
         <v>0</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="44">
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="60" t="e">
+      <c r="I5" s="57"/>
+      <c r="J5" s="58" t="e">
         <f t="shared" ref="J5:J14" si="2">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="61">
+      <c r="K5" s="59">
         <v>0</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="60">
         <v>0</v>
       </c>
-      <c r="M5" s="63" t="e">
+      <c r="M5" s="61" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41">
+      <c r="A6" s="38"/>
+      <c r="B6" s="39">
         <v>4</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="40">
         <v>0</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43">
+      <c r="D6" s="41"/>
+      <c r="E6" s="41">
         <v>0</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="44">
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="59"/>
-      <c r="J6" s="60" t="e">
+      <c r="I6" s="57"/>
+      <c r="J6" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="61">
+      <c r="K6" s="59">
         <v>0</v>
       </c>
-      <c r="L6" s="62">
+      <c r="L6" s="60">
         <v>0</v>
       </c>
-      <c r="M6" s="63" t="e">
+      <c r="M6" s="61" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39">
         <v>5</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="40">
         <v>1</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43">
+      <c r="D7" s="41"/>
+      <c r="E7" s="41">
         <v>1</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="44">
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="60" t="e">
+      <c r="I7" s="57"/>
+      <c r="J7" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="61">
+      <c r="K7" s="59">
         <v>1</v>
       </c>
-      <c r="L7" s="62">
+      <c r="L7" s="60">
         <v>0</v>
       </c>
-      <c r="M7" s="63">
+      <c r="M7" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="46"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="50">
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65" t="e">
+      <c r="I8" s="62"/>
+      <c r="J8" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="66">
+      <c r="K8" s="64">
         <v>0</v>
       </c>
-      <c r="L8" s="67">
+      <c r="L8" s="65">
         <v>0</v>
       </c>
-      <c r="M8" s="68" t="e">
+      <c r="M8" s="66" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="40">
+      <c r="A9" s="38">
         <v>2</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="39">
         <v>1</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="40">
         <v>1</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41">
         <v>1</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="44">
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="60" t="e">
+      <c r="I9" s="57"/>
+      <c r="J9" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K9" s="61">
+      <c r="K9" s="59">
         <f>C9+G9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="62">
+      <c r="L9" s="60">
         <f>D9+G9</f>
         <v>0</v>
       </c>
-      <c r="M9" s="63">
+      <c r="M9" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="44">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="59"/>
-      <c r="J10" s="60" t="e">
+      <c r="I10" s="57"/>
+      <c r="J10" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="61">
+      <c r="K10" s="59">
         <v>1</v>
       </c>
-      <c r="L10" s="62">
+      <c r="L10" s="60">
         <v>0</v>
       </c>
-      <c r="M10" s="63">
+      <c r="M10" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="40"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="44">
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="59"/>
-      <c r="J11" s="60" t="e">
+      <c r="I11" s="57"/>
+      <c r="J11" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="61">
+      <c r="K11" s="59">
         <v>0</v>
       </c>
-      <c r="L11" s="62">
+      <c r="L11" s="60">
         <v>0</v>
       </c>
-      <c r="M11" s="63" t="e">
+      <c r="M11" s="61" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="40"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="44">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="59"/>
-      <c r="J12" s="60" t="e">
+      <c r="I12" s="57"/>
+      <c r="J12" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="61">
+      <c r="K12" s="59">
         <v>0</v>
       </c>
-      <c r="L12" s="62">
+      <c r="L12" s="60">
         <v>0</v>
       </c>
-      <c r="M12" s="63" t="e">
+      <c r="M12" s="61" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="44">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="59"/>
-      <c r="J13" s="60" t="e">
+      <c r="I13" s="57"/>
+      <c r="J13" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="61">
+      <c r="K13" s="59">
         <v>1</v>
       </c>
-      <c r="L13" s="62">
+      <c r="L13" s="60">
         <v>0</v>
       </c>
-      <c r="M13" s="63">
+      <c r="M13" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:13">
-      <c r="A14" s="46"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="50">
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65" t="e">
+      <c r="I14" s="62"/>
+      <c r="J14" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="66">
+      <c r="K14" s="64">
         <v>0</v>
       </c>
-      <c r="L14" s="67">
+      <c r="L14" s="65">
         <v>0</v>
       </c>
-      <c r="M14" s="68" t="e">
+      <c r="M14" s="66" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2266,7 +2266,7 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -2310,7 +2310,7 @@
       <c r="H1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="28" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="23" t="s">
@@ -2447,49 +2447,49 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="28">
+      <c r="A5" s="8">
         <v>6</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="27">
         <v>43139</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="8">
         <v>76128986</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="8">
         <v>15920612473</v>
       </c>
-      <c r="O5" s="28" t="s">
+      <c r="O5" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7534,8 +7534,8 @@
   <sheetPr/>
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -7665,22 +7665,50 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="8"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="8"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="A6" s="8">
+        <v>8</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="16">
+        <v>43102</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:7">
+      <c r="A7" s="8">
+        <v>8</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="16">
+        <v>43133</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="8"/>
@@ -8468,13 +8496,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/周数据/《个人上线率统计表》-徐沛华.xlsx
+++ b/周数据/《个人上线率统计表》-徐沛华.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -177,6 +177,15 @@
     <t>老板姐姐收银</t>
   </si>
   <si>
+    <t>一代名酱</t>
+  </si>
+  <si>
+    <t>李建军</t>
+  </si>
+  <si>
+    <t>收银</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -248,9 +257,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -331,6 +340,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -344,23 +368,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,16 +398,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -399,14 +438,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,54 +476,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,7 +546,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,7 +606,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,7 +642,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,43 +654,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,13 +672,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,73 +702,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,13 +1031,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,17 +1061,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1092,33 +1128,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1127,10 +1136,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1139,137 +1148,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1336,6 +1345,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1349,6 +1361,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1791,7 +1812,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1804,447 +1825,447 @@
     <col min="7" max="7" width="15.5" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="33" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="51"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="55"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="60" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="38">
+      <c r="A3" s="42">
         <v>1</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="43">
         <v>1</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="44">
         <v>1</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41">
+      <c r="D3" s="45"/>
+      <c r="E3" s="45">
         <f>C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="42">
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="46">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58" t="e">
+      <c r="I3" s="61"/>
+      <c r="J3" s="62" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="59">
+      <c r="K3" s="63">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="60">
+      <c r="L3" s="64">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="61">
+      <c r="M3" s="65">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43">
         <v>2</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="44">
         <v>1</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45">
         <v>1</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="42">
+      <c r="F4" s="46"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="46">
         <f t="shared" ref="H4:H14" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58" t="e">
+      <c r="I4" s="61"/>
+      <c r="J4" s="62" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="59">
+      <c r="K4" s="63">
         <v>1</v>
       </c>
-      <c r="L4" s="60">
+      <c r="L4" s="64">
         <v>0</v>
       </c>
-      <c r="M4" s="61">
+      <c r="M4" s="65">
         <f t="shared" ref="M4:M14" si="1">L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39">
+      <c r="A5" s="42"/>
+      <c r="B5" s="43">
         <v>3</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="44">
         <v>0</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45">
         <v>0</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="42">
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58" t="e">
+      <c r="I5" s="61"/>
+      <c r="J5" s="62" t="e">
         <f t="shared" ref="J5:J14" si="2">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="59">
+      <c r="K5" s="63">
         <v>0</v>
       </c>
-      <c r="L5" s="60">
+      <c r="L5" s="64">
         <v>0</v>
       </c>
-      <c r="M5" s="61" t="e">
+      <c r="M5" s="65" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39">
+      <c r="A6" s="42"/>
+      <c r="B6" s="43">
         <v>4</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="44">
         <v>0</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41">
+      <c r="D6" s="45"/>
+      <c r="E6" s="45">
         <v>0</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="42">
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58" t="e">
+      <c r="I6" s="61"/>
+      <c r="J6" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="59">
+      <c r="K6" s="63">
         <v>0</v>
       </c>
-      <c r="L6" s="60">
+      <c r="L6" s="64">
         <v>0</v>
       </c>
-      <c r="M6" s="61" t="e">
+      <c r="M6" s="65" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39">
+      <c r="A7" s="42"/>
+      <c r="B7" s="43">
         <v>5</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="44">
         <v>1</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41">
+      <c r="D7" s="45"/>
+      <c r="E7" s="45">
         <v>1</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="42">
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58" t="e">
+      <c r="I7" s="61"/>
+      <c r="J7" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="59">
+      <c r="K7" s="63">
         <v>1</v>
       </c>
-      <c r="L7" s="60">
+      <c r="L7" s="64">
         <v>0</v>
       </c>
-      <c r="M7" s="61">
+      <c r="M7" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="48">
+      <c r="A8" s="48"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="63" t="e">
+      <c r="I8" s="66"/>
+      <c r="J8" s="67" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="64">
+      <c r="K8" s="68">
         <v>0</v>
       </c>
-      <c r="L8" s="65">
+      <c r="L8" s="69">
         <v>0</v>
       </c>
-      <c r="M8" s="66" t="e">
+      <c r="M8" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="38">
+      <c r="A9" s="42">
         <v>2</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="43">
+        <v>8</v>
+      </c>
+      <c r="C9" s="44">
         <v>1</v>
       </c>
-      <c r="C9" s="40">
+      <c r="D9" s="45">
         <v>1</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41">
-        <v>1</v>
-      </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="42">
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58" t="e">
+      <c r="I9" s="61"/>
+      <c r="J9" s="62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="63">
+        <f>C9+G9</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="64">
+        <f>D9+G9</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="65">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="42"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K9" s="59">
-        <f>C9+G9</f>
+      <c r="K10" s="63">
         <v>1</v>
       </c>
-      <c r="L9" s="60">
-        <f>D9+G9</f>
+      <c r="L10" s="64">
         <v>0</v>
       </c>
-      <c r="M9" s="61">
+      <c r="M10" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="42">
+    <row r="11" spans="1:13">
+      <c r="A11" s="42"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58" t="e">
+      <c r="I11" s="61"/>
+      <c r="J11" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="59">
+      <c r="K11" s="63">
+        <v>0</v>
+      </c>
+      <c r="L11" s="64">
+        <v>0</v>
+      </c>
+      <c r="M11" s="65" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="42"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" s="63">
+        <v>0</v>
+      </c>
+      <c r="L12" s="64">
+        <v>0</v>
+      </c>
+      <c r="M12" s="65" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="61"/>
+      <c r="J13" s="62" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="63">
         <v>1</v>
       </c>
-      <c r="L10" s="60">
+      <c r="L13" s="64">
         <v>0</v>
       </c>
-      <c r="M10" s="61">
+      <c r="M13" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="42">
+    <row r="14" ht="14.25" spans="1:13">
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58" t="e">
+      <c r="I14" s="66"/>
+      <c r="J14" s="67" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="59">
+      <c r="K14" s="68">
         <v>0</v>
       </c>
-      <c r="L11" s="60">
+      <c r="L14" s="69">
         <v>0</v>
       </c>
-      <c r="M11" s="61" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12" s="59">
-        <v>0</v>
-      </c>
-      <c r="L12" s="60">
-        <v>0</v>
-      </c>
-      <c r="M12" s="61" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="57"/>
-      <c r="J13" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K13" s="59">
-        <v>1</v>
-      </c>
-      <c r="L13" s="60">
-        <v>0</v>
-      </c>
-      <c r="M13" s="61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:13">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="63" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K14" s="64">
-        <v>0</v>
-      </c>
-      <c r="L14" s="65">
-        <v>0</v>
-      </c>
-      <c r="M14" s="66" t="e">
+      <c r="M14" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2266,8 +2287,8 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -2278,7 +2299,7 @@
     <col min="5" max="5" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="22" customWidth="1"/>
     <col min="9" max="9" width="9.875" customWidth="1"/>
     <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
@@ -2286,49 +2307,49 @@
   </cols>
   <sheetData>
     <row r="1" s="21" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="23" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2336,7 +2357,7 @@
       <c r="A2" s="8">
         <v>3</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="25">
         <v>43116</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -2354,7 +2375,7 @@
       <c r="G2" s="8">
         <v>76123117</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="26" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="19" t="s">
@@ -2387,10 +2408,10 @@
         <v>38</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2403,7 +2424,7 @@
       <c r="A4" s="8">
         <v>5</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="29">
         <v>43117</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -2421,7 +2442,7 @@
       <c r="G4" s="8">
         <v>76126162</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="28" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="8" t="s">
@@ -2450,7 +2471,7 @@
       <c r="A5" s="8">
         <v>6</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="29">
         <v>43139</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -2468,7 +2489,7 @@
       <c r="G5" s="8">
         <v>76128986</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="28" t="s">
         <v>43</v>
       </c>
       <c r="I5" s="8" t="s">
@@ -2494,21 +2515,51 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="A6" s="30">
+        <v>8</v>
+      </c>
+      <c r="B6" s="31">
+        <v>43155</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="30">
+        <v>76131990</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="8">
+        <v>17625903469</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="30">
+        <v>13873735718</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1"/>
@@ -2518,7 +2569,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -2535,7 +2586,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -2552,7 +2603,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -2569,7 +2620,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2586,7 +2637,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2603,7 +2654,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2620,7 +2671,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2637,7 +2688,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2654,7 +2705,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2671,7 +2722,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2688,7 +2739,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2705,7 +2756,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2722,7 +2773,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2739,7 +2790,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2756,7 +2807,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2773,7 +2824,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2790,7 +2841,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2807,7 +2858,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="28"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2824,7 +2875,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="28"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2841,7 +2892,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="28"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2858,7 +2909,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="28"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2875,7 +2926,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="28"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2892,7 +2943,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="28"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2909,7 +2960,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="28"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2926,7 +2977,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="28"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2943,7 +2994,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="28"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2960,7 +3011,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="H33" s="28"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2977,7 +3028,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="28"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -2994,7 +3045,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="28"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3011,7 +3062,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="28"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -3028,7 +3079,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="H37" s="28"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -3045,7 +3096,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="H38" s="28"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -3062,7 +3113,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="H39" s="28"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -3079,7 +3130,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="H40" s="28"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -3096,7 +3147,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="H41" s="28"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -3113,7 +3164,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="H42" s="28"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -3130,7 +3181,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="H43" s="28"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -3147,7 +3198,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="H44" s="28"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -3164,7 +3215,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="H45" s="28"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3181,7 +3232,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="H46" s="28"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -3198,7 +3249,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="H47" s="28"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -3215,7 +3266,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="H48" s="28"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -3232,7 +3283,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="H49" s="28"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -3249,7 +3300,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="H50" s="28"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -3266,7 +3317,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="H51" s="28"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -3283,7 +3334,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="H52" s="28"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -3300,7 +3351,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="H53" s="28"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -3317,7 +3368,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="H54" s="28"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -3334,7 +3385,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
+      <c r="H55" s="28"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -3351,7 +3402,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="H56" s="28"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -3368,7 +3419,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+      <c r="H57" s="28"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -3385,7 +3436,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+      <c r="H58" s="28"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -3402,7 +3453,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="H59" s="28"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -3419,7 +3470,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
+      <c r="H60" s="28"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -3436,7 +3487,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
+      <c r="H61" s="28"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -3453,7 +3504,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
+      <c r="H62" s="28"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -3470,7 +3521,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="H63" s="28"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -3487,7 +3538,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="H64" s="28"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -3504,7 +3555,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
+      <c r="H65" s="28"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -3521,7 +3572,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
+      <c r="H66" s="28"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -3538,7 +3589,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
+      <c r="H67" s="28"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -3555,7 +3606,7 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
+      <c r="H68" s="28"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -3572,7 +3623,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
+      <c r="H69" s="28"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -3589,7 +3640,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
+      <c r="H70" s="28"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -3606,7 +3657,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
+      <c r="H71" s="28"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -3623,7 +3674,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
+      <c r="H72" s="28"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -3640,7 +3691,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
+      <c r="H73" s="28"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -3657,7 +3708,7 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
+      <c r="H74" s="28"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -3674,7 +3725,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
+      <c r="H75" s="28"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -3691,7 +3742,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
+      <c r="H76" s="28"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -3708,7 +3759,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
+      <c r="H77" s="28"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -3725,7 +3776,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
+      <c r="H78" s="28"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -3742,7 +3793,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
+      <c r="H79" s="28"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -3759,7 +3810,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
+      <c r="H80" s="28"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -3776,7 +3827,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
+      <c r="H81" s="28"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -3793,7 +3844,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
+      <c r="H82" s="28"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -3810,7 +3861,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
+      <c r="H83" s="28"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -3827,7 +3878,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
+      <c r="H84" s="28"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -3844,7 +3895,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
+      <c r="H85" s="28"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -3861,7 +3912,7 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
+      <c r="H86" s="28"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -3878,7 +3929,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
+      <c r="H87" s="28"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -3895,7 +3946,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
+      <c r="H88" s="28"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -3912,7 +3963,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
+      <c r="H89" s="28"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -3929,7 +3980,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
+      <c r="H90" s="28"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -3946,7 +3997,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
+      <c r="H91" s="28"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -3963,7 +4014,7 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
+      <c r="H92" s="28"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -3980,7 +4031,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
+      <c r="H93" s="28"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -3997,7 +4048,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
+      <c r="H94" s="28"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
@@ -4014,7 +4065,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
+      <c r="H95" s="28"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -4031,7 +4082,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
+      <c r="H96" s="28"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -4048,7 +4099,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
+      <c r="H97" s="28"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -4065,7 +4116,7 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
+      <c r="H98" s="28"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -4082,7 +4133,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
+      <c r="H99" s="28"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
@@ -4099,7 +4150,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
+      <c r="H100" s="28"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -4116,7 +4167,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
+      <c r="H101" s="28"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -4133,7 +4184,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
+      <c r="H102" s="28"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -4150,7 +4201,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
+      <c r="H103" s="28"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
@@ -4167,7 +4218,7 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
+      <c r="H104" s="28"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -4184,7 +4235,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
+      <c r="H105" s="28"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -4201,7 +4252,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
+      <c r="H106" s="28"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -4218,7 +4269,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
+      <c r="H107" s="28"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -4235,7 +4286,7 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
+      <c r="H108" s="28"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -4252,7 +4303,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
+      <c r="H109" s="28"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -4269,7 +4320,7 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
+      <c r="H110" s="28"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
@@ -4286,7 +4337,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
+      <c r="H111" s="28"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
@@ -4303,7 +4354,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
+      <c r="H112" s="28"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -4320,7 +4371,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
+      <c r="H113" s="28"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
@@ -4337,7 +4388,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
+      <c r="H114" s="28"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
@@ -4354,7 +4405,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
+      <c r="H115" s="28"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
@@ -4371,7 +4422,7 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
+      <c r="H116" s="28"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -4388,7 +4439,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
+      <c r="H117" s="28"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
@@ -4405,7 +4456,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
+      <c r="H118" s="28"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
@@ -4422,7 +4473,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
+      <c r="H119" s="28"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
@@ -4439,7 +4490,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
+      <c r="H120" s="28"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
@@ -4456,7 +4507,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
+      <c r="H121" s="28"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
@@ -4473,7 +4524,7 @@
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
+      <c r="H122" s="28"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
@@ -4490,7 +4541,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
+      <c r="H123" s="28"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
@@ -4507,7 +4558,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
+      <c r="H124" s="28"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
@@ -4524,7 +4575,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
+      <c r="H125" s="28"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
@@ -4541,7 +4592,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
+      <c r="H126" s="28"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
@@ -4558,7 +4609,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
+      <c r="H127" s="28"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
@@ -4575,7 +4626,7 @@
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
+      <c r="H128" s="28"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
@@ -4592,7 +4643,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
+      <c r="H129" s="28"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
@@ -4609,7 +4660,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
+      <c r="H130" s="28"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
@@ -4626,7 +4677,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
+      <c r="H131" s="28"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
@@ -4643,7 +4694,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
+      <c r="H132" s="28"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
@@ -4660,7 +4711,7 @@
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
+      <c r="H133" s="28"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
@@ -4677,7 +4728,7 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
+      <c r="H134" s="28"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
@@ -4694,7 +4745,7 @@
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
+      <c r="H135" s="28"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
@@ -4711,7 +4762,7 @@
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
+      <c r="H136" s="28"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
@@ -4728,7 +4779,7 @@
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
+      <c r="H137" s="28"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
@@ -4745,7 +4796,7 @@
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
+      <c r="H138" s="28"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
@@ -4762,7 +4813,7 @@
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
+      <c r="H139" s="28"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
@@ -4779,7 +4830,7 @@
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
+      <c r="H140" s="28"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
@@ -4796,7 +4847,7 @@
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
+      <c r="H141" s="28"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
@@ -4813,7 +4864,7 @@
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
+      <c r="H142" s="28"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
@@ -4830,7 +4881,7 @@
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
+      <c r="H143" s="28"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
@@ -4847,7 +4898,7 @@
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
+      <c r="H144" s="28"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
@@ -4864,7 +4915,7 @@
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
+      <c r="H145" s="28"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
@@ -4881,7 +4932,7 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
+      <c r="H146" s="28"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
@@ -4898,7 +4949,7 @@
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
+      <c r="H147" s="28"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
@@ -4915,7 +4966,7 @@
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
+      <c r="H148" s="28"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
@@ -4932,7 +4983,7 @@
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
+      <c r="H149" s="28"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
@@ -4949,7 +5000,7 @@
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
+      <c r="H150" s="28"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
@@ -4966,7 +5017,7 @@
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
+      <c r="H151" s="28"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
@@ -4983,7 +5034,7 @@
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
+      <c r="H152" s="28"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
@@ -5000,7 +5051,7 @@
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
+      <c r="H153" s="28"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
@@ -5017,7 +5068,7 @@
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
-      <c r="H154" s="1"/>
+      <c r="H154" s="28"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
@@ -5034,7 +5085,7 @@
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
+      <c r="H155" s="28"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
@@ -5051,7 +5102,7 @@
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
+      <c r="H156" s="28"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
@@ -5068,7 +5119,7 @@
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
+      <c r="H157" s="28"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
@@ -5085,7 +5136,7 @@
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
+      <c r="H158" s="28"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
@@ -5102,7 +5153,7 @@
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
+      <c r="H159" s="28"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
@@ -5119,7 +5170,7 @@
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
+      <c r="H160" s="28"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
@@ -5136,7 +5187,7 @@
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
+      <c r="H161" s="28"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
@@ -5153,7 +5204,7 @@
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
+      <c r="H162" s="28"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
@@ -5170,7 +5221,7 @@
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
+      <c r="H163" s="28"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
@@ -5187,7 +5238,7 @@
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
+      <c r="H164" s="28"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
@@ -5204,7 +5255,7 @@
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
+      <c r="H165" s="28"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
@@ -5221,7 +5272,7 @@
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
+      <c r="H166" s="28"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
@@ -5238,7 +5289,7 @@
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
+      <c r="H167" s="28"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
@@ -5255,7 +5306,7 @@
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
-      <c r="H168" s="1"/>
+      <c r="H168" s="28"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
@@ -5272,7 +5323,7 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
+      <c r="H169" s="28"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
@@ -5289,7 +5340,7 @@
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
+      <c r="H170" s="28"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
@@ -5306,7 +5357,7 @@
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
+      <c r="H171" s="28"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
@@ -5323,7 +5374,7 @@
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
-      <c r="H172" s="1"/>
+      <c r="H172" s="28"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
@@ -5340,7 +5391,7 @@
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
-      <c r="H173" s="1"/>
+      <c r="H173" s="28"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
@@ -5357,7 +5408,7 @@
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
-      <c r="H174" s="1"/>
+      <c r="H174" s="28"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
@@ -5374,7 +5425,7 @@
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
+      <c r="H175" s="28"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
@@ -5391,7 +5442,7 @@
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
+      <c r="H176" s="28"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
@@ -5408,7 +5459,7 @@
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
+      <c r="H177" s="28"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
@@ -5425,7 +5476,7 @@
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
+      <c r="H178" s="28"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
@@ -5442,7 +5493,7 @@
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
-      <c r="H179" s="1"/>
+      <c r="H179" s="28"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
@@ -5459,7 +5510,7 @@
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
+      <c r="H180" s="28"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
@@ -5476,7 +5527,7 @@
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
+      <c r="H181" s="28"/>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
@@ -5493,7 +5544,7 @@
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
-      <c r="H182" s="1"/>
+      <c r="H182" s="28"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
@@ -5510,7 +5561,7 @@
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
-      <c r="H183" s="1"/>
+      <c r="H183" s="28"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
@@ -5527,7 +5578,7 @@
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
+      <c r="H184" s="28"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
@@ -5544,7 +5595,7 @@
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
-      <c r="H185" s="1"/>
+      <c r="H185" s="28"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
@@ -5561,7 +5612,7 @@
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
+      <c r="H186" s="28"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
@@ -5578,7 +5629,7 @@
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
-      <c r="H187" s="1"/>
+      <c r="H187" s="28"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
@@ -5595,7 +5646,7 @@
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
-      <c r="H188" s="1"/>
+      <c r="H188" s="28"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
@@ -5612,7 +5663,7 @@
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
+      <c r="H189" s="28"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
@@ -5629,7 +5680,7 @@
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
-      <c r="H190" s="1"/>
+      <c r="H190" s="28"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
@@ -5646,7 +5697,7 @@
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
-      <c r="H191" s="1"/>
+      <c r="H191" s="28"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
@@ -5663,7 +5714,7 @@
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
-      <c r="H192" s="1"/>
+      <c r="H192" s="28"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
@@ -5680,7 +5731,7 @@
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
-      <c r="H193" s="1"/>
+      <c r="H193" s="28"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
@@ -5697,7 +5748,7 @@
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
-      <c r="H194" s="1"/>
+      <c r="H194" s="28"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
@@ -5714,7 +5765,7 @@
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
-      <c r="H195" s="1"/>
+      <c r="H195" s="28"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
@@ -5731,7 +5782,7 @@
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
-      <c r="H196" s="1"/>
+      <c r="H196" s="28"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
@@ -5748,7 +5799,7 @@
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
-      <c r="H197" s="1"/>
+      <c r="H197" s="28"/>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
@@ -5765,7 +5816,7 @@
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
-      <c r="H198" s="1"/>
+      <c r="H198" s="28"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
@@ -5782,7 +5833,7 @@
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
-      <c r="H199" s="1"/>
+      <c r="H199" s="28"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
@@ -5799,7 +5850,7 @@
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
-      <c r="H200" s="1"/>
+      <c r="H200" s="28"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
@@ -5816,7 +5867,7 @@
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
-      <c r="H201" s="1"/>
+      <c r="H201" s="28"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
@@ -5833,7 +5884,7 @@
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
-      <c r="H202" s="1"/>
+      <c r="H202" s="28"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
@@ -5850,7 +5901,7 @@
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
-      <c r="H203" s="1"/>
+      <c r="H203" s="28"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
@@ -5867,7 +5918,7 @@
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
-      <c r="H204" s="1"/>
+      <c r="H204" s="28"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
@@ -5884,7 +5935,7 @@
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
-      <c r="H205" s="1"/>
+      <c r="H205" s="28"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
@@ -5901,7 +5952,7 @@
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
-      <c r="H206" s="1"/>
+      <c r="H206" s="28"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
@@ -5918,7 +5969,7 @@
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
-      <c r="H207" s="1"/>
+      <c r="H207" s="28"/>
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
@@ -5935,7 +5986,7 @@
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
-      <c r="H208" s="1"/>
+      <c r="H208" s="28"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
@@ -5952,7 +6003,7 @@
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
-      <c r="H209" s="1"/>
+      <c r="H209" s="28"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
@@ -5969,7 +6020,7 @@
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
-      <c r="H210" s="1"/>
+      <c r="H210" s="28"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
@@ -5986,7 +6037,7 @@
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
-      <c r="H211" s="1"/>
+      <c r="H211" s="28"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
@@ -6003,7 +6054,7 @@
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
-      <c r="H212" s="1"/>
+      <c r="H212" s="28"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
@@ -6020,7 +6071,7 @@
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
-      <c r="H213" s="1"/>
+      <c r="H213" s="28"/>
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
@@ -6037,7 +6088,7 @@
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
-      <c r="H214" s="1"/>
+      <c r="H214" s="28"/>
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
@@ -6054,7 +6105,7 @@
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
-      <c r="H215" s="1"/>
+      <c r="H215" s="28"/>
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
@@ -6071,7 +6122,7 @@
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
-      <c r="H216" s="1"/>
+      <c r="H216" s="28"/>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
@@ -6088,7 +6139,7 @@
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
-      <c r="H217" s="1"/>
+      <c r="H217" s="28"/>
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
@@ -6105,7 +6156,7 @@
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
-      <c r="H218" s="1"/>
+      <c r="H218" s="28"/>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
@@ -6122,7 +6173,7 @@
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
-      <c r="H219" s="1"/>
+      <c r="H219" s="28"/>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
@@ -6139,7 +6190,7 @@
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
-      <c r="H220" s="1"/>
+      <c r="H220" s="28"/>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
@@ -6156,7 +6207,7 @@
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
-      <c r="H221" s="1"/>
+      <c r="H221" s="28"/>
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
@@ -6173,7 +6224,7 @@
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
-      <c r="H222" s="1"/>
+      <c r="H222" s="28"/>
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
@@ -6190,7 +6241,7 @@
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
-      <c r="H223" s="1"/>
+      <c r="H223" s="28"/>
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
@@ -6207,7 +6258,7 @@
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
-      <c r="H224" s="1"/>
+      <c r="H224" s="28"/>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
@@ -6224,7 +6275,7 @@
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
-      <c r="H225" s="1"/>
+      <c r="H225" s="28"/>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
@@ -6241,7 +6292,7 @@
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
-      <c r="H226" s="1"/>
+      <c r="H226" s="28"/>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
@@ -6258,7 +6309,7 @@
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
-      <c r="H227" s="1"/>
+      <c r="H227" s="28"/>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
@@ -6275,7 +6326,7 @@
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
-      <c r="H228" s="1"/>
+      <c r="H228" s="28"/>
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
@@ -6292,7 +6343,7 @@
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
-      <c r="H229" s="1"/>
+      <c r="H229" s="28"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
@@ -6309,7 +6360,7 @@
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
-      <c r="H230" s="1"/>
+      <c r="H230" s="28"/>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
@@ -6326,7 +6377,7 @@
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
-      <c r="H231" s="1"/>
+      <c r="H231" s="28"/>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
@@ -6343,7 +6394,7 @@
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
-      <c r="H232" s="1"/>
+      <c r="H232" s="28"/>
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
@@ -6360,7 +6411,7 @@
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
-      <c r="H233" s="1"/>
+      <c r="H233" s="28"/>
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
@@ -6377,7 +6428,7 @@
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
-      <c r="H234" s="1"/>
+      <c r="H234" s="28"/>
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
@@ -6394,7 +6445,7 @@
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
-      <c r="H235" s="1"/>
+      <c r="H235" s="28"/>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
@@ -6411,7 +6462,7 @@
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
-      <c r="H236" s="1"/>
+      <c r="H236" s="28"/>
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
@@ -6428,7 +6479,7 @@
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
-      <c r="H237" s="1"/>
+      <c r="H237" s="28"/>
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
@@ -6445,7 +6496,7 @@
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
-      <c r="H238" s="1"/>
+      <c r="H238" s="28"/>
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
@@ -6462,7 +6513,7 @@
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
-      <c r="H239" s="1"/>
+      <c r="H239" s="28"/>
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
@@ -6479,7 +6530,7 @@
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
-      <c r="H240" s="1"/>
+      <c r="H240" s="28"/>
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
@@ -6496,7 +6547,7 @@
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
-      <c r="H241" s="1"/>
+      <c r="H241" s="28"/>
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
@@ -6513,7 +6564,7 @@
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
-      <c r="H242" s="1"/>
+      <c r="H242" s="28"/>
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
@@ -6530,7 +6581,7 @@
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
-      <c r="H243" s="1"/>
+      <c r="H243" s="28"/>
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
       <c r="K243" s="1"/>
@@ -6547,7 +6598,7 @@
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
-      <c r="H244" s="1"/>
+      <c r="H244" s="28"/>
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
@@ -6564,7 +6615,7 @@
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
-      <c r="H245" s="1"/>
+      <c r="H245" s="28"/>
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
@@ -6581,7 +6632,7 @@
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
-      <c r="H246" s="1"/>
+      <c r="H246" s="28"/>
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
@@ -6598,7 +6649,7 @@
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
-      <c r="H247" s="1"/>
+      <c r="H247" s="28"/>
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
@@ -6615,7 +6666,7 @@
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
-      <c r="H248" s="1"/>
+      <c r="H248" s="28"/>
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
@@ -6632,7 +6683,7 @@
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
-      <c r="H249" s="1"/>
+      <c r="H249" s="28"/>
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
@@ -6649,7 +6700,7 @@
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
-      <c r="H250" s="1"/>
+      <c r="H250" s="28"/>
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
       <c r="K250" s="1"/>
@@ -6666,7 +6717,7 @@
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
-      <c r="H251" s="1"/>
+      <c r="H251" s="28"/>
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
@@ -6683,7 +6734,7 @@
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
-      <c r="H252" s="1"/>
+      <c r="H252" s="28"/>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
@@ -6700,7 +6751,7 @@
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
-      <c r="H253" s="1"/>
+      <c r="H253" s="28"/>
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
@@ -6717,7 +6768,7 @@
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
-      <c r="H254" s="1"/>
+      <c r="H254" s="28"/>
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
@@ -6734,7 +6785,7 @@
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
-      <c r="H255" s="1"/>
+      <c r="H255" s="28"/>
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
@@ -6751,7 +6802,7 @@
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
-      <c r="H256" s="1"/>
+      <c r="H256" s="28"/>
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
@@ -6768,7 +6819,7 @@
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
-      <c r="H257" s="1"/>
+      <c r="H257" s="28"/>
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
@@ -6785,7 +6836,7 @@
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
-      <c r="H258" s="1"/>
+      <c r="H258" s="28"/>
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
       <c r="K258" s="1"/>
@@ -6802,7 +6853,7 @@
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
-      <c r="H259" s="1"/>
+      <c r="H259" s="28"/>
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
       <c r="K259" s="1"/>
@@ -6819,7 +6870,7 @@
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
-      <c r="H260" s="1"/>
+      <c r="H260" s="28"/>
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
       <c r="K260" s="1"/>
@@ -6836,7 +6887,7 @@
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
-      <c r="H261" s="1"/>
+      <c r="H261" s="28"/>
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
@@ -6853,7 +6904,7 @@
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
-      <c r="H262" s="1"/>
+      <c r="H262" s="28"/>
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
@@ -6870,7 +6921,7 @@
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
-      <c r="H263" s="1"/>
+      <c r="H263" s="28"/>
       <c r="I263" s="1"/>
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
@@ -6887,7 +6938,7 @@
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
-      <c r="H264" s="1"/>
+      <c r="H264" s="28"/>
       <c r="I264" s="1"/>
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
@@ -6904,7 +6955,7 @@
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
-      <c r="H265" s="1"/>
+      <c r="H265" s="28"/>
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
@@ -6921,7 +6972,7 @@
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
-      <c r="H266" s="1"/>
+      <c r="H266" s="28"/>
       <c r="I266" s="1"/>
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
@@ -6938,7 +6989,7 @@
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
-      <c r="H267" s="1"/>
+      <c r="H267" s="28"/>
       <c r="I267" s="1"/>
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
@@ -6955,7 +7006,7 @@
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
-      <c r="H268" s="1"/>
+      <c r="H268" s="28"/>
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
@@ -6972,7 +7023,7 @@
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
-      <c r="H269" s="1"/>
+      <c r="H269" s="28"/>
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
@@ -6989,7 +7040,7 @@
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
-      <c r="H270" s="1"/>
+      <c r="H270" s="28"/>
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
       <c r="K270" s="1"/>
@@ -7006,7 +7057,7 @@
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
-      <c r="H271" s="1"/>
+      <c r="H271" s="28"/>
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
       <c r="K271" s="1"/>
@@ -7023,7 +7074,7 @@
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
-      <c r="H272" s="1"/>
+      <c r="H272" s="28"/>
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
       <c r="K272" s="1"/>
@@ -7040,7 +7091,7 @@
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
-      <c r="H273" s="1"/>
+      <c r="H273" s="28"/>
       <c r="I273" s="1"/>
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
@@ -7057,7 +7108,7 @@
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
-      <c r="H274" s="1"/>
+      <c r="H274" s="28"/>
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
@@ -7074,7 +7125,7 @@
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
-      <c r="H275" s="1"/>
+      <c r="H275" s="28"/>
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
@@ -7091,7 +7142,7 @@
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
-      <c r="H276" s="1"/>
+      <c r="H276" s="28"/>
       <c r="I276" s="1"/>
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
@@ -7108,7 +7159,7 @@
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
-      <c r="H277" s="1"/>
+      <c r="H277" s="28"/>
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
@@ -7125,7 +7176,7 @@
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
-      <c r="H278" s="1"/>
+      <c r="H278" s="28"/>
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
       <c r="K278" s="1"/>
@@ -7142,7 +7193,7 @@
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
-      <c r="H279" s="1"/>
+      <c r="H279" s="28"/>
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
@@ -7159,7 +7210,7 @@
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
-      <c r="H280" s="1"/>
+      <c r="H280" s="28"/>
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
@@ -7176,7 +7227,7 @@
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
-      <c r="H281" s="1"/>
+      <c r="H281" s="28"/>
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
@@ -7193,7 +7244,7 @@
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
-      <c r="H282" s="1"/>
+      <c r="H282" s="28"/>
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
@@ -7210,7 +7261,7 @@
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
-      <c r="H283" s="1"/>
+      <c r="H283" s="28"/>
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
@@ -7227,7 +7278,7 @@
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
-      <c r="H284" s="1"/>
+      <c r="H284" s="28"/>
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
       <c r="K284" s="1"/>
@@ -7244,7 +7295,7 @@
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
-      <c r="H285" s="1"/>
+      <c r="H285" s="28"/>
       <c r="I285" s="1"/>
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
@@ -7261,7 +7312,7 @@
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
-      <c r="H286" s="1"/>
+      <c r="H286" s="28"/>
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
@@ -7278,7 +7329,7 @@
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
-      <c r="H287" s="1"/>
+      <c r="H287" s="28"/>
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
       <c r="K287" s="1"/>
@@ -7295,7 +7346,7 @@
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
-      <c r="H288" s="1"/>
+      <c r="H288" s="28"/>
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
       <c r="K288" s="1"/>
@@ -7312,7 +7363,7 @@
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
-      <c r="H289" s="1"/>
+      <c r="H289" s="28"/>
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
@@ -7329,7 +7380,7 @@
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
-      <c r="H290" s="1"/>
+      <c r="H290" s="28"/>
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
@@ -7346,7 +7397,7 @@
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
-      <c r="H291" s="1"/>
+      <c r="H291" s="28"/>
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
       <c r="K291" s="1"/>
@@ -7363,7 +7414,7 @@
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
-      <c r="H292" s="1"/>
+      <c r="H292" s="28"/>
       <c r="I292" s="1"/>
       <c r="J292" s="1"/>
       <c r="K292" s="1"/>
@@ -7380,7 +7431,7 @@
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
-      <c r="H293" s="1"/>
+      <c r="H293" s="28"/>
       <c r="I293" s="1"/>
       <c r="J293" s="1"/>
       <c r="K293" s="1"/>
@@ -7397,7 +7448,7 @@
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
-      <c r="H294" s="1"/>
+      <c r="H294" s="28"/>
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
       <c r="K294" s="1"/>
@@ -7414,7 +7465,7 @@
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
-      <c r="H295" s="1"/>
+      <c r="H295" s="28"/>
       <c r="I295" s="1"/>
       <c r="J295" s="1"/>
       <c r="K295" s="1"/>
@@ -7431,7 +7482,7 @@
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
-      <c r="H296" s="1"/>
+      <c r="H296" s="28"/>
       <c r="I296" s="1"/>
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
@@ -7448,7 +7499,7 @@
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
-      <c r="H297" s="1"/>
+      <c r="H297" s="28"/>
       <c r="I297" s="1"/>
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
@@ -7465,7 +7516,7 @@
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
-      <c r="H298" s="1"/>
+      <c r="H298" s="28"/>
       <c r="I298" s="1"/>
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
@@ -7482,7 +7533,7 @@
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
-      <c r="H299" s="1"/>
+      <c r="H299" s="28"/>
       <c r="I299" s="1"/>
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
@@ -7499,7 +7550,7 @@
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
-      <c r="H300" s="1"/>
+      <c r="H300" s="28"/>
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
       <c r="K300" s="1"/>
@@ -7534,8 +7585,8 @@
   <sheetPr/>
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -7557,19 +7608,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7577,22 +7628,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C2" s="16">
         <v>43102</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7606,16 +7657,16 @@
         <v>43110</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7629,16 +7680,16 @@
         <v>43126</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7646,22 +7697,22 @@
         <v>6</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C5" s="16">
         <v>43133</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7669,22 +7720,22 @@
         <v>8</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C6" s="16">
         <v>43102</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:7">
@@ -7692,22 +7743,22 @@
         <v>8</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C7" s="16">
         <v>43133</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8496,13 +8547,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/周数据/《个人上线率统计表》-徐沛华.xlsx
+++ b/周数据/《个人上线率统计表》-徐沛华.xlsx
@@ -240,7 +240,7 @@
     <t>下周一老板上班再联系</t>
   </si>
   <si>
-    <t>销售说老系统升级可以用了，暂时不安装。</t>
+    <t>销售同事说老系统升级可以用了，暂时不安装。</t>
   </si>
   <si>
     <t>姓名</t>
@@ -257,10 +257,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="31">
@@ -340,21 +340,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -362,7 +347,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,9 +369,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -405,17 +414,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,41 +460,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -476,10 +476,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -546,72 +546,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -624,7 +558,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,73 +696,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,7 +708,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,6 +1031,47 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1046,17 +1087,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1078,56 +1128,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1136,10 +1136,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1148,137 +1148,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1345,9 +1345,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1361,20 +1358,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1825,447 +1816,447 @@
     <col min="7" max="7" width="15.5" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="30" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="55"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="M2" s="57" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="42">
+      <c r="A3" s="39">
         <v>1</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="40">
         <v>1</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="41">
         <v>1</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45">
+      <c r="D3" s="42"/>
+      <c r="E3" s="42">
         <f>C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="46">
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="43">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62" t="e">
+      <c r="I3" s="58"/>
+      <c r="J3" s="59" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="63">
+      <c r="K3" s="60">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="64">
+      <c r="L3" s="61">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="65">
+      <c r="M3" s="62">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40">
         <v>2</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="41">
         <v>1</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45">
+      <c r="D4" s="42"/>
+      <c r="E4" s="42">
         <v>1</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="46">
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="43">
         <f t="shared" ref="H4:H14" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="62" t="e">
+      <c r="I4" s="58"/>
+      <c r="J4" s="59" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="60">
         <v>1</v>
       </c>
-      <c r="L4" s="64">
+      <c r="L4" s="61">
         <v>0</v>
       </c>
-      <c r="M4" s="65">
+      <c r="M4" s="62">
         <f t="shared" ref="M4:M14" si="1">L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40">
         <v>3</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="41">
         <v>0</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42">
         <v>0</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="46">
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="61"/>
-      <c r="J5" s="62" t="e">
+      <c r="I5" s="58"/>
+      <c r="J5" s="59" t="e">
         <f t="shared" ref="J5:J14" si="2">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="63">
+      <c r="K5" s="60">
         <v>0</v>
       </c>
-      <c r="L5" s="64">
+      <c r="L5" s="61">
         <v>0</v>
       </c>
-      <c r="M5" s="65" t="e">
+      <c r="M5" s="62" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43">
+      <c r="A6" s="39"/>
+      <c r="B6" s="40">
         <v>4</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="41">
         <v>0</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45">
+      <c r="D6" s="42"/>
+      <c r="E6" s="42">
         <v>0</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="46">
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="62" t="e">
+      <c r="I6" s="58"/>
+      <c r="J6" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="63">
+      <c r="K6" s="60">
         <v>0</v>
       </c>
-      <c r="L6" s="64">
+      <c r="L6" s="61">
         <v>0</v>
       </c>
-      <c r="M6" s="65" t="e">
+      <c r="M6" s="62" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40">
         <v>5</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="41">
         <v>1</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45">
+      <c r="D7" s="42"/>
+      <c r="E7" s="42">
         <v>1</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="46">
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62" t="e">
+      <c r="I7" s="58"/>
+      <c r="J7" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="63">
+      <c r="K7" s="60">
         <v>1</v>
       </c>
-      <c r="L7" s="64">
+      <c r="L7" s="61">
         <v>0</v>
       </c>
-      <c r="M7" s="65">
+      <c r="M7" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="52">
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67" t="e">
+      <c r="I8" s="63"/>
+      <c r="J8" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="68">
+      <c r="K8" s="65">
         <v>0</v>
       </c>
-      <c r="L8" s="69">
+      <c r="L8" s="66">
         <v>0</v>
       </c>
-      <c r="M8" s="70" t="e">
+      <c r="M8" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="42">
+      <c r="A9" s="39">
         <v>2</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="40">
         <v>8</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="41">
         <v>1</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="42">
         <v>1</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="46">
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="61"/>
-      <c r="J9" s="62">
+      <c r="I9" s="58"/>
+      <c r="J9" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="63">
+      <c r="K9" s="60">
         <f>C9+G9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="64">
+      <c r="L9" s="61">
         <f>D9+G9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="65">
+      <c r="M9" s="62">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="46">
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62" t="e">
+      <c r="I10" s="58"/>
+      <c r="J10" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="63">
+      <c r="K10" s="60">
         <v>1</v>
       </c>
-      <c r="L10" s="64">
+      <c r="L10" s="61">
         <v>0</v>
       </c>
-      <c r="M10" s="65">
+      <c r="M10" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="42"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="46">
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="61"/>
-      <c r="J11" s="62" t="e">
+      <c r="I11" s="58"/>
+      <c r="J11" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="63">
+      <c r="K11" s="60">
         <v>0</v>
       </c>
-      <c r="L11" s="64">
+      <c r="L11" s="61">
         <v>0</v>
       </c>
-      <c r="M11" s="65" t="e">
+      <c r="M11" s="62" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="46">
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62" t="e">
+      <c r="I12" s="58"/>
+      <c r="J12" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="63">
+      <c r="K12" s="60">
         <v>0</v>
       </c>
-      <c r="L12" s="64">
+      <c r="L12" s="61">
         <v>0</v>
       </c>
-      <c r="M12" s="65" t="e">
+      <c r="M12" s="62" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="46">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="61"/>
-      <c r="J13" s="62" t="e">
+      <c r="I13" s="58"/>
+      <c r="J13" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="63">
+      <c r="K13" s="60">
         <v>1</v>
       </c>
-      <c r="L13" s="64">
+      <c r="L13" s="61">
         <v>0</v>
       </c>
-      <c r="M13" s="65">
+      <c r="M13" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:13">
-      <c r="A14" s="48"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="52">
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="66"/>
-      <c r="J14" s="67" t="e">
+      <c r="I14" s="63"/>
+      <c r="J14" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="68">
+      <c r="K14" s="65">
         <v>0</v>
       </c>
-      <c r="L14" s="69">
+      <c r="L14" s="66">
         <v>0</v>
       </c>
-      <c r="M14" s="70" t="e">
+      <c r="M14" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2288,7 +2279,7 @@
   <dimension ref="A1:O300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -2299,7 +2290,7 @@
     <col min="5" max="5" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="9" customWidth="1"/>
     <col min="9" max="9" width="9.875" customWidth="1"/>
     <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
@@ -2307,49 +2298,49 @@
   </cols>
   <sheetData>
     <row r="1" s="21" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="22" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2357,7 +2348,7 @@
       <c r="A2" s="8">
         <v>3</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="24">
         <v>43116</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -2375,7 +2366,7 @@
       <c r="G2" s="8">
         <v>76123117</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="25" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="19" t="s">
@@ -2408,10 +2399,10 @@
         <v>38</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="27"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="H3" s="28"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2424,7 +2415,7 @@
       <c r="A4" s="8">
         <v>5</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="27">
         <v>43117</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -2442,7 +2433,7 @@
       <c r="G4" s="8">
         <v>76126162</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="8" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="8" t="s">
@@ -2471,7 +2462,7 @@
       <c r="A5" s="8">
         <v>6</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="27">
         <v>43139</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -2489,7 +2480,7 @@
       <c r="G5" s="8">
         <v>76128986</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="8" t="s">
         <v>43</v>
       </c>
       <c r="I5" s="8" t="s">
@@ -2515,31 +2506,31 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="30">
-        <v>8</v>
-      </c>
-      <c r="B6" s="31">
+      <c r="A6" s="8">
+        <v>9</v>
+      </c>
+      <c r="B6" s="27">
         <v>43155</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="8">
         <v>76131990</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="8" t="s">
         <v>32</v>
       </c>
       <c r="J6" s="8" t="s">
@@ -2548,16 +2539,16 @@
       <c r="K6" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="30" t="s">
+      <c r="M6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N6" s="8">
         <v>13873735718</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="29" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2569,7 +2560,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="28"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -2586,7 +2577,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="28"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -2603,7 +2594,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="28"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -2620,7 +2611,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="28"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2637,7 +2628,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="28"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2654,7 +2645,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="28"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2671,7 +2662,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="28"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2688,7 +2679,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="28"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2705,7 +2696,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="28"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2722,7 +2713,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="28"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2739,7 +2730,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="28"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2756,7 +2747,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="28"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2773,7 +2764,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="28"/>
+      <c r="H19" s="8"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2790,7 +2781,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="28"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2807,7 +2798,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="28"/>
+      <c r="H21" s="8"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2824,7 +2815,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="28"/>
+      <c r="H22" s="8"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2841,7 +2832,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="28"/>
+      <c r="H23" s="8"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2858,7 +2849,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="28"/>
+      <c r="H24" s="8"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2875,7 +2866,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="28"/>
+      <c r="H25" s="8"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2892,7 +2883,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="28"/>
+      <c r="H26" s="8"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2909,7 +2900,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="28"/>
+      <c r="H27" s="8"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2926,7 +2917,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="28"/>
+      <c r="H28" s="8"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2943,7 +2934,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="28"/>
+      <c r="H29" s="8"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2960,7 +2951,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="28"/>
+      <c r="H30" s="8"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2977,7 +2968,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="28"/>
+      <c r="H31" s="8"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2994,7 +2985,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="28"/>
+      <c r="H32" s="8"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -3011,7 +3002,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="28"/>
+      <c r="H33" s="8"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -3028,7 +3019,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="28"/>
+      <c r="H34" s="8"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -3045,7 +3036,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="28"/>
+      <c r="H35" s="8"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3062,7 +3053,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="28"/>
+      <c r="H36" s="8"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -3079,7 +3070,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="28"/>
+      <c r="H37" s="8"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -3096,7 +3087,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="28"/>
+      <c r="H38" s="8"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -3113,7 +3104,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="28"/>
+      <c r="H39" s="8"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -3130,7 +3121,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="28"/>
+      <c r="H40" s="8"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -3147,7 +3138,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="28"/>
+      <c r="H41" s="8"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -3164,7 +3155,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="28"/>
+      <c r="H42" s="8"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -3181,7 +3172,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="28"/>
+      <c r="H43" s="8"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -3198,7 +3189,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="28"/>
+      <c r="H44" s="8"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -3215,7 +3206,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="28"/>
+      <c r="H45" s="8"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3232,7 +3223,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="28"/>
+      <c r="H46" s="8"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -3249,7 +3240,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="28"/>
+      <c r="H47" s="8"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -3266,7 +3257,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="28"/>
+      <c r="H48" s="8"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -3283,7 +3274,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="28"/>
+      <c r="H49" s="8"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -3300,7 +3291,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="28"/>
+      <c r="H50" s="8"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -3317,7 +3308,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="28"/>
+      <c r="H51" s="8"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -3334,7 +3325,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="28"/>
+      <c r="H52" s="8"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -3351,7 +3342,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="28"/>
+      <c r="H53" s="8"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -3368,7 +3359,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="28"/>
+      <c r="H54" s="8"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -3385,7 +3376,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="28"/>
+      <c r="H55" s="8"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -3402,7 +3393,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="28"/>
+      <c r="H56" s="8"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -3419,7 +3410,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="28"/>
+      <c r="H57" s="8"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -3436,7 +3427,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="28"/>
+      <c r="H58" s="8"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -3453,7 +3444,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="28"/>
+      <c r="H59" s="8"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -3470,7 +3461,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="28"/>
+      <c r="H60" s="8"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -3487,7 +3478,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="28"/>
+      <c r="H61" s="8"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -3504,7 +3495,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="28"/>
+      <c r="H62" s="8"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -3521,7 +3512,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="28"/>
+      <c r="H63" s="8"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -3538,7 +3529,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="28"/>
+      <c r="H64" s="8"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -3555,7 +3546,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="28"/>
+      <c r="H65" s="8"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -3572,7 +3563,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="28"/>
+      <c r="H66" s="8"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -3589,7 +3580,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="28"/>
+      <c r="H67" s="8"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -3606,7 +3597,7 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="28"/>
+      <c r="H68" s="8"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -3623,7 +3614,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="28"/>
+      <c r="H69" s="8"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -3640,7 +3631,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="28"/>
+      <c r="H70" s="8"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -3657,7 +3648,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="28"/>
+      <c r="H71" s="8"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -3674,7 +3665,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="28"/>
+      <c r="H72" s="8"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -3691,7 +3682,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="28"/>
+      <c r="H73" s="8"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -3708,7 +3699,7 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="28"/>
+      <c r="H74" s="8"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -3725,7 +3716,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="28"/>
+      <c r="H75" s="8"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -3742,7 +3733,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="28"/>
+      <c r="H76" s="8"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -3759,7 +3750,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="28"/>
+      <c r="H77" s="8"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -3776,7 +3767,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="28"/>
+      <c r="H78" s="8"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -3793,7 +3784,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="28"/>
+      <c r="H79" s="8"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -3810,7 +3801,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="28"/>
+      <c r="H80" s="8"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -3827,7 +3818,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="28"/>
+      <c r="H81" s="8"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -3844,7 +3835,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="28"/>
+      <c r="H82" s="8"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -3861,7 +3852,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="28"/>
+      <c r="H83" s="8"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -3878,7 +3869,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="28"/>
+      <c r="H84" s="8"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -3895,7 +3886,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="H85" s="28"/>
+      <c r="H85" s="8"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -3912,7 +3903,7 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-      <c r="H86" s="28"/>
+      <c r="H86" s="8"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -3929,7 +3920,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="H87" s="28"/>
+      <c r="H87" s="8"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -3946,7 +3937,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-      <c r="H88" s="28"/>
+      <c r="H88" s="8"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -3963,7 +3954,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="28"/>
+      <c r="H89" s="8"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -3980,7 +3971,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="28"/>
+      <c r="H90" s="8"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -3997,7 +3988,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="28"/>
+      <c r="H91" s="8"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -4014,7 +4005,7 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="28"/>
+      <c r="H92" s="8"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -4031,7 +4022,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="28"/>
+      <c r="H93" s="8"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -4048,7 +4039,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="H94" s="28"/>
+      <c r="H94" s="8"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
@@ -4065,7 +4056,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="28"/>
+      <c r="H95" s="8"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -4082,7 +4073,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="28"/>
+      <c r="H96" s="8"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -4099,7 +4090,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="H97" s="28"/>
+      <c r="H97" s="8"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -4116,7 +4107,7 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="H98" s="28"/>
+      <c r="H98" s="8"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -4133,7 +4124,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="28"/>
+      <c r="H99" s="8"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
@@ -4150,7 +4141,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="28"/>
+      <c r="H100" s="8"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -4167,7 +4158,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-      <c r="H101" s="28"/>
+      <c r="H101" s="8"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -4184,7 +4175,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-      <c r="H102" s="28"/>
+      <c r="H102" s="8"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -4201,7 +4192,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
-      <c r="H103" s="28"/>
+      <c r="H103" s="8"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
@@ -4218,7 +4209,7 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
-      <c r="H104" s="28"/>
+      <c r="H104" s="8"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -4235,7 +4226,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
-      <c r="H105" s="28"/>
+      <c r="H105" s="8"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -4252,7 +4243,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
-      <c r="H106" s="28"/>
+      <c r="H106" s="8"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -4269,7 +4260,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
-      <c r="H107" s="28"/>
+      <c r="H107" s="8"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -4286,7 +4277,7 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
-      <c r="H108" s="28"/>
+      <c r="H108" s="8"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -4303,7 +4294,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
-      <c r="H109" s="28"/>
+      <c r="H109" s="8"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -4320,7 +4311,7 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
-      <c r="H110" s="28"/>
+      <c r="H110" s="8"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
@@ -4337,7 +4328,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
-      <c r="H111" s="28"/>
+      <c r="H111" s="8"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
@@ -4354,7 +4345,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
-      <c r="H112" s="28"/>
+      <c r="H112" s="8"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -4371,7 +4362,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
-      <c r="H113" s="28"/>
+      <c r="H113" s="8"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
@@ -4388,7 +4379,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
-      <c r="H114" s="28"/>
+      <c r="H114" s="8"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
@@ -4405,7 +4396,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
-      <c r="H115" s="28"/>
+      <c r="H115" s="8"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
@@ -4422,7 +4413,7 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
-      <c r="H116" s="28"/>
+      <c r="H116" s="8"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -4439,7 +4430,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
-      <c r="H117" s="28"/>
+      <c r="H117" s="8"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
@@ -4456,7 +4447,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
-      <c r="H118" s="28"/>
+      <c r="H118" s="8"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
@@ -4473,7 +4464,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
-      <c r="H119" s="28"/>
+      <c r="H119" s="8"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
@@ -4490,7 +4481,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
-      <c r="H120" s="28"/>
+      <c r="H120" s="8"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
@@ -4507,7 +4498,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
-      <c r="H121" s="28"/>
+      <c r="H121" s="8"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
@@ -4524,7 +4515,7 @@
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
-      <c r="H122" s="28"/>
+      <c r="H122" s="8"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
@@ -4541,7 +4532,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
-      <c r="H123" s="28"/>
+      <c r="H123" s="8"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
@@ -4558,7 +4549,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
-      <c r="H124" s="28"/>
+      <c r="H124" s="8"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
@@ -4575,7 +4566,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
-      <c r="H125" s="28"/>
+      <c r="H125" s="8"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
@@ -4592,7 +4583,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
-      <c r="H126" s="28"/>
+      <c r="H126" s="8"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
@@ -4609,7 +4600,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
-      <c r="H127" s="28"/>
+      <c r="H127" s="8"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
@@ -4626,7 +4617,7 @@
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
-      <c r="H128" s="28"/>
+      <c r="H128" s="8"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
@@ -4643,7 +4634,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
-      <c r="H129" s="28"/>
+      <c r="H129" s="8"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
@@ -4660,7 +4651,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
-      <c r="H130" s="28"/>
+      <c r="H130" s="8"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
@@ -4677,7 +4668,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
-      <c r="H131" s="28"/>
+      <c r="H131" s="8"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
@@ -4694,7 +4685,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
-      <c r="H132" s="28"/>
+      <c r="H132" s="8"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
@@ -4711,7 +4702,7 @@
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
-      <c r="H133" s="28"/>
+      <c r="H133" s="8"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
@@ -4728,7 +4719,7 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
-      <c r="H134" s="28"/>
+      <c r="H134" s="8"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
@@ -4745,7 +4736,7 @@
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
-      <c r="H135" s="28"/>
+      <c r="H135" s="8"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
@@ -4762,7 +4753,7 @@
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
-      <c r="H136" s="28"/>
+      <c r="H136" s="8"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
@@ -4779,7 +4770,7 @@
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
-      <c r="H137" s="28"/>
+      <c r="H137" s="8"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
@@ -4796,7 +4787,7 @@
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
-      <c r="H138" s="28"/>
+      <c r="H138" s="8"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
@@ -4813,7 +4804,7 @@
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
-      <c r="H139" s="28"/>
+      <c r="H139" s="8"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
@@ -4830,7 +4821,7 @@
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
-      <c r="H140" s="28"/>
+      <c r="H140" s="8"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
@@ -4847,7 +4838,7 @@
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
-      <c r="H141" s="28"/>
+      <c r="H141" s="8"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
@@ -4864,7 +4855,7 @@
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
-      <c r="H142" s="28"/>
+      <c r="H142" s="8"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
@@ -4881,7 +4872,7 @@
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
-      <c r="H143" s="28"/>
+      <c r="H143" s="8"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
@@ -4898,7 +4889,7 @@
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
-      <c r="H144" s="28"/>
+      <c r="H144" s="8"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
@@ -4915,7 +4906,7 @@
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
-      <c r="H145" s="28"/>
+      <c r="H145" s="8"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
@@ -4932,7 +4923,7 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
-      <c r="H146" s="28"/>
+      <c r="H146" s="8"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
@@ -4949,7 +4940,7 @@
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
-      <c r="H147" s="28"/>
+      <c r="H147" s="8"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
@@ -4966,7 +4957,7 @@
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
-      <c r="H148" s="28"/>
+      <c r="H148" s="8"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
@@ -4983,7 +4974,7 @@
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
-      <c r="H149" s="28"/>
+      <c r="H149" s="8"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
@@ -5000,7 +4991,7 @@
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
-      <c r="H150" s="28"/>
+      <c r="H150" s="8"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
@@ -5017,7 +5008,7 @@
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
-      <c r="H151" s="28"/>
+      <c r="H151" s="8"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
@@ -5034,7 +5025,7 @@
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
-      <c r="H152" s="28"/>
+      <c r="H152" s="8"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
@@ -5051,7 +5042,7 @@
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
-      <c r="H153" s="28"/>
+      <c r="H153" s="8"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
@@ -5068,7 +5059,7 @@
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
-      <c r="H154" s="28"/>
+      <c r="H154" s="8"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
@@ -5085,7 +5076,7 @@
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
-      <c r="H155" s="28"/>
+      <c r="H155" s="8"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
@@ -5102,7 +5093,7 @@
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
-      <c r="H156" s="28"/>
+      <c r="H156" s="8"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
@@ -5119,7 +5110,7 @@
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
-      <c r="H157" s="28"/>
+      <c r="H157" s="8"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
@@ -5136,7 +5127,7 @@
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
-      <c r="H158" s="28"/>
+      <c r="H158" s="8"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
@@ -5153,7 +5144,7 @@
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
-      <c r="H159" s="28"/>
+      <c r="H159" s="8"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
@@ -5170,7 +5161,7 @@
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
-      <c r="H160" s="28"/>
+      <c r="H160" s="8"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
@@ -5187,7 +5178,7 @@
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
-      <c r="H161" s="28"/>
+      <c r="H161" s="8"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
@@ -5204,7 +5195,7 @@
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
-      <c r="H162" s="28"/>
+      <c r="H162" s="8"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
@@ -5221,7 +5212,7 @@
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
-      <c r="H163" s="28"/>
+      <c r="H163" s="8"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
@@ -5238,7 +5229,7 @@
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
-      <c r="H164" s="28"/>
+      <c r="H164" s="8"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
@@ -5255,7 +5246,7 @@
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
-      <c r="H165" s="28"/>
+      <c r="H165" s="8"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
@@ -5272,7 +5263,7 @@
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
-      <c r="H166" s="28"/>
+      <c r="H166" s="8"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
@@ -5289,7 +5280,7 @@
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
-      <c r="H167" s="28"/>
+      <c r="H167" s="8"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
@@ -5306,7 +5297,7 @@
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
-      <c r="H168" s="28"/>
+      <c r="H168" s="8"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
@@ -5323,7 +5314,7 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
-      <c r="H169" s="28"/>
+      <c r="H169" s="8"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
@@ -5340,7 +5331,7 @@
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
-      <c r="H170" s="28"/>
+      <c r="H170" s="8"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
@@ -5357,7 +5348,7 @@
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
-      <c r="H171" s="28"/>
+      <c r="H171" s="8"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
@@ -5374,7 +5365,7 @@
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
-      <c r="H172" s="28"/>
+      <c r="H172" s="8"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
@@ -5391,7 +5382,7 @@
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
-      <c r="H173" s="28"/>
+      <c r="H173" s="8"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
@@ -5408,7 +5399,7 @@
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
-      <c r="H174" s="28"/>
+      <c r="H174" s="8"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
@@ -5425,7 +5416,7 @@
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
-      <c r="H175" s="28"/>
+      <c r="H175" s="8"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
@@ -5442,7 +5433,7 @@
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
-      <c r="H176" s="28"/>
+      <c r="H176" s="8"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
@@ -5459,7 +5450,7 @@
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
-      <c r="H177" s="28"/>
+      <c r="H177" s="8"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
@@ -5476,7 +5467,7 @@
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
-      <c r="H178" s="28"/>
+      <c r="H178" s="8"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
@@ -5493,7 +5484,7 @@
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
-      <c r="H179" s="28"/>
+      <c r="H179" s="8"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
@@ -5510,7 +5501,7 @@
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
-      <c r="H180" s="28"/>
+      <c r="H180" s="8"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
@@ -5527,7 +5518,7 @@
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
-      <c r="H181" s="28"/>
+      <c r="H181" s="8"/>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
@@ -5544,7 +5535,7 @@
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
-      <c r="H182" s="28"/>
+      <c r="H182" s="8"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
@@ -5561,7 +5552,7 @@
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
-      <c r="H183" s="28"/>
+      <c r="H183" s="8"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
@@ -5578,7 +5569,7 @@
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
-      <c r="H184" s="28"/>
+      <c r="H184" s="8"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
@@ -5595,7 +5586,7 @@
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
-      <c r="H185" s="28"/>
+      <c r="H185" s="8"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
@@ -5612,7 +5603,7 @@
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
-      <c r="H186" s="28"/>
+      <c r="H186" s="8"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
@@ -5629,7 +5620,7 @@
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
-      <c r="H187" s="28"/>
+      <c r="H187" s="8"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
@@ -5646,7 +5637,7 @@
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
-      <c r="H188" s="28"/>
+      <c r="H188" s="8"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
@@ -5663,7 +5654,7 @@
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
-      <c r="H189" s="28"/>
+      <c r="H189" s="8"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
@@ -5680,7 +5671,7 @@
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
-      <c r="H190" s="28"/>
+      <c r="H190" s="8"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
@@ -5697,7 +5688,7 @@
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
-      <c r="H191" s="28"/>
+      <c r="H191" s="8"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
@@ -5714,7 +5705,7 @@
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
-      <c r="H192" s="28"/>
+      <c r="H192" s="8"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
@@ -5731,7 +5722,7 @@
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
-      <c r="H193" s="28"/>
+      <c r="H193" s="8"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
@@ -5748,7 +5739,7 @@
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
-      <c r="H194" s="28"/>
+      <c r="H194" s="8"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
@@ -5765,7 +5756,7 @@
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
-      <c r="H195" s="28"/>
+      <c r="H195" s="8"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
@@ -5782,7 +5773,7 @@
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
-      <c r="H196" s="28"/>
+      <c r="H196" s="8"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
@@ -5799,7 +5790,7 @@
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
-      <c r="H197" s="28"/>
+      <c r="H197" s="8"/>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
@@ -5816,7 +5807,7 @@
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
-      <c r="H198" s="28"/>
+      <c r="H198" s="8"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
@@ -5833,7 +5824,7 @@
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
-      <c r="H199" s="28"/>
+      <c r="H199" s="8"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
@@ -5850,7 +5841,7 @@
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
-      <c r="H200" s="28"/>
+      <c r="H200" s="8"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
@@ -5867,7 +5858,7 @@
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
-      <c r="H201" s="28"/>
+      <c r="H201" s="8"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
@@ -5884,7 +5875,7 @@
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
-      <c r="H202" s="28"/>
+      <c r="H202" s="8"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
@@ -5901,7 +5892,7 @@
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
-      <c r="H203" s="28"/>
+      <c r="H203" s="8"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
@@ -5918,7 +5909,7 @@
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
-      <c r="H204" s="28"/>
+      <c r="H204" s="8"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
@@ -5935,7 +5926,7 @@
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
-      <c r="H205" s="28"/>
+      <c r="H205" s="8"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
@@ -5952,7 +5943,7 @@
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
-      <c r="H206" s="28"/>
+      <c r="H206" s="8"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
@@ -5969,7 +5960,7 @@
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
-      <c r="H207" s="28"/>
+      <c r="H207" s="8"/>
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
@@ -5986,7 +5977,7 @@
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
-      <c r="H208" s="28"/>
+      <c r="H208" s="8"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
@@ -6003,7 +5994,7 @@
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
-      <c r="H209" s="28"/>
+      <c r="H209" s="8"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
@@ -6020,7 +6011,7 @@
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
-      <c r="H210" s="28"/>
+      <c r="H210" s="8"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
@@ -6037,7 +6028,7 @@
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
-      <c r="H211" s="28"/>
+      <c r="H211" s="8"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
@@ -6054,7 +6045,7 @@
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
-      <c r="H212" s="28"/>
+      <c r="H212" s="8"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
@@ -6071,7 +6062,7 @@
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
-      <c r="H213" s="28"/>
+      <c r="H213" s="8"/>
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
@@ -6088,7 +6079,7 @@
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
-      <c r="H214" s="28"/>
+      <c r="H214" s="8"/>
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
@@ -6105,7 +6096,7 @@
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
-      <c r="H215" s="28"/>
+      <c r="H215" s="8"/>
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
@@ -6122,7 +6113,7 @@
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
-      <c r="H216" s="28"/>
+      <c r="H216" s="8"/>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
@@ -6139,7 +6130,7 @@
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
-      <c r="H217" s="28"/>
+      <c r="H217" s="8"/>
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
@@ -6156,7 +6147,7 @@
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
-      <c r="H218" s="28"/>
+      <c r="H218" s="8"/>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
@@ -6173,7 +6164,7 @@
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
-      <c r="H219" s="28"/>
+      <c r="H219" s="8"/>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
@@ -6190,7 +6181,7 @@
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
-      <c r="H220" s="28"/>
+      <c r="H220" s="8"/>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
@@ -6207,7 +6198,7 @@
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
-      <c r="H221" s="28"/>
+      <c r="H221" s="8"/>
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
@@ -6224,7 +6215,7 @@
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
-      <c r="H222" s="28"/>
+      <c r="H222" s="8"/>
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
@@ -6241,7 +6232,7 @@
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
-      <c r="H223" s="28"/>
+      <c r="H223" s="8"/>
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
@@ -6258,7 +6249,7 @@
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
-      <c r="H224" s="28"/>
+      <c r="H224" s="8"/>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
@@ -6275,7 +6266,7 @@
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
-      <c r="H225" s="28"/>
+      <c r="H225" s="8"/>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
@@ -6292,7 +6283,7 @@
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
-      <c r="H226" s="28"/>
+      <c r="H226" s="8"/>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
@@ -6309,7 +6300,7 @@
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
-      <c r="H227" s="28"/>
+      <c r="H227" s="8"/>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
@@ -6326,7 +6317,7 @@
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
-      <c r="H228" s="28"/>
+      <c r="H228" s="8"/>
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
@@ -6343,7 +6334,7 @@
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
-      <c r="H229" s="28"/>
+      <c r="H229" s="8"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
@@ -6360,7 +6351,7 @@
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
-      <c r="H230" s="28"/>
+      <c r="H230" s="8"/>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
@@ -6377,7 +6368,7 @@
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
-      <c r="H231" s="28"/>
+      <c r="H231" s="8"/>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
@@ -6394,7 +6385,7 @@
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
-      <c r="H232" s="28"/>
+      <c r="H232" s="8"/>
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
@@ -6411,7 +6402,7 @@
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
-      <c r="H233" s="28"/>
+      <c r="H233" s="8"/>
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
@@ -6428,7 +6419,7 @@
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
-      <c r="H234" s="28"/>
+      <c r="H234" s="8"/>
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
@@ -6445,7 +6436,7 @@
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
-      <c r="H235" s="28"/>
+      <c r="H235" s="8"/>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
@@ -6462,7 +6453,7 @@
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
-      <c r="H236" s="28"/>
+      <c r="H236" s="8"/>
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
@@ -6479,7 +6470,7 @@
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
-      <c r="H237" s="28"/>
+      <c r="H237" s="8"/>
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
@@ -6496,7 +6487,7 @@
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
-      <c r="H238" s="28"/>
+      <c r="H238" s="8"/>
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
@@ -6513,7 +6504,7 @@
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
-      <c r="H239" s="28"/>
+      <c r="H239" s="8"/>
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
@@ -6530,7 +6521,7 @@
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
-      <c r="H240" s="28"/>
+      <c r="H240" s="8"/>
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
@@ -6547,7 +6538,7 @@
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
-      <c r="H241" s="28"/>
+      <c r="H241" s="8"/>
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
@@ -6564,7 +6555,7 @@
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
-      <c r="H242" s="28"/>
+      <c r="H242" s="8"/>
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
@@ -6581,7 +6572,7 @@
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
-      <c r="H243" s="28"/>
+      <c r="H243" s="8"/>
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
       <c r="K243" s="1"/>
@@ -6598,7 +6589,7 @@
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
-      <c r="H244" s="28"/>
+      <c r="H244" s="8"/>
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
@@ -6615,7 +6606,7 @@
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
-      <c r="H245" s="28"/>
+      <c r="H245" s="8"/>
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
@@ -6632,7 +6623,7 @@
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
-      <c r="H246" s="28"/>
+      <c r="H246" s="8"/>
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
@@ -6649,7 +6640,7 @@
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
-      <c r="H247" s="28"/>
+      <c r="H247" s="8"/>
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
@@ -6666,7 +6657,7 @@
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
-      <c r="H248" s="28"/>
+      <c r="H248" s="8"/>
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
@@ -6683,7 +6674,7 @@
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
-      <c r="H249" s="28"/>
+      <c r="H249" s="8"/>
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
@@ -6700,7 +6691,7 @@
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
-      <c r="H250" s="28"/>
+      <c r="H250" s="8"/>
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
       <c r="K250" s="1"/>
@@ -6717,7 +6708,7 @@
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
-      <c r="H251" s="28"/>
+      <c r="H251" s="8"/>
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
@@ -6734,7 +6725,7 @@
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
-      <c r="H252" s="28"/>
+      <c r="H252" s="8"/>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
@@ -6751,7 +6742,7 @@
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
-      <c r="H253" s="28"/>
+      <c r="H253" s="8"/>
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
@@ -6768,7 +6759,7 @@
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
-      <c r="H254" s="28"/>
+      <c r="H254" s="8"/>
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
@@ -6785,7 +6776,7 @@
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
-      <c r="H255" s="28"/>
+      <c r="H255" s="8"/>
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
@@ -6802,7 +6793,7 @@
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
-      <c r="H256" s="28"/>
+      <c r="H256" s="8"/>
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
@@ -6819,7 +6810,7 @@
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
-      <c r="H257" s="28"/>
+      <c r="H257" s="8"/>
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
@@ -6836,7 +6827,7 @@
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
-      <c r="H258" s="28"/>
+      <c r="H258" s="8"/>
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
       <c r="K258" s="1"/>
@@ -6853,7 +6844,7 @@
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
-      <c r="H259" s="28"/>
+      <c r="H259" s="8"/>
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
       <c r="K259" s="1"/>
@@ -6870,7 +6861,7 @@
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
-      <c r="H260" s="28"/>
+      <c r="H260" s="8"/>
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
       <c r="K260" s="1"/>
@@ -6887,7 +6878,7 @@
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
-      <c r="H261" s="28"/>
+      <c r="H261" s="8"/>
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
@@ -6904,7 +6895,7 @@
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
-      <c r="H262" s="28"/>
+      <c r="H262" s="8"/>
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
@@ -6921,7 +6912,7 @@
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
-      <c r="H263" s="28"/>
+      <c r="H263" s="8"/>
       <c r="I263" s="1"/>
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
@@ -6938,7 +6929,7 @@
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
-      <c r="H264" s="28"/>
+      <c r="H264" s="8"/>
       <c r="I264" s="1"/>
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
@@ -6955,7 +6946,7 @@
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
-      <c r="H265" s="28"/>
+      <c r="H265" s="8"/>
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
@@ -6972,7 +6963,7 @@
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
-      <c r="H266" s="28"/>
+      <c r="H266" s="8"/>
       <c r="I266" s="1"/>
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
@@ -6989,7 +6980,7 @@
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
-      <c r="H267" s="28"/>
+      <c r="H267" s="8"/>
       <c r="I267" s="1"/>
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
@@ -7006,7 +6997,7 @@
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
-      <c r="H268" s="28"/>
+      <c r="H268" s="8"/>
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
@@ -7023,7 +7014,7 @@
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
-      <c r="H269" s="28"/>
+      <c r="H269" s="8"/>
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
@@ -7040,7 +7031,7 @@
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
-      <c r="H270" s="28"/>
+      <c r="H270" s="8"/>
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
       <c r="K270" s="1"/>
@@ -7057,7 +7048,7 @@
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
-      <c r="H271" s="28"/>
+      <c r="H271" s="8"/>
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
       <c r="K271" s="1"/>
@@ -7074,7 +7065,7 @@
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
-      <c r="H272" s="28"/>
+      <c r="H272" s="8"/>
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
       <c r="K272" s="1"/>
@@ -7091,7 +7082,7 @@
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
-      <c r="H273" s="28"/>
+      <c r="H273" s="8"/>
       <c r="I273" s="1"/>
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
@@ -7108,7 +7099,7 @@
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
-      <c r="H274" s="28"/>
+      <c r="H274" s="8"/>
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
@@ -7125,7 +7116,7 @@
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
-      <c r="H275" s="28"/>
+      <c r="H275" s="8"/>
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
@@ -7142,7 +7133,7 @@
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
-      <c r="H276" s="28"/>
+      <c r="H276" s="8"/>
       <c r="I276" s="1"/>
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
@@ -7159,7 +7150,7 @@
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
-      <c r="H277" s="28"/>
+      <c r="H277" s="8"/>
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
@@ -7176,7 +7167,7 @@
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
-      <c r="H278" s="28"/>
+      <c r="H278" s="8"/>
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
       <c r="K278" s="1"/>
@@ -7193,7 +7184,7 @@
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
-      <c r="H279" s="28"/>
+      <c r="H279" s="8"/>
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
@@ -7210,7 +7201,7 @@
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
-      <c r="H280" s="28"/>
+      <c r="H280" s="8"/>
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
@@ -7227,7 +7218,7 @@
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
-      <c r="H281" s="28"/>
+      <c r="H281" s="8"/>
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
@@ -7244,7 +7235,7 @@
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
-      <c r="H282" s="28"/>
+      <c r="H282" s="8"/>
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
@@ -7261,7 +7252,7 @@
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
-      <c r="H283" s="28"/>
+      <c r="H283" s="8"/>
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
@@ -7278,7 +7269,7 @@
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
-      <c r="H284" s="28"/>
+      <c r="H284" s="8"/>
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
       <c r="K284" s="1"/>
@@ -7295,7 +7286,7 @@
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
-      <c r="H285" s="28"/>
+      <c r="H285" s="8"/>
       <c r="I285" s="1"/>
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
@@ -7312,7 +7303,7 @@
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
-      <c r="H286" s="28"/>
+      <c r="H286" s="8"/>
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
@@ -7329,7 +7320,7 @@
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
-      <c r="H287" s="28"/>
+      <c r="H287" s="8"/>
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
       <c r="K287" s="1"/>
@@ -7346,7 +7337,7 @@
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
-      <c r="H288" s="28"/>
+      <c r="H288" s="8"/>
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
       <c r="K288" s="1"/>
@@ -7363,7 +7354,7 @@
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
-      <c r="H289" s="28"/>
+      <c r="H289" s="8"/>
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
@@ -7380,7 +7371,7 @@
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
-      <c r="H290" s="28"/>
+      <c r="H290" s="8"/>
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
@@ -7397,7 +7388,7 @@
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
-      <c r="H291" s="28"/>
+      <c r="H291" s="8"/>
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
       <c r="K291" s="1"/>
@@ -7414,7 +7405,7 @@
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
-      <c r="H292" s="28"/>
+      <c r="H292" s="8"/>
       <c r="I292" s="1"/>
       <c r="J292" s="1"/>
       <c r="K292" s="1"/>
@@ -7431,7 +7422,7 @@
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
-      <c r="H293" s="28"/>
+      <c r="H293" s="8"/>
       <c r="I293" s="1"/>
       <c r="J293" s="1"/>
       <c r="K293" s="1"/>
@@ -7448,7 +7439,7 @@
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
-      <c r="H294" s="28"/>
+      <c r="H294" s="8"/>
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
       <c r="K294" s="1"/>
@@ -7465,7 +7456,7 @@
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
-      <c r="H295" s="28"/>
+      <c r="H295" s="8"/>
       <c r="I295" s="1"/>
       <c r="J295" s="1"/>
       <c r="K295" s="1"/>
@@ -7482,7 +7473,7 @@
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
-      <c r="H296" s="28"/>
+      <c r="H296" s="8"/>
       <c r="I296" s="1"/>
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
@@ -7499,7 +7490,7 @@
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
-      <c r="H297" s="28"/>
+      <c r="H297" s="8"/>
       <c r="I297" s="1"/>
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
@@ -7516,7 +7507,7 @@
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
-      <c r="H298" s="28"/>
+      <c r="H298" s="8"/>
       <c r="I298" s="1"/>
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
@@ -7533,7 +7524,7 @@
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
-      <c r="H299" s="28"/>
+      <c r="H299" s="8"/>
       <c r="I299" s="1"/>
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
@@ -7550,7 +7541,7 @@
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
-      <c r="H300" s="28"/>
+      <c r="H300" s="8"/>
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
       <c r="K300" s="1"/>
@@ -7586,7 +7577,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/周数据/《个人上线率统计表》-徐沛华.xlsx
+++ b/周数据/《个人上线率统计表》-徐沛华.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -257,11 +257,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -346,8 +346,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,6 +382,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,15 +409,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,30 +468,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -460,26 +476,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -546,13 +546,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,18 +583,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,6 +613,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,24 +679,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,13 +1031,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1057,17 +1085,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1090,41 +1123,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,10 +1136,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1148,109 +1148,109 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1259,26 +1259,26 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1363,9 +1363,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1802,8 +1799,8 @@
   <sheetPr/>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1816,447 +1813,453 @@
     <col min="7" max="7" width="15.5" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="30" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="29" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="52"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="56" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="39">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="39">
         <v>1</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="40">
         <v>1</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41">
         <f>C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="43">
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="42">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59" t="e">
+      <c r="I3" s="57"/>
+      <c r="J3" s="58" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="60">
+      <c r="K3" s="59">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="61">
+      <c r="L3" s="60">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="62">
+      <c r="M3" s="61">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39">
         <v>2</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="40">
         <v>1</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41">
         <v>1</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="43">
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="42">
         <f t="shared" ref="H4:H14" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59" t="e">
+      <c r="I4" s="57"/>
+      <c r="J4" s="58" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="60">
+      <c r="K4" s="59">
         <v>1</v>
       </c>
-      <c r="L4" s="61">
+      <c r="L4" s="60">
         <v>0</v>
       </c>
-      <c r="M4" s="62">
+      <c r="M4" s="61">
         <f t="shared" ref="M4:M14" si="1">L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40">
+      <c r="A5" s="38"/>
+      <c r="B5" s="39">
         <v>3</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="40">
         <v>0</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41">
         <v>0</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="43">
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59" t="e">
+      <c r="I5" s="57"/>
+      <c r="J5" s="58" t="e">
         <f t="shared" ref="J5:J14" si="2">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="60">
+      <c r="K5" s="59">
         <v>0</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5" s="60">
         <v>0</v>
       </c>
-      <c r="M5" s="62" t="e">
+      <c r="M5" s="61" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40">
+      <c r="A6" s="38"/>
+      <c r="B6" s="39">
         <v>4</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="40">
         <v>0</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42">
+      <c r="D6" s="41"/>
+      <c r="E6" s="41">
         <v>0</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="43">
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59" t="e">
+      <c r="I6" s="57"/>
+      <c r="J6" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="59">
         <v>0</v>
       </c>
-      <c r="L6" s="61">
+      <c r="L6" s="60">
         <v>0</v>
       </c>
-      <c r="M6" s="62" t="e">
+      <c r="M6" s="61" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39">
         <v>5</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="40">
         <v>1</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42">
+      <c r="D7" s="41"/>
+      <c r="E7" s="41">
         <v>1</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="43">
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59" t="e">
+      <c r="I7" s="57"/>
+      <c r="J7" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="60">
+      <c r="K7" s="59">
         <v>1</v>
       </c>
-      <c r="L7" s="61">
+      <c r="L7" s="60">
         <v>0</v>
       </c>
-      <c r="M7" s="62">
+      <c r="M7" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="45"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="49">
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64" t="e">
+      <c r="I8" s="62"/>
+      <c r="J8" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="65">
+      <c r="K8" s="64">
         <v>0</v>
       </c>
-      <c r="L8" s="66">
+      <c r="L8" s="65">
         <v>0</v>
       </c>
-      <c r="M8" s="67" t="e">
+      <c r="M8" s="66" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="39">
+      <c r="A9" s="38">
         <v>2</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="39">
         <v>8</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="40">
         <v>1</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="41">
         <v>1</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="43">
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59">
+      <c r="I9" s="57"/>
+      <c r="J9" s="58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="60">
+      <c r="K9" s="59">
         <f>C9+G9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="61">
+      <c r="L9" s="60">
         <f>D9+G9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="62">
+      <c r="M9" s="61">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="43">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39">
+        <v>10</v>
+      </c>
+      <c r="C10" s="40">
+        <v>1</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41">
+        <v>1</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59" t="e">
+      <c r="I10" s="57"/>
+      <c r="J10" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="60">
+      <c r="K10" s="59">
         <v>1</v>
       </c>
-      <c r="L10" s="61">
+      <c r="L10" s="60">
         <v>0</v>
       </c>
-      <c r="M10" s="62">
+      <c r="M10" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="43">
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59" t="e">
+      <c r="I11" s="57"/>
+      <c r="J11" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="60">
+      <c r="K11" s="59">
         <v>0</v>
       </c>
-      <c r="L11" s="61">
+      <c r="L11" s="60">
         <v>0</v>
       </c>
-      <c r="M11" s="62" t="e">
+      <c r="M11" s="61" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="43">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="58"/>
-      <c r="J12" s="59" t="e">
+      <c r="I12" s="57"/>
+      <c r="J12" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="60">
+      <c r="K12" s="59">
         <v>0</v>
       </c>
-      <c r="L12" s="61">
+      <c r="L12" s="60">
         <v>0</v>
       </c>
-      <c r="M12" s="62" t="e">
+      <c r="M12" s="61" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="43">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59" t="e">
+      <c r="I13" s="57"/>
+      <c r="J13" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="60">
+      <c r="K13" s="59">
         <v>1</v>
       </c>
-      <c r="L13" s="61">
+      <c r="L13" s="60">
         <v>0</v>
       </c>
-      <c r="M13" s="62">
+      <c r="M13" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:13">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="49">
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64" t="e">
+      <c r="I14" s="62"/>
+      <c r="J14" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="65">
+      <c r="K14" s="64">
         <v>0</v>
       </c>
-      <c r="L14" s="66">
+      <c r="L14" s="65">
         <v>0</v>
       </c>
-      <c r="M14" s="67" t="e">
+      <c r="M14" s="66" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2278,7 +2281,7 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -2548,7 +2551,7 @@
       <c r="N6" s="8">
         <v>13873735718</v>
       </c>
-      <c r="O6" s="29" t="s">
+      <c r="O6" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7577,7 +7580,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/周数据/《个人上线率统计表》-徐沛华.xlsx
+++ b/周数据/《个人上线率统计表》-徐沛华.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="19770" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -186,6 +186,18 @@
     <t>收银</t>
   </si>
   <si>
+    <t>自由度</t>
+  </si>
+  <si>
+    <t>自由度美食</t>
+  </si>
+  <si>
+    <t>朱争飞</t>
+  </si>
+  <si>
+    <t>老板</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -243,6 +255,15 @@
     <t>销售同事说老系统升级可以用了，暂时不安装。</t>
   </si>
   <si>
+    <t>灶记重庆小面</t>
+  </si>
+  <si>
+    <t>老板提前通知安装时间。</t>
+  </si>
+  <si>
+    <t>肖如梦</t>
+  </si>
+  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -259,9 +280,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -546,12 +567,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -570,12 +585,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -583,12 +592,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,19 +633,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,25 +663,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,7 +705,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,149 +1157,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1358,6 +1379,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1797,10 +1824,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1813,462 +1840,643 @@
     <col min="7" max="7" width="15.5" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="31" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="51"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="53"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="58" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="38">
+      <c r="A3" s="40">
         <v>1</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="41">
         <v>1</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="42">
         <v>1</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41">
+      <c r="D3" s="43"/>
+      <c r="E3" s="43">
         <f>C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="42">
+      <c r="F3" s="44"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="44">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58" t="e">
+      <c r="I3" s="59"/>
+      <c r="J3" s="60" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="59">
+      <c r="K3" s="61">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="60">
+      <c r="L3" s="62">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="61">
+      <c r="M3" s="63">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39">
+      <c r="A4" s="40"/>
+      <c r="B4" s="41">
         <v>2</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="42">
         <v>1</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41">
+      <c r="D4" s="43"/>
+      <c r="E4" s="43">
         <v>1</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="42">
-        <f t="shared" ref="H4:H14" si="0">F4-G4</f>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="44">
+        <f t="shared" ref="H4:H20" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58" t="e">
+      <c r="I4" s="59"/>
+      <c r="J4" s="60" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="59">
+      <c r="K4" s="61">
         <v>1</v>
       </c>
-      <c r="L4" s="60">
+      <c r="L4" s="62">
         <v>0</v>
       </c>
-      <c r="M4" s="61">
-        <f t="shared" ref="M4:M14" si="1">L4/K4*100%</f>
+      <c r="M4" s="63">
+        <f t="shared" ref="M4:M20" si="1">L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41">
         <v>3</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="42">
         <v>0</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43">
         <v>0</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="42">
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58" t="e">
-        <f t="shared" ref="J5:J14" si="2">I5/L5*100%</f>
+      <c r="I5" s="59"/>
+      <c r="J5" s="60" t="e">
+        <f t="shared" ref="J5:J20" si="2">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="59">
+      <c r="K5" s="61">
         <v>0</v>
       </c>
-      <c r="L5" s="60">
+      <c r="L5" s="62">
         <v>0</v>
       </c>
-      <c r="M5" s="61" t="e">
+      <c r="M5" s="63" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39">
+      <c r="A6" s="40"/>
+      <c r="B6" s="41">
         <v>4</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="42">
         <v>0</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41">
+      <c r="D6" s="43"/>
+      <c r="E6" s="43">
         <v>0</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="42">
+      <c r="F6" s="44"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58" t="e">
+      <c r="I6" s="59"/>
+      <c r="J6" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="59">
+      <c r="K6" s="61">
         <v>0</v>
       </c>
-      <c r="L6" s="60">
+      <c r="L6" s="62">
         <v>0</v>
       </c>
-      <c r="M6" s="61" t="e">
+      <c r="M6" s="63" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39">
+      <c r="A7" s="40"/>
+      <c r="B7" s="41">
         <v>5</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="42">
         <v>1</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41">
+      <c r="D7" s="43"/>
+      <c r="E7" s="43">
         <v>1</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="42">
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58" t="e">
+      <c r="I7" s="59"/>
+      <c r="J7" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="59">
+      <c r="K7" s="61">
         <v>1</v>
       </c>
-      <c r="L7" s="60">
+      <c r="L7" s="62">
         <v>0</v>
       </c>
-      <c r="M7" s="61">
+      <c r="M7" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="48">
+      <c r="A8" s="46"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="63" t="e">
+      <c r="I8" s="64"/>
+      <c r="J8" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="64">
+      <c r="K8" s="66">
         <v>0</v>
       </c>
-      <c r="L8" s="65">
+      <c r="L8" s="67">
         <v>0</v>
       </c>
-      <c r="M8" s="66" t="e">
+      <c r="M8" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="38">
+      <c r="A9" s="40">
         <v>2</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="41">
         <v>8</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="42">
         <v>1</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="43">
         <v>1</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="42">
+      <c r="E9" s="43"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58">
+      <c r="I9" s="59"/>
+      <c r="J9" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="59">
+      <c r="K9" s="61">
         <f>C9+G9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="60">
+      <c r="L9" s="62">
         <f>D9+G9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="61">
+      <c r="M9" s="63">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39">
+      <c r="A10" s="40"/>
+      <c r="B10" s="41">
         <v>10</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="42">
         <v>1</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41">
+      <c r="D10" s="43"/>
+      <c r="E10" s="43">
         <v>1</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="42">
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58" t="e">
+      <c r="I10" s="59"/>
+      <c r="J10" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="59">
+      <c r="K10" s="61">
         <v>1</v>
       </c>
-      <c r="L10" s="60">
+      <c r="L10" s="62">
         <v>0</v>
       </c>
-      <c r="M10" s="61">
+      <c r="M10" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="42">
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58" t="e">
+      <c r="I11" s="59"/>
+      <c r="J11" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="59">
+      <c r="K11" s="61">
         <v>0</v>
       </c>
-      <c r="L11" s="60">
+      <c r="L11" s="62">
         <v>0</v>
       </c>
-      <c r="M11" s="61" t="e">
+      <c r="M11" s="63" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="42">
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58" t="e">
+      <c r="I12" s="59"/>
+      <c r="J12" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="59">
+      <c r="K12" s="61">
         <v>0</v>
       </c>
-      <c r="L12" s="60">
+      <c r="L12" s="62">
         <v>0</v>
       </c>
-      <c r="M12" s="61" t="e">
+      <c r="M12" s="63" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="42">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="57"/>
-      <c r="J13" s="58" t="e">
+      <c r="I13" s="59"/>
+      <c r="J13" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="59">
+      <c r="K13" s="61">
         <v>1</v>
       </c>
-      <c r="L13" s="60">
+      <c r="L13" s="62">
         <v>0</v>
       </c>
-      <c r="M13" s="61">
+      <c r="M13" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:13">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="48">
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="63" t="e">
+      <c r="I14" s="64"/>
+      <c r="J14" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="64">
+      <c r="K14" s="66">
         <v>0</v>
       </c>
-      <c r="L14" s="65">
+      <c r="L14" s="67">
         <v>0</v>
       </c>
-      <c r="M14" s="66" t="e">
+      <c r="M14" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="40">
+        <v>3</v>
+      </c>
+      <c r="B15" s="41">
+        <v>11</v>
+      </c>
+      <c r="C15" s="42">
+        <v>2</v>
+      </c>
+      <c r="D15" s="43">
+        <v>1</v>
+      </c>
+      <c r="E15" s="43">
+        <v>1</v>
+      </c>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="59"/>
+      <c r="J15" s="60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="61">
+        <f>C15+G15</f>
+        <v>2</v>
+      </c>
+      <c r="L15" s="62">
+        <f>D15+G15</f>
+        <v>1</v>
+      </c>
+      <c r="M15" s="63">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="59"/>
+      <c r="J16" s="60" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K16" s="61">
+        <v>1</v>
+      </c>
+      <c r="L16" s="62">
+        <v>0</v>
+      </c>
+      <c r="M16" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="59"/>
+      <c r="J17" s="60" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K17" s="61">
+        <v>0</v>
+      </c>
+      <c r="L17" s="62">
+        <v>0</v>
+      </c>
+      <c r="M17" s="63" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" s="61">
+        <v>0</v>
+      </c>
+      <c r="L18" s="62">
+        <v>0</v>
+      </c>
+      <c r="M18" s="63" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="59"/>
+      <c r="J19" s="60" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="61">
+        <v>1</v>
+      </c>
+      <c r="L19" s="62">
+        <v>0</v>
+      </c>
+      <c r="M19" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:13">
+      <c r="A20" s="46"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K20" s="66">
+        <v>0</v>
+      </c>
+      <c r="L20" s="67">
+        <v>0</v>
+      </c>
+      <c r="M20" s="68" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2282,7 +2490,7 @@
   <dimension ref="A1:O300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -2325,7 +2533,7 @@
       <c r="H1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="30" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="23" t="s">
@@ -2556,21 +2764,51 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="A7" s="28">
+        <v>11</v>
+      </c>
+      <c r="B7" s="29">
+        <v>43166</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="28">
+        <v>76135669</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="8">
+        <v>17625903469</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="28">
+        <v>13305193355</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1"/>
@@ -7579,8 +7817,8 @@
   <sheetPr/>
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -7602,19 +7840,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7622,22 +7860,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2" s="16">
         <v>43102</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7651,16 +7889,16 @@
         <v>43110</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7674,16 +7912,16 @@
         <v>43126</v>
       </c>
       <c r="D4" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7691,22 +7929,22 @@
         <v>6</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C5" s="16">
         <v>43133</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7714,22 +7952,22 @@
         <v>8</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C6" s="16">
         <v>43102</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:7">
@@ -7737,32 +7975,46 @@
         <v>8</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C7" s="16">
         <v>43133</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="8"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="A8" s="8">
+        <v>11</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="16">
+        <v>43172</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="8"/>
@@ -8541,13 +8793,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/周数据/《个人上线率统计表》-徐沛华.xlsx
+++ b/周数据/《个人上线率统计表》-徐沛华.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="19770" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -278,11 +278,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -367,29 +367,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -444,6 +421,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,27 +484,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,19 +567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,6 +580,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,13 +621,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,25 +663,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,37 +735,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,16 +1052,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1077,21 +1077,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1102,6 +1087,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1126,21 +1141,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1157,149 +1157,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1383,9 +1383,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1840,633 +1837,633 @@
     <col min="7" max="7" width="15.5" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="31" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="30" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="53"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="58" t="s">
+      <c r="M2" s="57" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="40">
+      <c r="A3" s="39">
         <v>1</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="40">
         <v>1</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="41">
         <v>1</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43">
+      <c r="D3" s="42"/>
+      <c r="E3" s="42">
         <f>C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="44">
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="43">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="60" t="e">
+      <c r="I3" s="58"/>
+      <c r="J3" s="59" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="61">
+      <c r="K3" s="60">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="62">
+      <c r="L3" s="61">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="63">
+      <c r="M3" s="62">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40">
         <v>2</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="41">
         <v>1</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43">
+      <c r="D4" s="42"/>
+      <c r="E4" s="42">
         <v>1</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="44">
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="43">
         <f t="shared" ref="H4:H20" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="60" t="e">
+      <c r="I4" s="58"/>
+      <c r="J4" s="59" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="61">
+      <c r="K4" s="60">
         <v>1</v>
       </c>
-      <c r="L4" s="62">
+      <c r="L4" s="61">
         <v>0</v>
       </c>
-      <c r="M4" s="63">
+      <c r="M4" s="62">
         <f t="shared" ref="M4:M20" si="1">L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40">
         <v>3</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="41">
         <v>0</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42">
         <v>0</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="44">
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="60" t="e">
+      <c r="I5" s="58"/>
+      <c r="J5" s="59" t="e">
         <f t="shared" ref="J5:J20" si="2">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="61">
+      <c r="K5" s="60">
         <v>0</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="61">
         <v>0</v>
       </c>
-      <c r="M5" s="63" t="e">
+      <c r="M5" s="62" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41">
+      <c r="A6" s="39"/>
+      <c r="B6" s="40">
         <v>4</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="41">
         <v>0</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43">
+      <c r="D6" s="42"/>
+      <c r="E6" s="42">
         <v>0</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="44">
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="59"/>
-      <c r="J6" s="60" t="e">
+      <c r="I6" s="58"/>
+      <c r="J6" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="61">
+      <c r="K6" s="60">
         <v>0</v>
       </c>
-      <c r="L6" s="62">
+      <c r="L6" s="61">
         <v>0</v>
       </c>
-      <c r="M6" s="63" t="e">
+      <c r="M6" s="62" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40">
         <v>5</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="41">
         <v>1</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43">
+      <c r="D7" s="42"/>
+      <c r="E7" s="42">
         <v>1</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="44">
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="60" t="e">
+      <c r="I7" s="58"/>
+      <c r="J7" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="61">
+      <c r="K7" s="60">
         <v>1</v>
       </c>
-      <c r="L7" s="62">
+      <c r="L7" s="61">
         <v>0</v>
       </c>
-      <c r="M7" s="63">
+      <c r="M7" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="46"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="50">
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65" t="e">
+      <c r="I8" s="63"/>
+      <c r="J8" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="66">
+      <c r="K8" s="65">
         <v>0</v>
       </c>
-      <c r="L8" s="67">
+      <c r="L8" s="66">
         <v>0</v>
       </c>
-      <c r="M8" s="68" t="e">
+      <c r="M8" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="40">
+      <c r="A9" s="39">
         <v>2</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="40">
         <v>8</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="41">
         <v>1</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="42">
         <v>1</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="44">
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="60">
+      <c r="I9" s="58"/>
+      <c r="J9" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="61">
+      <c r="K9" s="60">
         <f>C9+G9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="62">
+      <c r="L9" s="61">
         <f>D9+G9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="63">
+      <c r="M9" s="62">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41">
+      <c r="A10" s="39"/>
+      <c r="B10" s="40">
         <v>10</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="41">
         <v>1</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43">
+      <c r="D10" s="42"/>
+      <c r="E10" s="42">
         <v>1</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="44">
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="59"/>
-      <c r="J10" s="60" t="e">
+      <c r="I10" s="58"/>
+      <c r="J10" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="61">
+      <c r="K10" s="60">
         <v>1</v>
       </c>
-      <c r="L10" s="62">
+      <c r="L10" s="61">
         <v>0</v>
       </c>
-      <c r="M10" s="63">
+      <c r="M10" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="40"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="44">
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="59"/>
-      <c r="J11" s="60" t="e">
+      <c r="I11" s="58"/>
+      <c r="J11" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="61">
+      <c r="K11" s="60">
         <v>0</v>
       </c>
-      <c r="L11" s="62">
+      <c r="L11" s="61">
         <v>0</v>
       </c>
-      <c r="M11" s="63" t="e">
+      <c r="M11" s="62" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="40"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="44">
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="59"/>
-      <c r="J12" s="60" t="e">
+      <c r="I12" s="58"/>
+      <c r="J12" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="61">
+      <c r="K12" s="60">
         <v>0</v>
       </c>
-      <c r="L12" s="62">
+      <c r="L12" s="61">
         <v>0</v>
       </c>
-      <c r="M12" s="63" t="e">
+      <c r="M12" s="62" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="44">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="59"/>
-      <c r="J13" s="60" t="e">
+      <c r="I13" s="58"/>
+      <c r="J13" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="61">
+      <c r="K13" s="60">
         <v>1</v>
       </c>
-      <c r="L13" s="62">
+      <c r="L13" s="61">
         <v>0</v>
       </c>
-      <c r="M13" s="63">
+      <c r="M13" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:13">
-      <c r="A14" s="46"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="50">
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65" t="e">
+      <c r="I14" s="63"/>
+      <c r="J14" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="66">
+      <c r="K14" s="65">
         <v>0</v>
       </c>
-      <c r="L14" s="67">
+      <c r="L14" s="66">
         <v>0</v>
       </c>
-      <c r="M14" s="68" t="e">
+      <c r="M14" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="40">
+      <c r="A15" s="39">
         <v>3</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="40">
         <v>11</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="41">
         <v>2</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="42">
         <v>1</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="42">
         <v>1</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="44">
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="59"/>
-      <c r="J15" s="60">
+      <c r="I15" s="58"/>
+      <c r="J15" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="61">
+      <c r="K15" s="60">
         <f>C15+G15</f>
         <v>2</v>
       </c>
-      <c r="L15" s="62">
+      <c r="L15" s="61">
         <f>D15+G15</f>
         <v>1</v>
       </c>
-      <c r="M15" s="63">
+      <c r="M15" s="62">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="44">
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="59"/>
-      <c r="J16" s="60" t="e">
+      <c r="I16" s="58"/>
+      <c r="J16" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="61">
+      <c r="K16" s="60">
         <v>1</v>
       </c>
-      <c r="L16" s="62">
+      <c r="L16" s="61">
         <v>0</v>
       </c>
-      <c r="M16" s="63">
+      <c r="M16" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="44">
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="59"/>
-      <c r="J17" s="60" t="e">
+      <c r="I17" s="58"/>
+      <c r="J17" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K17" s="61">
+      <c r="K17" s="60">
         <v>0</v>
       </c>
-      <c r="L17" s="62">
+      <c r="L17" s="61">
         <v>0</v>
       </c>
-      <c r="M17" s="63" t="e">
+      <c r="M17" s="62" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="44">
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="59"/>
-      <c r="J18" s="60" t="e">
+      <c r="I18" s="58"/>
+      <c r="J18" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="61">
+      <c r="K18" s="60">
         <v>0</v>
       </c>
-      <c r="L18" s="62">
+      <c r="L18" s="61">
         <v>0</v>
       </c>
-      <c r="M18" s="63" t="e">
+      <c r="M18" s="62" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="44">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="59"/>
-      <c r="J19" s="60" t="e">
+      <c r="I19" s="58"/>
+      <c r="J19" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="61">
+      <c r="K19" s="60">
         <v>1</v>
       </c>
-      <c r="L19" s="62">
+      <c r="L19" s="61">
         <v>0</v>
       </c>
-      <c r="M19" s="63">
+      <c r="M19" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:13">
-      <c r="A20" s="46"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="50">
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="64"/>
-      <c r="J20" s="65" t="e">
+      <c r="I20" s="63"/>
+      <c r="J20" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="66">
+      <c r="K20" s="65">
         <v>0</v>
       </c>
-      <c r="L20" s="67">
+      <c r="L20" s="66">
         <v>0</v>
       </c>
-      <c r="M20" s="68" t="e">
+      <c r="M20" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2489,8 +2486,8 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -2533,7 +2530,7 @@
       <c r="H1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="23" t="s">
@@ -2764,25 +2761,25 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="28">
+      <c r="A7" s="8">
         <v>11</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="27">
         <v>43166</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="8">
         <v>76135669</v>
       </c>
       <c r="H7" s="8" t="s">
@@ -2797,22 +2794,26 @@
       <c r="K7" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M7" s="28" t="s">
+      <c r="M7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7" s="8">
         <v>13305193355</v>
       </c>
-      <c r="O7" s="28" t="s">
+      <c r="O7" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="28">
+        <v>12</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -7817,7 +7818,7 @@
   <sheetPr/>
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/周数据/《个人上线率统计表》-徐沛华.xlsx
+++ b/周数据/《个人上线率统计表》-徐沛华.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -198,6 +198,33 @@
     <t>老板</t>
   </si>
   <si>
+    <t>福鑫园</t>
+  </si>
+  <si>
+    <t>张秋丽</t>
+  </si>
+  <si>
+    <t>老板娘</t>
+  </si>
+  <si>
+    <t>灶记小面</t>
+  </si>
+  <si>
+    <t>灶记重庆小面</t>
+  </si>
+  <si>
+    <t>张老板</t>
+  </si>
+  <si>
+    <t>一鲜一串</t>
+  </si>
+  <si>
+    <t>张志远</t>
+  </si>
+  <si>
+    <t>经理</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -255,9 +282,6 @@
     <t>销售同事说老系统升级可以用了，暂时不安装。</t>
   </si>
   <si>
-    <t>灶记重庆小面</t>
-  </si>
-  <si>
     <t>老板提前通知安装时间。</t>
   </si>
   <si>
@@ -272,17 +296,27 @@
   <si>
     <t>加班内容</t>
   </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>24日</t>
+  </si>
+  <si>
+    <t>福鑫园驻店</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -367,6 +401,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -421,50 +478,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,6 +497,27 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,6 +601,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -621,6 +679,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -670,36 +734,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,6 +1086,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1067,15 +1125,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1087,36 +1136,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1141,6 +1160,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1157,10 +1191,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1169,144 +1203,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1315,8 +1349,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1383,6 +1417,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1824,7 +1861,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1837,633 +1874,643 @@
     <col min="7" max="7" width="15.5" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="30" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="31" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="52"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="53"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="58" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="39">
+      <c r="A3" s="40">
         <v>1</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="41">
         <v>1</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="42">
         <v>1</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42">
+      <c r="D3" s="43"/>
+      <c r="E3" s="43">
         <f>C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="43">
+      <c r="F3" s="44"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="44">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59" t="e">
+      <c r="I3" s="59"/>
+      <c r="J3" s="60" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="60">
+      <c r="K3" s="61">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="61">
+      <c r="L3" s="62">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="62">
+      <c r="M3" s="63">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40">
+      <c r="A4" s="40"/>
+      <c r="B4" s="41">
         <v>2</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="42">
         <v>1</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42">
+      <c r="D4" s="43"/>
+      <c r="E4" s="43">
         <v>1</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="43">
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="44">
         <f t="shared" ref="H4:H20" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59" t="e">
+      <c r="I4" s="59"/>
+      <c r="J4" s="60" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="60">
+      <c r="K4" s="61">
         <v>1</v>
       </c>
-      <c r="L4" s="61">
+      <c r="L4" s="62">
         <v>0</v>
       </c>
-      <c r="M4" s="62">
+      <c r="M4" s="63">
         <f t="shared" ref="M4:M20" si="1">L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41">
         <v>3</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="42">
         <v>0</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43">
         <v>0</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="43">
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59" t="e">
+      <c r="I5" s="59"/>
+      <c r="J5" s="60" t="e">
         <f t="shared" ref="J5:J20" si="2">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="60">
+      <c r="K5" s="61">
         <v>0</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5" s="62">
         <v>0</v>
       </c>
-      <c r="M5" s="62" t="e">
+      <c r="M5" s="63" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40">
+      <c r="A6" s="40"/>
+      <c r="B6" s="41">
         <v>4</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="42">
         <v>0</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42">
+      <c r="D6" s="43"/>
+      <c r="E6" s="43">
         <v>0</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="43">
+      <c r="F6" s="44"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59" t="e">
+      <c r="I6" s="59"/>
+      <c r="J6" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="61">
         <v>0</v>
       </c>
-      <c r="L6" s="61">
+      <c r="L6" s="62">
         <v>0</v>
       </c>
-      <c r="M6" s="62" t="e">
+      <c r="M6" s="63" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40">
+      <c r="A7" s="40"/>
+      <c r="B7" s="41">
         <v>5</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="42">
         <v>1</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42">
+      <c r="D7" s="43"/>
+      <c r="E7" s="43">
         <v>1</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="43">
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59" t="e">
+      <c r="I7" s="59"/>
+      <c r="J7" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="60">
+      <c r="K7" s="61">
         <v>1</v>
       </c>
-      <c r="L7" s="61">
+      <c r="L7" s="62">
         <v>0</v>
       </c>
-      <c r="M7" s="62">
+      <c r="M7" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="45"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="49">
+      <c r="A8" s="46"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64" t="e">
+      <c r="I8" s="64"/>
+      <c r="J8" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="65">
+      <c r="K8" s="66">
         <v>0</v>
       </c>
-      <c r="L8" s="66">
+      <c r="L8" s="67">
         <v>0</v>
       </c>
-      <c r="M8" s="67" t="e">
+      <c r="M8" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="39">
+      <c r="A9" s="40">
         <v>2</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="41">
         <v>8</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="42">
         <v>1</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="43">
         <v>1</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="43">
+      <c r="E9" s="43"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59">
+      <c r="I9" s="59"/>
+      <c r="J9" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="60">
+      <c r="K9" s="61">
         <f>C9+G9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="61">
+      <c r="L9" s="62">
         <f>D9+G9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="62">
+      <c r="M9" s="63">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40">
+      <c r="A10" s="40"/>
+      <c r="B10" s="41">
         <v>10</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="42">
         <v>1</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42">
+      <c r="D10" s="43"/>
+      <c r="E10" s="43">
         <v>1</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="43">
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59" t="e">
+      <c r="I10" s="59"/>
+      <c r="J10" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="60">
+      <c r="K10" s="61">
         <v>1</v>
       </c>
-      <c r="L10" s="61">
+      <c r="L10" s="62">
         <v>0</v>
       </c>
-      <c r="M10" s="62">
+      <c r="M10" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="43">
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59" t="e">
+      <c r="I11" s="59"/>
+      <c r="J11" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="60">
+      <c r="K11" s="61">
         <v>0</v>
       </c>
-      <c r="L11" s="61">
+      <c r="L11" s="62">
         <v>0</v>
       </c>
-      <c r="M11" s="62" t="e">
+      <c r="M11" s="63" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="43">
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="58"/>
-      <c r="J12" s="59" t="e">
+      <c r="I12" s="59"/>
+      <c r="J12" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="60">
+      <c r="K12" s="61">
         <v>0</v>
       </c>
-      <c r="L12" s="61">
+      <c r="L12" s="62">
         <v>0</v>
       </c>
-      <c r="M12" s="62" t="e">
+      <c r="M12" s="63" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="43">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59" t="e">
+      <c r="I13" s="59"/>
+      <c r="J13" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="60">
+      <c r="K13" s="61">
         <v>1</v>
       </c>
-      <c r="L13" s="61">
+      <c r="L13" s="62">
         <v>0</v>
       </c>
-      <c r="M13" s="62">
+      <c r="M13" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:13">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="49">
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64" t="e">
+      <c r="I14" s="64"/>
+      <c r="J14" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="65">
+      <c r="K14" s="66">
         <v>0</v>
       </c>
-      <c r="L14" s="66">
+      <c r="L14" s="67">
         <v>0</v>
       </c>
-      <c r="M14" s="67" t="e">
+      <c r="M14" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="39">
+      <c r="A15" s="40">
         <v>3</v>
       </c>
-      <c r="B15" s="40">
+      <c r="B15" s="41">
         <v>11</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="42">
         <v>2</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="43">
         <v>1</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="43">
         <v>1</v>
       </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="43">
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="58"/>
-      <c r="J15" s="59">
+      <c r="I15" s="59"/>
+      <c r="J15" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="60">
+      <c r="K15" s="61">
         <f>C15+G15</f>
         <v>2</v>
       </c>
-      <c r="L15" s="61">
+      <c r="L15" s="62">
         <f>D15+G15</f>
         <v>1</v>
       </c>
-      <c r="M15" s="62">
+      <c r="M15" s="63">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="43">
+      <c r="A16" s="40"/>
+      <c r="B16" s="41">
+        <v>12</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43">
+        <v>1</v>
+      </c>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="58"/>
-      <c r="J16" s="59" t="e">
+      <c r="I16" s="59"/>
+      <c r="J16" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="60">
+      <c r="K16" s="61">
         <v>1</v>
       </c>
-      <c r="L16" s="61">
+      <c r="L16" s="62">
         <v>0</v>
       </c>
-      <c r="M16" s="62">
+      <c r="M16" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="43">
+      <c r="A17" s="40"/>
+      <c r="B17" s="41">
+        <v>13</v>
+      </c>
+      <c r="C17" s="42">
+        <v>2</v>
+      </c>
+      <c r="D17" s="43">
+        <v>3</v>
+      </c>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="58"/>
-      <c r="J17" s="59" t="e">
+      <c r="I17" s="59"/>
+      <c r="J17" s="60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="61">
+        <v>2</v>
+      </c>
+      <c r="L17" s="62">
+        <v>3</v>
+      </c>
+      <c r="M17" s="63">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K17" s="60">
+      <c r="K18" s="61">
         <v>0</v>
       </c>
-      <c r="L17" s="61">
+      <c r="L18" s="62">
         <v>0</v>
       </c>
-      <c r="M17" s="62" t="e">
+      <c r="M18" s="63" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="43">
+    <row r="19" spans="1:13">
+      <c r="A19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="58"/>
-      <c r="J18" s="59" t="e">
+      <c r="I19" s="59"/>
+      <c r="J19" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="60">
+      <c r="K19" s="61">
+        <v>1</v>
+      </c>
+      <c r="L19" s="62">
         <v>0</v>
       </c>
-      <c r="L18" s="61">
+      <c r="M19" s="63">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M18" s="62" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="43">
+    </row>
+    <row r="20" ht="14.25" spans="1:13">
+      <c r="A20" s="46"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59" t="e">
+      <c r="I20" s="64"/>
+      <c r="J20" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="60">
-        <v>1</v>
-      </c>
-      <c r="L19" s="61">
+      <c r="K20" s="66">
         <v>0</v>
       </c>
-      <c r="M19" s="62">
-        <f t="shared" si="1"/>
+      <c r="L20" s="67">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" ht="14.25" spans="1:13">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="65">
-        <v>0</v>
-      </c>
-      <c r="L20" s="66">
-        <v>0</v>
-      </c>
-      <c r="M20" s="67" t="e">
+      <c r="M20" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2487,7 +2534,7 @@
   <dimension ref="A1:O300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I9" sqref="I9:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -2530,7 +2577,7 @@
       <c r="H1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="30" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="23" t="s">
@@ -2808,15 +2855,15 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="28">
+      <c r="A8" s="8">
         <v>12</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="8"/>
@@ -2829,55 +2876,145 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="A9" s="28">
+        <v>13</v>
+      </c>
+      <c r="B9" s="29">
+        <v>43183</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="28">
+        <v>76139331</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="8">
+        <v>17625903469</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="28">
+        <v>15151845795</v>
+      </c>
+      <c r="O9" s="28" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="A10" s="28">
+        <v>13</v>
+      </c>
+      <c r="B10" s="29">
+        <v>43185</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="28">
+        <v>76136516</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="8">
+        <v>17625903469</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="28">
+        <v>15050585010</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="A11" s="28">
+        <v>13</v>
+      </c>
+      <c r="B11" s="29">
+        <v>43187</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="28">
+        <v>76151203</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="8">
+        <v>17625903469</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="28">
+        <v>18551690432</v>
+      </c>
+      <c r="O11" s="28" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1"/>
@@ -2889,10 +3026,10 @@
       <c r="G12" s="1"/>
       <c r="H12" s="8"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="M12" s="28"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
@@ -7819,7 +7956,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -7841,19 +7978,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7861,22 +7998,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C2" s="16">
         <v>43102</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7890,16 +8027,16 @@
         <v>43110</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7913,16 +8050,16 @@
         <v>43126</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7930,22 +8067,22 @@
         <v>6</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C5" s="16">
         <v>43133</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7953,22 +8090,22 @@
         <v>8</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C6" s="16">
         <v>43102</v>
       </c>
       <c r="D6" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:7">
@@ -7976,22 +8113,22 @@
         <v>8</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C7" s="16">
         <v>43133</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7999,22 +8136,22 @@
         <v>11</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C8" s="16">
         <v>43172</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -8777,7 +8914,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -8794,20 +8931,28 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="8"/>

--- a/周数据/《个人上线率统计表》-徐沛华.xlsx
+++ b/周数据/《个人上线率统计表》-徐沛华.xlsx
@@ -311,11 +311,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -395,15 +395,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,47 +416,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,11 +431,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -503,13 +463,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -518,6 +471,53 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,7 +532,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,13 +601,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,13 +631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,19 +649,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,25 +739,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,42 +757,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -757,19 +769,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,41 +1086,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,17 +1106,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1175,6 +1134,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1183,6 +1168,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1191,10 +1191,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1203,144 +1203,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1364,7 +1364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1373,7 +1373,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1382,7 +1382,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1394,7 +1394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1406,7 +1406,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1417,9 +1417,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1874,643 +1871,643 @@
     <col min="7" max="7" width="15.5" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="31" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="30" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="53"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="58" t="s">
+      <c r="M2" s="57" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="40">
+      <c r="A3" s="39">
         <v>1</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="40">
         <v>1</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="41">
         <v>1</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43">
+      <c r="D3" s="42"/>
+      <c r="E3" s="42">
         <f>C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="44">
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="43">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="60" t="e">
+      <c r="I3" s="58"/>
+      <c r="J3" s="59" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="61">
+      <c r="K3" s="60">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="62">
+      <c r="L3" s="61">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="63">
+      <c r="M3" s="62">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40">
         <v>2</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="41">
         <v>1</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43">
+      <c r="D4" s="42"/>
+      <c r="E4" s="42">
         <v>1</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="44">
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="43">
         <f t="shared" ref="H4:H20" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="60" t="e">
+      <c r="I4" s="58"/>
+      <c r="J4" s="59" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="61">
+      <c r="K4" s="60">
         <v>1</v>
       </c>
-      <c r="L4" s="62">
+      <c r="L4" s="61">
         <v>0</v>
       </c>
-      <c r="M4" s="63">
+      <c r="M4" s="62">
         <f t="shared" ref="M4:M20" si="1">L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40">
         <v>3</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="41">
         <v>0</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42">
         <v>0</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="44">
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="60" t="e">
+      <c r="I5" s="58"/>
+      <c r="J5" s="59" t="e">
         <f t="shared" ref="J5:J20" si="2">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="61">
+      <c r="K5" s="60">
         <v>0</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="61">
         <v>0</v>
       </c>
-      <c r="M5" s="63" t="e">
+      <c r="M5" s="62" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41">
+      <c r="A6" s="39"/>
+      <c r="B6" s="40">
         <v>4</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="41">
         <v>0</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43">
+      <c r="D6" s="42"/>
+      <c r="E6" s="42">
         <v>0</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="44">
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="59"/>
-      <c r="J6" s="60" t="e">
+      <c r="I6" s="58"/>
+      <c r="J6" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="61">
+      <c r="K6" s="60">
         <v>0</v>
       </c>
-      <c r="L6" s="62">
+      <c r="L6" s="61">
         <v>0</v>
       </c>
-      <c r="M6" s="63" t="e">
+      <c r="M6" s="62" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40">
         <v>5</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="41">
         <v>1</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43">
+      <c r="D7" s="42"/>
+      <c r="E7" s="42">
         <v>1</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="44">
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="60" t="e">
+      <c r="I7" s="58"/>
+      <c r="J7" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="61">
+      <c r="K7" s="60">
         <v>1</v>
       </c>
-      <c r="L7" s="62">
+      <c r="L7" s="61">
         <v>0</v>
       </c>
-      <c r="M7" s="63">
+      <c r="M7" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="46"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="50">
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65" t="e">
+      <c r="I8" s="63"/>
+      <c r="J8" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="66">
+      <c r="K8" s="65">
         <v>0</v>
       </c>
-      <c r="L8" s="67">
+      <c r="L8" s="66">
         <v>0</v>
       </c>
-      <c r="M8" s="68" t="e">
+      <c r="M8" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="40">
+      <c r="A9" s="39">
         <v>2</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="40">
         <v>8</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="41">
         <v>1</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="42">
         <v>1</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="44">
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="60">
+      <c r="I9" s="58"/>
+      <c r="J9" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="61">
+      <c r="K9" s="60">
         <f>C9+G9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="62">
+      <c r="L9" s="61">
         <f>D9+G9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="63">
+      <c r="M9" s="62">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41">
+      <c r="A10" s="39"/>
+      <c r="B10" s="40">
         <v>10</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="41">
         <v>1</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43">
+      <c r="D10" s="42"/>
+      <c r="E10" s="42">
         <v>1</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="44">
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="59"/>
-      <c r="J10" s="60" t="e">
+      <c r="I10" s="58"/>
+      <c r="J10" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="61">
+      <c r="K10" s="60">
         <v>1</v>
       </c>
-      <c r="L10" s="62">
+      <c r="L10" s="61">
         <v>0</v>
       </c>
-      <c r="M10" s="63">
+      <c r="M10" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="40"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="44">
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="59"/>
-      <c r="J11" s="60" t="e">
+      <c r="I11" s="58"/>
+      <c r="J11" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="61">
+      <c r="K11" s="60">
         <v>0</v>
       </c>
-      <c r="L11" s="62">
+      <c r="L11" s="61">
         <v>0</v>
       </c>
-      <c r="M11" s="63" t="e">
+      <c r="M11" s="62" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="40"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="44">
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="59"/>
-      <c r="J12" s="60" t="e">
+      <c r="I12" s="58"/>
+      <c r="J12" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="61">
+      <c r="K12" s="60">
         <v>0</v>
       </c>
-      <c r="L12" s="62">
+      <c r="L12" s="61">
         <v>0</v>
       </c>
-      <c r="M12" s="63" t="e">
+      <c r="M12" s="62" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="44">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="59"/>
-      <c r="J13" s="60" t="e">
+      <c r="I13" s="58"/>
+      <c r="J13" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="61">
+      <c r="K13" s="60">
         <v>1</v>
       </c>
-      <c r="L13" s="62">
+      <c r="L13" s="61">
         <v>0</v>
       </c>
-      <c r="M13" s="63">
+      <c r="M13" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:13">
-      <c r="A14" s="46"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="50">
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65" t="e">
+      <c r="I14" s="63"/>
+      <c r="J14" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="66">
+      <c r="K14" s="65">
         <v>0</v>
       </c>
-      <c r="L14" s="67">
+      <c r="L14" s="66">
         <v>0</v>
       </c>
-      <c r="M14" s="68" t="e">
+      <c r="M14" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="40">
+      <c r="A15" s="39">
         <v>3</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="40">
         <v>11</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="41">
         <v>2</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="42">
         <v>1</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="42">
         <v>1</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="44">
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="59"/>
-      <c r="J15" s="60">
+      <c r="I15" s="58"/>
+      <c r="J15" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="61">
+      <c r="K15" s="60">
         <f>C15+G15</f>
         <v>2</v>
       </c>
-      <c r="L15" s="62">
+      <c r="L15" s="61">
         <f>D15+G15</f>
         <v>1</v>
       </c>
-      <c r="M15" s="63">
+      <c r="M15" s="62">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41">
+      <c r="A16" s="39"/>
+      <c r="B16" s="40">
         <v>12</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43">
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42">
         <v>1</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="44">
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="59"/>
-      <c r="J16" s="60" t="e">
+      <c r="I16" s="58"/>
+      <c r="J16" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="61">
+      <c r="K16" s="60">
         <v>1</v>
       </c>
-      <c r="L16" s="62">
+      <c r="L16" s="61">
         <v>0</v>
       </c>
-      <c r="M16" s="63">
+      <c r="M16" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41">
+      <c r="A17" s="39"/>
+      <c r="B17" s="40">
         <v>13</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="41">
         <v>2</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="42">
         <v>3</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="44">
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="59"/>
-      <c r="J17" s="60">
+      <c r="I17" s="58"/>
+      <c r="J17" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="61">
+      <c r="K17" s="60">
         <v>2</v>
       </c>
-      <c r="L17" s="62">
+      <c r="L17" s="61">
         <v>3</v>
       </c>
-      <c r="M17" s="63">
+      <c r="M17" s="62">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="44">
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="59"/>
-      <c r="J18" s="60" t="e">
+      <c r="I18" s="58"/>
+      <c r="J18" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="61">
+      <c r="K18" s="60">
         <v>0</v>
       </c>
-      <c r="L18" s="62">
+      <c r="L18" s="61">
         <v>0</v>
       </c>
-      <c r="M18" s="63" t="e">
+      <c r="M18" s="62" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="44">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="59"/>
-      <c r="J19" s="60" t="e">
+      <c r="I19" s="58"/>
+      <c r="J19" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="61">
+      <c r="K19" s="60">
         <v>1</v>
       </c>
-      <c r="L19" s="62">
+      <c r="L19" s="61">
         <v>0</v>
       </c>
-      <c r="M19" s="63">
+      <c r="M19" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:13">
-      <c r="A20" s="46"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="50">
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="64"/>
-      <c r="J20" s="65" t="e">
+      <c r="I20" s="63"/>
+      <c r="J20" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="66">
+      <c r="K20" s="65">
         <v>0</v>
       </c>
-      <c r="L20" s="67">
+      <c r="L20" s="66">
         <v>0</v>
       </c>
-      <c r="M20" s="68" t="e">
+      <c r="M20" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2534,7 +2531,7 @@
   <dimension ref="A1:O300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:I11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -2577,7 +2574,7 @@
       <c r="H1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="23" t="s">
@@ -2863,7 +2860,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="28"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="8"/>
@@ -2876,31 +2873,31 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="28">
+      <c r="A9" s="8">
         <v>13</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="27">
         <v>43183</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="8">
         <v>76139331</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="8" t="s">
         <v>32</v>
       </c>
       <c r="J9" s="8" t="s">
@@ -2909,45 +2906,45 @@
       <c r="K9" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="M9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="28">
+      <c r="N9" s="8">
         <v>15151845795</v>
       </c>
-      <c r="O9" s="28" t="s">
+      <c r="O9" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="28">
+      <c r="A10" s="8">
         <v>13</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="27">
         <v>43185</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="8">
         <v>76136516</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="8" t="s">
         <v>32</v>
       </c>
       <c r="J10" s="8" t="s">
@@ -2956,45 +2953,45 @@
       <c r="K10" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="M10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="8">
         <v>15050585010</v>
       </c>
-      <c r="O10" s="28" t="s">
+      <c r="O10" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="28">
+      <c r="A11" s="8">
         <v>13</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="27">
         <v>43187</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="8">
         <v>76151203</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="8" t="s">
         <v>32</v>
       </c>
       <c r="J11" s="8" t="s">
@@ -3003,22 +3000,26 @@
       <c r="K11" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L11" s="28" t="s">
+      <c r="L11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="M11" s="28" t="s">
+      <c r="M11" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="8">
         <v>18551690432</v>
       </c>
-      <c r="O11" s="28" t="s">
+      <c r="O11" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="28">
+        <v>14</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -3029,7 +3030,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="28"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>

--- a/周数据/《个人上线率统计表》-徐沛华.xlsx
+++ b/周数据/《个人上线率统计表》-徐沛华.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -225,6 +225,12 @@
     <t>经理</t>
   </si>
   <si>
+    <t>味中仙菜馆</t>
+  </si>
+  <si>
+    <t>徐俊</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -286,6 +292,33 @@
   </si>
   <si>
     <t>肖如梦</t>
+  </si>
+  <si>
+    <t>老厨人深海炖锅</t>
+  </si>
+  <si>
+    <t>装修中，实施老板提前告知。</t>
+  </si>
+  <si>
+    <t>郑立冬</t>
+  </si>
+  <si>
+    <t>巴适满堂美蛙鱼头火锅</t>
+  </si>
+  <si>
+    <t>装修中，月底实施。</t>
+  </si>
+  <si>
+    <t>武耀</t>
+  </si>
+  <si>
+    <t>李不管南通店</t>
+  </si>
+  <si>
+    <t>周末实施。</t>
+  </si>
+  <si>
+    <t>成都项目</t>
   </si>
   <si>
     <t>姓名</t>
@@ -311,12 +344,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -395,6 +428,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -402,22 +465,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,17 +489,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,20 +532,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -484,34 +540,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -532,7 +565,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,37 +634,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,25 +652,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,73 +736,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,7 +790,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,24 +1121,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1115,6 +1135,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1149,13 +1193,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1168,21 +1216,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1191,10 +1224,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1203,137 +1236,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1362,10 +1395,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1388,6 +1427,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1399,6 +1447,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1417,6 +1468,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1857,657 +1911,673 @@
   <sheetPr/>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="9" customWidth="1"/>
-    <col min="3" max="4" width="16.25" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="9" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="9" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="30" customWidth="1"/>
-    <col min="11" max="11" width="16" style="9" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="11" customWidth="1"/>
+    <col min="3" max="4" width="16.25" style="11" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="11" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="11" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="11" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="11" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="37" customWidth="1"/>
+    <col min="11" max="11" width="16" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="52"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="59"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="64" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="39">
+      <c r="A3" s="46">
         <v>1</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="47">
         <v>1</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="48">
         <v>1</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42">
+      <c r="D3" s="49"/>
+      <c r="E3" s="49">
         <f>C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="43">
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="50">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59" t="e">
+      <c r="I3" s="65"/>
+      <c r="J3" s="66" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="60">
+      <c r="K3" s="67">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="61">
+      <c r="L3" s="68">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="62">
+      <c r="M3" s="69">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47">
         <v>2</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="48">
         <v>1</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42">
+      <c r="D4" s="49"/>
+      <c r="E4" s="49">
         <v>1</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="43">
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="50">
         <f t="shared" ref="H4:H20" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59" t="e">
+      <c r="I4" s="65"/>
+      <c r="J4" s="66" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="60">
+      <c r="K4" s="67">
         <v>1</v>
       </c>
-      <c r="L4" s="61">
+      <c r="L4" s="68">
         <v>0</v>
       </c>
-      <c r="M4" s="62">
+      <c r="M4" s="69">
         <f t="shared" ref="M4:M20" si="1">L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47">
         <v>3</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="48">
         <v>0</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49">
         <v>0</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="43">
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59" t="e">
+      <c r="I5" s="65"/>
+      <c r="J5" s="66" t="e">
         <f t="shared" ref="J5:J20" si="2">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="60">
+      <c r="K5" s="67">
         <v>0</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5" s="68">
         <v>0</v>
       </c>
-      <c r="M5" s="62" t="e">
+      <c r="M5" s="69" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40">
+      <c r="A6" s="46"/>
+      <c r="B6" s="47">
         <v>4</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="48">
         <v>0</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42">
+      <c r="D6" s="49"/>
+      <c r="E6" s="49">
         <v>0</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="43">
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59" t="e">
+      <c r="I6" s="65"/>
+      <c r="J6" s="66" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="67">
         <v>0</v>
       </c>
-      <c r="L6" s="61">
+      <c r="L6" s="68">
         <v>0</v>
       </c>
-      <c r="M6" s="62" t="e">
+      <c r="M6" s="69" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40">
+      <c r="A7" s="46"/>
+      <c r="B7" s="47">
         <v>5</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="48">
         <v>1</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49">
         <v>1</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="43">
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59" t="e">
+      <c r="I7" s="65"/>
+      <c r="J7" s="66" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="60">
+      <c r="K7" s="67">
         <v>1</v>
       </c>
-      <c r="L7" s="61">
+      <c r="L7" s="68">
         <v>0</v>
       </c>
-      <c r="M7" s="62">
+      <c r="M7" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="45"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="49">
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64" t="e">
+      <c r="I8" s="70"/>
+      <c r="J8" s="71" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="65">
+      <c r="K8" s="72">
         <v>0</v>
       </c>
-      <c r="L8" s="66">
+      <c r="L8" s="73">
         <v>0</v>
       </c>
-      <c r="M8" s="67" t="e">
+      <c r="M8" s="74" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="39">
+      <c r="A9" s="46">
         <v>2</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="47">
         <v>8</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="48">
         <v>1</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="49">
         <v>1</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="43">
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59">
+      <c r="I9" s="65"/>
+      <c r="J9" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="60">
+      <c r="K9" s="67">
         <f>C9+G9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="61">
+      <c r="L9" s="68">
         <f>D9+G9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="62">
+      <c r="M9" s="69">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40">
+      <c r="A10" s="46"/>
+      <c r="B10" s="47">
         <v>10</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="48">
         <v>1</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42">
+      <c r="D10" s="49"/>
+      <c r="E10" s="49">
         <v>1</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="43">
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59" t="e">
+      <c r="I10" s="65"/>
+      <c r="J10" s="66" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="60">
+      <c r="K10" s="67">
         <v>1</v>
       </c>
-      <c r="L10" s="61">
+      <c r="L10" s="68">
         <v>0</v>
       </c>
-      <c r="M10" s="62">
+      <c r="M10" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="43">
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59" t="e">
+      <c r="I11" s="65"/>
+      <c r="J11" s="66" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="60">
+      <c r="K11" s="67">
         <v>0</v>
       </c>
-      <c r="L11" s="61">
+      <c r="L11" s="68">
         <v>0</v>
       </c>
-      <c r="M11" s="62" t="e">
+      <c r="M11" s="69" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="43">
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="58"/>
-      <c r="J12" s="59" t="e">
+      <c r="I12" s="65"/>
+      <c r="J12" s="66" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="60">
+      <c r="K12" s="67">
         <v>0</v>
       </c>
-      <c r="L12" s="61">
+      <c r="L12" s="68">
         <v>0</v>
       </c>
-      <c r="M12" s="62" t="e">
+      <c r="M12" s="69" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="43">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59" t="e">
+      <c r="I13" s="65"/>
+      <c r="J13" s="66" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="60">
+      <c r="K13" s="67">
         <v>1</v>
       </c>
-      <c r="L13" s="61">
+      <c r="L13" s="68">
         <v>0</v>
       </c>
-      <c r="M13" s="62">
+      <c r="M13" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:13">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="49">
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64" t="e">
+      <c r="I14" s="70"/>
+      <c r="J14" s="71" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="65">
+      <c r="K14" s="72">
         <v>0</v>
       </c>
-      <c r="L14" s="66">
+      <c r="L14" s="73">
         <v>0</v>
       </c>
-      <c r="M14" s="67" t="e">
+      <c r="M14" s="74" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="39">
+      <c r="A15" s="46">
         <v>3</v>
       </c>
-      <c r="B15" s="40">
+      <c r="B15" s="47">
         <v>11</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="48">
         <v>2</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="49">
         <v>1</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="49">
         <v>1</v>
       </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="43">
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="58"/>
-      <c r="J15" s="59">
+      <c r="I15" s="65"/>
+      <c r="J15" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="60">
+      <c r="K15" s="67">
         <f>C15+G15</f>
         <v>2</v>
       </c>
-      <c r="L15" s="61">
+      <c r="L15" s="68">
         <f>D15+G15</f>
         <v>1</v>
       </c>
-      <c r="M15" s="62">
+      <c r="M15" s="69">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47">
         <v>12</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42">
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49">
         <v>1</v>
       </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="43">
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="58"/>
-      <c r="J16" s="59" t="e">
+      <c r="I16" s="65"/>
+      <c r="J16" s="66" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="60">
+      <c r="K16" s="67">
         <v>1</v>
       </c>
-      <c r="L16" s="61">
+      <c r="L16" s="68">
         <v>0</v>
       </c>
-      <c r="M16" s="62">
+      <c r="M16" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40">
+      <c r="A17" s="46"/>
+      <c r="B17" s="47">
         <v>13</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="48">
         <v>2</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="49">
         <v>3</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="43">
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="58"/>
-      <c r="J17" s="59">
+      <c r="I17" s="65"/>
+      <c r="J17" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="60">
+      <c r="K17" s="67">
         <v>2</v>
       </c>
-      <c r="L17" s="61">
+      <c r="L17" s="68">
         <v>3</v>
       </c>
-      <c r="M17" s="62">
+      <c r="M17" s="69">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="43">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47">
+        <v>14</v>
+      </c>
+      <c r="C18" s="48">
+        <v>2</v>
+      </c>
+      <c r="D18" s="49">
+        <v>0</v>
+      </c>
+      <c r="E18" s="49">
+        <v>2</v>
+      </c>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="58"/>
-      <c r="J18" s="59" t="e">
+      <c r="I18" s="65"/>
+      <c r="J18" s="66" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="60">
+      <c r="K18" s="67">
         <v>0</v>
       </c>
-      <c r="L18" s="61">
+      <c r="L18" s="68">
         <v>0</v>
       </c>
-      <c r="M18" s="62" t="e">
+      <c r="M18" s="69" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="43">
+      <c r="A19" s="46"/>
+      <c r="B19" s="47">
+        <v>15</v>
+      </c>
+      <c r="C19" s="48">
+        <v>2</v>
+      </c>
+      <c r="D19" s="49">
+        <v>1</v>
+      </c>
+      <c r="E19" s="49">
+        <v>1</v>
+      </c>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59" t="e">
+      <c r="I19" s="65"/>
+      <c r="J19" s="66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="67">
+        <v>2</v>
+      </c>
+      <c r="L19" s="68">
+        <v>1</v>
+      </c>
+      <c r="M19" s="69">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:13">
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="70"/>
+      <c r="J20" s="71" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="60">
-        <v>1</v>
-      </c>
-      <c r="L19" s="61">
+      <c r="K20" s="72">
         <v>0</v>
       </c>
-      <c r="M19" s="62">
-        <f t="shared" si="1"/>
+      <c r="L20" s="73">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" ht="14.25" spans="1:13">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="65">
-        <v>0</v>
-      </c>
-      <c r="L20" s="66">
-        <v>0</v>
-      </c>
-      <c r="M20" s="67" t="e">
+      <c r="M20" s="74" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2530,8 +2600,8 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -2542,57 +2612,57 @@
     <col min="5" max="5" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="11" customWidth="1"/>
     <col min="9" max="9" width="9.875" customWidth="1"/>
     <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="22" t="s">
+    <row r="1" s="26" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="28" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2600,40 +2670,40 @@
       <c r="A2" s="8">
         <v>3</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="30">
         <v>43116</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="24" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="8">
         <v>76123117</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="24" t="s">
         <v>34</v>
       </c>
       <c r="K2" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="24" t="s">
         <v>36</v>
       </c>
       <c r="N2" s="8">
@@ -2647,11 +2717,11 @@
       <c r="A3" s="8">
         <v>4</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="26"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="H3" s="8"/>
@@ -2667,7 +2737,7 @@
       <c r="A4" s="8">
         <v>5</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="33">
         <v>43117</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -2714,7 +2784,7 @@
       <c r="A5" s="8">
         <v>6</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="33">
         <v>43139</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -2761,7 +2831,7 @@
       <c r="A6" s="8">
         <v>9</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="33">
         <v>43155</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -2808,7 +2878,7 @@
       <c r="A7" s="8">
         <v>11</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="33">
         <v>43166</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -2876,7 +2946,7 @@
       <c r="A9" s="8">
         <v>13</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="33">
         <v>43183</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -2923,7 +2993,7 @@
       <c r="A10" s="8">
         <v>13</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="33">
         <v>43185</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -2970,7 +3040,7 @@
       <c r="A11" s="8">
         <v>13</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="33">
         <v>43187</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -3014,10 +3084,10 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="28">
+      <c r="A12" s="8">
         <v>14</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="1"/>
@@ -3034,22 +3104,52 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+    <row r="13" s="27" customFormat="1" spans="1:15">
+      <c r="A13" s="34">
+        <v>15</v>
+      </c>
+      <c r="B13" s="35">
+        <v>43201</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="34">
+        <v>76156301</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="8">
+        <v>17625903469</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" s="34">
+        <v>15366199998</v>
+      </c>
+      <c r="O13" s="34" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1"/>
@@ -7957,938 +8057,980 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="11" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="10" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="11" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="13" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="E1" s="14" t="s">
         <v>66</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="B2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="18">
         <v>43102</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>68</v>
+      <c r="D2" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="18">
         <v>43110</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="8">
         <v>5</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="18">
         <v>43126</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>74</v>
+      <c r="D4" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="8">
         <v>6</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="16">
+      <c r="B5" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="18">
         <v>43133</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>77</v>
+      <c r="D5" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="8">
         <v>8</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="16">
+      <c r="B6" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="18">
         <v>43102</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>79</v>
+      <c r="D6" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:7">
       <c r="A7" s="8">
         <v>8</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="16">
+      <c r="B7" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="18">
         <v>43133</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="8">
         <v>11</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="18">
         <v>43172</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>81</v>
+      <c r="D8" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="8"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="8"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="8"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="A9" s="8">
+        <v>15</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="18">
+        <v>43192</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" s="9" customFormat="1" spans="1:7">
+      <c r="A10" s="8">
+        <v>15</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="18">
+        <v>43189</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" s="10" customFormat="1" spans="1:7">
+      <c r="A11" s="8">
+        <v>15</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="18">
+        <v>43199</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="8"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="8"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="8"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="8"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="8"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="8"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="8"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="8"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="8"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="8"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="8"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="8"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="8"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="8"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="8"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="8"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="8"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="8"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="8"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="8"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="8"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="8"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="8"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="8"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="8"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="8"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="19"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="8"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="19"/>
       <c r="E38" s="8"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="8"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="19"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="8"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="19"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="8"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="8"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="19"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="8"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="19"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="8"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="19"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="8"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="19"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="8"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="19"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="8"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="19"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="8"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="19"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="8"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="19"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="8"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="19"/>
       <c r="E50" s="8"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="8"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="19"/>
       <c r="E51" s="8"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="8"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="19"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="8"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="19"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="8"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="19"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="8"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="19"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="8"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="19"/>
       <c r="E56" s="8"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="8"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="19"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="8"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="19"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="8"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="19"/>
       <c r="E59" s="8"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
     </row>
     <row r="60" ht="14.25" spans="1:7">
       <c r="A60" s="8"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="18"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="23"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="19"/>
+      <c r="G60" s="24"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="8"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="19"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="8"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="19"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="8"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="19"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="8"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="19"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="8"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="19"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="8"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="19"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="8"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="19"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="8"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="19"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
     <row r="69" ht="14.25" spans="1:7">
       <c r="A69" s="8"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="18"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="23"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="15"/>
+      <c r="G69" s="17"/>
     </row>
     <row r="70" ht="14.25" spans="1:7">
       <c r="A70" s="8"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="18"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="23"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="8"/>
     </row>
     <row r="71" ht="14.25" spans="1:7">
       <c r="A71" s="8"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="18"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="23"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="8"/>
     </row>
     <row r="72" ht="14.25" spans="1:7">
       <c r="A72" s="8"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="18"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="23"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="19"/>
+      <c r="G72" s="24"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="8"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="17"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="19"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="8"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="19"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="8"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="19"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="8"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="19"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="8"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="19"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="8"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="19"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="8"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="19"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="8"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="19"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
     <row r="81" ht="14.25" spans="1:7">
       <c r="A81" s="8"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="18"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="23"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="8"/>
     </row>
     <row r="82" ht="14.25" spans="1:7">
       <c r="A82" s="8"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="18"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="23"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="19"/>
+      <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="8"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="19"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="8"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="19"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="8"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="19"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="8"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="19"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="8"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="19"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="8"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="19"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="8"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="19"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="8"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="19"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -8932,27 +9074,27 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:4">

--- a/周数据/《个人上线率统计表》-徐沛华.xlsx
+++ b/周数据/《个人上线率统计表》-徐沛华.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -231,6 +231,21 @@
     <t>徐俊</t>
   </si>
   <si>
+    <t>4月17</t>
+  </si>
+  <si>
+    <t>四川李不管餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>南通</t>
+  </si>
+  <si>
+    <t>李不管把把烧</t>
+  </si>
+  <si>
+    <t>杨晨晨</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -321,6 +336,12 @@
     <t>成都项目</t>
   </si>
   <si>
+    <t>小郡肝花园路店</t>
+  </si>
+  <si>
+    <t>明日安装。</t>
+  </si>
+  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -337,6 +358,21 @@
   </si>
   <si>
     <t>福鑫园驻店</t>
+  </si>
+  <si>
+    <t>4月</t>
+  </si>
+  <si>
+    <t>14日</t>
+  </si>
+  <si>
+    <t>李不管南通店实施</t>
+  </si>
+  <si>
+    <t>15日</t>
+  </si>
+  <si>
+    <t>李不管南通店驻店</t>
   </si>
 </sst>
 </file>
@@ -344,10 +380,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -434,6 +470,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -450,8 +501,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,54 +517,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -532,25 +540,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,7 +594,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,6 +670,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -641,18 +695,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,31 +712,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,60 +784,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -784,6 +796,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -791,12 +833,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,74 +1157,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1211,8 +1182,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1224,10 +1260,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1236,137 +1272,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1394,13 +1430,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1448,9 +1484,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1464,12 +1497,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1909,10 +1936,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1925,669 +1952,777 @@
     <col min="7" max="7" width="15.5" style="11" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="11" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="37" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="34" customWidth="1"/>
     <col min="11" max="11" width="16" style="11" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="11" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="59"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="56"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="64" t="s">
+      <c r="M2" s="61" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="46">
+      <c r="A3" s="43">
         <v>1</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="44">
         <v>1</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="45">
         <v>1</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46">
         <f>C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="50">
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="47">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66" t="e">
+      <c r="I3" s="62"/>
+      <c r="J3" s="63" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="67">
+      <c r="K3" s="64">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="68">
+      <c r="L3" s="65">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="69">
+      <c r="M3" s="66">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44">
         <v>2</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="45">
         <v>1</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49">
+      <c r="D4" s="46"/>
+      <c r="E4" s="46">
         <v>1</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="50">
-        <f t="shared" ref="H4:H20" si="0">F4-G4</f>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="47">
+        <f t="shared" ref="H4:H26" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="66" t="e">
+      <c r="I4" s="62"/>
+      <c r="J4" s="63" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="67">
+      <c r="K4" s="64">
         <v>1</v>
       </c>
-      <c r="L4" s="68">
+      <c r="L4" s="65">
         <v>0</v>
       </c>
-      <c r="M4" s="69">
-        <f t="shared" ref="M4:M20" si="1">L4/K4*100%</f>
+      <c r="M4" s="66">
+        <f t="shared" ref="M4:M26" si="1">L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47">
+      <c r="A5" s="43"/>
+      <c r="B5" s="44">
         <v>3</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="45">
         <v>0</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46">
         <v>0</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="50">
+      <c r="F5" s="47"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="65"/>
-      <c r="J5" s="66" t="e">
-        <f t="shared" ref="J5:J20" si="2">I5/L5*100%</f>
+      <c r="I5" s="62"/>
+      <c r="J5" s="63" t="e">
+        <f t="shared" ref="J5:J26" si="2">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="67">
+      <c r="K5" s="64">
         <v>0</v>
       </c>
-      <c r="L5" s="68">
+      <c r="L5" s="65">
         <v>0</v>
       </c>
-      <c r="M5" s="69" t="e">
+      <c r="M5" s="66" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44">
         <v>4</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="45">
         <v>0</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49">
+      <c r="D6" s="46"/>
+      <c r="E6" s="46">
         <v>0</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="50">
+      <c r="F6" s="47"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66" t="e">
+      <c r="I6" s="62"/>
+      <c r="J6" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="67">
+      <c r="K6" s="64">
         <v>0</v>
       </c>
-      <c r="L6" s="68">
+      <c r="L6" s="65">
         <v>0</v>
       </c>
-      <c r="M6" s="69" t="e">
+      <c r="M6" s="66" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="46"/>
-      <c r="B7" s="47">
+      <c r="A7" s="43"/>
+      <c r="B7" s="44">
         <v>5</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="45">
         <v>1</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49">
+      <c r="D7" s="46"/>
+      <c r="E7" s="46">
         <v>1</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="50">
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66" t="e">
+      <c r="I7" s="62"/>
+      <c r="J7" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="67">
+      <c r="K7" s="64">
         <v>1</v>
       </c>
-      <c r="L7" s="68">
+      <c r="L7" s="65">
         <v>0</v>
       </c>
-      <c r="M7" s="69">
+      <c r="M7" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="52"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="56">
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71" t="e">
+      <c r="I8" s="67"/>
+      <c r="J8" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="72">
+      <c r="K8" s="69">
         <v>0</v>
       </c>
-      <c r="L8" s="73">
+      <c r="L8" s="70">
         <v>0</v>
       </c>
-      <c r="M8" s="74" t="e">
+      <c r="M8" s="71" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="46">
+      <c r="A9" s="43">
         <v>2</v>
       </c>
-      <c r="B9" s="47">
+      <c r="B9" s="44">
         <v>8</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="45">
         <v>1</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="46">
         <v>1</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="50">
+      <c r="E9" s="46"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="65"/>
-      <c r="J9" s="66">
+      <c r="I9" s="62"/>
+      <c r="J9" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="67">
+      <c r="K9" s="64">
         <f>C9+G9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="68">
+      <c r="L9" s="65">
         <f>D9+G9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="69">
+      <c r="M9" s="66">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47">
+      <c r="A10" s="43"/>
+      <c r="B10" s="44">
         <v>10</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="45">
         <v>1</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49">
+      <c r="D10" s="46"/>
+      <c r="E10" s="46">
         <v>1</v>
       </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="50">
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="65"/>
-      <c r="J10" s="66" t="e">
+      <c r="I10" s="62"/>
+      <c r="J10" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="67">
+      <c r="K10" s="64">
         <v>1</v>
       </c>
-      <c r="L10" s="68">
+      <c r="L10" s="65">
         <v>0</v>
       </c>
-      <c r="M10" s="69">
+      <c r="M10" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="50">
+      <c r="A11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="65"/>
-      <c r="J11" s="66" t="e">
+      <c r="I11" s="62"/>
+      <c r="J11" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="67">
+      <c r="K11" s="64">
         <v>0</v>
       </c>
-      <c r="L11" s="68">
+      <c r="L11" s="65">
         <v>0</v>
       </c>
-      <c r="M11" s="69" t="e">
+      <c r="M11" s="66" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="50">
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="65"/>
-      <c r="J12" s="66" t="e">
+      <c r="I12" s="62"/>
+      <c r="J12" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="67">
+      <c r="K12" s="64">
         <v>0</v>
       </c>
-      <c r="L12" s="68">
+      <c r="L12" s="65">
         <v>0</v>
       </c>
-      <c r="M12" s="69" t="e">
+      <c r="M12" s="66" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="50">
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="65"/>
-      <c r="J13" s="66" t="e">
+      <c r="I13" s="62"/>
+      <c r="J13" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="67">
+      <c r="K13" s="64">
         <v>1</v>
       </c>
-      <c r="L13" s="68">
+      <c r="L13" s="65">
         <v>0</v>
       </c>
-      <c r="M13" s="69">
+      <c r="M13" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:13">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="56">
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="70"/>
-      <c r="J14" s="71" t="e">
+      <c r="I14" s="67"/>
+      <c r="J14" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="72">
+      <c r="K14" s="69">
         <v>0</v>
       </c>
-      <c r="L14" s="73">
+      <c r="L14" s="70">
         <v>0</v>
       </c>
-      <c r="M14" s="74" t="e">
+      <c r="M14" s="71" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="46">
+      <c r="A15" s="43">
         <v>3</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="44">
         <v>11</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="45">
         <v>2</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="46">
         <v>1</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="46">
         <v>1</v>
       </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="50">
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="65"/>
-      <c r="J15" s="66">
+      <c r="I15" s="62"/>
+      <c r="J15" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="67">
+      <c r="K15" s="64">
         <f>C15+G15</f>
         <v>2</v>
       </c>
-      <c r="L15" s="68">
+      <c r="L15" s="65">
         <f>D15+G15</f>
         <v>1</v>
       </c>
-      <c r="M15" s="69">
+      <c r="M15" s="66">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47">
+      <c r="A16" s="43"/>
+      <c r="B16" s="44">
         <v>12</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49">
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46">
         <v>1</v>
       </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="50">
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="65"/>
-      <c r="J16" s="66" t="e">
+      <c r="I16" s="62"/>
+      <c r="J16" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="67">
+      <c r="K16" s="64">
         <v>1</v>
       </c>
-      <c r="L16" s="68">
+      <c r="L16" s="65">
         <v>0</v>
       </c>
-      <c r="M16" s="69">
+      <c r="M16" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="46"/>
-      <c r="B17" s="47">
+      <c r="A17" s="43"/>
+      <c r="B17" s="44">
         <v>13</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="45">
         <v>2</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="46">
         <v>3</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="50">
+      <c r="E17" s="46"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="65"/>
-      <c r="J17" s="66">
+      <c r="I17" s="62"/>
+      <c r="J17" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="67">
+      <c r="K17" s="64">
         <v>2</v>
       </c>
-      <c r="L17" s="68">
+      <c r="L17" s="65">
         <v>3</v>
       </c>
-      <c r="M17" s="69">
+      <c r="M17" s="66">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47">
+      <c r="A18" s="43"/>
+      <c r="B18" s="44">
         <v>14</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="45">
         <v>2</v>
       </c>
-      <c r="D18" s="49">
+      <c r="D18" s="46">
         <v>0</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="46">
         <v>2</v>
       </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="50">
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="65"/>
-      <c r="J18" s="66" t="e">
+      <c r="I18" s="62"/>
+      <c r="J18" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="67">
+      <c r="K18" s="64">
         <v>0</v>
       </c>
-      <c r="L18" s="68">
+      <c r="L18" s="65">
         <v>0</v>
       </c>
-      <c r="M18" s="69" t="e">
+      <c r="M18" s="66" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="46"/>
-      <c r="B19" s="47">
-        <v>15</v>
-      </c>
-      <c r="C19" s="48">
-        <v>2</v>
-      </c>
-      <c r="D19" s="49">
-        <v>1</v>
-      </c>
-      <c r="E19" s="49">
-        <v>1</v>
-      </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="50">
+    <row r="19" ht="14.25" spans="1:13">
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="68" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="64"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="66"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:13">
+      <c r="A20" s="49"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="65"/>
-      <c r="J19" s="66">
+      <c r="I20" s="67"/>
+      <c r="J20" s="68" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K20" s="69">
+        <v>0</v>
+      </c>
+      <c r="L20" s="70">
+        <v>0</v>
+      </c>
+      <c r="M20" s="71" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="43">
+        <v>4</v>
+      </c>
+      <c r="B21" s="44">
+        <v>15</v>
+      </c>
+      <c r="C21" s="45">
+        <v>2</v>
+      </c>
+      <c r="D21" s="46">
+        <v>1</v>
+      </c>
+      <c r="E21" s="46">
+        <v>1</v>
+      </c>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="62"/>
+      <c r="J21" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K19" s="67">
+      <c r="K21" s="64">
         <v>2</v>
       </c>
-      <c r="L19" s="68">
+      <c r="L21" s="65">
         <v>1</v>
       </c>
-      <c r="M19" s="69">
+      <c r="M21" s="66">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:13">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="56">
-        <f t="shared" si="0"/>
+    <row r="22" spans="1:13">
+      <c r="A22" s="43"/>
+      <c r="B22" s="44">
+        <v>16</v>
+      </c>
+      <c r="C22" s="45">
+        <v>4</v>
+      </c>
+      <c r="D22" s="46">
+        <v>4</v>
+      </c>
+      <c r="E22" s="46">
         <v>0</v>
       </c>
-      <c r="I20" s="70"/>
-      <c r="J20" s="71" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="72">
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="64">
+        <v>4</v>
+      </c>
+      <c r="L22" s="65">
         <v>0</v>
       </c>
-      <c r="L20" s="73">
-        <v>0</v>
-      </c>
-      <c r="M20" s="74" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="M22" s="66"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="66"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:13">
+      <c r="A26" s="49"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2601,7 +2736,7 @@
   <dimension ref="A1:O300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -2609,7 +2744,7 @@
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="26.875" customWidth="1"/>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="10.25" customWidth="1"/>
     <col min="8" max="8" width="17.125" style="11" customWidth="1"/>
@@ -2620,57 +2755,57 @@
   </cols>
   <sheetData>
     <row r="1" s="26" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="27" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>3</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="29">
         <v>43116</v>
       </c>
       <c r="C2" s="24" t="s">
@@ -2685,10 +2820,10 @@
       <c r="F2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="9">
         <v>76123117</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="30" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -2697,7 +2832,7 @@
       <c r="J2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="9">
         <v>17625903469</v>
       </c>
       <c r="L2" s="24" t="s">
@@ -2706,25 +2841,25 @@
       <c r="M2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="9">
         <v>13951705734</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:15">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>4</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="32"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="H3" s="8"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2734,206 +2869,206 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>5</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <v>43117</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="9">
         <v>76126162</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="9">
         <v>17625903469</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="9">
         <v>13951856747</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>6</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>43139</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="9">
         <v>76128986</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="9">
         <v>17625903469</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="9">
         <v>15920612473</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>9</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <v>43155</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="9">
         <v>76131990</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="9">
         <v>17625903469</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="9">
         <v>13873735718</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="8">
+      <c r="A7" s="9">
         <v>11</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>43166</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="9">
         <v>76135669</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="9">
         <v>17625903469</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="9">
         <v>13305193355</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="8">
+      <c r="A8" s="9">
         <v>12</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="8"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -2943,151 +3078,151 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>13</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>43183</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="9">
         <v>76139331</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="9">
         <v>17625903469</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="9">
         <v>15151845795</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>13</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <v>43185</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="9">
         <v>76136516</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="9">
         <v>17625903469</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="9">
         <v>15050585010</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="8">
+      <c r="A11" s="9">
         <v>13</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>43187</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="9">
         <v>76151203</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="9">
         <v>17625903469</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="9">
         <v>18551690432</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="8">
+      <c r="A12" s="9">
         <v>14</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="1"/>
@@ -3095,78 +3230,108 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="8"/>
+      <c r="M12" s="9"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" s="27" customFormat="1" spans="1:15">
-      <c r="A13" s="34">
+    <row r="13" s="11" customFormat="1" spans="1:15">
+      <c r="A13" s="9">
         <v>15</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="32">
         <v>43201</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="9">
         <v>76156301</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="9">
         <v>17625903469</v>
       </c>
-      <c r="L13" s="34" t="s">
+      <c r="L13" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="M13" s="34" t="s">
+      <c r="M13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="N13" s="34">
+      <c r="N13" s="9">
         <v>15366199998</v>
       </c>
-      <c r="O13" s="34" t="s">
+      <c r="O13" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="A14" s="8">
+        <v>16</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="8">
+        <v>76156392</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="9">
+        <v>17625903469</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="8">
+        <v>17712235877</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1"/>
@@ -3176,7 +3341,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="8"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -3193,7 +3358,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -3210,7 +3375,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -3227,7 +3392,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="8"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -3244,7 +3409,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="8"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -3261,7 +3426,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="8"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -3278,7 +3443,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="8"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -3295,7 +3460,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="8"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -3312,7 +3477,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="8"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -3329,7 +3494,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="8"/>
+      <c r="H24" s="9"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -3346,7 +3511,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="8"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -3363,7 +3528,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="8"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -3380,7 +3545,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="8"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -3397,7 +3562,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="8"/>
+      <c r="H28" s="9"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3414,7 +3579,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="8"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -3431,7 +3596,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="8"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -3448,7 +3613,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="8"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -3465,7 +3630,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="8"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -3482,7 +3647,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="8"/>
+      <c r="H33" s="9"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -3499,7 +3664,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="8"/>
+      <c r="H34" s="9"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -3516,7 +3681,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="8"/>
+      <c r="H35" s="9"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3533,7 +3698,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="8"/>
+      <c r="H36" s="9"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -3550,7 +3715,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="8"/>
+      <c r="H37" s="9"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -3567,7 +3732,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="8"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -3584,7 +3749,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="8"/>
+      <c r="H39" s="9"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -3601,7 +3766,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="8"/>
+      <c r="H40" s="9"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -3618,7 +3783,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="8"/>
+      <c r="H41" s="9"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -3635,7 +3800,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="8"/>
+      <c r="H42" s="9"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -3652,7 +3817,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="8"/>
+      <c r="H43" s="9"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -3669,7 +3834,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="8"/>
+      <c r="H44" s="9"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -3686,7 +3851,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="8"/>
+      <c r="H45" s="9"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3703,7 +3868,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="8"/>
+      <c r="H46" s="9"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -3720,7 +3885,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="8"/>
+      <c r="H47" s="9"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -3737,7 +3902,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="8"/>
+      <c r="H48" s="9"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -3754,7 +3919,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="8"/>
+      <c r="H49" s="9"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -3771,7 +3936,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="8"/>
+      <c r="H50" s="9"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -3788,7 +3953,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="8"/>
+      <c r="H51" s="9"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -3805,7 +3970,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="8"/>
+      <c r="H52" s="9"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -3822,7 +3987,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="8"/>
+      <c r="H53" s="9"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -3839,7 +4004,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="8"/>
+      <c r="H54" s="9"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -3856,7 +4021,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="8"/>
+      <c r="H55" s="9"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -3873,7 +4038,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="8"/>
+      <c r="H56" s="9"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -3890,7 +4055,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="8"/>
+      <c r="H57" s="9"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -3907,7 +4072,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="8"/>
+      <c r="H58" s="9"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -3924,7 +4089,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="8"/>
+      <c r="H59" s="9"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -3941,7 +4106,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="8"/>
+      <c r="H60" s="9"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -3958,7 +4123,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="8"/>
+      <c r="H61" s="9"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -3975,7 +4140,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="8"/>
+      <c r="H62" s="9"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -3992,7 +4157,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="8"/>
+      <c r="H63" s="9"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -4009,7 +4174,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="8"/>
+      <c r="H64" s="9"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -4026,7 +4191,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="8"/>
+      <c r="H65" s="9"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -4043,7 +4208,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="8"/>
+      <c r="H66" s="9"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -4060,7 +4225,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="8"/>
+      <c r="H67" s="9"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -4077,7 +4242,7 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="8"/>
+      <c r="H68" s="9"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -4094,7 +4259,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="8"/>
+      <c r="H69" s="9"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -4111,7 +4276,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="8"/>
+      <c r="H70" s="9"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -4128,7 +4293,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="8"/>
+      <c r="H71" s="9"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -4145,7 +4310,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="8"/>
+      <c r="H72" s="9"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -4162,7 +4327,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="8"/>
+      <c r="H73" s="9"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -4179,7 +4344,7 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="8"/>
+      <c r="H74" s="9"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -4196,7 +4361,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="8"/>
+      <c r="H75" s="9"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -4213,7 +4378,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="8"/>
+      <c r="H76" s="9"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -4230,7 +4395,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="8"/>
+      <c r="H77" s="9"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -4247,7 +4412,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="8"/>
+      <c r="H78" s="9"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -4264,7 +4429,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="8"/>
+      <c r="H79" s="9"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -4281,7 +4446,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="8"/>
+      <c r="H80" s="9"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -4298,7 +4463,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="8"/>
+      <c r="H81" s="9"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -4315,7 +4480,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="8"/>
+      <c r="H82" s="9"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -4332,7 +4497,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="8"/>
+      <c r="H83" s="9"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -4349,7 +4514,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="8"/>
+      <c r="H84" s="9"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -4366,7 +4531,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="H85" s="8"/>
+      <c r="H85" s="9"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -4383,7 +4548,7 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-      <c r="H86" s="8"/>
+      <c r="H86" s="9"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -4400,7 +4565,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="H87" s="8"/>
+      <c r="H87" s="9"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -4417,7 +4582,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-      <c r="H88" s="8"/>
+      <c r="H88" s="9"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -4434,7 +4599,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="8"/>
+      <c r="H89" s="9"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -4451,7 +4616,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="8"/>
+      <c r="H90" s="9"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -4468,7 +4633,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="8"/>
+      <c r="H91" s="9"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -4485,7 +4650,7 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="8"/>
+      <c r="H92" s="9"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -4502,7 +4667,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="8"/>
+      <c r="H93" s="9"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -4519,7 +4684,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="H94" s="8"/>
+      <c r="H94" s="9"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
@@ -4536,7 +4701,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="8"/>
+      <c r="H95" s="9"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -4553,7 +4718,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="8"/>
+      <c r="H96" s="9"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -4570,7 +4735,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="H97" s="8"/>
+      <c r="H97" s="9"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -4587,7 +4752,7 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="H98" s="8"/>
+      <c r="H98" s="9"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -4604,7 +4769,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="8"/>
+      <c r="H99" s="9"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
@@ -4621,7 +4786,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="8"/>
+      <c r="H100" s="9"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -4638,7 +4803,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-      <c r="H101" s="8"/>
+      <c r="H101" s="9"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -4655,7 +4820,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-      <c r="H102" s="8"/>
+      <c r="H102" s="9"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -4672,7 +4837,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
-      <c r="H103" s="8"/>
+      <c r="H103" s="9"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
@@ -4689,7 +4854,7 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
-      <c r="H104" s="8"/>
+      <c r="H104" s="9"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -4706,7 +4871,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
-      <c r="H105" s="8"/>
+      <c r="H105" s="9"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -4723,7 +4888,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
-      <c r="H106" s="8"/>
+      <c r="H106" s="9"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -4740,7 +4905,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
-      <c r="H107" s="8"/>
+      <c r="H107" s="9"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -4757,7 +4922,7 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
-      <c r="H108" s="8"/>
+      <c r="H108" s="9"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -4774,7 +4939,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
-      <c r="H109" s="8"/>
+      <c r="H109" s="9"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -4791,7 +4956,7 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
-      <c r="H110" s="8"/>
+      <c r="H110" s="9"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
@@ -4808,7 +4973,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
-      <c r="H111" s="8"/>
+      <c r="H111" s="9"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
@@ -4825,7 +4990,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
-      <c r="H112" s="8"/>
+      <c r="H112" s="9"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -4842,7 +5007,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
-      <c r="H113" s="8"/>
+      <c r="H113" s="9"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
@@ -4859,7 +5024,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
-      <c r="H114" s="8"/>
+      <c r="H114" s="9"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
@@ -4876,7 +5041,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
-      <c r="H115" s="8"/>
+      <c r="H115" s="9"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
@@ -4893,7 +5058,7 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
-      <c r="H116" s="8"/>
+      <c r="H116" s="9"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -4910,7 +5075,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
-      <c r="H117" s="8"/>
+      <c r="H117" s="9"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
@@ -4927,7 +5092,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
-      <c r="H118" s="8"/>
+      <c r="H118" s="9"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
@@ -4944,7 +5109,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
-      <c r="H119" s="8"/>
+      <c r="H119" s="9"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
@@ -4961,7 +5126,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
-      <c r="H120" s="8"/>
+      <c r="H120" s="9"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
@@ -4978,7 +5143,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
-      <c r="H121" s="8"/>
+      <c r="H121" s="9"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
@@ -4995,7 +5160,7 @@
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
-      <c r="H122" s="8"/>
+      <c r="H122" s="9"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
@@ -5012,7 +5177,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
-      <c r="H123" s="8"/>
+      <c r="H123" s="9"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
@@ -5029,7 +5194,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
-      <c r="H124" s="8"/>
+      <c r="H124" s="9"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
@@ -5046,7 +5211,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
-      <c r="H125" s="8"/>
+      <c r="H125" s="9"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
@@ -5063,7 +5228,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
-      <c r="H126" s="8"/>
+      <c r="H126" s="9"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
@@ -5080,7 +5245,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
-      <c r="H127" s="8"/>
+      <c r="H127" s="9"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
@@ -5097,7 +5262,7 @@
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
-      <c r="H128" s="8"/>
+      <c r="H128" s="9"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
@@ -5114,7 +5279,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
-      <c r="H129" s="8"/>
+      <c r="H129" s="9"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
@@ -5131,7 +5296,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
-      <c r="H130" s="8"/>
+      <c r="H130" s="9"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
@@ -5148,7 +5313,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
-      <c r="H131" s="8"/>
+      <c r="H131" s="9"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
@@ -5165,7 +5330,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
-      <c r="H132" s="8"/>
+      <c r="H132" s="9"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
@@ -5182,7 +5347,7 @@
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
-      <c r="H133" s="8"/>
+      <c r="H133" s="9"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
@@ -5199,7 +5364,7 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
-      <c r="H134" s="8"/>
+      <c r="H134" s="9"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
@@ -5216,7 +5381,7 @@
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
-      <c r="H135" s="8"/>
+      <c r="H135" s="9"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
@@ -5233,7 +5398,7 @@
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
-      <c r="H136" s="8"/>
+      <c r="H136" s="9"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
@@ -5250,7 +5415,7 @@
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
-      <c r="H137" s="8"/>
+      <c r="H137" s="9"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
@@ -5267,7 +5432,7 @@
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
-      <c r="H138" s="8"/>
+      <c r="H138" s="9"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
@@ -5284,7 +5449,7 @@
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
-      <c r="H139" s="8"/>
+      <c r="H139" s="9"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
@@ -5301,7 +5466,7 @@
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
-      <c r="H140" s="8"/>
+      <c r="H140" s="9"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
@@ -5318,7 +5483,7 @@
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
-      <c r="H141" s="8"/>
+      <c r="H141" s="9"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
@@ -5335,7 +5500,7 @@
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
-      <c r="H142" s="8"/>
+      <c r="H142" s="9"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
@@ -5352,7 +5517,7 @@
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
-      <c r="H143" s="8"/>
+      <c r="H143" s="9"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
@@ -5369,7 +5534,7 @@
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
-      <c r="H144" s="8"/>
+      <c r="H144" s="9"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
@@ -5386,7 +5551,7 @@
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
-      <c r="H145" s="8"/>
+      <c r="H145" s="9"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
@@ -5403,7 +5568,7 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
-      <c r="H146" s="8"/>
+      <c r="H146" s="9"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
@@ -5420,7 +5585,7 @@
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
-      <c r="H147" s="8"/>
+      <c r="H147" s="9"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
@@ -5437,7 +5602,7 @@
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
-      <c r="H148" s="8"/>
+      <c r="H148" s="9"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
@@ -5454,7 +5619,7 @@
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
-      <c r="H149" s="8"/>
+      <c r="H149" s="9"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
@@ -5471,7 +5636,7 @@
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
-      <c r="H150" s="8"/>
+      <c r="H150" s="9"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
@@ -5488,7 +5653,7 @@
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
-      <c r="H151" s="8"/>
+      <c r="H151" s="9"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
@@ -5505,7 +5670,7 @@
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
-      <c r="H152" s="8"/>
+      <c r="H152" s="9"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
@@ -5522,7 +5687,7 @@
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
-      <c r="H153" s="8"/>
+      <c r="H153" s="9"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
@@ -5539,7 +5704,7 @@
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
-      <c r="H154" s="8"/>
+      <c r="H154" s="9"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
@@ -5556,7 +5721,7 @@
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
-      <c r="H155" s="8"/>
+      <c r="H155" s="9"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
@@ -5573,7 +5738,7 @@
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
-      <c r="H156" s="8"/>
+      <c r="H156" s="9"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
@@ -5590,7 +5755,7 @@
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
-      <c r="H157" s="8"/>
+      <c r="H157" s="9"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
@@ -5607,7 +5772,7 @@
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
-      <c r="H158" s="8"/>
+      <c r="H158" s="9"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
@@ -5624,7 +5789,7 @@
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
-      <c r="H159" s="8"/>
+      <c r="H159" s="9"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
@@ -5641,7 +5806,7 @@
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
-      <c r="H160" s="8"/>
+      <c r="H160" s="9"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
@@ -5658,7 +5823,7 @@
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
-      <c r="H161" s="8"/>
+      <c r="H161" s="9"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
@@ -5675,7 +5840,7 @@
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
-      <c r="H162" s="8"/>
+      <c r="H162" s="9"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
@@ -5692,7 +5857,7 @@
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
-      <c r="H163" s="8"/>
+      <c r="H163" s="9"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
@@ -5709,7 +5874,7 @@
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
-      <c r="H164" s="8"/>
+      <c r="H164" s="9"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
@@ -5726,7 +5891,7 @@
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
-      <c r="H165" s="8"/>
+      <c r="H165" s="9"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
@@ -5743,7 +5908,7 @@
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
-      <c r="H166" s="8"/>
+      <c r="H166" s="9"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
@@ -5760,7 +5925,7 @@
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
-      <c r="H167" s="8"/>
+      <c r="H167" s="9"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
@@ -5777,7 +5942,7 @@
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
-      <c r="H168" s="8"/>
+      <c r="H168" s="9"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
@@ -5794,7 +5959,7 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
-      <c r="H169" s="8"/>
+      <c r="H169" s="9"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
@@ -5811,7 +5976,7 @@
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
-      <c r="H170" s="8"/>
+      <c r="H170" s="9"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
@@ -5828,7 +5993,7 @@
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
-      <c r="H171" s="8"/>
+      <c r="H171" s="9"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
@@ -5845,7 +6010,7 @@
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
-      <c r="H172" s="8"/>
+      <c r="H172" s="9"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
@@ -5862,7 +6027,7 @@
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
-      <c r="H173" s="8"/>
+      <c r="H173" s="9"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
@@ -5879,7 +6044,7 @@
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
-      <c r="H174" s="8"/>
+      <c r="H174" s="9"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
@@ -5896,7 +6061,7 @@
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
-      <c r="H175" s="8"/>
+      <c r="H175" s="9"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
@@ -5913,7 +6078,7 @@
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
-      <c r="H176" s="8"/>
+      <c r="H176" s="9"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
@@ -5930,7 +6095,7 @@
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
-      <c r="H177" s="8"/>
+      <c r="H177" s="9"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
@@ -5947,7 +6112,7 @@
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
-      <c r="H178" s="8"/>
+      <c r="H178" s="9"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
@@ -5964,7 +6129,7 @@
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
-      <c r="H179" s="8"/>
+      <c r="H179" s="9"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
@@ -5981,7 +6146,7 @@
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
-      <c r="H180" s="8"/>
+      <c r="H180" s="9"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
@@ -5998,7 +6163,7 @@
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
-      <c r="H181" s="8"/>
+      <c r="H181" s="9"/>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
@@ -6015,7 +6180,7 @@
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
-      <c r="H182" s="8"/>
+      <c r="H182" s="9"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
@@ -6032,7 +6197,7 @@
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
-      <c r="H183" s="8"/>
+      <c r="H183" s="9"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
@@ -6049,7 +6214,7 @@
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
-      <c r="H184" s="8"/>
+      <c r="H184" s="9"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
@@ -6066,7 +6231,7 @@
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
-      <c r="H185" s="8"/>
+      <c r="H185" s="9"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
@@ -6083,7 +6248,7 @@
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
-      <c r="H186" s="8"/>
+      <c r="H186" s="9"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
@@ -6100,7 +6265,7 @@
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
-      <c r="H187" s="8"/>
+      <c r="H187" s="9"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
@@ -6117,7 +6282,7 @@
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
-      <c r="H188" s="8"/>
+      <c r="H188" s="9"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
@@ -6134,7 +6299,7 @@
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
-      <c r="H189" s="8"/>
+      <c r="H189" s="9"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
@@ -6151,7 +6316,7 @@
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
-      <c r="H190" s="8"/>
+      <c r="H190" s="9"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
@@ -6168,7 +6333,7 @@
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
-      <c r="H191" s="8"/>
+      <c r="H191" s="9"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
@@ -6185,7 +6350,7 @@
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
-      <c r="H192" s="8"/>
+      <c r="H192" s="9"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
@@ -6202,7 +6367,7 @@
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
-      <c r="H193" s="8"/>
+      <c r="H193" s="9"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
@@ -6219,7 +6384,7 @@
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
-      <c r="H194" s="8"/>
+      <c r="H194" s="9"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
@@ -6236,7 +6401,7 @@
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
-      <c r="H195" s="8"/>
+      <c r="H195" s="9"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
@@ -6253,7 +6418,7 @@
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
-      <c r="H196" s="8"/>
+      <c r="H196" s="9"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
@@ -6270,7 +6435,7 @@
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
-      <c r="H197" s="8"/>
+      <c r="H197" s="9"/>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
@@ -6287,7 +6452,7 @@
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
-      <c r="H198" s="8"/>
+      <c r="H198" s="9"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
@@ -6304,7 +6469,7 @@
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
-      <c r="H199" s="8"/>
+      <c r="H199" s="9"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
@@ -6321,7 +6486,7 @@
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
-      <c r="H200" s="8"/>
+      <c r="H200" s="9"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
@@ -6338,7 +6503,7 @@
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
-      <c r="H201" s="8"/>
+      <c r="H201" s="9"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
@@ -6355,7 +6520,7 @@
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
-      <c r="H202" s="8"/>
+      <c r="H202" s="9"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
@@ -6372,7 +6537,7 @@
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
-      <c r="H203" s="8"/>
+      <c r="H203" s="9"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
@@ -6389,7 +6554,7 @@
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
-      <c r="H204" s="8"/>
+      <c r="H204" s="9"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
@@ -6406,7 +6571,7 @@
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
-      <c r="H205" s="8"/>
+      <c r="H205" s="9"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
@@ -6423,7 +6588,7 @@
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
-      <c r="H206" s="8"/>
+      <c r="H206" s="9"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
@@ -6440,7 +6605,7 @@
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
-      <c r="H207" s="8"/>
+      <c r="H207" s="9"/>
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
@@ -6457,7 +6622,7 @@
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
-      <c r="H208" s="8"/>
+      <c r="H208" s="9"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
@@ -6474,7 +6639,7 @@
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
-      <c r="H209" s="8"/>
+      <c r="H209" s="9"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
@@ -6491,7 +6656,7 @@
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
-      <c r="H210" s="8"/>
+      <c r="H210" s="9"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
@@ -6508,7 +6673,7 @@
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
-      <c r="H211" s="8"/>
+      <c r="H211" s="9"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
@@ -6525,7 +6690,7 @@
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
-      <c r="H212" s="8"/>
+      <c r="H212" s="9"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
@@ -6542,7 +6707,7 @@
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
-      <c r="H213" s="8"/>
+      <c r="H213" s="9"/>
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
@@ -6559,7 +6724,7 @@
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
-      <c r="H214" s="8"/>
+      <c r="H214" s="9"/>
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
@@ -6576,7 +6741,7 @@
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
-      <c r="H215" s="8"/>
+      <c r="H215" s="9"/>
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
@@ -6593,7 +6758,7 @@
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
-      <c r="H216" s="8"/>
+      <c r="H216" s="9"/>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
@@ -6610,7 +6775,7 @@
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
-      <c r="H217" s="8"/>
+      <c r="H217" s="9"/>
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
@@ -6627,7 +6792,7 @@
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
-      <c r="H218" s="8"/>
+      <c r="H218" s="9"/>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
@@ -6644,7 +6809,7 @@
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
-      <c r="H219" s="8"/>
+      <c r="H219" s="9"/>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
@@ -6661,7 +6826,7 @@
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
-      <c r="H220" s="8"/>
+      <c r="H220" s="9"/>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
@@ -6678,7 +6843,7 @@
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
-      <c r="H221" s="8"/>
+      <c r="H221" s="9"/>
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
@@ -6695,7 +6860,7 @@
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
-      <c r="H222" s="8"/>
+      <c r="H222" s="9"/>
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
@@ -6712,7 +6877,7 @@
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
-      <c r="H223" s="8"/>
+      <c r="H223" s="9"/>
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
@@ -6729,7 +6894,7 @@
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
-      <c r="H224" s="8"/>
+      <c r="H224" s="9"/>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
@@ -6746,7 +6911,7 @@
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
-      <c r="H225" s="8"/>
+      <c r="H225" s="9"/>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
@@ -6763,7 +6928,7 @@
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
-      <c r="H226" s="8"/>
+      <c r="H226" s="9"/>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
@@ -6780,7 +6945,7 @@
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
-      <c r="H227" s="8"/>
+      <c r="H227" s="9"/>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
@@ -6797,7 +6962,7 @@
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
-      <c r="H228" s="8"/>
+      <c r="H228" s="9"/>
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
@@ -6814,7 +6979,7 @@
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
-      <c r="H229" s="8"/>
+      <c r="H229" s="9"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
@@ -6831,7 +6996,7 @@
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
-      <c r="H230" s="8"/>
+      <c r="H230" s="9"/>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
@@ -6848,7 +7013,7 @@
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
-      <c r="H231" s="8"/>
+      <c r="H231" s="9"/>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
@@ -6865,7 +7030,7 @@
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
-      <c r="H232" s="8"/>
+      <c r="H232" s="9"/>
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
@@ -6882,7 +7047,7 @@
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
-      <c r="H233" s="8"/>
+      <c r="H233" s="9"/>
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
@@ -6899,7 +7064,7 @@
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
-      <c r="H234" s="8"/>
+      <c r="H234" s="9"/>
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
@@ -6916,7 +7081,7 @@
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
-      <c r="H235" s="8"/>
+      <c r="H235" s="9"/>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
@@ -6933,7 +7098,7 @@
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
-      <c r="H236" s="8"/>
+      <c r="H236" s="9"/>
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
@@ -6950,7 +7115,7 @@
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
-      <c r="H237" s="8"/>
+      <c r="H237" s="9"/>
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
@@ -6967,7 +7132,7 @@
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
-      <c r="H238" s="8"/>
+      <c r="H238" s="9"/>
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
@@ -6984,7 +7149,7 @@
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
-      <c r="H239" s="8"/>
+      <c r="H239" s="9"/>
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
@@ -7001,7 +7166,7 @@
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
-      <c r="H240" s="8"/>
+      <c r="H240" s="9"/>
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
@@ -7018,7 +7183,7 @@
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
-      <c r="H241" s="8"/>
+      <c r="H241" s="9"/>
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
@@ -7035,7 +7200,7 @@
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
-      <c r="H242" s="8"/>
+      <c r="H242" s="9"/>
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
@@ -7052,7 +7217,7 @@
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
-      <c r="H243" s="8"/>
+      <c r="H243" s="9"/>
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
       <c r="K243" s="1"/>
@@ -7069,7 +7234,7 @@
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
-      <c r="H244" s="8"/>
+      <c r="H244" s="9"/>
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
@@ -7086,7 +7251,7 @@
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
-      <c r="H245" s="8"/>
+      <c r="H245" s="9"/>
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
@@ -7103,7 +7268,7 @@
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
-      <c r="H246" s="8"/>
+      <c r="H246" s="9"/>
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
@@ -7120,7 +7285,7 @@
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
-      <c r="H247" s="8"/>
+      <c r="H247" s="9"/>
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
@@ -7137,7 +7302,7 @@
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
-      <c r="H248" s="8"/>
+      <c r="H248" s="9"/>
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
@@ -7154,7 +7319,7 @@
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
-      <c r="H249" s="8"/>
+      <c r="H249" s="9"/>
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
@@ -7171,7 +7336,7 @@
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
-      <c r="H250" s="8"/>
+      <c r="H250" s="9"/>
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
       <c r="K250" s="1"/>
@@ -7188,7 +7353,7 @@
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
-      <c r="H251" s="8"/>
+      <c r="H251" s="9"/>
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
@@ -7205,7 +7370,7 @@
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
-      <c r="H252" s="8"/>
+      <c r="H252" s="9"/>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
@@ -7222,7 +7387,7 @@
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
-      <c r="H253" s="8"/>
+      <c r="H253" s="9"/>
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
@@ -7239,7 +7404,7 @@
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
-      <c r="H254" s="8"/>
+      <c r="H254" s="9"/>
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
@@ -7256,7 +7421,7 @@
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
-      <c r="H255" s="8"/>
+      <c r="H255" s="9"/>
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
@@ -7273,7 +7438,7 @@
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
-      <c r="H256" s="8"/>
+      <c r="H256" s="9"/>
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
@@ -7290,7 +7455,7 @@
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
-      <c r="H257" s="8"/>
+      <c r="H257" s="9"/>
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
@@ -7307,7 +7472,7 @@
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
-      <c r="H258" s="8"/>
+      <c r="H258" s="9"/>
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
       <c r="K258" s="1"/>
@@ -7324,7 +7489,7 @@
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
-      <c r="H259" s="8"/>
+      <c r="H259" s="9"/>
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
       <c r="K259" s="1"/>
@@ -7341,7 +7506,7 @@
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
-      <c r="H260" s="8"/>
+      <c r="H260" s="9"/>
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
       <c r="K260" s="1"/>
@@ -7358,7 +7523,7 @@
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
-      <c r="H261" s="8"/>
+      <c r="H261" s="9"/>
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
@@ -7375,7 +7540,7 @@
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
-      <c r="H262" s="8"/>
+      <c r="H262" s="9"/>
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
@@ -7392,7 +7557,7 @@
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
-      <c r="H263" s="8"/>
+      <c r="H263" s="9"/>
       <c r="I263" s="1"/>
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
@@ -7409,7 +7574,7 @@
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
-      <c r="H264" s="8"/>
+      <c r="H264" s="9"/>
       <c r="I264" s="1"/>
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
@@ -7426,7 +7591,7 @@
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
-      <c r="H265" s="8"/>
+      <c r="H265" s="9"/>
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
@@ -7443,7 +7608,7 @@
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
-      <c r="H266" s="8"/>
+      <c r="H266" s="9"/>
       <c r="I266" s="1"/>
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
@@ -7460,7 +7625,7 @@
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
-      <c r="H267" s="8"/>
+      <c r="H267" s="9"/>
       <c r="I267" s="1"/>
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
@@ -7477,7 +7642,7 @@
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
-      <c r="H268" s="8"/>
+      <c r="H268" s="9"/>
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
@@ -7494,7 +7659,7 @@
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
-      <c r="H269" s="8"/>
+      <c r="H269" s="9"/>
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
@@ -7511,7 +7676,7 @@
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
-      <c r="H270" s="8"/>
+      <c r="H270" s="9"/>
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
       <c r="K270" s="1"/>
@@ -7528,7 +7693,7 @@
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
-      <c r="H271" s="8"/>
+      <c r="H271" s="9"/>
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
       <c r="K271" s="1"/>
@@ -7545,7 +7710,7 @@
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
-      <c r="H272" s="8"/>
+      <c r="H272" s="9"/>
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
       <c r="K272" s="1"/>
@@ -7562,7 +7727,7 @@
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
-      <c r="H273" s="8"/>
+      <c r="H273" s="9"/>
       <c r="I273" s="1"/>
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
@@ -7579,7 +7744,7 @@
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
-      <c r="H274" s="8"/>
+      <c r="H274" s="9"/>
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
@@ -7596,7 +7761,7 @@
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
-      <c r="H275" s="8"/>
+      <c r="H275" s="9"/>
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
@@ -7613,7 +7778,7 @@
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
-      <c r="H276" s="8"/>
+      <c r="H276" s="9"/>
       <c r="I276" s="1"/>
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
@@ -7630,7 +7795,7 @@
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
-      <c r="H277" s="8"/>
+      <c r="H277" s="9"/>
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
@@ -7647,7 +7812,7 @@
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
-      <c r="H278" s="8"/>
+      <c r="H278" s="9"/>
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
       <c r="K278" s="1"/>
@@ -7664,7 +7829,7 @@
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
-      <c r="H279" s="8"/>
+      <c r="H279" s="9"/>
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
@@ -7681,7 +7846,7 @@
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
-      <c r="H280" s="8"/>
+      <c r="H280" s="9"/>
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
@@ -7698,7 +7863,7 @@
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
-      <c r="H281" s="8"/>
+      <c r="H281" s="9"/>
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
@@ -7715,7 +7880,7 @@
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
-      <c r="H282" s="8"/>
+      <c r="H282" s="9"/>
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
@@ -7732,7 +7897,7 @@
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
-      <c r="H283" s="8"/>
+      <c r="H283" s="9"/>
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
@@ -7749,7 +7914,7 @@
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
-      <c r="H284" s="8"/>
+      <c r="H284" s="9"/>
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
       <c r="K284" s="1"/>
@@ -7766,7 +7931,7 @@
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
-      <c r="H285" s="8"/>
+      <c r="H285" s="9"/>
       <c r="I285" s="1"/>
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
@@ -7783,7 +7948,7 @@
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
-      <c r="H286" s="8"/>
+      <c r="H286" s="9"/>
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
@@ -7800,7 +7965,7 @@
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
-      <c r="H287" s="8"/>
+      <c r="H287" s="9"/>
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
       <c r="K287" s="1"/>
@@ -7817,7 +7982,7 @@
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
-      <c r="H288" s="8"/>
+      <c r="H288" s="9"/>
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
       <c r="K288" s="1"/>
@@ -7834,7 +7999,7 @@
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
-      <c r="H289" s="8"/>
+      <c r="H289" s="9"/>
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
@@ -7851,7 +8016,7 @@
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
-      <c r="H290" s="8"/>
+      <c r="H290" s="9"/>
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
@@ -7868,7 +8033,7 @@
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
-      <c r="H291" s="8"/>
+      <c r="H291" s="9"/>
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
       <c r="K291" s="1"/>
@@ -7885,7 +8050,7 @@
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
-      <c r="H292" s="8"/>
+      <c r="H292" s="9"/>
       <c r="I292" s="1"/>
       <c r="J292" s="1"/>
       <c r="K292" s="1"/>
@@ -7902,7 +8067,7 @@
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
-      <c r="H293" s="8"/>
+      <c r="H293" s="9"/>
       <c r="I293" s="1"/>
       <c r="J293" s="1"/>
       <c r="K293" s="1"/>
@@ -7919,7 +8084,7 @@
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
-      <c r="H294" s="8"/>
+      <c r="H294" s="9"/>
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
       <c r="K294" s="1"/>
@@ -7936,7 +8101,7 @@
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
-      <c r="H295" s="8"/>
+      <c r="H295" s="9"/>
       <c r="I295" s="1"/>
       <c r="J295" s="1"/>
       <c r="K295" s="1"/>
@@ -7953,7 +8118,7 @@
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
-      <c r="H296" s="8"/>
+      <c r="H296" s="9"/>
       <c r="I296" s="1"/>
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
@@ -7970,7 +8135,7 @@
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
-      <c r="H297" s="8"/>
+      <c r="H297" s="9"/>
       <c r="I297" s="1"/>
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
@@ -7987,7 +8152,7 @@
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
-      <c r="H298" s="8"/>
+      <c r="H298" s="9"/>
       <c r="I298" s="1"/>
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
@@ -8004,7 +8169,7 @@
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
-      <c r="H299" s="8"/>
+      <c r="H299" s="9"/>
       <c r="I299" s="1"/>
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
@@ -8021,7 +8186,7 @@
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
-      <c r="H300" s="8"/>
+      <c r="H300" s="9"/>
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
       <c r="K300" s="1"/>
@@ -8057,7 +8222,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E12" sqref="E12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -8079,46 +8244,46 @@
         <v>21</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C2" s="18">
         <v>43102</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
@@ -8128,20 +8293,20 @@
         <v>43110</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>5</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -8151,89 +8316,89 @@
         <v>43126</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>6</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C5" s="18">
         <v>43133</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>8</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C6" s="18">
         <v>43102</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:7">
-      <c r="A7" s="8">
+      <c r="A7" s="9">
         <v>8</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C7" s="18">
         <v>43133</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="8">
+      <c r="A8" s="9">
         <v>11</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -8243,521 +8408,535 @@
         <v>43172</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>15</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C9" s="18">
         <v>43192</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" s="9" customFormat="1" spans="1:7">
-      <c r="A10" s="8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" s="10" customFormat="1" spans="1:7">
+      <c r="A10" s="9">
         <v>15</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C10" s="18">
         <v>43189</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" s="10" customFormat="1" spans="1:7">
-      <c r="A11" s="8">
+      <c r="A11" s="9">
         <v>15</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C11" s="18">
         <v>43199</v>
       </c>
       <c r="D11" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="9">
+        <v>16</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="18">
+        <v>43206</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="8"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="8"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="8"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="19"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="8"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="8"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="8"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="8"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="8"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
       <c r="D18" s="19"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="8"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="8"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="8"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="19"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="8"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="8"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="8"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="8"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="17"/>
       <c r="C24" s="18"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="8"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="8"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="8"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="8"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="8"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="8"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="17"/>
       <c r="C27" s="18"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="8"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="8"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="8"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="8"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="17"/>
       <c r="C29" s="18"/>
       <c r="D29" s="19"/>
-      <c r="E29" s="8"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="8"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="8"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="8"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="8"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="17"/>
       <c r="C32" s="18"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="8"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="8"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="8"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="17"/>
       <c r="C35" s="18"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="9"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="8"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="17"/>
       <c r="C36" s="18"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="8"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="17"/>
       <c r="C37" s="18"/>
       <c r="D37" s="19"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="9"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="8"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
       <c r="D38" s="19"/>
-      <c r="E38" s="8"/>
+      <c r="E38" s="9"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="8"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="17"/>
       <c r="C39" s="18"/>
       <c r="D39" s="19"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="9"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="8"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="17"/>
       <c r="C40" s="18"/>
       <c r="D40" s="19"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="9"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="8"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="17"/>
       <c r="C41" s="18"/>
       <c r="D41" s="19"/>
-      <c r="E41" s="8"/>
+      <c r="E41" s="9"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="8"/>
+      <c r="A42" s="9"/>
       <c r="B42" s="17"/>
       <c r="C42" s="18"/>
       <c r="D42" s="19"/>
-      <c r="E42" s="8"/>
+      <c r="E42" s="9"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="8"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="17"/>
       <c r="C43" s="18"/>
       <c r="D43" s="19"/>
-      <c r="E43" s="8"/>
+      <c r="E43" s="9"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="8"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="17"/>
       <c r="C44" s="18"/>
       <c r="D44" s="19"/>
-      <c r="E44" s="8"/>
+      <c r="E44" s="9"/>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="8"/>
+      <c r="A45" s="9"/>
       <c r="B45" s="17"/>
       <c r="C45" s="18"/>
       <c r="D45" s="19"/>
-      <c r="E45" s="8"/>
+      <c r="E45" s="9"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="8"/>
+      <c r="A46" s="9"/>
       <c r="B46" s="17"/>
       <c r="C46" s="18"/>
       <c r="D46" s="19"/>
-      <c r="E46" s="8"/>
+      <c r="E46" s="9"/>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="8"/>
+      <c r="A47" s="9"/>
       <c r="B47" s="17"/>
       <c r="C47" s="18"/>
       <c r="D47" s="19"/>
-      <c r="E47" s="8"/>
+      <c r="E47" s="9"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="8"/>
+      <c r="A48" s="9"/>
       <c r="B48" s="17"/>
       <c r="C48" s="18"/>
       <c r="D48" s="19"/>
-      <c r="E48" s="8"/>
+      <c r="E48" s="9"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="8"/>
+      <c r="A49" s="9"/>
       <c r="B49" s="17"/>
       <c r="C49" s="18"/>
       <c r="D49" s="19"/>
-      <c r="E49" s="8"/>
+      <c r="E49" s="9"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="8"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="17"/>
       <c r="C50" s="18"/>
       <c r="D50" s="19"/>
-      <c r="E50" s="8"/>
+      <c r="E50" s="9"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="8"/>
+      <c r="A51" s="9"/>
       <c r="B51" s="17"/>
       <c r="C51" s="18"/>
       <c r="D51" s="19"/>
-      <c r="E51" s="8"/>
+      <c r="E51" s="9"/>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="8"/>
+      <c r="A52" s="9"/>
       <c r="B52" s="17"/>
       <c r="C52" s="18"/>
       <c r="D52" s="19"/>
-      <c r="E52" s="8"/>
+      <c r="E52" s="9"/>
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="8"/>
+      <c r="A53" s="9"/>
       <c r="B53" s="17"/>
       <c r="C53" s="18"/>
       <c r="D53" s="19"/>
-      <c r="E53" s="8"/>
+      <c r="E53" s="9"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="8"/>
+      <c r="A54" s="9"/>
       <c r="B54" s="17"/>
       <c r="C54" s="18"/>
       <c r="D54" s="19"/>
-      <c r="E54" s="8"/>
+      <c r="E54" s="9"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="8"/>
+      <c r="A55" s="9"/>
       <c r="B55" s="17"/>
       <c r="C55" s="18"/>
       <c r="D55" s="19"/>
-      <c r="E55" s="8"/>
+      <c r="E55" s="9"/>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="8"/>
+      <c r="A56" s="9"/>
       <c r="B56" s="17"/>
       <c r="C56" s="18"/>
       <c r="D56" s="19"/>
-      <c r="E56" s="8"/>
+      <c r="E56" s="9"/>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="8"/>
+      <c r="A57" s="9"/>
       <c r="B57" s="17"/>
       <c r="C57" s="18"/>
       <c r="D57" s="19"/>
-      <c r="E57" s="8"/>
+      <c r="E57" s="9"/>
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="8"/>
+      <c r="A58" s="9"/>
       <c r="B58" s="17"/>
       <c r="C58" s="18"/>
       <c r="D58" s="19"/>
-      <c r="E58" s="8"/>
+      <c r="E58" s="9"/>
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="8"/>
+      <c r="A59" s="9"/>
       <c r="B59" s="17"/>
       <c r="C59" s="18"/>
       <c r="D59" s="19"/>
-      <c r="E59" s="8"/>
+      <c r="E59" s="9"/>
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
     </row>
     <row r="60" ht="14.25" spans="1:7">
-      <c r="A60" s="8"/>
+      <c r="A60" s="9"/>
       <c r="B60" s="17"/>
       <c r="C60" s="18"/>
       <c r="D60" s="23"/>
@@ -8766,7 +8945,7 @@
       <c r="G60" s="24"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="8"/>
+      <c r="A61" s="9"/>
       <c r="B61" s="17"/>
       <c r="C61" s="18"/>
       <c r="D61" s="19"/>
@@ -8775,7 +8954,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="8"/>
+      <c r="A62" s="9"/>
       <c r="B62" s="17"/>
       <c r="C62" s="18"/>
       <c r="D62" s="19"/>
@@ -8784,7 +8963,7 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="8"/>
+      <c r="A63" s="9"/>
       <c r="B63" s="17"/>
       <c r="C63" s="18"/>
       <c r="D63" s="19"/>
@@ -8793,7 +8972,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="8"/>
+      <c r="A64" s="9"/>
       <c r="B64" s="17"/>
       <c r="C64" s="18"/>
       <c r="D64" s="19"/>
@@ -8802,7 +8981,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="8"/>
+      <c r="A65" s="9"/>
       <c r="B65" s="17"/>
       <c r="C65" s="18"/>
       <c r="D65" s="19"/>
@@ -8811,7 +8990,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="8"/>
+      <c r="A66" s="9"/>
       <c r="B66" s="17"/>
       <c r="C66" s="18"/>
       <c r="D66" s="19"/>
@@ -8820,7 +8999,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="8"/>
+      <c r="A67" s="9"/>
       <c r="B67" s="17"/>
       <c r="C67" s="18"/>
       <c r="D67" s="19"/>
@@ -8829,7 +9008,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="8"/>
+      <c r="A68" s="9"/>
       <c r="B68" s="17"/>
       <c r="C68" s="18"/>
       <c r="D68" s="19"/>
@@ -8838,7 +9017,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" ht="14.25" spans="1:7">
-      <c r="A69" s="8"/>
+      <c r="A69" s="9"/>
       <c r="B69" s="17"/>
       <c r="C69" s="25"/>
       <c r="D69" s="23"/>
@@ -8847,25 +9026,25 @@
       <c r="G69" s="17"/>
     </row>
     <row r="70" ht="14.25" spans="1:7">
-      <c r="A70" s="8"/>
+      <c r="A70" s="9"/>
       <c r="B70" s="17"/>
       <c r="C70" s="18"/>
       <c r="D70" s="23"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="8"/>
+      <c r="G70" s="9"/>
     </row>
     <row r="71" ht="14.25" spans="1:7">
-      <c r="A71" s="8"/>
+      <c r="A71" s="9"/>
       <c r="B71" s="17"/>
       <c r="C71" s="18"/>
       <c r="D71" s="23"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="8"/>
+      <c r="G71" s="9"/>
     </row>
     <row r="72" ht="14.25" spans="1:7">
-      <c r="A72" s="8"/>
+      <c r="A72" s="9"/>
       <c r="B72" s="17"/>
       <c r="C72" s="18"/>
       <c r="D72" s="23"/>
@@ -8874,7 +9053,7 @@
       <c r="G72" s="24"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="8"/>
+      <c r="A73" s="9"/>
       <c r="B73" s="17"/>
       <c r="C73" s="18"/>
       <c r="D73" s="19"/>
@@ -8883,7 +9062,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="8"/>
+      <c r="A74" s="9"/>
       <c r="B74" s="17"/>
       <c r="C74" s="18"/>
       <c r="D74" s="19"/>
@@ -8892,7 +9071,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="8"/>
+      <c r="A75" s="9"/>
       <c r="B75" s="17"/>
       <c r="C75" s="18"/>
       <c r="D75" s="19"/>
@@ -8901,7 +9080,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="8"/>
+      <c r="A76" s="9"/>
       <c r="B76" s="17"/>
       <c r="C76" s="18"/>
       <c r="D76" s="19"/>
@@ -8910,7 +9089,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="8"/>
+      <c r="A77" s="9"/>
       <c r="B77" s="17"/>
       <c r="C77" s="18"/>
       <c r="D77" s="19"/>
@@ -8919,7 +9098,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="8"/>
+      <c r="A78" s="9"/>
       <c r="B78" s="17"/>
       <c r="C78" s="18"/>
       <c r="D78" s="19"/>
@@ -8928,7 +9107,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="8"/>
+      <c r="A79" s="9"/>
       <c r="B79" s="17"/>
       <c r="C79" s="18"/>
       <c r="D79" s="19"/>
@@ -8937,7 +9116,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="8"/>
+      <c r="A80" s="9"/>
       <c r="B80" s="17"/>
       <c r="C80" s="18"/>
       <c r="D80" s="19"/>
@@ -8946,16 +9125,16 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" ht="14.25" spans="1:7">
-      <c r="A81" s="8"/>
+      <c r="A81" s="9"/>
       <c r="B81" s="17"/>
       <c r="C81" s="18"/>
       <c r="D81" s="23"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="8"/>
+      <c r="G81" s="9"/>
     </row>
     <row r="82" ht="14.25" spans="1:7">
-      <c r="A82" s="8"/>
+      <c r="A82" s="9"/>
       <c r="B82" s="17"/>
       <c r="C82" s="18"/>
       <c r="D82" s="23"/>
@@ -8964,7 +9143,7 @@
       <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="8"/>
+      <c r="A83" s="9"/>
       <c r="B83" s="17"/>
       <c r="C83" s="18"/>
       <c r="D83" s="19"/>
@@ -8973,7 +9152,7 @@
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="8"/>
+      <c r="A84" s="9"/>
       <c r="B84" s="17"/>
       <c r="C84" s="18"/>
       <c r="D84" s="19"/>
@@ -8982,7 +9161,7 @@
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="8"/>
+      <c r="A85" s="9"/>
       <c r="B85" s="17"/>
       <c r="C85" s="18"/>
       <c r="D85" s="19"/>
@@ -8991,7 +9170,7 @@
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="8"/>
+      <c r="A86" s="9"/>
       <c r="B86" s="17"/>
       <c r="C86" s="18"/>
       <c r="D86" s="19"/>
@@ -9000,7 +9179,7 @@
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="8"/>
+      <c r="A87" s="9"/>
       <c r="B87" s="17"/>
       <c r="C87" s="18"/>
       <c r="D87" s="19"/>
@@ -9009,7 +9188,7 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="8"/>
+      <c r="A88" s="9"/>
       <c r="B88" s="17"/>
       <c r="C88" s="18"/>
       <c r="D88" s="19"/>
@@ -9018,7 +9197,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="8"/>
+      <c r="A89" s="9"/>
       <c r="B89" s="17"/>
       <c r="C89" s="18"/>
       <c r="D89" s="19"/>
@@ -9027,7 +9206,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="8"/>
+      <c r="A90" s="9"/>
       <c r="B90" s="17"/>
       <c r="C90" s="18"/>
       <c r="D90" s="19"/>
@@ -9057,7 +9236,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9074,78 +9253,96 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/周数据/《个人上线率统计表》-徐沛华.xlsx
+++ b/周数据/《个人上线率统计表》-徐沛华.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -231,9 +231,6 @@
     <t>徐俊</t>
   </si>
   <si>
-    <t>4月17</t>
-  </si>
-  <si>
     <t>四川李不管餐饮管理有限公司</t>
   </si>
   <si>
@@ -246,6 +243,21 @@
     <t>杨晨晨</t>
   </si>
   <si>
+    <t>木头家的煎饼和奶酪</t>
+  </si>
+  <si>
+    <t>宁波</t>
+  </si>
+  <si>
+    <t>木头家煎饼店</t>
+  </si>
+  <si>
+    <t>李先生</t>
+  </si>
+  <si>
+    <t>老品牌</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -373,6 +385,15 @@
   </si>
   <si>
     <t>李不管南通店驻店</t>
+  </si>
+  <si>
+    <t>21日</t>
+  </si>
+  <si>
+    <t>美蛙鱼头火锅如东店实施并培训</t>
+  </si>
+  <si>
+    <t>22日</t>
   </si>
 </sst>
 </file>
@@ -381,9 +402,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -463,8 +484,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,7 +532,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,6 +551,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -541,13 +579,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -561,9 +592,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,24 +614,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,19 +691,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,36 +739,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -737,24 +746,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,25 +787,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,7 +829,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,11 +1176,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1175,6 +1226,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1203,36 +1265,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1241,17 +1273,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1260,10 +1281,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1272,19 +1293,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1293,10 +1314,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1305,104 +1326,104 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1430,73 +1451,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1938,783 +1965,791 @@
   <sheetPr/>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="11" customWidth="1"/>
-    <col min="3" max="4" width="16.25" style="11" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="11" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="11" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="11" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="11" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="34" customWidth="1"/>
-    <col min="11" max="11" width="16" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="11" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="10" customWidth="1"/>
+    <col min="3" max="4" width="16.25" style="10" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="10" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="10" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="10" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="36" customWidth="1"/>
+    <col min="11" max="11" width="16" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="10" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="56"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="58"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="59" t="s">
+      <c r="K2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="60" t="s">
+      <c r="L2" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="61" t="s">
+      <c r="M2" s="63" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="43">
+      <c r="A3" s="45">
         <v>1</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="46">
         <v>1</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="47">
         <v>1</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48">
         <f>C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="47">
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="49">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63" t="e">
+      <c r="I3" s="64"/>
+      <c r="J3" s="65" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="64">
+      <c r="K3" s="66">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="65">
+      <c r="L3" s="67">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="66">
+      <c r="M3" s="68">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46">
         <v>2</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="47">
         <v>1</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46">
+      <c r="D4" s="48"/>
+      <c r="E4" s="48">
         <v>1</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="47">
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="49">
         <f t="shared" ref="H4:H26" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="63" t="e">
+      <c r="I4" s="64"/>
+      <c r="J4" s="65" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="64">
+      <c r="K4" s="66">
         <v>1</v>
       </c>
-      <c r="L4" s="65">
+      <c r="L4" s="67">
         <v>0</v>
       </c>
-      <c r="M4" s="66">
+      <c r="M4" s="68">
         <f t="shared" ref="M4:M26" si="1">L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44">
+      <c r="A5" s="45"/>
+      <c r="B5" s="46">
         <v>3</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="47">
         <v>0</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48">
         <v>0</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="47">
+      <c r="F5" s="49"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63" t="e">
+      <c r="I5" s="64"/>
+      <c r="J5" s="65" t="e">
         <f t="shared" ref="J5:J26" si="2">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="64">
+      <c r="K5" s="66">
         <v>0</v>
       </c>
-      <c r="L5" s="65">
+      <c r="L5" s="67">
         <v>0</v>
       </c>
-      <c r="M5" s="66" t="e">
+      <c r="M5" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44">
+      <c r="A6" s="45"/>
+      <c r="B6" s="46">
         <v>4</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="47">
         <v>0</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46">
+      <c r="D6" s="48"/>
+      <c r="E6" s="48">
         <v>0</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="47">
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63" t="e">
+      <c r="I6" s="64"/>
+      <c r="J6" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="64">
+      <c r="K6" s="66">
         <v>0</v>
       </c>
-      <c r="L6" s="65">
+      <c r="L6" s="67">
         <v>0</v>
       </c>
-      <c r="M6" s="66" t="e">
+      <c r="M6" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44">
+      <c r="A7" s="45"/>
+      <c r="B7" s="46">
         <v>5</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="47">
         <v>1</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46">
+      <c r="D7" s="48"/>
+      <c r="E7" s="48">
         <v>1</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="47">
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63" t="e">
+      <c r="I7" s="64"/>
+      <c r="J7" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="64">
+      <c r="K7" s="66">
         <v>1</v>
       </c>
-      <c r="L7" s="65">
+      <c r="L7" s="67">
         <v>0</v>
       </c>
-      <c r="M7" s="66">
+      <c r="M7" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="53">
+      <c r="A8" s="51"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="67"/>
-      <c r="J8" s="68" t="e">
+      <c r="I8" s="69"/>
+      <c r="J8" s="70" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="69">
+      <c r="K8" s="71">
         <v>0</v>
       </c>
-      <c r="L8" s="70">
+      <c r="L8" s="72">
         <v>0</v>
       </c>
-      <c r="M8" s="71" t="e">
+      <c r="M8" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="43">
+      <c r="A9" s="45">
         <v>2</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="46">
         <v>8</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="47">
         <v>1</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="48">
         <v>1</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="47">
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="62"/>
-      <c r="J9" s="63">
+      <c r="I9" s="64"/>
+      <c r="J9" s="65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="64">
+      <c r="K9" s="66">
         <f>C9+G9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="65">
+      <c r="L9" s="67">
         <f>D9+G9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="66">
+      <c r="M9" s="68">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44">
+      <c r="A10" s="45"/>
+      <c r="B10" s="46">
         <v>10</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="47">
         <v>1</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46">
+      <c r="D10" s="48"/>
+      <c r="E10" s="48">
         <v>1</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="47">
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="62"/>
-      <c r="J10" s="63" t="e">
+      <c r="I10" s="64"/>
+      <c r="J10" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="64">
+      <c r="K10" s="66">
         <v>1</v>
       </c>
-      <c r="L10" s="65">
+      <c r="L10" s="67">
         <v>0</v>
       </c>
-      <c r="M10" s="66">
+      <c r="M10" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="43"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="47">
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="62"/>
-      <c r="J11" s="63" t="e">
+      <c r="I11" s="64"/>
+      <c r="J11" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="64">
+      <c r="K11" s="66">
         <v>0</v>
       </c>
-      <c r="L11" s="65">
+      <c r="L11" s="67">
         <v>0</v>
       </c>
-      <c r="M11" s="66" t="e">
+      <c r="M11" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="43"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="47">
+      <c r="A12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="62"/>
-      <c r="J12" s="63" t="e">
+      <c r="I12" s="64"/>
+      <c r="J12" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="64">
+      <c r="K12" s="66">
         <v>0</v>
       </c>
-      <c r="L12" s="65">
+      <c r="L12" s="67">
         <v>0</v>
       </c>
-      <c r="M12" s="66" t="e">
+      <c r="M12" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="47">
+      <c r="A13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="63" t="e">
+      <c r="I13" s="64"/>
+      <c r="J13" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="64">
+      <c r="K13" s="66">
         <v>1</v>
       </c>
-      <c r="L13" s="65">
+      <c r="L13" s="67">
         <v>0</v>
       </c>
-      <c r="M13" s="66">
+      <c r="M13" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:13">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="53">
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="67"/>
-      <c r="J14" s="68" t="e">
+      <c r="I14" s="69"/>
+      <c r="J14" s="70" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="69">
+      <c r="K14" s="71">
         <v>0</v>
       </c>
-      <c r="L14" s="70">
+      <c r="L14" s="72">
         <v>0</v>
       </c>
-      <c r="M14" s="71" t="e">
+      <c r="M14" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="43">
+      <c r="A15" s="45">
         <v>3</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="46">
         <v>11</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="47">
         <v>2</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="48">
         <v>1</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="48">
         <v>1</v>
       </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="47">
+      <c r="F15" s="49"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="62"/>
-      <c r="J15" s="63">
+      <c r="I15" s="64"/>
+      <c r="J15" s="65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="64">
+      <c r="K15" s="66">
         <f>C15+G15</f>
         <v>2</v>
       </c>
-      <c r="L15" s="65">
+      <c r="L15" s="67">
         <f>D15+G15</f>
         <v>1</v>
       </c>
-      <c r="M15" s="66">
+      <c r="M15" s="68">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44">
+      <c r="A16" s="45"/>
+      <c r="B16" s="46">
         <v>12</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46">
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48">
         <v>1</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="47">
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="62"/>
-      <c r="J16" s="63" t="e">
+      <c r="I16" s="64"/>
+      <c r="J16" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="64">
+      <c r="K16" s="66">
         <v>1</v>
       </c>
-      <c r="L16" s="65">
+      <c r="L16" s="67">
         <v>0</v>
       </c>
-      <c r="M16" s="66">
+      <c r="M16" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44">
+      <c r="A17" s="45"/>
+      <c r="B17" s="46">
         <v>13</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="47">
         <v>2</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="48">
         <v>3</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="47">
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="62"/>
-      <c r="J17" s="63">
+      <c r="I17" s="64"/>
+      <c r="J17" s="65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="64">
+      <c r="K17" s="66">
         <v>2</v>
       </c>
-      <c r="L17" s="65">
+      <c r="L17" s="67">
         <v>3</v>
       </c>
-      <c r="M17" s="66">
+      <c r="M17" s="68">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="43"/>
-      <c r="B18" s="44">
+      <c r="A18" s="45"/>
+      <c r="B18" s="46">
         <v>14</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="47">
         <v>2</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="48">
         <v>0</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="48">
         <v>2</v>
       </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="47">
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="62"/>
-      <c r="J18" s="63" t="e">
+      <c r="I18" s="64"/>
+      <c r="J18" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="64">
+      <c r="K18" s="66">
         <v>0</v>
       </c>
-      <c r="L18" s="65">
+      <c r="L18" s="67">
         <v>0</v>
       </c>
-      <c r="M18" s="66" t="e">
+      <c r="M18" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:13">
-      <c r="A19" s="43"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="68" t="e">
+      <c r="A19" s="45"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="70" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="64"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="68"/>
     </row>
     <row r="20" ht="14.25" spans="1:13">
-      <c r="A20" s="49"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53">
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68" t="e">
+      <c r="I20" s="69"/>
+      <c r="J20" s="70" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="69">
+      <c r="K20" s="71">
         <v>0</v>
       </c>
-      <c r="L20" s="70">
+      <c r="L20" s="72">
         <v>0</v>
       </c>
-      <c r="M20" s="71" t="e">
+      <c r="M20" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="43">
+      <c r="A21" s="45">
         <v>4</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="46">
         <v>15</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="47">
         <v>2</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21" s="48">
         <v>1</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="48">
         <v>1</v>
       </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="47">
+      <c r="F21" s="49"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="62"/>
-      <c r="J21" s="63">
+      <c r="I21" s="64"/>
+      <c r="J21" s="65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K21" s="64">
+      <c r="K21" s="66">
         <v>2</v>
       </c>
-      <c r="L21" s="65">
+      <c r="L21" s="67">
         <v>1</v>
       </c>
-      <c r="M21" s="66">
+      <c r="M21" s="68">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44">
+      <c r="A22" s="45"/>
+      <c r="B22" s="46">
         <v>16</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="47">
         <v>4</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="48">
+        <v>3</v>
+      </c>
+      <c r="E22" s="48">
+        <v>0</v>
+      </c>
+      <c r="F22" s="49"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="66">
         <v>4</v>
       </c>
-      <c r="E22" s="46">
+      <c r="L22" s="67">
         <v>0</v>
       </c>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="64">
+      <c r="M22" s="68"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="45"/>
+      <c r="B23" s="46">
+        <v>17</v>
+      </c>
+      <c r="C23" s="47">
+        <v>11</v>
+      </c>
+      <c r="D23" s="48">
         <v>4</v>
       </c>
-      <c r="L22" s="65">
-        <v>0</v>
-      </c>
-      <c r="M22" s="66"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="E23" s="48">
+        <v>6</v>
+      </c>
+      <c r="F23" s="49"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="68"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="68"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="66"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="68"/>
     </row>
     <row r="26" ht="14.25" spans="1:13">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="71"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2735,8 +2770,8 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -2747,14 +2782,14 @@
     <col min="5" max="5" width="25.25" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="10" customWidth="1"/>
     <col min="9" max="9" width="9.875" customWidth="1"/>
     <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="1" ht="27" spans="1:15">
+    <row r="1" s="25" customFormat="1" ht="27" spans="1:15">
       <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
@@ -2779,7 +2814,7 @@
       <c r="H1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="35" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="28" t="s">
@@ -2802,64 +2837,64 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>3</v>
       </c>
       <c r="B2" s="29">
         <v>43116</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>76123117</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="8">
         <v>13951705734</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:15">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>4</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="31"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="H3" s="9"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2869,206 +2904,206 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>5</v>
       </c>
       <c r="B4" s="32">
         <v>43117</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>76126162</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
         <v>13951856747</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>6</v>
       </c>
       <c r="B5" s="32">
         <v>43139</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>76128986</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
         <v>15920612473</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>9</v>
       </c>
       <c r="B6" s="32">
         <v>43155</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>76131990</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="8">
         <v>13873735718</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>11</v>
       </c>
       <c r="B7" s="32">
         <v>43166</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>76135669</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="8">
         <v>13305193355</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>12</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="9"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="9"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -3078,151 +3113,151 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>13</v>
       </c>
       <c r="B9" s="32">
         <v>43183</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>76139331</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <v>15151845795</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>13</v>
       </c>
       <c r="B10" s="32">
         <v>43185</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>76136516</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="8">
         <v>15050585010</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>13</v>
       </c>
       <c r="B11" s="32">
         <v>43187</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>76151203</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="8">
         <v>18551690432</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="O11" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>14</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="1"/>
@@ -3230,59 +3265,59 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="9"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="9"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" s="11" customFormat="1" spans="1:15">
-      <c r="A13" s="9">
+    <row r="13" s="10" customFormat="1" spans="1:15">
+      <c r="A13" s="8">
         <v>15</v>
       </c>
       <c r="B13" s="32">
         <v>43201</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>76156301</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="8">
         <v>15366199998</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3290,38 +3325,38 @@
       <c r="A14" s="8">
         <v>16</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>64</v>
+      <c r="B14" s="32">
+        <v>43207</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="G14" s="8">
         <v>76156392</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="8">
+        <v>17625903469</v>
+      </c>
+      <c r="L14" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="9">
-        <v>17625903469</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>52</v>
@@ -3333,22 +3368,52 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+    <row r="15" s="26" customFormat="1" spans="1:15">
+      <c r="A15" s="33">
+        <v>17</v>
+      </c>
+      <c r="B15" s="34">
+        <v>43214</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="33">
+        <v>76159611</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="8">
+        <v>17625903469</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="N15" s="33">
+        <v>18657437163</v>
+      </c>
+      <c r="O15" s="33" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1"/>
@@ -3358,7 +3423,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="9"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -3375,7 +3440,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="9"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -3392,7 +3457,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="9"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -3409,7 +3474,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="9"/>
+      <c r="H19" s="8"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -3426,7 +3491,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="9"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -3443,7 +3508,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="9"/>
+      <c r="H21" s="8"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -3460,7 +3525,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="9"/>
+      <c r="H22" s="8"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -3477,7 +3542,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="9"/>
+      <c r="H23" s="8"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -3494,7 +3559,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="9"/>
+      <c r="H24" s="8"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -3511,7 +3576,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="9"/>
+      <c r="H25" s="8"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -3528,7 +3593,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="9"/>
+      <c r="H26" s="8"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -3545,7 +3610,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="9"/>
+      <c r="H27" s="8"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -3562,7 +3627,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="9"/>
+      <c r="H28" s="8"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3579,7 +3644,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="9"/>
+      <c r="H29" s="8"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -3596,7 +3661,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="9"/>
+      <c r="H30" s="8"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -3613,7 +3678,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="9"/>
+      <c r="H31" s="8"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -3630,7 +3695,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="9"/>
+      <c r="H32" s="8"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -3647,7 +3712,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="9"/>
+      <c r="H33" s="8"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -3664,7 +3729,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="9"/>
+      <c r="H34" s="8"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -3681,7 +3746,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="9"/>
+      <c r="H35" s="8"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3698,7 +3763,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="9"/>
+      <c r="H36" s="8"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -3715,7 +3780,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="9"/>
+      <c r="H37" s="8"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -3732,7 +3797,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="9"/>
+      <c r="H38" s="8"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -3749,7 +3814,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="9"/>
+      <c r="H39" s="8"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -3766,7 +3831,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="9"/>
+      <c r="H40" s="8"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -3783,7 +3848,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="9"/>
+      <c r="H41" s="8"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -3800,7 +3865,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="9"/>
+      <c r="H42" s="8"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -3817,7 +3882,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="9"/>
+      <c r="H43" s="8"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -3834,7 +3899,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="9"/>
+      <c r="H44" s="8"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -3851,7 +3916,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="9"/>
+      <c r="H45" s="8"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3868,7 +3933,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="9"/>
+      <c r="H46" s="8"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -3885,7 +3950,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="9"/>
+      <c r="H47" s="8"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -3902,7 +3967,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="9"/>
+      <c r="H48" s="8"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -3919,7 +3984,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="9"/>
+      <c r="H49" s="8"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -3936,7 +4001,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="9"/>
+      <c r="H50" s="8"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -3953,7 +4018,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="9"/>
+      <c r="H51" s="8"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -3970,7 +4035,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="9"/>
+      <c r="H52" s="8"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -3987,7 +4052,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="9"/>
+      <c r="H53" s="8"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -4004,7 +4069,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="9"/>
+      <c r="H54" s="8"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -4021,7 +4086,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="9"/>
+      <c r="H55" s="8"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -4038,7 +4103,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="9"/>
+      <c r="H56" s="8"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -4055,7 +4120,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="9"/>
+      <c r="H57" s="8"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -4072,7 +4137,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="9"/>
+      <c r="H58" s="8"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -4089,7 +4154,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="9"/>
+      <c r="H59" s="8"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -4106,7 +4171,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="9"/>
+      <c r="H60" s="8"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -4123,7 +4188,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="9"/>
+      <c r="H61" s="8"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -4140,7 +4205,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="9"/>
+      <c r="H62" s="8"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -4157,7 +4222,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="9"/>
+      <c r="H63" s="8"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -4174,7 +4239,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="9"/>
+      <c r="H64" s="8"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -4191,7 +4256,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="9"/>
+      <c r="H65" s="8"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -4208,7 +4273,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="9"/>
+      <c r="H66" s="8"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -4225,7 +4290,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="9"/>
+      <c r="H67" s="8"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -4242,7 +4307,7 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="9"/>
+      <c r="H68" s="8"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -4259,7 +4324,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="9"/>
+      <c r="H69" s="8"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -4276,7 +4341,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="9"/>
+      <c r="H70" s="8"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -4293,7 +4358,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="9"/>
+      <c r="H71" s="8"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -4310,7 +4375,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="9"/>
+      <c r="H72" s="8"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -4327,7 +4392,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="9"/>
+      <c r="H73" s="8"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -4344,7 +4409,7 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="9"/>
+      <c r="H74" s="8"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -4361,7 +4426,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="9"/>
+      <c r="H75" s="8"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -4378,7 +4443,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="9"/>
+      <c r="H76" s="8"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -4395,7 +4460,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="9"/>
+      <c r="H77" s="8"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -4412,7 +4477,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="9"/>
+      <c r="H78" s="8"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -4429,7 +4494,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="9"/>
+      <c r="H79" s="8"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -4446,7 +4511,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="9"/>
+      <c r="H80" s="8"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -4463,7 +4528,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="9"/>
+      <c r="H81" s="8"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -4480,7 +4545,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="9"/>
+      <c r="H82" s="8"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -4497,7 +4562,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="9"/>
+      <c r="H83" s="8"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -4514,7 +4579,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="9"/>
+      <c r="H84" s="8"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -4531,7 +4596,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="H85" s="9"/>
+      <c r="H85" s="8"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -4548,7 +4613,7 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-      <c r="H86" s="9"/>
+      <c r="H86" s="8"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -4565,7 +4630,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="H87" s="9"/>
+      <c r="H87" s="8"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -4582,7 +4647,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-      <c r="H88" s="9"/>
+      <c r="H88" s="8"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -4599,7 +4664,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="9"/>
+      <c r="H89" s="8"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -4616,7 +4681,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="9"/>
+      <c r="H90" s="8"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -4633,7 +4698,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="9"/>
+      <c r="H91" s="8"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -4650,7 +4715,7 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="9"/>
+      <c r="H92" s="8"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -4667,7 +4732,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="9"/>
+      <c r="H93" s="8"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -4684,7 +4749,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="H94" s="9"/>
+      <c r="H94" s="8"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
@@ -4701,7 +4766,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="9"/>
+      <c r="H95" s="8"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -4718,7 +4783,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="9"/>
+      <c r="H96" s="8"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -4735,7 +4800,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="H97" s="9"/>
+      <c r="H97" s="8"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -4752,7 +4817,7 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="H98" s="9"/>
+      <c r="H98" s="8"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -4769,7 +4834,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="9"/>
+      <c r="H99" s="8"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
@@ -4786,7 +4851,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="9"/>
+      <c r="H100" s="8"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -4803,7 +4868,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-      <c r="H101" s="9"/>
+      <c r="H101" s="8"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -4820,7 +4885,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-      <c r="H102" s="9"/>
+      <c r="H102" s="8"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -4837,7 +4902,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
-      <c r="H103" s="9"/>
+      <c r="H103" s="8"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
@@ -4854,7 +4919,7 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
-      <c r="H104" s="9"/>
+      <c r="H104" s="8"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -4871,7 +4936,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
-      <c r="H105" s="9"/>
+      <c r="H105" s="8"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -4888,7 +4953,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
-      <c r="H106" s="9"/>
+      <c r="H106" s="8"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -4905,7 +4970,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
-      <c r="H107" s="9"/>
+      <c r="H107" s="8"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -4922,7 +4987,7 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
-      <c r="H108" s="9"/>
+      <c r="H108" s="8"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -4939,7 +5004,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
-      <c r="H109" s="9"/>
+      <c r="H109" s="8"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -4956,7 +5021,7 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
-      <c r="H110" s="9"/>
+      <c r="H110" s="8"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
@@ -4973,7 +5038,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
-      <c r="H111" s="9"/>
+      <c r="H111" s="8"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
@@ -4990,7 +5055,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
-      <c r="H112" s="9"/>
+      <c r="H112" s="8"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -5007,7 +5072,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
-      <c r="H113" s="9"/>
+      <c r="H113" s="8"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
@@ -5024,7 +5089,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
-      <c r="H114" s="9"/>
+      <c r="H114" s="8"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
@@ -5041,7 +5106,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
-      <c r="H115" s="9"/>
+      <c r="H115" s="8"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
@@ -5058,7 +5123,7 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
-      <c r="H116" s="9"/>
+      <c r="H116" s="8"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -5075,7 +5140,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
-      <c r="H117" s="9"/>
+      <c r="H117" s="8"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
@@ -5092,7 +5157,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
-      <c r="H118" s="9"/>
+      <c r="H118" s="8"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
@@ -5109,7 +5174,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
-      <c r="H119" s="9"/>
+      <c r="H119" s="8"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
@@ -5126,7 +5191,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
-      <c r="H120" s="9"/>
+      <c r="H120" s="8"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
@@ -5143,7 +5208,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
-      <c r="H121" s="9"/>
+      <c r="H121" s="8"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
@@ -5160,7 +5225,7 @@
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
-      <c r="H122" s="9"/>
+      <c r="H122" s="8"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
@@ -5177,7 +5242,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
-      <c r="H123" s="9"/>
+      <c r="H123" s="8"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
@@ -5194,7 +5259,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
-      <c r="H124" s="9"/>
+      <c r="H124" s="8"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
@@ -5211,7 +5276,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
-      <c r="H125" s="9"/>
+      <c r="H125" s="8"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
@@ -5228,7 +5293,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
-      <c r="H126" s="9"/>
+      <c r="H126" s="8"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
@@ -5245,7 +5310,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
-      <c r="H127" s="9"/>
+      <c r="H127" s="8"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
@@ -5262,7 +5327,7 @@
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
-      <c r="H128" s="9"/>
+      <c r="H128" s="8"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
@@ -5279,7 +5344,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
-      <c r="H129" s="9"/>
+      <c r="H129" s="8"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
@@ -5296,7 +5361,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
-      <c r="H130" s="9"/>
+      <c r="H130" s="8"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
@@ -5313,7 +5378,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
-      <c r="H131" s="9"/>
+      <c r="H131" s="8"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
@@ -5330,7 +5395,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
-      <c r="H132" s="9"/>
+      <c r="H132" s="8"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
@@ -5347,7 +5412,7 @@
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
-      <c r="H133" s="9"/>
+      <c r="H133" s="8"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
@@ -5364,7 +5429,7 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
-      <c r="H134" s="9"/>
+      <c r="H134" s="8"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
@@ -5381,7 +5446,7 @@
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
-      <c r="H135" s="9"/>
+      <c r="H135" s="8"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
@@ -5398,7 +5463,7 @@
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
-      <c r="H136" s="9"/>
+      <c r="H136" s="8"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
@@ -5415,7 +5480,7 @@
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
-      <c r="H137" s="9"/>
+      <c r="H137" s="8"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
@@ -5432,7 +5497,7 @@
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
-      <c r="H138" s="9"/>
+      <c r="H138" s="8"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
@@ -5449,7 +5514,7 @@
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
-      <c r="H139" s="9"/>
+      <c r="H139" s="8"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
@@ -5466,7 +5531,7 @@
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
-      <c r="H140" s="9"/>
+      <c r="H140" s="8"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
@@ -5483,7 +5548,7 @@
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
-      <c r="H141" s="9"/>
+      <c r="H141" s="8"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
@@ -5500,7 +5565,7 @@
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
-      <c r="H142" s="9"/>
+      <c r="H142" s="8"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
@@ -5517,7 +5582,7 @@
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
-      <c r="H143" s="9"/>
+      <c r="H143" s="8"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
@@ -5534,7 +5599,7 @@
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
-      <c r="H144" s="9"/>
+      <c r="H144" s="8"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
@@ -5551,7 +5616,7 @@
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
-      <c r="H145" s="9"/>
+      <c r="H145" s="8"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
@@ -5568,7 +5633,7 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
-      <c r="H146" s="9"/>
+      <c r="H146" s="8"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
@@ -5585,7 +5650,7 @@
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
-      <c r="H147" s="9"/>
+      <c r="H147" s="8"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
@@ -5602,7 +5667,7 @@
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
-      <c r="H148" s="9"/>
+      <c r="H148" s="8"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
@@ -5619,7 +5684,7 @@
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
-      <c r="H149" s="9"/>
+      <c r="H149" s="8"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
@@ -5636,7 +5701,7 @@
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
-      <c r="H150" s="9"/>
+      <c r="H150" s="8"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
@@ -5653,7 +5718,7 @@
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
-      <c r="H151" s="9"/>
+      <c r="H151" s="8"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
@@ -5670,7 +5735,7 @@
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
-      <c r="H152" s="9"/>
+      <c r="H152" s="8"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
@@ -5687,7 +5752,7 @@
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
-      <c r="H153" s="9"/>
+      <c r="H153" s="8"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
@@ -5704,7 +5769,7 @@
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
-      <c r="H154" s="9"/>
+      <c r="H154" s="8"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
@@ -5721,7 +5786,7 @@
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
-      <c r="H155" s="9"/>
+      <c r="H155" s="8"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
@@ -5738,7 +5803,7 @@
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
-      <c r="H156" s="9"/>
+      <c r="H156" s="8"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
@@ -5755,7 +5820,7 @@
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
-      <c r="H157" s="9"/>
+      <c r="H157" s="8"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
@@ -5772,7 +5837,7 @@
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
-      <c r="H158" s="9"/>
+      <c r="H158" s="8"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
@@ -5789,7 +5854,7 @@
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
-      <c r="H159" s="9"/>
+      <c r="H159" s="8"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
@@ -5806,7 +5871,7 @@
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
-      <c r="H160" s="9"/>
+      <c r="H160" s="8"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
@@ -5823,7 +5888,7 @@
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
-      <c r="H161" s="9"/>
+      <c r="H161" s="8"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
@@ -5840,7 +5905,7 @@
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
-      <c r="H162" s="9"/>
+      <c r="H162" s="8"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
@@ -5857,7 +5922,7 @@
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
-      <c r="H163" s="9"/>
+      <c r="H163" s="8"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
@@ -5874,7 +5939,7 @@
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
-      <c r="H164" s="9"/>
+      <c r="H164" s="8"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
@@ -5891,7 +5956,7 @@
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
-      <c r="H165" s="9"/>
+      <c r="H165" s="8"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
@@ -5908,7 +5973,7 @@
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
-      <c r="H166" s="9"/>
+      <c r="H166" s="8"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
@@ -5925,7 +5990,7 @@
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
-      <c r="H167" s="9"/>
+      <c r="H167" s="8"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
@@ -5942,7 +6007,7 @@
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
-      <c r="H168" s="9"/>
+      <c r="H168" s="8"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
@@ -5959,7 +6024,7 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
-      <c r="H169" s="9"/>
+      <c r="H169" s="8"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
@@ -5976,7 +6041,7 @@
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
-      <c r="H170" s="9"/>
+      <c r="H170" s="8"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
@@ -5993,7 +6058,7 @@
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
-      <c r="H171" s="9"/>
+      <c r="H171" s="8"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
@@ -6010,7 +6075,7 @@
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
-      <c r="H172" s="9"/>
+      <c r="H172" s="8"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
@@ -6027,7 +6092,7 @@
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
-      <c r="H173" s="9"/>
+      <c r="H173" s="8"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
@@ -6044,7 +6109,7 @@
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
-      <c r="H174" s="9"/>
+      <c r="H174" s="8"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
@@ -6061,7 +6126,7 @@
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
-      <c r="H175" s="9"/>
+      <c r="H175" s="8"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
@@ -6078,7 +6143,7 @@
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
-      <c r="H176" s="9"/>
+      <c r="H176" s="8"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
@@ -6095,7 +6160,7 @@
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
-      <c r="H177" s="9"/>
+      <c r="H177" s="8"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
@@ -6112,7 +6177,7 @@
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
-      <c r="H178" s="9"/>
+      <c r="H178" s="8"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
@@ -6129,7 +6194,7 @@
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
-      <c r="H179" s="9"/>
+      <c r="H179" s="8"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
@@ -6146,7 +6211,7 @@
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
-      <c r="H180" s="9"/>
+      <c r="H180" s="8"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
@@ -6163,7 +6228,7 @@
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
-      <c r="H181" s="9"/>
+      <c r="H181" s="8"/>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
@@ -6180,7 +6245,7 @@
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
-      <c r="H182" s="9"/>
+      <c r="H182" s="8"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
@@ -6197,7 +6262,7 @@
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
-      <c r="H183" s="9"/>
+      <c r="H183" s="8"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
@@ -6214,7 +6279,7 @@
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
-      <c r="H184" s="9"/>
+      <c r="H184" s="8"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
@@ -6231,7 +6296,7 @@
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
-      <c r="H185" s="9"/>
+      <c r="H185" s="8"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
@@ -6248,7 +6313,7 @@
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
-      <c r="H186" s="9"/>
+      <c r="H186" s="8"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
@@ -6265,7 +6330,7 @@
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
-      <c r="H187" s="9"/>
+      <c r="H187" s="8"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
@@ -6282,7 +6347,7 @@
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
-      <c r="H188" s="9"/>
+      <c r="H188" s="8"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
@@ -6299,7 +6364,7 @@
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
-      <c r="H189" s="9"/>
+      <c r="H189" s="8"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
@@ -6316,7 +6381,7 @@
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
-      <c r="H190" s="9"/>
+      <c r="H190" s="8"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
@@ -6333,7 +6398,7 @@
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
-      <c r="H191" s="9"/>
+      <c r="H191" s="8"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
@@ -6350,7 +6415,7 @@
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
-      <c r="H192" s="9"/>
+      <c r="H192" s="8"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
@@ -6367,7 +6432,7 @@
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
-      <c r="H193" s="9"/>
+      <c r="H193" s="8"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
@@ -6384,7 +6449,7 @@
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
-      <c r="H194" s="9"/>
+      <c r="H194" s="8"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
@@ -6401,7 +6466,7 @@
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
-      <c r="H195" s="9"/>
+      <c r="H195" s="8"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
@@ -6418,7 +6483,7 @@
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
-      <c r="H196" s="9"/>
+      <c r="H196" s="8"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
@@ -6435,7 +6500,7 @@
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
-      <c r="H197" s="9"/>
+      <c r="H197" s="8"/>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
@@ -6452,7 +6517,7 @@
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
-      <c r="H198" s="9"/>
+      <c r="H198" s="8"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
@@ -6469,7 +6534,7 @@
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
-      <c r="H199" s="9"/>
+      <c r="H199" s="8"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
@@ -6486,7 +6551,7 @@
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
-      <c r="H200" s="9"/>
+      <c r="H200" s="8"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
@@ -6503,7 +6568,7 @@
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
-      <c r="H201" s="9"/>
+      <c r="H201" s="8"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
@@ -6520,7 +6585,7 @@
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
-      <c r="H202" s="9"/>
+      <c r="H202" s="8"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
@@ -6537,7 +6602,7 @@
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
-      <c r="H203" s="9"/>
+      <c r="H203" s="8"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
@@ -6554,7 +6619,7 @@
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
-      <c r="H204" s="9"/>
+      <c r="H204" s="8"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
@@ -6571,7 +6636,7 @@
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
-      <c r="H205" s="9"/>
+      <c r="H205" s="8"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
@@ -6588,7 +6653,7 @@
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
-      <c r="H206" s="9"/>
+      <c r="H206" s="8"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
@@ -6605,7 +6670,7 @@
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
-      <c r="H207" s="9"/>
+      <c r="H207" s="8"/>
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
@@ -6622,7 +6687,7 @@
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
-      <c r="H208" s="9"/>
+      <c r="H208" s="8"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
@@ -6639,7 +6704,7 @@
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
-      <c r="H209" s="9"/>
+      <c r="H209" s="8"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
@@ -6656,7 +6721,7 @@
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
-      <c r="H210" s="9"/>
+      <c r="H210" s="8"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
@@ -6673,7 +6738,7 @@
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
-      <c r="H211" s="9"/>
+      <c r="H211" s="8"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
@@ -6690,7 +6755,7 @@
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
-      <c r="H212" s="9"/>
+      <c r="H212" s="8"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
@@ -6707,7 +6772,7 @@
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
-      <c r="H213" s="9"/>
+      <c r="H213" s="8"/>
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
@@ -6724,7 +6789,7 @@
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
-      <c r="H214" s="9"/>
+      <c r="H214" s="8"/>
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
@@ -6741,7 +6806,7 @@
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
-      <c r="H215" s="9"/>
+      <c r="H215" s="8"/>
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
@@ -6758,7 +6823,7 @@
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
-      <c r="H216" s="9"/>
+      <c r="H216" s="8"/>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
@@ -6775,7 +6840,7 @@
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
-      <c r="H217" s="9"/>
+      <c r="H217" s="8"/>
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
@@ -6792,7 +6857,7 @@
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
-      <c r="H218" s="9"/>
+      <c r="H218" s="8"/>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
@@ -6809,7 +6874,7 @@
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
-      <c r="H219" s="9"/>
+      <c r="H219" s="8"/>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
@@ -6826,7 +6891,7 @@
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
-      <c r="H220" s="9"/>
+      <c r="H220" s="8"/>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
@@ -6843,7 +6908,7 @@
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
-      <c r="H221" s="9"/>
+      <c r="H221" s="8"/>
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
@@ -6860,7 +6925,7 @@
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
-      <c r="H222" s="9"/>
+      <c r="H222" s="8"/>
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
@@ -6877,7 +6942,7 @@
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
-      <c r="H223" s="9"/>
+      <c r="H223" s="8"/>
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
@@ -6894,7 +6959,7 @@
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
-      <c r="H224" s="9"/>
+      <c r="H224" s="8"/>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
@@ -6911,7 +6976,7 @@
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
-      <c r="H225" s="9"/>
+      <c r="H225" s="8"/>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
@@ -6928,7 +6993,7 @@
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
-      <c r="H226" s="9"/>
+      <c r="H226" s="8"/>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
@@ -6945,7 +7010,7 @@
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
-      <c r="H227" s="9"/>
+      <c r="H227" s="8"/>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
@@ -6962,7 +7027,7 @@
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
-      <c r="H228" s="9"/>
+      <c r="H228" s="8"/>
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
@@ -6979,7 +7044,7 @@
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
-      <c r="H229" s="9"/>
+      <c r="H229" s="8"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
@@ -6996,7 +7061,7 @@
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
-      <c r="H230" s="9"/>
+      <c r="H230" s="8"/>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
@@ -7013,7 +7078,7 @@
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
-      <c r="H231" s="9"/>
+      <c r="H231" s="8"/>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
@@ -7030,7 +7095,7 @@
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
-      <c r="H232" s="9"/>
+      <c r="H232" s="8"/>
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
@@ -7047,7 +7112,7 @@
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
-      <c r="H233" s="9"/>
+      <c r="H233" s="8"/>
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
@@ -7064,7 +7129,7 @@
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
-      <c r="H234" s="9"/>
+      <c r="H234" s="8"/>
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
@@ -7081,7 +7146,7 @@
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
-      <c r="H235" s="9"/>
+      <c r="H235" s="8"/>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
@@ -7098,7 +7163,7 @@
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
-      <c r="H236" s="9"/>
+      <c r="H236" s="8"/>
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
@@ -7115,7 +7180,7 @@
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
-      <c r="H237" s="9"/>
+      <c r="H237" s="8"/>
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
@@ -7132,7 +7197,7 @@
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
-      <c r="H238" s="9"/>
+      <c r="H238" s="8"/>
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
@@ -7149,7 +7214,7 @@
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
-      <c r="H239" s="9"/>
+      <c r="H239" s="8"/>
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
@@ -7166,7 +7231,7 @@
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
-      <c r="H240" s="9"/>
+      <c r="H240" s="8"/>
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
@@ -7183,7 +7248,7 @@
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
-      <c r="H241" s="9"/>
+      <c r="H241" s="8"/>
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
@@ -7200,7 +7265,7 @@
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
-      <c r="H242" s="9"/>
+      <c r="H242" s="8"/>
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
@@ -7217,7 +7282,7 @@
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
-      <c r="H243" s="9"/>
+      <c r="H243" s="8"/>
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
       <c r="K243" s="1"/>
@@ -7234,7 +7299,7 @@
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
-      <c r="H244" s="9"/>
+      <c r="H244" s="8"/>
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
@@ -7251,7 +7316,7 @@
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
-      <c r="H245" s="9"/>
+      <c r="H245" s="8"/>
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
@@ -7268,7 +7333,7 @@
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
-      <c r="H246" s="9"/>
+      <c r="H246" s="8"/>
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
@@ -7285,7 +7350,7 @@
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
-      <c r="H247" s="9"/>
+      <c r="H247" s="8"/>
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
@@ -7302,7 +7367,7 @@
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
-      <c r="H248" s="9"/>
+      <c r="H248" s="8"/>
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
@@ -7319,7 +7384,7 @@
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
-      <c r="H249" s="9"/>
+      <c r="H249" s="8"/>
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
@@ -7336,7 +7401,7 @@
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
-      <c r="H250" s="9"/>
+      <c r="H250" s="8"/>
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
       <c r="K250" s="1"/>
@@ -7353,7 +7418,7 @@
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
-      <c r="H251" s="9"/>
+      <c r="H251" s="8"/>
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
@@ -7370,7 +7435,7 @@
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
-      <c r="H252" s="9"/>
+      <c r="H252" s="8"/>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
@@ -7387,7 +7452,7 @@
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
-      <c r="H253" s="9"/>
+      <c r="H253" s="8"/>
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
@@ -7404,7 +7469,7 @@
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
-      <c r="H254" s="9"/>
+      <c r="H254" s="8"/>
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
@@ -7421,7 +7486,7 @@
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
-      <c r="H255" s="9"/>
+      <c r="H255" s="8"/>
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
@@ -7438,7 +7503,7 @@
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
-      <c r="H256" s="9"/>
+      <c r="H256" s="8"/>
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
@@ -7455,7 +7520,7 @@
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
-      <c r="H257" s="9"/>
+      <c r="H257" s="8"/>
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
@@ -7472,7 +7537,7 @@
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
-      <c r="H258" s="9"/>
+      <c r="H258" s="8"/>
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
       <c r="K258" s="1"/>
@@ -7489,7 +7554,7 @@
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
-      <c r="H259" s="9"/>
+      <c r="H259" s="8"/>
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
       <c r="K259" s="1"/>
@@ -7506,7 +7571,7 @@
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
-      <c r="H260" s="9"/>
+      <c r="H260" s="8"/>
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
       <c r="K260" s="1"/>
@@ -7523,7 +7588,7 @@
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
-      <c r="H261" s="9"/>
+      <c r="H261" s="8"/>
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
@@ -7540,7 +7605,7 @@
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
-      <c r="H262" s="9"/>
+      <c r="H262" s="8"/>
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
@@ -7557,7 +7622,7 @@
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
-      <c r="H263" s="9"/>
+      <c r="H263" s="8"/>
       <c r="I263" s="1"/>
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
@@ -7574,7 +7639,7 @@
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
-      <c r="H264" s="9"/>
+      <c r="H264" s="8"/>
       <c r="I264" s="1"/>
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
@@ -7591,7 +7656,7 @@
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
-      <c r="H265" s="9"/>
+      <c r="H265" s="8"/>
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
@@ -7608,7 +7673,7 @@
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
-      <c r="H266" s="9"/>
+      <c r="H266" s="8"/>
       <c r="I266" s="1"/>
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
@@ -7625,7 +7690,7 @@
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
-      <c r="H267" s="9"/>
+      <c r="H267" s="8"/>
       <c r="I267" s="1"/>
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
@@ -7642,7 +7707,7 @@
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
-      <c r="H268" s="9"/>
+      <c r="H268" s="8"/>
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
@@ -7659,7 +7724,7 @@
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
-      <c r="H269" s="9"/>
+      <c r="H269" s="8"/>
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
@@ -7676,7 +7741,7 @@
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
-      <c r="H270" s="9"/>
+      <c r="H270" s="8"/>
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
       <c r="K270" s="1"/>
@@ -7693,7 +7758,7 @@
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
-      <c r="H271" s="9"/>
+      <c r="H271" s="8"/>
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
       <c r="K271" s="1"/>
@@ -7710,7 +7775,7 @@
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
-      <c r="H272" s="9"/>
+      <c r="H272" s="8"/>
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
       <c r="K272" s="1"/>
@@ -7727,7 +7792,7 @@
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
-      <c r="H273" s="9"/>
+      <c r="H273" s="8"/>
       <c r="I273" s="1"/>
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
@@ -7744,7 +7809,7 @@
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
-      <c r="H274" s="9"/>
+      <c r="H274" s="8"/>
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
@@ -7761,7 +7826,7 @@
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
-      <c r="H275" s="9"/>
+      <c r="H275" s="8"/>
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
@@ -7778,7 +7843,7 @@
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
-      <c r="H276" s="9"/>
+      <c r="H276" s="8"/>
       <c r="I276" s="1"/>
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
@@ -7795,7 +7860,7 @@
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
-      <c r="H277" s="9"/>
+      <c r="H277" s="8"/>
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
@@ -7812,7 +7877,7 @@
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
-      <c r="H278" s="9"/>
+      <c r="H278" s="8"/>
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
       <c r="K278" s="1"/>
@@ -7829,7 +7894,7 @@
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
-      <c r="H279" s="9"/>
+      <c r="H279" s="8"/>
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
@@ -7846,7 +7911,7 @@
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
-      <c r="H280" s="9"/>
+      <c r="H280" s="8"/>
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
@@ -7863,7 +7928,7 @@
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
-      <c r="H281" s="9"/>
+      <c r="H281" s="8"/>
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
@@ -7880,7 +7945,7 @@
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
-      <c r="H282" s="9"/>
+      <c r="H282" s="8"/>
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
@@ -7897,7 +7962,7 @@
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
-      <c r="H283" s="9"/>
+      <c r="H283" s="8"/>
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
@@ -7914,7 +7979,7 @@
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
-      <c r="H284" s="9"/>
+      <c r="H284" s="8"/>
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
       <c r="K284" s="1"/>
@@ -7931,7 +7996,7 @@
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
-      <c r="H285" s="9"/>
+      <c r="H285" s="8"/>
       <c r="I285" s="1"/>
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
@@ -7948,7 +8013,7 @@
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
-      <c r="H286" s="9"/>
+      <c r="H286" s="8"/>
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
@@ -7965,7 +8030,7 @@
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
-      <c r="H287" s="9"/>
+      <c r="H287" s="8"/>
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
       <c r="K287" s="1"/>
@@ -7982,7 +8047,7 @@
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
-      <c r="H288" s="9"/>
+      <c r="H288" s="8"/>
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
       <c r="K288" s="1"/>
@@ -7999,7 +8064,7 @@
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
-      <c r="H289" s="9"/>
+      <c r="H289" s="8"/>
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
@@ -8016,7 +8081,7 @@
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
-      <c r="H290" s="9"/>
+      <c r="H290" s="8"/>
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
@@ -8033,7 +8098,7 @@
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
-      <c r="H291" s="9"/>
+      <c r="H291" s="8"/>
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
       <c r="K291" s="1"/>
@@ -8050,7 +8115,7 @@
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
-      <c r="H292" s="9"/>
+      <c r="H292" s="8"/>
       <c r="I292" s="1"/>
       <c r="J292" s="1"/>
       <c r="K292" s="1"/>
@@ -8067,7 +8132,7 @@
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
-      <c r="H293" s="9"/>
+      <c r="H293" s="8"/>
       <c r="I293" s="1"/>
       <c r="J293" s="1"/>
       <c r="K293" s="1"/>
@@ -8084,7 +8149,7 @@
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
-      <c r="H294" s="9"/>
+      <c r="H294" s="8"/>
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
       <c r="K294" s="1"/>
@@ -8101,7 +8166,7 @@
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
-      <c r="H295" s="9"/>
+      <c r="H295" s="8"/>
       <c r="I295" s="1"/>
       <c r="J295" s="1"/>
       <c r="K295" s="1"/>
@@ -8118,7 +8183,7 @@
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
-      <c r="H296" s="9"/>
+      <c r="H296" s="8"/>
       <c r="I296" s="1"/>
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
@@ -8135,7 +8200,7 @@
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
-      <c r="H297" s="9"/>
+      <c r="H297" s="8"/>
       <c r="I297" s="1"/>
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
@@ -8152,7 +8217,7 @@
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
-      <c r="H298" s="9"/>
+      <c r="H298" s="8"/>
       <c r="I298" s="1"/>
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
@@ -8169,7 +8234,7 @@
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
-      <c r="H299" s="9"/>
+      <c r="H299" s="8"/>
       <c r="I299" s="1"/>
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
@@ -8186,7 +8251,7 @@
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
-      <c r="H300" s="9"/>
+      <c r="H300" s="8"/>
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
       <c r="K300" s="1"/>
@@ -8227,989 +8292,989 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="10" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="12" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>73</v>
       </c>
+      <c r="D1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="18">
+      <c r="B2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="17">
         <v>43102</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>75</v>
+      <c r="D2" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="17">
+        <v>43110</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8">
+        <v>5</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="17">
+        <v>43126</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="8">
+        <v>6</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="17">
+        <v>43133</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8">
+        <v>8</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="18">
-        <v>43110</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="C6" s="17">
+        <v>43102</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="9">
-        <v>5</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="18">
-        <v>43126</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="F6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="9">
-        <v>6</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="18">
+    <row r="7" ht="27" spans="1:7">
+      <c r="A7" s="8">
+        <v>8</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="17">
         <v>43133</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="9">
-        <v>8</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="18">
-        <v>43102</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" ht="27" spans="1:7">
-      <c r="A7" s="9">
-        <v>8</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="18">
-        <v>43133</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>87</v>
+      <c r="D7" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>11</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>43172</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>88</v>
+      <c r="D8" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>15</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="18">
+      <c r="B9" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="17">
         <v>43192</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>91</v>
+      <c r="D9" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" s="10" customFormat="1" spans="1:7">
-      <c r="A10" s="9">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" s="9" customFormat="1" spans="1:7">
+      <c r="A10" s="8">
         <v>15</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="18">
+      <c r="B10" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="17">
         <v>43189</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" s="10" customFormat="1" spans="1:7">
-      <c r="A11" s="9">
+      <c r="D10" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" s="9" customFormat="1" spans="1:7">
+      <c r="A11" s="8">
         <v>15</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="17">
+        <v>43199</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8">
+        <v>16</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="17">
+        <v>43206</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="18">
-        <v>43199</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="9">
-        <v>16</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="18">
-        <v>43206</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="9"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="9"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="9"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="9"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="9"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="9"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="9"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="9"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="9"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="9"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="9"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="9"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="9"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="9"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="9"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="9"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="9"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="9"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="9"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="9"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="9"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="9"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="9"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="9"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="9"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="9"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="9"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="9"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="9"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="9"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="9"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="9"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="9"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="9"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="9"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="9"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="9"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="9"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="9"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="9"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="9"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="9"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="9"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="9"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="9"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="9"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="9"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
     </row>
     <row r="60" ht="14.25" spans="1:7">
-      <c r="A60" s="9"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="23"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="22"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="24"/>
+      <c r="G60" s="23"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="9"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="19"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="18"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="9"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="19"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="18"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="9"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="19"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="18"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="9"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="19"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="18"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="9"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="19"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="18"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="9"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="19"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="18"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="9"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="19"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="18"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="9"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="19"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="18"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
     <row r="69" ht="14.25" spans="1:7">
-      <c r="A69" s="9"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="23"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="22"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="17"/>
+      <c r="G69" s="16"/>
     </row>
     <row r="70" ht="14.25" spans="1:7">
-      <c r="A70" s="9"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="23"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="22"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="9"/>
+      <c r="G70" s="8"/>
     </row>
     <row r="71" ht="14.25" spans="1:7">
-      <c r="A71" s="9"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="23"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="22"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="9"/>
+      <c r="G71" s="8"/>
     </row>
     <row r="72" ht="14.25" spans="1:7">
-      <c r="A72" s="9"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="23"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="22"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="24"/>
+      <c r="G72" s="23"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="9"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="19"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="18"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="9"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="19"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="18"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="9"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="19"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="18"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="9"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="19"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="18"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="9"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="19"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="18"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="9"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="19"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="18"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="9"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="19"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="18"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="9"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="19"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="18"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
     <row r="81" ht="14.25" spans="1:7">
-      <c r="A81" s="9"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="23"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="22"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="9"/>
+      <c r="G81" s="8"/>
     </row>
     <row r="82" ht="14.25" spans="1:7">
-      <c r="A82" s="9"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="23"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="22"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="24"/>
+      <c r="G82" s="23"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="9"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="19"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="18"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="9"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="19"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="18"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="9"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="19"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="18"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="9"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="19"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="18"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="9"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="19"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="18"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="9"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="19"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="18"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="9"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="19"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="18"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="9"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="19"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="18"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -9236,7 +9301,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9253,96 +9318,114 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>109</v>
+      <c r="C3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/周数据/《个人上线率统计表》-徐沛华.xlsx
+++ b/周数据/《个人上线率统计表》-徐沛华.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -258,6 +258,30 @@
     <t>老品牌</t>
   </si>
   <si>
+    <t>南京市玄武区德先酒楼</t>
+  </si>
+  <si>
+    <t>南京小郡肝串串</t>
+  </si>
+  <si>
+    <t>周女士</t>
+  </si>
+  <si>
+    <t>江苏巴适满堂餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>巴适满堂美蛙鱼头火锅</t>
+  </si>
+  <si>
+    <t>如东</t>
+  </si>
+  <si>
+    <t>巴士满堂美蛙鱼头火锅（如东店）</t>
+  </si>
+  <si>
+    <t>吴文娟</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -328,9 +352,6 @@
   </si>
   <si>
     <t>郑立冬</t>
-  </si>
-  <si>
-    <t>巴适满堂美蛙鱼头火锅</t>
   </si>
   <si>
     <t>装修中，月底实施。</t>
@@ -402,9 +423,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -484,6 +505,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -538,6 +566,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -587,20 +622,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,13 +712,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,7 +784,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,19 +826,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,13 +844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,48 +862,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -829,37 +874,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,10 +1302,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1293,137 +1314,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1522,9 +1543,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1965,8 +1983,8 @@
   <sheetPr/>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1979,777 +1997,777 @@
     <col min="7" max="7" width="15.5" style="10" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="10" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="36" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="35" customWidth="1"/>
     <col min="11" max="11" width="16" style="10" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="10" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="58"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="57"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="J2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="61" t="s">
+      <c r="K2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="M2" s="62" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="45">
+      <c r="A3" s="44">
         <v>1</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="45">
         <v>1</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="46">
         <v>1</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47">
         <f>C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="49">
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="48">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="64"/>
-      <c r="J3" s="65" t="e">
+      <c r="I3" s="63"/>
+      <c r="J3" s="64" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="66">
+      <c r="K3" s="65">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="67">
+      <c r="L3" s="66">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="68">
+      <c r="M3" s="67">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46">
+      <c r="A4" s="44"/>
+      <c r="B4" s="45">
         <v>2</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="46">
         <v>1</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47">
         <v>1</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="49">
+      <c r="F4" s="48"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="48">
         <f t="shared" ref="H4:H26" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65" t="e">
+      <c r="I4" s="63"/>
+      <c r="J4" s="64" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="66">
+      <c r="K4" s="65">
         <v>1</v>
       </c>
-      <c r="L4" s="67">
+      <c r="L4" s="66">
         <v>0</v>
       </c>
-      <c r="M4" s="68">
+      <c r="M4" s="67">
         <f t="shared" ref="M4:M26" si="1">L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46">
+      <c r="A5" s="44"/>
+      <c r="B5" s="45">
         <v>3</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="46">
         <v>0</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47">
         <v>0</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="49">
+      <c r="F5" s="48"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="64"/>
-      <c r="J5" s="65" t="e">
+      <c r="I5" s="63"/>
+      <c r="J5" s="64" t="e">
         <f t="shared" ref="J5:J26" si="2">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="66">
+      <c r="K5" s="65">
         <v>0</v>
       </c>
-      <c r="L5" s="67">
+      <c r="L5" s="66">
         <v>0</v>
       </c>
-      <c r="M5" s="68" t="e">
+      <c r="M5" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46">
+      <c r="A6" s="44"/>
+      <c r="B6" s="45">
         <v>4</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="46">
         <v>0</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48">
+      <c r="D6" s="47"/>
+      <c r="E6" s="47">
         <v>0</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="49">
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65" t="e">
+      <c r="I6" s="63"/>
+      <c r="J6" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="66">
+      <c r="K6" s="65">
         <v>0</v>
       </c>
-      <c r="L6" s="67">
+      <c r="L6" s="66">
         <v>0</v>
       </c>
-      <c r="M6" s="68" t="e">
+      <c r="M6" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46">
+      <c r="A7" s="44"/>
+      <c r="B7" s="45">
         <v>5</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="46">
         <v>1</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48">
+      <c r="D7" s="47"/>
+      <c r="E7" s="47">
         <v>1</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="49">
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65" t="e">
+      <c r="I7" s="63"/>
+      <c r="J7" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="66">
+      <c r="K7" s="65">
         <v>1</v>
       </c>
-      <c r="L7" s="67">
+      <c r="L7" s="66">
         <v>0</v>
       </c>
-      <c r="M7" s="68">
+      <c r="M7" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="55">
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="69"/>
-      <c r="J8" s="70" t="e">
+      <c r="I8" s="68"/>
+      <c r="J8" s="69" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="71">
+      <c r="K8" s="70">
         <v>0</v>
       </c>
-      <c r="L8" s="72">
+      <c r="L8" s="71">
         <v>0</v>
       </c>
-      <c r="M8" s="73" t="e">
+      <c r="M8" s="72" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="45">
+      <c r="A9" s="44">
         <v>2</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="45">
         <v>8</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="46">
         <v>1</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="47">
         <v>1</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="49">
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="64"/>
-      <c r="J9" s="65">
+      <c r="I9" s="63"/>
+      <c r="J9" s="64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="66">
+      <c r="K9" s="65">
         <f>C9+G9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="67">
+      <c r="L9" s="66">
         <f>D9+G9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="68">
+      <c r="M9" s="67">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="45"/>
-      <c r="B10" s="46">
+      <c r="A10" s="44"/>
+      <c r="B10" s="45">
         <v>10</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="46">
         <v>1</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48">
+      <c r="D10" s="47"/>
+      <c r="E10" s="47">
         <v>1</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="49">
+      <c r="F10" s="48"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="64"/>
-      <c r="J10" s="65" t="e">
+      <c r="I10" s="63"/>
+      <c r="J10" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="66">
+      <c r="K10" s="65">
         <v>1</v>
       </c>
-      <c r="L10" s="67">
+      <c r="L10" s="66">
         <v>0</v>
       </c>
-      <c r="M10" s="68">
+      <c r="M10" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="49">
+      <c r="A11" s="44"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="64"/>
-      <c r="J11" s="65" t="e">
+      <c r="I11" s="63"/>
+      <c r="J11" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="66">
+      <c r="K11" s="65">
         <v>0</v>
       </c>
-      <c r="L11" s="67">
+      <c r="L11" s="66">
         <v>0</v>
       </c>
-      <c r="M11" s="68" t="e">
+      <c r="M11" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="45"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="49">
+      <c r="A12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="64"/>
-      <c r="J12" s="65" t="e">
+      <c r="I12" s="63"/>
+      <c r="J12" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="66">
+      <c r="K12" s="65">
         <v>0</v>
       </c>
-      <c r="L12" s="67">
+      <c r="L12" s="66">
         <v>0</v>
       </c>
-      <c r="M12" s="68" t="e">
+      <c r="M12" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="49">
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="64"/>
-      <c r="J13" s="65" t="e">
+      <c r="I13" s="63"/>
+      <c r="J13" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="66">
+      <c r="K13" s="65">
         <v>1</v>
       </c>
-      <c r="L13" s="67">
+      <c r="L13" s="66">
         <v>0</v>
       </c>
-      <c r="M13" s="68">
+      <c r="M13" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:13">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="55">
+      <c r="A14" s="50"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="69"/>
-      <c r="J14" s="70" t="e">
+      <c r="I14" s="68"/>
+      <c r="J14" s="69" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="71">
+      <c r="K14" s="70">
         <v>0</v>
       </c>
-      <c r="L14" s="72">
+      <c r="L14" s="71">
         <v>0</v>
       </c>
-      <c r="M14" s="73" t="e">
+      <c r="M14" s="72" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="45">
+      <c r="A15" s="44">
         <v>3</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="45">
         <v>11</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="46">
         <v>2</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="47">
         <v>1</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="47">
         <v>1</v>
       </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="49">
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="64"/>
-      <c r="J15" s="65">
+      <c r="I15" s="63"/>
+      <c r="J15" s="64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="66">
+      <c r="K15" s="65">
         <f>C15+G15</f>
         <v>2</v>
       </c>
-      <c r="L15" s="67">
+      <c r="L15" s="66">
         <f>D15+G15</f>
         <v>1</v>
       </c>
-      <c r="M15" s="68">
+      <c r="M15" s="67">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46">
+      <c r="A16" s="44"/>
+      <c r="B16" s="45">
         <v>12</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48">
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47">
         <v>1</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="49">
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="64"/>
-      <c r="J16" s="65" t="e">
+      <c r="I16" s="63"/>
+      <c r="J16" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="66">
+      <c r="K16" s="65">
         <v>1</v>
       </c>
-      <c r="L16" s="67">
+      <c r="L16" s="66">
         <v>0</v>
       </c>
-      <c r="M16" s="68">
+      <c r="M16" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46">
+      <c r="A17" s="44"/>
+      <c r="B17" s="45">
         <v>13</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="46">
         <v>2</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="47">
         <v>3</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="49">
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65">
+      <c r="I17" s="63"/>
+      <c r="J17" s="64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="66">
+      <c r="K17" s="65">
         <v>2</v>
       </c>
-      <c r="L17" s="67">
+      <c r="L17" s="66">
         <v>3</v>
       </c>
-      <c r="M17" s="68">
+      <c r="M17" s="67">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45">
         <v>14</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="46">
         <v>2</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="47">
         <v>0</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="47">
         <v>2</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="49">
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="64"/>
-      <c r="J18" s="65" t="e">
+      <c r="I18" s="63"/>
+      <c r="J18" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="66">
+      <c r="K18" s="65">
         <v>0</v>
       </c>
-      <c r="L18" s="67">
+      <c r="L18" s="66">
         <v>0</v>
       </c>
-      <c r="M18" s="68" t="e">
+      <c r="M18" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:13">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="70" t="e">
+      <c r="A19" s="44"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="69" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="66"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="68"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="67"/>
     </row>
     <row r="20" ht="14.25" spans="1:13">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="55">
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="69"/>
-      <c r="J20" s="70" t="e">
+      <c r="I20" s="68"/>
+      <c r="J20" s="69" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="71">
+      <c r="K20" s="70">
         <v>0</v>
       </c>
-      <c r="L20" s="72">
+      <c r="L20" s="71">
         <v>0</v>
       </c>
-      <c r="M20" s="73" t="e">
+      <c r="M20" s="72" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="45">
+      <c r="A21" s="44">
         <v>4</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21" s="45">
         <v>15</v>
       </c>
-      <c r="C21" s="47">
+      <c r="C21" s="46">
         <v>2</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="47">
         <v>1</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="47">
         <v>1</v>
       </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="49">
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="64"/>
-      <c r="J21" s="65">
+      <c r="I21" s="63"/>
+      <c r="J21" s="64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K21" s="66">
+      <c r="K21" s="65">
         <v>2</v>
       </c>
-      <c r="L21" s="67">
+      <c r="L21" s="66">
         <v>1</v>
       </c>
-      <c r="M21" s="68">
+      <c r="M21" s="67">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46">
+      <c r="A22" s="44"/>
+      <c r="B22" s="45">
         <v>16</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C22" s="46">
         <v>4</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="47">
         <v>3</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="47">
         <v>0</v>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="66">
+      <c r="F22" s="48"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="65">
         <v>4</v>
       </c>
-      <c r="L22" s="67">
+      <c r="L22" s="66">
         <v>0</v>
       </c>
-      <c r="M22" s="68"/>
+      <c r="M22" s="67"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="45"/>
-      <c r="B23" s="46">
+      <c r="A23" s="44"/>
+      <c r="B23" s="45">
         <v>17</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="46">
         <v>11</v>
       </c>
-      <c r="D23" s="48">
-        <v>4</v>
-      </c>
-      <c r="E23" s="48">
+      <c r="D23" s="47">
         <v>6</v>
       </c>
-      <c r="F23" s="49"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="68"/>
+      <c r="E23" s="47">
+        <v>5</v>
+      </c>
+      <c r="F23" s="48"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="67"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="45"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="68"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="67"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="45"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="68"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="67"/>
     </row>
     <row r="26" ht="14.25" spans="1:13">
-      <c r="A26" s="51"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="73"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2770,8 +2788,8 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -2814,7 +2832,7 @@
       <c r="H1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="34" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="28" t="s">
@@ -3368,26 +3386,26 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" s="26" customFormat="1" spans="1:15">
-      <c r="A15" s="33">
+    <row r="15" s="10" customFormat="1" spans="1:15">
+      <c r="A15" s="8">
         <v>17</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="32">
         <v>43214</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="8">
         <v>76159611</v>
       </c>
       <c r="H15" s="8" t="s">
@@ -3402,52 +3420,112 @@
       <c r="K15" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L15" s="33" t="s">
+      <c r="L15" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="M15" s="33" t="s">
+      <c r="M15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="N15" s="33">
+      <c r="N15" s="8">
         <v>18657437163</v>
       </c>
-      <c r="O15" s="33" t="s">
+      <c r="O15" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+    <row r="16" s="26" customFormat="1" spans="1:15">
+      <c r="A16" s="8">
+        <v>17</v>
+      </c>
+      <c r="B16" s="32">
+        <v>43214</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="33">
+        <v>76159268</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="8">
+        <v>17625903469</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="33">
+        <v>15150530476</v>
+      </c>
+      <c r="O16" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" s="26" customFormat="1" spans="1:15">
+      <c r="A17" s="8">
+        <v>17</v>
+      </c>
+      <c r="B17" s="32">
+        <v>43214</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="33">
+        <v>76152620</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="8">
+        <v>17625903469</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17" s="33">
+        <v>13773695976</v>
+      </c>
+      <c r="O17" s="33" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1"/>
@@ -8309,19 +8387,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8329,22 +8407,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C2" s="17">
         <v>43102</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8358,16 +8436,16 @@
         <v>43110</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8381,16 +8459,16 @@
         <v>43126</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8398,22 +8476,22 @@
         <v>6</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C5" s="17">
         <v>43133</v>
       </c>
       <c r="D5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8421,22 +8499,22 @@
         <v>8</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C6" s="17">
         <v>43102</v>
       </c>
       <c r="D6" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:7">
@@ -8444,22 +8522,22 @@
         <v>8</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C7" s="17">
         <v>43133</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8473,16 +8551,16 @@
         <v>43172</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -8490,22 +8568,22 @@
         <v>15</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C9" s="17">
         <v>43192</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" s="9" customFormat="1" spans="1:7">
@@ -8513,22 +8591,22 @@
         <v>15</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C10" s="17">
         <v>43189</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" s="9" customFormat="1" spans="1:7">
@@ -8536,22 +8614,22 @@
         <v>15</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C11" s="17">
         <v>43199</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8559,22 +8637,22 @@
         <v>16</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C12" s="17">
         <v>43206</v>
       </c>
       <c r="D12" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>104</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -9301,7 +9379,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9318,83 +9396,83 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="2:4">

--- a/周数据/《个人上线率统计表》-徐沛华.xlsx
+++ b/周数据/《个人上线率统计表》-徐沛华.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -243,6 +243,15 @@
     <t>杨晨晨</t>
   </si>
   <si>
+    <t>皇冕皇茶（华侨城店）</t>
+  </si>
+  <si>
+    <t>皇冕皇茶</t>
+  </si>
+  <si>
+    <t>姚露</t>
+  </si>
+  <si>
     <t>木头家的煎饼和奶酪</t>
   </si>
   <si>
@@ -280,6 +289,21 @@
   </si>
   <si>
     <t>吴文娟</t>
+  </si>
+  <si>
+    <t>镇江</t>
+  </si>
+  <si>
+    <t>木头家江大店</t>
+  </si>
+  <si>
+    <t>张先生</t>
+  </si>
+  <si>
+    <t>木头家万达金街店</t>
+  </si>
+  <si>
+    <t>许世华</t>
   </si>
   <si>
     <t>立项日期</t>
@@ -423,11 +447,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -627,9 +651,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,8 +665,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,13 +742,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,13 +766,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,13 +784,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,13 +814,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,7 +838,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,13 +856,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,13 +880,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,13 +898,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,149 +1326,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1522,9 +1546,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1983,8 +2004,8 @@
   <sheetPr/>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1997,777 +2018,813 @@
     <col min="7" max="7" width="15.5" style="10" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="10" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="35" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="34" customWidth="1"/>
     <col min="11" max="11" width="16" style="10" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="10" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="57"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="56"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="60" t="s">
+      <c r="K2" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="61" t="s">
+      <c r="L2" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="62" t="s">
+      <c r="M2" s="61" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="44">
+      <c r="A3" s="43">
         <v>1</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="44">
         <v>1</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="45">
         <v>1</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46">
         <f>C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="48">
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="47">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64" t="e">
+      <c r="I3" s="62"/>
+      <c r="J3" s="63" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="65">
+      <c r="K3" s="64">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="66">
+      <c r="L3" s="65">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="67">
+      <c r="M3" s="66">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44">
         <v>2</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="45">
         <v>1</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47">
+      <c r="D4" s="46"/>
+      <c r="E4" s="46">
         <v>1</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="48">
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="47">
         <f t="shared" ref="H4:H26" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="63"/>
-      <c r="J4" s="64" t="e">
+      <c r="I4" s="62"/>
+      <c r="J4" s="63" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="65">
+      <c r="K4" s="64">
         <v>1</v>
       </c>
-      <c r="L4" s="66">
+      <c r="L4" s="65">
         <v>0</v>
       </c>
-      <c r="M4" s="67">
+      <c r="M4" s="66">
         <f t="shared" ref="M4:M26" si="1">L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45">
+      <c r="A5" s="43"/>
+      <c r="B5" s="44">
         <v>3</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="45">
         <v>0</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46">
         <v>0</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="48">
+      <c r="F5" s="47"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64" t="e">
+      <c r="I5" s="62"/>
+      <c r="J5" s="63" t="e">
         <f t="shared" ref="J5:J26" si="2">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="65">
+      <c r="K5" s="64">
         <v>0</v>
       </c>
-      <c r="L5" s="66">
+      <c r="L5" s="65">
         <v>0</v>
       </c>
-      <c r="M5" s="67" t="e">
+      <c r="M5" s="66" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44">
         <v>4</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="45">
         <v>0</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47">
+      <c r="D6" s="46"/>
+      <c r="E6" s="46">
         <v>0</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="48">
+      <c r="F6" s="47"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64" t="e">
+      <c r="I6" s="62"/>
+      <c r="J6" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="65">
+      <c r="K6" s="64">
         <v>0</v>
       </c>
-      <c r="L6" s="66">
+      <c r="L6" s="65">
         <v>0</v>
       </c>
-      <c r="M6" s="67" t="e">
+      <c r="M6" s="66" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45">
+      <c r="A7" s="43"/>
+      <c r="B7" s="44">
         <v>5</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="45">
         <v>1</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47">
+      <c r="D7" s="46"/>
+      <c r="E7" s="46">
         <v>1</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="48">
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64" t="e">
+      <c r="I7" s="62"/>
+      <c r="J7" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="65">
+      <c r="K7" s="64">
         <v>1</v>
       </c>
-      <c r="L7" s="66">
+      <c r="L7" s="65">
         <v>0</v>
       </c>
-      <c r="M7" s="67">
+      <c r="M7" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="54">
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="69" t="e">
+      <c r="I8" s="67"/>
+      <c r="J8" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="70">
+      <c r="K8" s="69">
         <v>0</v>
       </c>
-      <c r="L8" s="71">
+      <c r="L8" s="70">
         <v>0</v>
       </c>
-      <c r="M8" s="72" t="e">
+      <c r="M8" s="71" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="44">
+      <c r="A9" s="43">
         <v>2</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="44">
         <v>8</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="45">
         <v>1</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="46">
         <v>1</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="48">
+      <c r="E9" s="46"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64">
+      <c r="I9" s="62"/>
+      <c r="J9" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="65">
+      <c r="K9" s="64">
         <f>C9+G9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="66">
+      <c r="L9" s="65">
         <f>D9+G9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="67">
+      <c r="M9" s="66">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="44"/>
-      <c r="B10" s="45">
+      <c r="A10" s="43"/>
+      <c r="B10" s="44">
         <v>10</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="45">
         <v>1</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47">
+      <c r="D10" s="46"/>
+      <c r="E10" s="46">
         <v>1</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="48">
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64" t="e">
+      <c r="I10" s="62"/>
+      <c r="J10" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="65">
+      <c r="K10" s="64">
         <v>1</v>
       </c>
-      <c r="L10" s="66">
+      <c r="L10" s="65">
         <v>0</v>
       </c>
-      <c r="M10" s="67">
+      <c r="M10" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="48">
+      <c r="A11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64" t="e">
+      <c r="I11" s="62"/>
+      <c r="J11" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="65">
+      <c r="K11" s="64">
         <v>0</v>
       </c>
-      <c r="L11" s="66">
+      <c r="L11" s="65">
         <v>0</v>
       </c>
-      <c r="M11" s="67" t="e">
+      <c r="M11" s="66" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="48">
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64" t="e">
+      <c r="I12" s="62"/>
+      <c r="J12" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="65">
+      <c r="K12" s="64">
         <v>0</v>
       </c>
-      <c r="L12" s="66">
+      <c r="L12" s="65">
         <v>0</v>
       </c>
-      <c r="M12" s="67" t="e">
+      <c r="M12" s="66" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="48">
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64" t="e">
+      <c r="I13" s="62"/>
+      <c r="J13" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="65">
+      <c r="K13" s="64">
         <v>1</v>
       </c>
-      <c r="L13" s="66">
+      <c r="L13" s="65">
         <v>0</v>
       </c>
-      <c r="M13" s="67">
+      <c r="M13" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:13">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="54">
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="68"/>
-      <c r="J14" s="69" t="e">
+      <c r="I14" s="67"/>
+      <c r="J14" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="70">
+      <c r="K14" s="69">
         <v>0</v>
       </c>
-      <c r="L14" s="71">
+      <c r="L14" s="70">
         <v>0</v>
       </c>
-      <c r="M14" s="72" t="e">
+      <c r="M14" s="71" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="44">
+      <c r="A15" s="43">
         <v>3</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="44">
         <v>11</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="45">
         <v>2</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="46">
         <v>1</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="46">
         <v>1</v>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="48">
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64">
+      <c r="I15" s="62"/>
+      <c r="J15" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="65">
+      <c r="K15" s="64">
         <f>C15+G15</f>
         <v>2</v>
       </c>
-      <c r="L15" s="66">
+      <c r="L15" s="65">
         <f>D15+G15</f>
         <v>1</v>
       </c>
-      <c r="M15" s="67">
+      <c r="M15" s="66">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45">
+      <c r="A16" s="43"/>
+      <c r="B16" s="44">
         <v>12</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47">
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46">
         <v>1</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="48">
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64" t="e">
+      <c r="I16" s="62"/>
+      <c r="J16" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="65">
+      <c r="K16" s="64">
         <v>1</v>
       </c>
-      <c r="L16" s="66">
+      <c r="L16" s="65">
         <v>0</v>
       </c>
-      <c r="M16" s="67">
+      <c r="M16" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45">
+      <c r="A17" s="43"/>
+      <c r="B17" s="44">
         <v>13</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="45">
         <v>2</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="46">
         <v>3</v>
       </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="48">
+      <c r="E17" s="46"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64">
+      <c r="I17" s="62"/>
+      <c r="J17" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="65">
+      <c r="K17" s="64">
         <v>2</v>
       </c>
-      <c r="L17" s="66">
+      <c r="L17" s="65">
         <v>3</v>
       </c>
-      <c r="M17" s="67">
+      <c r="M17" s="66">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45">
+      <c r="A18" s="43"/>
+      <c r="B18" s="44">
         <v>14</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="45">
         <v>2</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="46">
         <v>0</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E18" s="46">
         <v>2</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="48">
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="63"/>
-      <c r="J18" s="64" t="e">
+      <c r="I18" s="62"/>
+      <c r="J18" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="65">
+      <c r="K18" s="64">
         <v>0</v>
       </c>
-      <c r="L18" s="66">
+      <c r="L18" s="65">
         <v>0</v>
       </c>
-      <c r="M18" s="67" t="e">
+      <c r="M18" s="66" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:13">
-      <c r="A19" s="44"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="69" t="e">
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="65"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="67"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="66"/>
     </row>
     <row r="20" ht="14.25" spans="1:13">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="54">
+      <c r="A20" s="49"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="68"/>
-      <c r="J20" s="69" t="e">
+      <c r="I20" s="67"/>
+      <c r="J20" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="70">
+      <c r="K20" s="69">
         <v>0</v>
       </c>
-      <c r="L20" s="71">
+      <c r="L20" s="70">
         <v>0</v>
       </c>
-      <c r="M20" s="72" t="e">
+      <c r="M20" s="71" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="44">
+      <c r="A21" s="43">
         <v>4</v>
       </c>
-      <c r="B21" s="45">
+      <c r="B21" s="44">
         <v>15</v>
       </c>
-      <c r="C21" s="46">
+      <c r="C21" s="45">
         <v>2</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="46">
         <v>1</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="46">
         <v>1</v>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="48">
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="63"/>
-      <c r="J21" s="64">
+      <c r="I21" s="62"/>
+      <c r="J21" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K21" s="65">
+      <c r="K21" s="64">
         <v>2</v>
       </c>
-      <c r="L21" s="66">
+      <c r="L21" s="65">
         <v>1</v>
       </c>
-      <c r="M21" s="67">
+      <c r="M21" s="66">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45">
+      <c r="A22" s="43"/>
+      <c r="B22" s="44">
         <v>16</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22" s="45">
         <v>4</v>
       </c>
-      <c r="D22" s="47">
+      <c r="D22" s="46">
         <v>3</v>
       </c>
-      <c r="E22" s="47">
+      <c r="E22" s="46">
         <v>0</v>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="65">
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="63" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="64">
         <v>4</v>
       </c>
-      <c r="L22" s="66">
+      <c r="L22" s="65">
         <v>0</v>
       </c>
-      <c r="M22" s="67"/>
+      <c r="M22" s="66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45">
+      <c r="A23" s="43"/>
+      <c r="B23" s="44">
         <v>17</v>
       </c>
-      <c r="C23" s="46">
+      <c r="C23" s="45">
         <v>11</v>
       </c>
-      <c r="D23" s="47">
-        <v>6</v>
-      </c>
-      <c r="E23" s="47">
-        <v>5</v>
-      </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="67"/>
+      <c r="D23" s="46">
+        <v>9</v>
+      </c>
+      <c r="E23" s="46">
+        <v>2</v>
+      </c>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="62">
+        <v>3</v>
+      </c>
+      <c r="J23" s="63">
+        <f t="shared" si="2"/>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K23" s="64">
+        <v>11</v>
+      </c>
+      <c r="L23" s="65">
+        <v>9</v>
+      </c>
+      <c r="M23" s="66">
+        <f t="shared" si="1"/>
+        <v>0.818181818181818</v>
+      </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="67"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="63" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" s="64"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="44"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="67"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="63" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="64"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="66" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="26" ht="14.25" spans="1:13">
-      <c r="A26" s="50"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="72"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="68" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="69"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="71" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2788,8 +2845,8 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -2808,49 +2865,49 @@
   </cols>
   <sheetData>
     <row r="1" s="25" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="26" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2858,7 +2915,7 @@
       <c r="A2" s="8">
         <v>3</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="28">
         <v>43116</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -2876,7 +2933,7 @@
       <c r="G2" s="8">
         <v>76123117</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="29" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="23" t="s">
@@ -2909,7 +2966,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="31"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="H3" s="8"/>
@@ -2925,7 +2982,7 @@
       <c r="A4" s="8">
         <v>5</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="31">
         <v>43117</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -2972,7 +3029,7 @@
       <c r="A5" s="8">
         <v>6</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="31">
         <v>43139</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -3019,7 +3076,7 @@
       <c r="A6" s="8">
         <v>9</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="31">
         <v>43155</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -3066,7 +3123,7 @@
       <c r="A7" s="8">
         <v>11</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="31">
         <v>43166</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -3134,7 +3191,7 @@
       <c r="A9" s="8">
         <v>13</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="31">
         <v>43183</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -3181,7 +3238,7 @@
       <c r="A10" s="8">
         <v>13</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="31">
         <v>43185</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -3228,7 +3285,7 @@
       <c r="A11" s="8">
         <v>13</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="31">
         <v>43187</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -3296,7 +3353,7 @@
       <c r="A13" s="8">
         <v>15</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="31">
         <v>43201</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -3343,7 +3400,7 @@
       <c r="A14" s="8">
         <v>16</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="31">
         <v>43207</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -3388,10 +3445,10 @@
     </row>
     <row r="15" s="10" customFormat="1" spans="1:15">
       <c r="A15" s="8">
-        <v>17</v>
-      </c>
-      <c r="B15" s="32">
-        <v>43214</v>
+        <v>16</v>
+      </c>
+      <c r="B15" s="31">
+        <v>43210</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>39</v>
@@ -3400,16 +3457,16 @@
         <v>68</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="8">
+        <v>76157083</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="G15" s="8">
-        <v>76159611</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>32</v>
@@ -3421,42 +3478,42 @@
         <v>17625903469</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>52</v>
       </c>
       <c r="N15" s="8">
-        <v>18657437163</v>
+        <v>13002559111</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" s="26" customFormat="1" spans="1:15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" s="10" customFormat="1" spans="1:15">
       <c r="A16" s="8">
         <v>17</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="31">
         <v>43214</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="8">
+        <v>76159611</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="33">
-        <v>76159268</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>32</v>
@@ -3467,43 +3524,43 @@
       <c r="K16" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L16" s="33" t="s">
+      <c r="L16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="8">
+        <v>18657437163</v>
+      </c>
+      <c r="O16" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="M16" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="N16" s="33">
-        <v>15150530476</v>
-      </c>
-      <c r="O16" s="33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" s="26" customFormat="1" spans="1:15">
+    </row>
+    <row r="17" s="10" customFormat="1" spans="1:15">
       <c r="A17" s="8">
         <v>17</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="31">
         <v>43214</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="33">
-        <v>76152620</v>
+      <c r="F17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="8">
+        <v>76159268</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>32</v>
@@ -3514,74 +3571,164 @@
       <c r="K17" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L17" s="33" t="s">
+      <c r="L17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17" s="8">
+        <v>15150530476</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" s="10" customFormat="1" spans="1:15">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="31">
+        <v>43214</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="M17" s="33" t="s">
+      <c r="F18" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="8">
+        <v>76152620</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="8">
+        <v>17625903469</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="N17" s="33">
+      <c r="N18" s="8">
         <v>13773695976</v>
       </c>
-      <c r="O17" s="33" t="s">
+      <c r="O18" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="A19" s="8">
+        <v>17</v>
+      </c>
+      <c r="B19" s="31">
+        <v>43218</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="32">
+        <v>76158972</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="8">
+        <v>17625903469</v>
+      </c>
+      <c r="L19" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M19" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="32">
+        <v>15152935234</v>
+      </c>
+      <c r="O19" s="32" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="A20" s="8">
+        <v>17</v>
+      </c>
+      <c r="B20" s="31">
+        <v>43218</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="32">
+        <v>76159603</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="8">
+        <v>17625903469</v>
+      </c>
+      <c r="L20" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="M20" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" s="32">
+        <v>15061488876</v>
+      </c>
+      <c r="O20" s="32" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -8346,10 +8493,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:F1048576">
       <formula1>"单店,小连锁,KA项目"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O15 O16:O18 O19:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8387,19 +8534,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8407,22 +8554,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C2" s="17">
         <v>43102</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8436,16 +8583,16 @@
         <v>43110</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8459,16 +8606,16 @@
         <v>43126</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8476,22 +8623,22 @@
         <v>6</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C5" s="17">
         <v>43133</v>
       </c>
       <c r="D5" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8499,22 +8646,22 @@
         <v>8</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C6" s="17">
         <v>43102</v>
       </c>
       <c r="D6" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:7">
@@ -8522,22 +8669,22 @@
         <v>8</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C7" s="17">
         <v>43133</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8551,16 +8698,16 @@
         <v>43172</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -8568,22 +8715,22 @@
         <v>15</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C9" s="17">
         <v>43192</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" s="9" customFormat="1" spans="1:7">
@@ -8591,22 +8738,22 @@
         <v>15</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C10" s="17">
         <v>43189</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" s="9" customFormat="1" spans="1:7">
@@ -8614,22 +8761,22 @@
         <v>15</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C11" s="17">
         <v>43199</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8637,22 +8784,22 @@
         <v>16</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C12" s="17">
         <v>43206</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -9396,83 +9543,83 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:4">

--- a/周数据/《个人上线率统计表》-徐沛华.xlsx
+++ b/周数据/《个人上线率统计表》-徐沛华.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -306,6 +306,30 @@
     <t>许世华</t>
   </si>
   <si>
+    <t>汉密哈顿（镇江句容店）</t>
+  </si>
+  <si>
+    <t>汉密哈顿</t>
+  </si>
+  <si>
+    <t>李雪梅</t>
+  </si>
+  <si>
+    <t>SAAS+微信</t>
+  </si>
+  <si>
+    <t>徐州三合餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>花鲢记</t>
+  </si>
+  <si>
+    <t>徐州</t>
+  </si>
+  <si>
+    <t>许多多</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -328,9 +352,6 @@
   </si>
   <si>
     <t>单店</t>
-  </si>
-  <si>
-    <t>SAAS+微信</t>
   </si>
   <si>
     <t>沈芳芳</t>
@@ -446,12 +467,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -530,15 +551,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,9 +572,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,14 +594,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -590,16 +601,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,9 +617,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,6 +647,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -651,15 +670,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,7 +680,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,31 +757,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,25 +781,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,13 +811,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,7 +853,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,7 +895,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,31 +919,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1221,17 +1242,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1246,16 +1261,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1277,6 +1292,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1285,39 +1339,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1326,10 +1347,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1338,137 +1359,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1546,6 +1567,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2004,8 +2028,8 @@
   <sheetPr/>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2018,810 +2042,810 @@
     <col min="7" max="7" width="15.5" style="10" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="10" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="34" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="35" customWidth="1"/>
     <col min="11" max="11" width="16" style="10" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="10" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="56"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="57"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="59" t="s">
+      <c r="K2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="60" t="s">
+      <c r="L2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="61" t="s">
+      <c r="M2" s="62" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="43">
+      <c r="A3" s="44">
         <v>1</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="45">
         <v>1</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="46">
         <v>1</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47">
         <f>C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="47">
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="48">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63" t="e">
+      <c r="I3" s="63"/>
+      <c r="J3" s="64" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="64">
+      <c r="K3" s="65">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="65">
+      <c r="L3" s="66">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="66">
+      <c r="M3" s="67">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44">
+      <c r="A4" s="44"/>
+      <c r="B4" s="45">
         <v>2</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="46">
         <v>1</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47">
         <v>1</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="47">
+      <c r="F4" s="48"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="48">
         <f t="shared" ref="H4:H26" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="63" t="e">
+      <c r="I4" s="63"/>
+      <c r="J4" s="64" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="64">
+      <c r="K4" s="65">
         <v>1</v>
       </c>
-      <c r="L4" s="65">
+      <c r="L4" s="66">
         <v>0</v>
       </c>
-      <c r="M4" s="66">
+      <c r="M4" s="67">
         <f t="shared" ref="M4:M26" si="1">L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44">
+      <c r="A5" s="44"/>
+      <c r="B5" s="45">
         <v>3</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="46">
         <v>0</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47">
         <v>0</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="47">
+      <c r="F5" s="48"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63" t="e">
+      <c r="I5" s="63"/>
+      <c r="J5" s="64" t="e">
         <f t="shared" ref="J5:J26" si="2">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="64">
+      <c r="K5" s="65">
         <v>0</v>
       </c>
-      <c r="L5" s="65">
+      <c r="L5" s="66">
         <v>0</v>
       </c>
-      <c r="M5" s="66" t="e">
+      <c r="M5" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44">
+      <c r="A6" s="44"/>
+      <c r="B6" s="45">
         <v>4</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="46">
         <v>0</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46">
+      <c r="D6" s="47"/>
+      <c r="E6" s="47">
         <v>0</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="47">
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63" t="e">
+      <c r="I6" s="63"/>
+      <c r="J6" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="64">
+      <c r="K6" s="65">
         <v>0</v>
       </c>
-      <c r="L6" s="65">
+      <c r="L6" s="66">
         <v>0</v>
       </c>
-      <c r="M6" s="66" t="e">
+      <c r="M6" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44">
+      <c r="A7" s="44"/>
+      <c r="B7" s="45">
         <v>5</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="46">
         <v>1</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46">
+      <c r="D7" s="47"/>
+      <c r="E7" s="47">
         <v>1</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="47">
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63" t="e">
+      <c r="I7" s="63"/>
+      <c r="J7" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="64">
+      <c r="K7" s="65">
         <v>1</v>
       </c>
-      <c r="L7" s="65">
+      <c r="L7" s="66">
         <v>0</v>
       </c>
-      <c r="M7" s="66">
+      <c r="M7" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="53">
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="67"/>
-      <c r="J8" s="68" t="e">
+      <c r="I8" s="68"/>
+      <c r="J8" s="69" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="69">
+      <c r="K8" s="70">
         <v>0</v>
       </c>
-      <c r="L8" s="70">
+      <c r="L8" s="71">
         <v>0</v>
       </c>
-      <c r="M8" s="71" t="e">
+      <c r="M8" s="72" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="43">
+      <c r="A9" s="44">
         <v>2</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="45">
         <v>8</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="46">
         <v>1</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="47">
         <v>1</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="47">
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="62"/>
-      <c r="J9" s="63">
+      <c r="I9" s="63"/>
+      <c r="J9" s="64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="64">
+      <c r="K9" s="65">
         <f>C9+G9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="65">
+      <c r="L9" s="66">
         <f>D9+G9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="66">
+      <c r="M9" s="67">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44">
+      <c r="A10" s="44"/>
+      <c r="B10" s="45">
         <v>10</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="46">
         <v>1</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46">
+      <c r="D10" s="47"/>
+      <c r="E10" s="47">
         <v>1</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="47">
+      <c r="F10" s="48"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="62"/>
-      <c r="J10" s="63" t="e">
+      <c r="I10" s="63"/>
+      <c r="J10" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="64">
+      <c r="K10" s="65">
         <v>1</v>
       </c>
-      <c r="L10" s="65">
+      <c r="L10" s="66">
         <v>0</v>
       </c>
-      <c r="M10" s="66">
+      <c r="M10" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="43"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="47">
+      <c r="A11" s="44"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="62"/>
-      <c r="J11" s="63" t="e">
+      <c r="I11" s="63"/>
+      <c r="J11" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="64">
+      <c r="K11" s="65">
         <v>0</v>
       </c>
-      <c r="L11" s="65">
+      <c r="L11" s="66">
         <v>0</v>
       </c>
-      <c r="M11" s="66" t="e">
+      <c r="M11" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="43"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="47">
+      <c r="A12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="62"/>
-      <c r="J12" s="63" t="e">
+      <c r="I12" s="63"/>
+      <c r="J12" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="64">
+      <c r="K12" s="65">
         <v>0</v>
       </c>
-      <c r="L12" s="65">
+      <c r="L12" s="66">
         <v>0</v>
       </c>
-      <c r="M12" s="66" t="e">
+      <c r="M12" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="47">
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="63" t="e">
+      <c r="I13" s="63"/>
+      <c r="J13" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="64">
+      <c r="K13" s="65">
         <v>1</v>
       </c>
-      <c r="L13" s="65">
+      <c r="L13" s="66">
         <v>0</v>
       </c>
-      <c r="M13" s="66">
+      <c r="M13" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:13">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="53">
+      <c r="A14" s="50"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="67"/>
-      <c r="J14" s="68" t="e">
+      <c r="I14" s="68"/>
+      <c r="J14" s="69" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="69">
+      <c r="K14" s="70">
         <v>0</v>
       </c>
-      <c r="L14" s="70">
+      <c r="L14" s="71">
         <v>0</v>
       </c>
-      <c r="M14" s="71" t="e">
+      <c r="M14" s="72" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="43">
+      <c r="A15" s="44">
         <v>3</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="45">
         <v>11</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="46">
         <v>2</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="47">
         <v>1</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="47">
         <v>1</v>
       </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="47">
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="62"/>
-      <c r="J15" s="63">
+      <c r="I15" s="63"/>
+      <c r="J15" s="64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="64">
+      <c r="K15" s="65">
         <f>C15+G15</f>
         <v>2</v>
       </c>
-      <c r="L15" s="65">
+      <c r="L15" s="66">
         <f>D15+G15</f>
         <v>1</v>
       </c>
-      <c r="M15" s="66">
+      <c r="M15" s="67">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44">
+      <c r="A16" s="44"/>
+      <c r="B16" s="45">
         <v>12</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46">
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47">
         <v>1</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="47">
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="62"/>
-      <c r="J16" s="63" t="e">
+      <c r="I16" s="63"/>
+      <c r="J16" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="64">
+      <c r="K16" s="65">
         <v>1</v>
       </c>
-      <c r="L16" s="65">
+      <c r="L16" s="66">
         <v>0</v>
       </c>
-      <c r="M16" s="66">
+      <c r="M16" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44">
+      <c r="A17" s="44"/>
+      <c r="B17" s="45">
         <v>13</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="46">
         <v>2</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="47">
         <v>3</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="47">
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="62"/>
-      <c r="J17" s="63">
+      <c r="I17" s="63"/>
+      <c r="J17" s="64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="64">
+      <c r="K17" s="65">
         <v>2</v>
       </c>
-      <c r="L17" s="65">
+      <c r="L17" s="66">
         <v>3</v>
       </c>
-      <c r="M17" s="66">
+      <c r="M17" s="67">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="43"/>
-      <c r="B18" s="44">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45">
         <v>14</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="46">
         <v>2</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="47">
         <v>0</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="47">
         <v>2</v>
       </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="47">
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="62"/>
-      <c r="J18" s="63" t="e">
+      <c r="I18" s="63"/>
+      <c r="J18" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="64">
+      <c r="K18" s="65">
         <v>0</v>
       </c>
-      <c r="L18" s="65">
+      <c r="L18" s="66">
         <v>0</v>
       </c>
-      <c r="M18" s="66" t="e">
+      <c r="M18" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:13">
-      <c r="A19" s="43"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="68" t="e">
+      <c r="A19" s="44"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="69" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="64"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="66"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="67"/>
     </row>
     <row r="20" ht="14.25" spans="1:13">
-      <c r="A20" s="49"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53">
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68" t="e">
+      <c r="I20" s="68"/>
+      <c r="J20" s="69" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="69">
+      <c r="K20" s="70">
         <v>0</v>
       </c>
-      <c r="L20" s="70">
+      <c r="L20" s="71">
         <v>0</v>
       </c>
-      <c r="M20" s="71" t="e">
+      <c r="M20" s="72" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="43">
+      <c r="A21" s="44">
         <v>4</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="45">
         <v>15</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="46">
         <v>2</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21" s="47">
         <v>1</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="47">
         <v>1</v>
       </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="47">
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="62"/>
-      <c r="J21" s="63">
+      <c r="I21" s="63"/>
+      <c r="J21" s="64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K21" s="64">
+      <c r="K21" s="65">
         <v>2</v>
       </c>
-      <c r="L21" s="65">
+      <c r="L21" s="66">
         <v>1</v>
       </c>
-      <c r="M21" s="66">
+      <c r="M21" s="67">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44">
+      <c r="A22" s="44"/>
+      <c r="B22" s="45">
         <v>16</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="46">
         <v>4</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="47">
         <v>3</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="47">
         <v>0</v>
       </c>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="63" t="e">
+      <c r="F22" s="48"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="64">
+      <c r="K22" s="65">
         <v>4</v>
       </c>
-      <c r="L22" s="65">
+      <c r="L22" s="66">
         <v>0</v>
       </c>
-      <c r="M22" s="66">
+      <c r="M22" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44">
+      <c r="A23" s="44"/>
+      <c r="B23" s="45">
         <v>17</v>
       </c>
-      <c r="C23" s="45">
-        <v>11</v>
-      </c>
-      <c r="D23" s="46">
-        <v>9</v>
-      </c>
-      <c r="E23" s="46">
+      <c r="C23" s="46">
+        <v>12</v>
+      </c>
+      <c r="D23" s="47">
+        <v>10</v>
+      </c>
+      <c r="E23" s="47">
         <v>2</v>
       </c>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="62">
+      <c r="F23" s="48"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="63">
         <v>3</v>
       </c>
-      <c r="J23" s="63">
+      <c r="J23" s="64">
         <f t="shared" si="2"/>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K23" s="64">
-        <v>11</v>
-      </c>
-      <c r="L23" s="65">
-        <v>9</v>
-      </c>
-      <c r="M23" s="66">
+        <v>0.3</v>
+      </c>
+      <c r="K23" s="65">
+        <v>12</v>
+      </c>
+      <c r="L23" s="66">
+        <v>10</v>
+      </c>
+      <c r="M23" s="67">
         <f t="shared" si="1"/>
-        <v>0.818181818181818</v>
+        <v>0.833333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="63" t="e">
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="64"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66" t="e">
+      <c r="K24" s="65"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="63" t="e">
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="64"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="66" t="e">
+      <c r="K25" s="65"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:13">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="68" t="e">
+      <c r="A26" s="50"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="69" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="69"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="71" t="e">
+      <c r="K26" s="70"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="72" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2845,8 +2869,8 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -2865,49 +2889,49 @@
   </cols>
   <sheetData>
     <row r="1" s="25" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="27" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2915,7 +2939,7 @@
       <c r="A2" s="8">
         <v>3</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="29">
         <v>43116</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -2933,7 +2957,7 @@
       <c r="G2" s="8">
         <v>76123117</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="30" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="23" t="s">
@@ -2966,7 +2990,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="30"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="H3" s="8"/>
@@ -2982,7 +3006,7 @@
       <c r="A4" s="8">
         <v>5</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="32">
         <v>43117</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -3029,7 +3053,7 @@
       <c r="A5" s="8">
         <v>6</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="32">
         <v>43139</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -3076,7 +3100,7 @@
       <c r="A6" s="8">
         <v>9</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="32">
         <v>43155</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -3123,7 +3147,7 @@
       <c r="A7" s="8">
         <v>11</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="32">
         <v>43166</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -3191,7 +3215,7 @@
       <c r="A9" s="8">
         <v>13</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="32">
         <v>43183</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -3238,7 +3262,7 @@
       <c r="A10" s="8">
         <v>13</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="32">
         <v>43185</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -3285,7 +3309,7 @@
       <c r="A11" s="8">
         <v>13</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="32">
         <v>43187</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -3353,7 +3377,7 @@
       <c r="A13" s="8">
         <v>15</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="32">
         <v>43201</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -3400,7 +3424,7 @@
       <c r="A14" s="8">
         <v>16</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="32">
         <v>43207</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -3447,7 +3471,7 @@
       <c r="A15" s="8">
         <v>16</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="32">
         <v>43210</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -3494,7 +3518,7 @@
       <c r="A16" s="8">
         <v>17</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="32">
         <v>43214</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -3541,7 +3565,7 @@
       <c r="A17" s="8">
         <v>17</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="32">
         <v>43214</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -3588,7 +3612,7 @@
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="32">
         <v>43214</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -3635,7 +3659,7 @@
       <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="32">
         <v>43218</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -3647,10 +3671,10 @@
       <c r="E19" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="8">
         <v>76158972</v>
       </c>
       <c r="H19" s="8" t="s">
@@ -3665,16 +3689,16 @@
       <c r="K19" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L19" s="32" t="s">
+      <c r="L19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="M19" s="32" t="s">
+      <c r="M19" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="N19" s="32">
+      <c r="N19" s="8">
         <v>15152935234</v>
       </c>
-      <c r="O19" s="32" t="s">
+      <c r="O19" s="8" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3682,7 +3706,7 @@
       <c r="A20" s="8">
         <v>17</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="32">
         <v>43218</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -3694,10 +3718,10 @@
       <c r="E20" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="8">
         <v>76159603</v>
       </c>
       <c r="H20" s="8" t="s">
@@ -3712,52 +3736,112 @@
       <c r="K20" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L20" s="32" t="s">
+      <c r="L20" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="M20" s="32" t="s">
+      <c r="M20" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="N20" s="32">
+      <c r="N20" s="8">
         <v>15061488876</v>
       </c>
-      <c r="O20" s="32" t="s">
+      <c r="O20" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="8"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+    <row r="21" s="26" customFormat="1" spans="1:15">
+      <c r="A21" s="8">
+        <v>17</v>
+      </c>
+      <c r="B21" s="32">
+        <v>43219</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="33">
+        <v>76161781</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="8">
+        <v>17625903469</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="N21" s="33">
+        <v>18994029911</v>
+      </c>
+      <c r="O21" s="33" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="A22" s="33">
+        <v>17</v>
+      </c>
+      <c r="B22" s="32">
+        <v>43219</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="33">
+        <v>76163588</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="8">
+        <v>17625903469</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="M22" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="N22" s="33">
+        <v>15695169997</v>
+      </c>
+      <c r="O22" s="33" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1"/>
@@ -8493,7 +8577,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23:F1048576">
       <formula1>"单店,小连锁,KA项目"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O15 O16:O18 O19:O1048576">
@@ -8511,8 +8595,8 @@
   <sheetPr/>
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -8534,19 +8618,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8554,22 +8638,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C2" s="17">
         <v>43102</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8583,16 +8667,16 @@
         <v>43110</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8606,16 +8690,16 @@
         <v>43126</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8623,22 +8707,22 @@
         <v>6</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C5" s="17">
         <v>43133</v>
       </c>
       <c r="D5" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8646,22 +8730,22 @@
         <v>8</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C6" s="17">
         <v>43102</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:7">
@@ -8669,22 +8753,22 @@
         <v>8</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C7" s="17">
         <v>43133</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8698,16 +8782,16 @@
         <v>43172</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -8715,22 +8799,22 @@
         <v>15</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C9" s="17">
         <v>43192</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" s="9" customFormat="1" spans="1:7">
@@ -8744,16 +8828,16 @@
         <v>43189</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" s="9" customFormat="1" spans="1:7">
@@ -8761,22 +8845,22 @@
         <v>15</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C11" s="17">
         <v>43199</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8784,22 +8868,22 @@
         <v>16</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C12" s="17">
         <v>43206</v>
       </c>
       <c r="D12" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -9543,83 +9627,83 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="2:4">

--- a/周数据/《个人上线率统计表》-徐沛华.xlsx
+++ b/周数据/《个人上线率统计表》-徐沛华.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -461,16 +461,28 @@
   <si>
     <t>22日</t>
   </si>
+  <si>
+    <t>29日</t>
+  </si>
+  <si>
+    <t>家的味道实施（项目取消）</t>
+  </si>
+  <si>
+    <t>30日</t>
+  </si>
+  <si>
+    <t>老厨人深海炖锅实施并培训</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -551,7 +563,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,15 +592,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,6 +608,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -601,9 +623,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,8 +646,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,22 +677,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -672,23 +686,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,7 +769,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,13 +799,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,139 +931,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,11 +1254,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1261,16 +1279,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1292,6 +1310,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1300,42 +1329,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1347,10 +1359,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1359,137 +1371,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1568,9 +1580,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1585,9 +1594,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2042,810 +2048,810 @@
     <col min="7" max="7" width="15.5" style="10" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="10" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="35" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="33" customWidth="1"/>
     <col min="11" max="11" width="16" style="10" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="10" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="57"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="55"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="60" t="s">
+      <c r="K2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="61" t="s">
+      <c r="L2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="62" t="s">
+      <c r="M2" s="60" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="44">
+      <c r="A3" s="42">
         <v>1</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="43">
         <v>1</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="44">
         <v>1</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47">
+      <c r="D3" s="45"/>
+      <c r="E3" s="45">
         <f>C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="48">
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="46">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64" t="e">
+      <c r="I3" s="61"/>
+      <c r="J3" s="62" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="65">
+      <c r="K3" s="63">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="66">
+      <c r="L3" s="64">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="67">
+      <c r="M3" s="65">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43">
         <v>2</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="44">
         <v>1</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45">
         <v>1</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="48">
+      <c r="F4" s="46"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="46">
         <f t="shared" ref="H4:H26" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="63"/>
-      <c r="J4" s="64" t="e">
+      <c r="I4" s="61"/>
+      <c r="J4" s="62" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="65">
+      <c r="K4" s="63">
         <v>1</v>
       </c>
-      <c r="L4" s="66">
+      <c r="L4" s="64">
         <v>0</v>
       </c>
-      <c r="M4" s="67">
+      <c r="M4" s="65">
         <f t="shared" ref="M4:M26" si="1">L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45">
+      <c r="A5" s="42"/>
+      <c r="B5" s="43">
         <v>3</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="44">
         <v>0</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45">
         <v>0</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="48">
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64" t="e">
+      <c r="I5" s="61"/>
+      <c r="J5" s="62" t="e">
         <f t="shared" ref="J5:J26" si="2">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="65">
+      <c r="K5" s="63">
         <v>0</v>
       </c>
-      <c r="L5" s="66">
+      <c r="L5" s="64">
         <v>0</v>
       </c>
-      <c r="M5" s="67" t="e">
+      <c r="M5" s="65" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45">
+      <c r="A6" s="42"/>
+      <c r="B6" s="43">
         <v>4</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="44">
         <v>0</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47">
+      <c r="D6" s="45"/>
+      <c r="E6" s="45">
         <v>0</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="48">
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64" t="e">
+      <c r="I6" s="61"/>
+      <c r="J6" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="65">
+      <c r="K6" s="63">
         <v>0</v>
       </c>
-      <c r="L6" s="66">
+      <c r="L6" s="64">
         <v>0</v>
       </c>
-      <c r="M6" s="67" t="e">
+      <c r="M6" s="65" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45">
+      <c r="A7" s="42"/>
+      <c r="B7" s="43">
         <v>5</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="44">
         <v>1</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47">
+      <c r="D7" s="45"/>
+      <c r="E7" s="45">
         <v>1</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="48">
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64" t="e">
+      <c r="I7" s="61"/>
+      <c r="J7" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="65">
+      <c r="K7" s="63">
         <v>1</v>
       </c>
-      <c r="L7" s="66">
+      <c r="L7" s="64">
         <v>0</v>
       </c>
-      <c r="M7" s="67">
+      <c r="M7" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="54">
+      <c r="A8" s="48"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="69" t="e">
+      <c r="I8" s="66"/>
+      <c r="J8" s="67" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="70">
+      <c r="K8" s="68">
         <v>0</v>
       </c>
-      <c r="L8" s="71">
+      <c r="L8" s="69">
         <v>0</v>
       </c>
-      <c r="M8" s="72" t="e">
+      <c r="M8" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="44">
+      <c r="A9" s="42">
         <v>2</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="43">
         <v>8</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="44">
         <v>1</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="45">
         <v>1</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="48">
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64">
+      <c r="I9" s="61"/>
+      <c r="J9" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="65">
+      <c r="K9" s="63">
         <f>C9+G9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="66">
+      <c r="L9" s="64">
         <f>D9+G9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="67">
+      <c r="M9" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="44"/>
-      <c r="B10" s="45">
+      <c r="A10" s="42"/>
+      <c r="B10" s="43">
         <v>10</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="44">
         <v>1</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47">
+      <c r="D10" s="45"/>
+      <c r="E10" s="45">
         <v>1</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="48">
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64" t="e">
+      <c r="I10" s="61"/>
+      <c r="J10" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="65">
+      <c r="K10" s="63">
         <v>1</v>
       </c>
-      <c r="L10" s="66">
+      <c r="L10" s="64">
         <v>0</v>
       </c>
-      <c r="M10" s="67">
+      <c r="M10" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="48">
+      <c r="A11" s="42"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64" t="e">
+      <c r="I11" s="61"/>
+      <c r="J11" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="65">
+      <c r="K11" s="63">
         <v>0</v>
       </c>
-      <c r="L11" s="66">
+      <c r="L11" s="64">
         <v>0</v>
       </c>
-      <c r="M11" s="67" t="e">
+      <c r="M11" s="65" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="48">
+      <c r="A12" s="42"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64" t="e">
+      <c r="I12" s="61"/>
+      <c r="J12" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="65">
+      <c r="K12" s="63">
         <v>0</v>
       </c>
-      <c r="L12" s="66">
+      <c r="L12" s="64">
         <v>0</v>
       </c>
-      <c r="M12" s="67" t="e">
+      <c r="M12" s="65" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="48">
+      <c r="A13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64" t="e">
+      <c r="I13" s="61"/>
+      <c r="J13" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="65">
+      <c r="K13" s="63">
         <v>1</v>
       </c>
-      <c r="L13" s="66">
+      <c r="L13" s="64">
         <v>0</v>
       </c>
-      <c r="M13" s="67">
+      <c r="M13" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:13">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="54">
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="68"/>
-      <c r="J14" s="69" t="e">
+      <c r="I14" s="66"/>
+      <c r="J14" s="67" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="70">
+      <c r="K14" s="68">
         <v>0</v>
       </c>
-      <c r="L14" s="71">
+      <c r="L14" s="69">
         <v>0</v>
       </c>
-      <c r="M14" s="72" t="e">
+      <c r="M14" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="44">
+      <c r="A15" s="42">
         <v>3</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="43">
         <v>11</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="44">
         <v>2</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="45">
         <v>1</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="45">
         <v>1</v>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="48">
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64">
+      <c r="I15" s="61"/>
+      <c r="J15" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="65">
+      <c r="K15" s="63">
         <f>C15+G15</f>
         <v>2</v>
       </c>
-      <c r="L15" s="66">
+      <c r="L15" s="64">
         <f>D15+G15</f>
         <v>1</v>
       </c>
-      <c r="M15" s="67">
+      <c r="M15" s="65">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45">
+      <c r="A16" s="42"/>
+      <c r="B16" s="43">
         <v>12</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47">
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45">
         <v>1</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="48">
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64" t="e">
+      <c r="I16" s="61"/>
+      <c r="J16" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="65">
+      <c r="K16" s="63">
         <v>1</v>
       </c>
-      <c r="L16" s="66">
+      <c r="L16" s="64">
         <v>0</v>
       </c>
-      <c r="M16" s="67">
+      <c r="M16" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45">
+      <c r="A17" s="42"/>
+      <c r="B17" s="43">
         <v>13</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="44">
         <v>2</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="45">
         <v>3</v>
       </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="48">
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64">
+      <c r="I17" s="61"/>
+      <c r="J17" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="65">
+      <c r="K17" s="63">
         <v>2</v>
       </c>
-      <c r="L17" s="66">
+      <c r="L17" s="64">
         <v>3</v>
       </c>
-      <c r="M17" s="67">
+      <c r="M17" s="65">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45">
+      <c r="A18" s="42"/>
+      <c r="B18" s="43">
         <v>14</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="44">
         <v>2</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="45">
         <v>0</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E18" s="45">
         <v>2</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="48">
+      <c r="F18" s="46"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="63"/>
-      <c r="J18" s="64" t="e">
+      <c r="I18" s="61"/>
+      <c r="J18" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="65">
+      <c r="K18" s="63">
         <v>0</v>
       </c>
-      <c r="L18" s="66">
+      <c r="L18" s="64">
         <v>0</v>
       </c>
-      <c r="M18" s="67" t="e">
+      <c r="M18" s="65" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:13">
-      <c r="A19" s="44"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="69" t="e">
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="67" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="65"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="67"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="65"/>
     </row>
     <row r="20" ht="14.25" spans="1:13">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="54">
+      <c r="A20" s="48"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="68"/>
-      <c r="J20" s="69" t="e">
+      <c r="I20" s="66"/>
+      <c r="J20" s="67" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="70">
+      <c r="K20" s="68">
         <v>0</v>
       </c>
-      <c r="L20" s="71">
+      <c r="L20" s="69">
         <v>0</v>
       </c>
-      <c r="M20" s="72" t="e">
+      <c r="M20" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="44">
+      <c r="A21" s="42">
         <v>4</v>
       </c>
-      <c r="B21" s="45">
+      <c r="B21" s="43">
         <v>15</v>
       </c>
-      <c r="C21" s="46">
+      <c r="C21" s="44">
         <v>2</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="45">
         <v>1</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="45">
         <v>1</v>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="48">
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="63"/>
-      <c r="J21" s="64">
+      <c r="I21" s="61"/>
+      <c r="J21" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K21" s="65">
+      <c r="K21" s="63">
         <v>2</v>
       </c>
-      <c r="L21" s="66">
+      <c r="L21" s="64">
         <v>1</v>
       </c>
-      <c r="M21" s="67">
+      <c r="M21" s="65">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45">
+      <c r="A22" s="42"/>
+      <c r="B22" s="43">
         <v>16</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22" s="44">
         <v>4</v>
       </c>
-      <c r="D22" s="47">
+      <c r="D22" s="45">
         <v>3</v>
       </c>
-      <c r="E22" s="47">
+      <c r="E22" s="45">
         <v>0</v>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="64" t="e">
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="65">
+      <c r="K22" s="63">
         <v>4</v>
       </c>
-      <c r="L22" s="66">
+      <c r="L22" s="64">
         <v>0</v>
       </c>
-      <c r="M22" s="67">
+      <c r="M22" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45">
+      <c r="A23" s="42"/>
+      <c r="B23" s="43">
         <v>17</v>
       </c>
-      <c r="C23" s="46">
+      <c r="C23" s="44">
         <v>12</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="45">
         <v>10</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="45">
         <v>2</v>
       </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="63">
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="61">
         <v>3</v>
       </c>
-      <c r="J23" s="64">
+      <c r="J23" s="62">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="K23" s="65">
+      <c r="K23" s="63">
         <v>12</v>
       </c>
-      <c r="L23" s="66">
+      <c r="L23" s="64">
         <v>10</v>
       </c>
-      <c r="M23" s="67">
+      <c r="M23" s="65">
         <f t="shared" si="1"/>
         <v>0.833333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="64" t="e">
+      <c r="A24" s="42"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="65"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="67" t="e">
+      <c r="K24" s="63"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="65" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="44"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="64" t="e">
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="65"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="67" t="e">
+      <c r="K25" s="63"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="65" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:13">
-      <c r="A26" s="50"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="69" t="e">
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="67" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="70"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="72" t="e">
+      <c r="K26" s="68"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2889,49 +2895,49 @@
   </cols>
   <sheetData>
     <row r="1" s="25" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="26" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2939,7 +2945,7 @@
       <c r="A2" s="8">
         <v>3</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="28">
         <v>43116</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -2957,7 +2963,7 @@
       <c r="G2" s="8">
         <v>76123117</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="29" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="23" t="s">
@@ -2990,7 +2996,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="31"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="H3" s="8"/>
@@ -3006,7 +3012,7 @@
       <c r="A4" s="8">
         <v>5</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="31">
         <v>43117</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -3053,7 +3059,7 @@
       <c r="A5" s="8">
         <v>6</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="31">
         <v>43139</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -3100,7 +3106,7 @@
       <c r="A6" s="8">
         <v>9</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="31">
         <v>43155</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -3147,7 +3153,7 @@
       <c r="A7" s="8">
         <v>11</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="31">
         <v>43166</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -3215,7 +3221,7 @@
       <c r="A9" s="8">
         <v>13</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="31">
         <v>43183</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -3262,7 +3268,7 @@
       <c r="A10" s="8">
         <v>13</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="31">
         <v>43185</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -3309,7 +3315,7 @@
       <c r="A11" s="8">
         <v>13</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="31">
         <v>43187</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -3377,7 +3383,7 @@
       <c r="A13" s="8">
         <v>15</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="31">
         <v>43201</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -3424,7 +3430,7 @@
       <c r="A14" s="8">
         <v>16</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="31">
         <v>43207</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -3471,7 +3477,7 @@
       <c r="A15" s="8">
         <v>16</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="31">
         <v>43210</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -3518,7 +3524,7 @@
       <c r="A16" s="8">
         <v>17</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="31">
         <v>43214</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -3565,7 +3571,7 @@
       <c r="A17" s="8">
         <v>17</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="31">
         <v>43214</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -3612,7 +3618,7 @@
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="31">
         <v>43214</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -3659,7 +3665,7 @@
       <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="31">
         <v>43218</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -3706,7 +3712,7 @@
       <c r="A20" s="8">
         <v>17</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="31">
         <v>43218</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -3749,26 +3755,26 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" s="26" customFormat="1" spans="1:15">
+    <row r="21" s="10" customFormat="1" spans="1:15">
       <c r="A21" s="8">
         <v>17</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="31">
         <v>43219</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="8" t="s">
         <v>90</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="8">
         <v>76161781</v>
       </c>
       <c r="H21" s="8" t="s">
@@ -3783,24 +3789,24 @@
       <c r="K21" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L21" s="33" t="s">
+      <c r="L21" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="M21" s="33" t="s">
+      <c r="M21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="N21" s="33">
+      <c r="N21" s="8">
         <v>18994029911</v>
       </c>
-      <c r="O21" s="33" t="s">
+      <c r="O21" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="33">
+      <c r="A22" s="8">
         <v>17</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="31">
         <v>43219</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -3809,13 +3815,13 @@
       <c r="D22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="8" t="s">
         <v>94</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="8">
         <v>76163588</v>
       </c>
       <c r="H22" s="8" t="s">
@@ -3830,16 +3836,16 @@
       <c r="K22" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L22" s="33" t="s">
+      <c r="L22" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="M22" s="33" t="s">
+      <c r="M22" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="N22" s="33">
+      <c r="N22" s="8">
         <v>15695169997</v>
       </c>
-      <c r="O22" s="33" t="s">
+      <c r="O22" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8595,7 +8601,7 @@
   <sheetPr/>
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -9609,8 +9615,8 @@
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9706,15 +9712,33 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="8"/>

--- a/周数据/《个人上线率统计表》-徐沛华.xlsx
+++ b/周数据/《个人上线率统计表》-徐沛华.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="3"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -473,18 +473,27 @@
   <si>
     <t>老厨人深海炖锅实施并培训</t>
   </si>
+  <si>
+    <t>5月</t>
+  </si>
+  <si>
+    <t>5日</t>
+  </si>
+  <si>
+    <t>奶酪时光南师附中店驻店</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -684,9 +693,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,8 +707,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,13 +784,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,13 +808,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,13 +826,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,13 +856,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,7 +880,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,13 +898,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,13 +922,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,13 +940,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1359,149 +1368,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1524,6 +1533,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2034,824 +2046,834 @@
   <sheetPr/>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="10" customWidth="1"/>
-    <col min="3" max="4" width="16.25" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="10" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="10" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="10" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="10" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="33" customWidth="1"/>
-    <col min="11" max="11" width="16" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="10" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="11" customWidth="1"/>
+    <col min="3" max="4" width="16.25" style="11" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="11" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="11" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="11" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="11" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="34" customWidth="1"/>
+    <col min="11" max="11" width="16" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="55"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="56"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="M2" s="61" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="42">
+      <c r="A3" s="43">
         <v>1</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="44">
         <v>1</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="45">
         <v>1</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46">
         <f>C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="46">
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="47">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62" t="e">
+      <c r="I3" s="62"/>
+      <c r="J3" s="63" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="63">
+      <c r="K3" s="64">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="64">
+      <c r="L3" s="65">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="65">
+      <c r="M3" s="66">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44">
         <v>2</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="45">
         <v>1</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45">
+      <c r="D4" s="46"/>
+      <c r="E4" s="46">
         <v>1</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="46">
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="47">
         <f t="shared" ref="H4:H26" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="62" t="e">
+      <c r="I4" s="62"/>
+      <c r="J4" s="63" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="64">
         <v>1</v>
       </c>
-      <c r="L4" s="64">
+      <c r="L4" s="65">
         <v>0</v>
       </c>
-      <c r="M4" s="65">
+      <c r="M4" s="66">
         <f t="shared" ref="M4:M26" si="1">L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43">
+      <c r="A5" s="43"/>
+      <c r="B5" s="44">
         <v>3</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="45">
         <v>0</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46">
         <v>0</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="46">
+      <c r="F5" s="47"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="61"/>
-      <c r="J5" s="62" t="e">
+      <c r="I5" s="62"/>
+      <c r="J5" s="63" t="e">
         <f t="shared" ref="J5:J26" si="2">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="63">
+      <c r="K5" s="64">
         <v>0</v>
       </c>
-      <c r="L5" s="64">
+      <c r="L5" s="65">
         <v>0</v>
       </c>
-      <c r="M5" s="65" t="e">
+      <c r="M5" s="66" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44">
         <v>4</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="45">
         <v>0</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45">
+      <c r="D6" s="46"/>
+      <c r="E6" s="46">
         <v>0</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="46">
+      <c r="F6" s="47"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="62" t="e">
+      <c r="I6" s="62"/>
+      <c r="J6" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="63">
+      <c r="K6" s="64">
         <v>0</v>
       </c>
-      <c r="L6" s="64">
+      <c r="L6" s="65">
         <v>0</v>
       </c>
-      <c r="M6" s="65" t="e">
+      <c r="M6" s="66" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43">
+      <c r="A7" s="43"/>
+      <c r="B7" s="44">
         <v>5</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="45">
         <v>1</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45">
+      <c r="D7" s="46"/>
+      <c r="E7" s="46">
         <v>1</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="46">
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62" t="e">
+      <c r="I7" s="62"/>
+      <c r="J7" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="63">
+      <c r="K7" s="64">
         <v>1</v>
       </c>
-      <c r="L7" s="64">
+      <c r="L7" s="65">
         <v>0</v>
       </c>
-      <c r="M7" s="65">
+      <c r="M7" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="52">
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67" t="e">
+      <c r="I8" s="67"/>
+      <c r="J8" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="68">
+      <c r="K8" s="69">
         <v>0</v>
       </c>
-      <c r="L8" s="69">
+      <c r="L8" s="70">
         <v>0</v>
       </c>
-      <c r="M8" s="70" t="e">
+      <c r="M8" s="71" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="42">
+      <c r="A9" s="43">
         <v>2</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="44">
         <v>8</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="45">
         <v>1</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="46">
         <v>1</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="46">
+      <c r="E9" s="46"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="61"/>
-      <c r="J9" s="62">
+      <c r="I9" s="62"/>
+      <c r="J9" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="63">
+      <c r="K9" s="64">
         <f>C9+G9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="64">
+      <c r="L9" s="65">
         <f>D9+G9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="65">
+      <c r="M9" s="66">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43">
+      <c r="A10" s="43"/>
+      <c r="B10" s="44">
         <v>10</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="45">
         <v>1</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45">
+      <c r="D10" s="46"/>
+      <c r="E10" s="46">
         <v>1</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="46">
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62" t="e">
+      <c r="I10" s="62"/>
+      <c r="J10" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="63">
+      <c r="K10" s="64">
         <v>1</v>
       </c>
-      <c r="L10" s="64">
+      <c r="L10" s="65">
         <v>0</v>
       </c>
-      <c r="M10" s="65">
+      <c r="M10" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="42"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="46">
+      <c r="A11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="61"/>
-      <c r="J11" s="62" t="e">
+      <c r="I11" s="62"/>
+      <c r="J11" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="63">
+      <c r="K11" s="64">
         <v>0</v>
       </c>
-      <c r="L11" s="64">
+      <c r="L11" s="65">
         <v>0</v>
       </c>
-      <c r="M11" s="65" t="e">
+      <c r="M11" s="66" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="46">
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62" t="e">
+      <c r="I12" s="62"/>
+      <c r="J12" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="63">
+      <c r="K12" s="64">
         <v>0</v>
       </c>
-      <c r="L12" s="64">
+      <c r="L12" s="65">
         <v>0</v>
       </c>
-      <c r="M12" s="65" t="e">
+      <c r="M12" s="66" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="46">
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="61"/>
-      <c r="J13" s="62" t="e">
+      <c r="I13" s="62"/>
+      <c r="J13" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="63">
+      <c r="K13" s="64">
         <v>1</v>
       </c>
-      <c r="L13" s="64">
+      <c r="L13" s="65">
         <v>0</v>
       </c>
-      <c r="M13" s="65">
+      <c r="M13" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:13">
-      <c r="A14" s="48"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="52">
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="66"/>
-      <c r="J14" s="67" t="e">
+      <c r="I14" s="67"/>
+      <c r="J14" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="68">
+      <c r="K14" s="69">
         <v>0</v>
       </c>
-      <c r="L14" s="69">
+      <c r="L14" s="70">
         <v>0</v>
       </c>
-      <c r="M14" s="70" t="e">
+      <c r="M14" s="71" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="42">
+      <c r="A15" s="43">
         <v>3</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="44">
         <v>11</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="45">
         <v>2</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="46">
         <v>1</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="46">
         <v>1</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="46">
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="61"/>
-      <c r="J15" s="62">
+      <c r="I15" s="62"/>
+      <c r="J15" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="63">
+      <c r="K15" s="64">
         <f>C15+G15</f>
         <v>2</v>
       </c>
-      <c r="L15" s="64">
+      <c r="L15" s="65">
         <f>D15+G15</f>
         <v>1</v>
       </c>
-      <c r="M15" s="65">
+      <c r="M15" s="66">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="42"/>
-      <c r="B16" s="43">
+      <c r="A16" s="43"/>
+      <c r="B16" s="44">
         <v>12</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45">
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46">
         <v>1</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="46">
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="61"/>
-      <c r="J16" s="62" t="e">
+      <c r="I16" s="62"/>
+      <c r="J16" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="63">
+      <c r="K16" s="64">
         <v>1</v>
       </c>
-      <c r="L16" s="64">
+      <c r="L16" s="65">
         <v>0</v>
       </c>
-      <c r="M16" s="65">
+      <c r="M16" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43">
+      <c r="A17" s="43"/>
+      <c r="B17" s="44">
         <v>13</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="45">
         <v>2</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="46">
         <v>3</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="46">
+      <c r="E17" s="46"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="61"/>
-      <c r="J17" s="62">
+      <c r="I17" s="62"/>
+      <c r="J17" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="63">
+      <c r="K17" s="64">
         <v>2</v>
       </c>
-      <c r="L17" s="64">
+      <c r="L17" s="65">
         <v>3</v>
       </c>
-      <c r="M17" s="65">
+      <c r="M17" s="66">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="42"/>
-      <c r="B18" s="43">
+      <c r="A18" s="43"/>
+      <c r="B18" s="44">
         <v>14</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="45">
         <v>2</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="46">
         <v>0</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="46">
         <v>2</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="46">
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="61"/>
-      <c r="J18" s="62" t="e">
+      <c r="I18" s="62"/>
+      <c r="J18" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="63">
+      <c r="K18" s="64">
         <v>0</v>
       </c>
-      <c r="L18" s="64">
+      <c r="L18" s="65">
         <v>0</v>
       </c>
-      <c r="M18" s="65" t="e">
+      <c r="M18" s="66" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:13">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="67" t="e">
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="63"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="65"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="66"/>
     </row>
     <row r="20" ht="14.25" spans="1:13">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="52">
+      <c r="A20" s="49"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="66"/>
-      <c r="J20" s="67" t="e">
+      <c r="I20" s="67"/>
+      <c r="J20" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="68">
+      <c r="K20" s="69">
         <v>0</v>
       </c>
-      <c r="L20" s="69">
+      <c r="L20" s="70">
         <v>0</v>
       </c>
-      <c r="M20" s="70" t="e">
+      <c r="M20" s="71" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="42">
+      <c r="A21" s="43">
         <v>4</v>
       </c>
-      <c r="B21" s="43">
+      <c r="B21" s="44">
         <v>15</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="45">
         <v>2</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="46">
         <v>1</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="46">
         <v>1</v>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="46">
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="61"/>
-      <c r="J21" s="62">
+      <c r="I21" s="62"/>
+      <c r="J21" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K21" s="63">
+      <c r="K21" s="64">
         <v>2</v>
       </c>
-      <c r="L21" s="64">
+      <c r="L21" s="65">
         <v>1</v>
       </c>
-      <c r="M21" s="65">
+      <c r="M21" s="66">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43">
+      <c r="A22" s="43"/>
+      <c r="B22" s="44">
         <v>16</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="45">
         <v>4</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="46">
         <v>3</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="46">
         <v>0</v>
       </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="62" t="e">
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="63">
+      <c r="K22" s="64">
         <v>4</v>
       </c>
-      <c r="L22" s="64">
+      <c r="L22" s="65">
         <v>0</v>
       </c>
-      <c r="M22" s="65">
+      <c r="M22" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43">
+      <c r="A23" s="43"/>
+      <c r="B23" s="44">
         <v>17</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="45">
         <v>12</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="46">
         <v>10</v>
       </c>
-      <c r="E23" s="45">
+      <c r="E23" s="46">
         <v>2</v>
       </c>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="61">
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="62">
         <v>3</v>
       </c>
-      <c r="J23" s="62">
+      <c r="J23" s="63">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="K23" s="63">
+      <c r="K23" s="64">
         <v>12</v>
       </c>
-      <c r="L23" s="64">
+      <c r="L23" s="65">
         <v>10</v>
       </c>
-      <c r="M23" s="65">
+      <c r="M23" s="66">
         <f t="shared" si="1"/>
         <v>0.833333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="42"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="62" t="e">
+      <c r="A24" s="43"/>
+      <c r="B24" s="44">
+        <v>18</v>
+      </c>
+      <c r="C24" s="45">
+        <v>12</v>
+      </c>
+      <c r="D24" s="46">
+        <v>11</v>
+      </c>
+      <c r="E24" s="46"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="64">
+        <v>12</v>
+      </c>
+      <c r="L24" s="65">
+        <v>11</v>
+      </c>
+      <c r="M24" s="66">
+        <f t="shared" si="1"/>
+        <v>0.916666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="63"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="65" t="e">
+      <c r="K25" s="64"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="66" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="62" t="e">
+    <row r="26" ht="14.25" spans="1:13">
+      <c r="A26" s="49"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="63"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="65" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" spans="1:13">
-      <c r="A26" s="48"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="67" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="68"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="70" t="e">
+      <c r="K26" s="69"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="71" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2875,7 +2897,7 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B10" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -2887,57 +2909,57 @@
     <col min="5" max="5" width="25.25" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="11" customWidth="1"/>
     <col min="9" max="9" width="9.875" customWidth="1"/>
     <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="26" t="s">
+    <row r="1" s="26" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="27" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2945,40 +2967,40 @@
       <c r="A2" s="8">
         <v>3</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="29">
         <v>43116</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="24" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="8">
         <v>76123117</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="24" t="s">
         <v>34</v>
       </c>
       <c r="K2" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="24" t="s">
         <v>36</v>
       </c>
       <c r="N2" s="8">
@@ -2992,11 +3014,11 @@
       <c r="A3" s="8">
         <v>4</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="30"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="H3" s="8"/>
@@ -3012,7 +3034,7 @@
       <c r="A4" s="8">
         <v>5</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="32">
         <v>43117</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -3059,7 +3081,7 @@
       <c r="A5" s="8">
         <v>6</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="32">
         <v>43139</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -3106,7 +3128,7 @@
       <c r="A6" s="8">
         <v>9</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="32">
         <v>43155</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -3153,7 +3175,7 @@
       <c r="A7" s="8">
         <v>11</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="32">
         <v>43166</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -3221,7 +3243,7 @@
       <c r="A9" s="8">
         <v>13</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="32">
         <v>43183</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -3268,7 +3290,7 @@
       <c r="A10" s="8">
         <v>13</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="32">
         <v>43185</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -3315,7 +3337,7 @@
       <c r="A11" s="8">
         <v>13</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="32">
         <v>43187</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -3379,11 +3401,11 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" s="10" customFormat="1" spans="1:15">
+    <row r="13" s="11" customFormat="1" spans="1:15">
       <c r="A13" s="8">
         <v>15</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="32">
         <v>43201</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -3430,7 +3452,7 @@
       <c r="A14" s="8">
         <v>16</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="32">
         <v>43207</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -3473,11 +3495,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" s="10" customFormat="1" spans="1:15">
+    <row r="15" s="11" customFormat="1" spans="1:15">
       <c r="A15" s="8">
         <v>16</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="32">
         <v>43210</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -3520,11 +3542,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" s="10" customFormat="1" spans="1:15">
+    <row r="16" s="11" customFormat="1" spans="1:15">
       <c r="A16" s="8">
         <v>17</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="32">
         <v>43214</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -3567,11 +3589,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" s="10" customFormat="1" spans="1:15">
+    <row r="17" s="11" customFormat="1" spans="1:15">
       <c r="A17" s="8">
         <v>17</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="32">
         <v>43214</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -3614,11 +3636,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" s="10" customFormat="1" spans="1:15">
+    <row r="18" s="11" customFormat="1" spans="1:15">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="32">
         <v>43214</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -3665,7 +3687,7 @@
       <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="32">
         <v>43218</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -3712,7 +3734,7 @@
       <c r="A20" s="8">
         <v>17</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="32">
         <v>43218</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -3755,11 +3777,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" s="10" customFormat="1" spans="1:15">
+    <row r="21" s="11" customFormat="1" spans="1:15">
       <c r="A21" s="8">
         <v>17</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="32">
         <v>43219</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -3806,7 +3828,7 @@
       <c r="A22" s="8">
         <v>17</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="32">
         <v>43219</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -8607,35 +8629,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="11" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="11" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="13" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8643,13 +8665,13 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="18">
         <v>43102</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>103</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -8666,13 +8688,13 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="18">
         <v>43110</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>106</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -8689,13 +8711,13 @@
       <c r="A4" s="8">
         <v>5</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="18">
         <v>43126</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>108</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -8712,13 +8734,13 @@
       <c r="A5" s="8">
         <v>6</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="18">
         <v>43133</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -8735,13 +8757,13 @@
       <c r="A6" s="8">
         <v>8</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="18">
         <v>43102</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="19" t="s">
         <v>113</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -8758,13 +8780,13 @@
       <c r="A7" s="8">
         <v>8</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="18">
         <v>43133</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="19" t="s">
         <v>114</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -8781,13 +8803,13 @@
       <c r="A8" s="8">
         <v>11</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="18">
         <v>43172</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="19" t="s">
         <v>115</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -8804,13 +8826,13 @@
       <c r="A9" s="8">
         <v>15</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="18">
         <v>43192</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="19" t="s">
         <v>118</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -8823,49 +8845,49 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" s="9" customFormat="1" spans="1:7">
+    <row r="10" s="10" customFormat="1" spans="1:7">
       <c r="A10" s="8">
         <v>15</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="18">
         <v>43189</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" s="9" customFormat="1" spans="1:7">
+    <row r="11" s="10" customFormat="1" spans="1:7">
       <c r="A11" s="8">
         <v>15</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="18">
         <v>43199</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="20" t="s">
         <v>124</v>
       </c>
     </row>
@@ -8873,723 +8895,723 @@
       <c r="A12" s="8">
         <v>16</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="18">
         <v>43206</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="20" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="8"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="8"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="8"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="8"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="8"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="8"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="8"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="8"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="8"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="8"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="8"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="8"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="8"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="8"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="8"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="8"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="8"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="8"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="8"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="8"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="8"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="8"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="8"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="18"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="8"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="8"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="19"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="8"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="19"/>
       <c r="E38" s="8"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="8"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="18"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="19"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="8"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="19"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="8"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="18"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="8"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="18"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="19"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="8"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="18"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="19"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="8"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="18"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="19"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="8"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="18"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="19"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="8"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="18"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="19"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="8"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="18"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="19"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="8"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="18"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="19"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="8"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="18"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="19"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="8"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="18"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="19"/>
       <c r="E50" s="8"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="8"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="18"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="19"/>
       <c r="E51" s="8"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="8"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="18"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="19"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="8"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="18"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="19"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="8"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="18"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="19"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="8"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="18"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="19"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="8"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="18"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="19"/>
       <c r="E56" s="8"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="8"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="18"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="19"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="8"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="18"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="19"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="8"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="18"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="19"/>
       <c r="E59" s="8"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
     </row>
     <row r="60" ht="14.25" spans="1:7">
       <c r="A60" s="8"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="22"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="23"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="23"/>
+      <c r="G60" s="24"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="8"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="18"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="19"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="8"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="18"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="19"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="8"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="18"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="19"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="8"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="18"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="19"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="8"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="18"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="19"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="8"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="18"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="19"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="8"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="18"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="19"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="8"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="18"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="19"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
     <row r="69" ht="14.25" spans="1:7">
       <c r="A69" s="8"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="22"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="23"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="16"/>
+      <c r="G69" s="17"/>
     </row>
     <row r="70" ht="14.25" spans="1:7">
       <c r="A70" s="8"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="22"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="23"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="8"/>
     </row>
     <row r="71" ht="14.25" spans="1:7">
       <c r="A71" s="8"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="22"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="23"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="8"/>
     </row>
     <row r="72" ht="14.25" spans="1:7">
       <c r="A72" s="8"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="22"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="23"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="23"/>
+      <c r="G72" s="24"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="8"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="18"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="19"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="8"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="18"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="19"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="8"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="18"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="19"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="8"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="18"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="19"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="8"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="18"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="19"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="8"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="18"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="19"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="8"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="18"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="19"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="8"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="18"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="19"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
     <row r="81" ht="14.25" spans="1:7">
       <c r="A81" s="8"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="22"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="23"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="8"/>
     </row>
     <row r="82" ht="14.25" spans="1:7">
       <c r="A82" s="8"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="22"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="23"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="23"/>
+      <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="8"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="18"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="19"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="8"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="18"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="19"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="8"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="18"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="19"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="8"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="18"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="19"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="8"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="18"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="19"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="8"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="18"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="19"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="8"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="18"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="19"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="8"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="18"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="19"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -9615,8 +9637,8 @@
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9740,10 +9762,19 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+    <row r="9" spans="1:4">
+      <c r="A9" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="8"/>

--- a/周数据/《个人上线率统计表》-徐沛华.xlsx
+++ b/周数据/《个人上线率统计表》-徐沛华.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -330,6 +330,27 @@
     <t>许多多</t>
   </si>
   <si>
+    <t>老厨人深海炖锅（高科荣境店）</t>
+  </si>
+  <si>
+    <t>老厨人深海炖锅</t>
+  </si>
+  <si>
+    <t>高总</t>
+  </si>
+  <si>
+    <t>南京市江宁区奶酪时光休闲西餐厅</t>
+  </si>
+  <si>
+    <t>奶酪时光</t>
+  </si>
+  <si>
+    <t>奶酪时光（南师附中店）</t>
+  </si>
+  <si>
+    <t>甘总</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -388,9 +409,6 @@
   </si>
   <si>
     <t>肖如梦</t>
-  </si>
-  <si>
-    <t>老厨人深海炖锅</t>
   </si>
   <si>
     <t>装修中，实施老板提前告知。</t>
@@ -488,12 +506,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -572,15 +590,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,7 +634,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,31 +680,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,58 +711,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -708,6 +719,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -778,7 +796,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,7 +922,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,145 +964,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,45 +1281,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1313,6 +1292,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1338,16 +1341,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1368,10 +1386,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1380,137 +1398,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1538,73 +1556,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2046,834 +2070,836 @@
   <sheetPr/>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="11" customWidth="1"/>
-    <col min="3" max="4" width="16.25" style="11" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="11" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="11" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="11" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="11" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="34" customWidth="1"/>
-    <col min="11" max="11" width="16" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="11" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="10" customWidth="1"/>
+    <col min="3" max="4" width="16.25" style="10" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="10" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="10" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="10" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="36" customWidth="1"/>
+    <col min="11" max="11" width="16" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="10" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="56"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="58"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="59" t="s">
+      <c r="K2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="60" t="s">
+      <c r="L2" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="61" t="s">
+      <c r="M2" s="63" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="43">
+      <c r="A3" s="45">
         <v>1</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="46">
         <v>1</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="47">
         <v>1</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48">
         <f>C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="47">
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="49">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63" t="e">
+      <c r="I3" s="64"/>
+      <c r="J3" s="65" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="64">
+      <c r="K3" s="66">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="65">
+      <c r="L3" s="67">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="66">
+      <c r="M3" s="68">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46">
         <v>2</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="47">
         <v>1</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46">
+      <c r="D4" s="48"/>
+      <c r="E4" s="48">
         <v>1</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="47">
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="49">
         <f t="shared" ref="H4:H26" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="63" t="e">
+      <c r="I4" s="64"/>
+      <c r="J4" s="65" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="64">
+      <c r="K4" s="66">
         <v>1</v>
       </c>
-      <c r="L4" s="65">
+      <c r="L4" s="67">
         <v>0</v>
       </c>
-      <c r="M4" s="66">
+      <c r="M4" s="68">
         <f t="shared" ref="M4:M26" si="1">L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44">
+      <c r="A5" s="45"/>
+      <c r="B5" s="46">
         <v>3</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="47">
         <v>0</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48">
         <v>0</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="47">
+      <c r="F5" s="49"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63" t="e">
+      <c r="I5" s="64"/>
+      <c r="J5" s="65" t="e">
         <f t="shared" ref="J5:J26" si="2">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="64">
+      <c r="K5" s="66">
         <v>0</v>
       </c>
-      <c r="L5" s="65">
+      <c r="L5" s="67">
         <v>0</v>
       </c>
-      <c r="M5" s="66" t="e">
+      <c r="M5" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44">
+      <c r="A6" s="45"/>
+      <c r="B6" s="46">
         <v>4</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="47">
         <v>0</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46">
+      <c r="D6" s="48"/>
+      <c r="E6" s="48">
         <v>0</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="47">
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63" t="e">
+      <c r="I6" s="64"/>
+      <c r="J6" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="64">
+      <c r="K6" s="66">
         <v>0</v>
       </c>
-      <c r="L6" s="65">
+      <c r="L6" s="67">
         <v>0</v>
       </c>
-      <c r="M6" s="66" t="e">
+      <c r="M6" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44">
+      <c r="A7" s="45"/>
+      <c r="B7" s="46">
         <v>5</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="47">
         <v>1</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46">
+      <c r="D7" s="48"/>
+      <c r="E7" s="48">
         <v>1</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="47">
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63" t="e">
+      <c r="I7" s="64"/>
+      <c r="J7" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="64">
+      <c r="K7" s="66">
         <v>1</v>
       </c>
-      <c r="L7" s="65">
+      <c r="L7" s="67">
         <v>0</v>
       </c>
-      <c r="M7" s="66">
+      <c r="M7" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="53">
+      <c r="A8" s="51"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="67"/>
-      <c r="J8" s="68" t="e">
+      <c r="I8" s="69"/>
+      <c r="J8" s="70" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="69">
+      <c r="K8" s="71">
         <v>0</v>
       </c>
-      <c r="L8" s="70">
+      <c r="L8" s="72">
         <v>0</v>
       </c>
-      <c r="M8" s="71" t="e">
+      <c r="M8" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="43">
+      <c r="A9" s="45">
         <v>2</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="46">
         <v>8</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="47">
         <v>1</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="48">
         <v>1</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="47">
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="62"/>
-      <c r="J9" s="63">
+      <c r="I9" s="64"/>
+      <c r="J9" s="65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="64">
+      <c r="K9" s="66">
         <f>C9+G9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="65">
+      <c r="L9" s="67">
         <f>D9+G9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="66">
+      <c r="M9" s="68">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44">
+      <c r="A10" s="45"/>
+      <c r="B10" s="46">
         <v>10</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="47">
         <v>1</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46">
+      <c r="D10" s="48"/>
+      <c r="E10" s="48">
         <v>1</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="47">
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="62"/>
-      <c r="J10" s="63" t="e">
+      <c r="I10" s="64"/>
+      <c r="J10" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="64">
+      <c r="K10" s="66">
         <v>1</v>
       </c>
-      <c r="L10" s="65">
+      <c r="L10" s="67">
         <v>0</v>
       </c>
-      <c r="M10" s="66">
+      <c r="M10" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="43"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="47">
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="62"/>
-      <c r="J11" s="63" t="e">
+      <c r="I11" s="64"/>
+      <c r="J11" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="64">
+      <c r="K11" s="66">
         <v>0</v>
       </c>
-      <c r="L11" s="65">
+      <c r="L11" s="67">
         <v>0</v>
       </c>
-      <c r="M11" s="66" t="e">
+      <c r="M11" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="43"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="47">
+      <c r="A12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="62"/>
-      <c r="J12" s="63" t="e">
+      <c r="I12" s="64"/>
+      <c r="J12" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="64">
+      <c r="K12" s="66">
         <v>0</v>
       </c>
-      <c r="L12" s="65">
+      <c r="L12" s="67">
         <v>0</v>
       </c>
-      <c r="M12" s="66" t="e">
+      <c r="M12" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="47">
+      <c r="A13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="63" t="e">
+      <c r="I13" s="64"/>
+      <c r="J13" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="64">
+      <c r="K13" s="66">
         <v>1</v>
       </c>
-      <c r="L13" s="65">
+      <c r="L13" s="67">
         <v>0</v>
       </c>
-      <c r="M13" s="66">
+      <c r="M13" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:13">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="53">
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="67"/>
-      <c r="J14" s="68" t="e">
+      <c r="I14" s="69"/>
+      <c r="J14" s="70" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="69">
+      <c r="K14" s="71">
         <v>0</v>
       </c>
-      <c r="L14" s="70">
+      <c r="L14" s="72">
         <v>0</v>
       </c>
-      <c r="M14" s="71" t="e">
+      <c r="M14" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="43">
+      <c r="A15" s="45">
         <v>3</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="46">
         <v>11</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="47">
         <v>2</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="48">
         <v>1</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="48">
         <v>1</v>
       </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="47">
+      <c r="F15" s="49"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="62"/>
-      <c r="J15" s="63">
+      <c r="I15" s="64"/>
+      <c r="J15" s="65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="64">
+      <c r="K15" s="66">
         <f>C15+G15</f>
         <v>2</v>
       </c>
-      <c r="L15" s="65">
+      <c r="L15" s="67">
         <f>D15+G15</f>
         <v>1</v>
       </c>
-      <c r="M15" s="66">
+      <c r="M15" s="68">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44">
+      <c r="A16" s="45"/>
+      <c r="B16" s="46">
         <v>12</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46">
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48">
         <v>1</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="47">
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="62"/>
-      <c r="J16" s="63" t="e">
+      <c r="I16" s="64"/>
+      <c r="J16" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="64">
+      <c r="K16" s="66">
         <v>1</v>
       </c>
-      <c r="L16" s="65">
+      <c r="L16" s="67">
         <v>0</v>
       </c>
-      <c r="M16" s="66">
+      <c r="M16" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44">
+      <c r="A17" s="45"/>
+      <c r="B17" s="46">
         <v>13</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="47">
         <v>2</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="48">
         <v>3</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="47">
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="62"/>
-      <c r="J17" s="63">
+      <c r="I17" s="64"/>
+      <c r="J17" s="65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="64">
+      <c r="K17" s="66">
         <v>2</v>
       </c>
-      <c r="L17" s="65">
+      <c r="L17" s="67">
         <v>3</v>
       </c>
-      <c r="M17" s="66">
+      <c r="M17" s="68">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="43"/>
-      <c r="B18" s="44">
+      <c r="A18" s="45"/>
+      <c r="B18" s="46">
         <v>14</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="47">
         <v>2</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="48">
         <v>0</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="48">
         <v>2</v>
       </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="47">
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="62"/>
-      <c r="J18" s="63" t="e">
+      <c r="I18" s="64"/>
+      <c r="J18" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="64">
+      <c r="K18" s="66">
         <v>0</v>
       </c>
-      <c r="L18" s="65">
+      <c r="L18" s="67">
         <v>0</v>
       </c>
-      <c r="M18" s="66" t="e">
+      <c r="M18" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:13">
-      <c r="A19" s="43"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="68" t="e">
+      <c r="A19" s="45"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="70" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="64"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="68"/>
     </row>
     <row r="20" ht="14.25" spans="1:13">
-      <c r="A20" s="49"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53">
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68" t="e">
+      <c r="I20" s="69"/>
+      <c r="J20" s="70" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="69">
+      <c r="K20" s="71">
         <v>0</v>
       </c>
-      <c r="L20" s="70">
+      <c r="L20" s="72">
         <v>0</v>
       </c>
-      <c r="M20" s="71" t="e">
+      <c r="M20" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="43">
+      <c r="A21" s="45">
         <v>4</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="46">
         <v>15</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="47">
         <v>2</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21" s="48">
         <v>1</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="48">
         <v>1</v>
       </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="47">
+      <c r="F21" s="49"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="62"/>
-      <c r="J21" s="63">
+      <c r="I21" s="64"/>
+      <c r="J21" s="65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K21" s="64">
+      <c r="K21" s="66">
         <v>2</v>
       </c>
-      <c r="L21" s="65">
+      <c r="L21" s="67">
         <v>1</v>
       </c>
-      <c r="M21" s="66">
+      <c r="M21" s="68">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44">
+      <c r="A22" s="45"/>
+      <c r="B22" s="46">
         <v>16</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="47">
         <v>4</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="48">
         <v>3</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="48">
         <v>0</v>
       </c>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="63" t="e">
+      <c r="F22" s="49"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="64">
+      <c r="K22" s="66">
         <v>4</v>
       </c>
-      <c r="L22" s="65">
+      <c r="L22" s="67">
         <v>0</v>
       </c>
-      <c r="M22" s="66">
+      <c r="M22" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44">
+      <c r="A23" s="45"/>
+      <c r="B23" s="46">
         <v>17</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="47">
         <v>12</v>
       </c>
-      <c r="D23" s="46">
+      <c r="D23" s="48">
         <v>10</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="48">
         <v>2</v>
       </c>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="62">
+      <c r="F23" s="49"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="64">
         <v>3</v>
       </c>
-      <c r="J23" s="63">
+      <c r="J23" s="65">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="K23" s="64">
+      <c r="K23" s="66">
         <v>12</v>
       </c>
-      <c r="L23" s="65">
+      <c r="L23" s="67">
         <v>10</v>
       </c>
-      <c r="M23" s="66">
+      <c r="M23" s="68">
         <f t="shared" si="1"/>
         <v>0.833333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44">
+      <c r="A24" s="45"/>
+      <c r="B24" s="46">
         <v>18</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="47">
+        <v>13</v>
+      </c>
+      <c r="D24" s="48">
         <v>12</v>
       </c>
-      <c r="D24" s="46">
-        <v>11</v>
-      </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="63">
+      <c r="E24" s="48">
+        <v>1</v>
+      </c>
+      <c r="F24" s="49"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K24" s="64">
+      <c r="K24" s="66">
+        <v>13</v>
+      </c>
+      <c r="L24" s="67">
         <v>12</v>
       </c>
-      <c r="L24" s="65">
-        <v>11</v>
-      </c>
-      <c r="M24" s="66">
+      <c r="M24" s="68">
         <f t="shared" si="1"/>
-        <v>0.916666666666667</v>
+        <v>0.923076923076923</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="63" t="e">
+      <c r="A25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="64"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="66" t="e">
+      <c r="K25" s="66"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:13">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="68" t="e">
+      <c r="A26" s="51"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="70" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="69"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="71" t="e">
+      <c r="K26" s="71"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2897,26 +2923,26 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="26.875" customWidth="1"/>
+    <col min="4" max="4" width="29.75" customWidth="1"/>
     <col min="5" max="5" width="25.25" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="28.75" style="10" customWidth="1"/>
     <col min="9" max="9" width="9.875" customWidth="1"/>
     <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="1" ht="27" spans="1:15">
+    <row r="1" s="25" customFormat="1" ht="27" spans="1:15">
       <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
@@ -2941,7 +2967,7 @@
       <c r="H1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="35" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="28" t="s">
@@ -2970,16 +2996,16 @@
       <c r="B2" s="29">
         <v>43116</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="8">
@@ -2988,19 +3014,19 @@
       <c r="H2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="23" t="s">
         <v>34</v>
       </c>
       <c r="K2" s="8">
         <v>17625903469</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="23" t="s">
         <v>36</v>
       </c>
       <c r="N2" s="8">
@@ -3014,7 +3040,7 @@
       <c r="A3" s="8">
         <v>4</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="1"/>
@@ -3401,7 +3427,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" s="11" customFormat="1" spans="1:15">
+    <row r="13" s="10" customFormat="1" spans="1:15">
       <c r="A13" s="8">
         <v>15</v>
       </c>
@@ -3495,7 +3521,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" s="11" customFormat="1" spans="1:15">
+    <row r="15" s="10" customFormat="1" spans="1:15">
       <c r="A15" s="8">
         <v>16</v>
       </c>
@@ -3542,7 +3568,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" s="11" customFormat="1" spans="1:15">
+    <row r="16" s="10" customFormat="1" spans="1:15">
       <c r="A16" s="8">
         <v>17</v>
       </c>
@@ -3589,7 +3615,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" s="11" customFormat="1" spans="1:15">
+    <row r="17" s="10" customFormat="1" spans="1:15">
       <c r="A17" s="8">
         <v>17</v>
       </c>
@@ -3636,7 +3662,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" s="11" customFormat="1" spans="1:15">
+    <row r="18" s="10" customFormat="1" spans="1:15">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -3777,7 +3803,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" s="11" customFormat="1" spans="1:15">
+    <row r="21" s="10" customFormat="1" spans="1:15">
       <c r="A21" s="8">
         <v>17</v>
       </c>
@@ -3871,39 +3897,99 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+    <row r="23" s="26" customFormat="1" spans="1:15">
+      <c r="A23" s="33">
+        <v>18</v>
+      </c>
+      <c r="B23" s="34">
+        <v>43224</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="33">
+        <v>76153258</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="8">
+        <v>17625903469</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" s="33">
+        <v>13770564711</v>
+      </c>
+      <c r="O23" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" s="26" customFormat="1" spans="1:15">
+      <c r="A24" s="33">
+        <v>18</v>
+      </c>
+      <c r="B24" s="34">
+        <v>43225</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="33">
+        <v>76165958</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="8">
+        <v>17625903469</v>
+      </c>
+      <c r="L24" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="M24" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="N24" s="33">
+        <v>18952027077</v>
+      </c>
+      <c r="O24" s="33" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1"/>
@@ -8605,7 +8691,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:F1048576">
       <formula1>"单店,小连锁,KA项目"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O15 O16:O18 O19:O1048576">
@@ -8629,989 +8715,989 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="10" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="12" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>101</v>
+      <c r="C1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="18">
+      <c r="B2" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="17">
         <v>43102</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>103</v>
+      <c r="D2" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>43110</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>106</v>
+      <c r="D3" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="8">
         <v>5</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>43126</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>108</v>
+      <c r="D4" s="18" t="s">
+        <v>115</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="8">
         <v>6</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="18">
+      <c r="B5" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="17">
         <v>43133</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="8">
         <v>8</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="18">
+      <c r="B6" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="17">
         <v>43102</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>113</v>
+      <c r="D6" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:7">
       <c r="A7" s="8">
         <v>8</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="18">
+      <c r="B7" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="17">
         <v>43133</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>114</v>
+      <c r="D7" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="8">
         <v>11</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>43172</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>115</v>
+      <c r="D8" s="18" t="s">
+        <v>122</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="8">
         <v>15</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="18">
+      <c r="B9" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="17">
         <v>43192</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>118</v>
+      <c r="D9" s="18" t="s">
+        <v>124</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" s="10" customFormat="1" spans="1:7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" s="9" customFormat="1" spans="1:7">
       <c r="A10" s="8">
         <v>15</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>43189</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="20" t="s">
+      <c r="D10" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" s="10" customFormat="1" spans="1:7">
+      <c r="G10" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" s="9" customFormat="1" spans="1:7">
       <c r="A11" s="8">
         <v>15</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="18">
+      <c r="B11" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="17">
         <v>43199</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="20" t="s">
+      <c r="D11" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="20" t="s">
-        <v>124</v>
+      <c r="G11" s="19" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="8">
         <v>16</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="17">
+        <v>43206</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>125</v>
-      </c>
-      <c r="C12" s="18">
-        <v>43206</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="8"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="8"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="8"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="8"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="8"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="8"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="8"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="8"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="8"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="8"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="8"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="8"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="8"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="8"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="8"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="19"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="8"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="8"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="8"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="8"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="8"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="8"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="8"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="8"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="8"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="8"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="8"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="8"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="8"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="8"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="8"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="19"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="8"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="8"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="18"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="8"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="19"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="8"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="19"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="8"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="19"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="8"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="19"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="18"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="8"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="19"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="18"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="8"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="19"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="18"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="8"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="19"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="18"/>
       <c r="E50" s="8"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="8"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="19"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="18"/>
       <c r="E51" s="8"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="8"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="19"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="8"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="19"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="18"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="8"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="19"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="18"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="8"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="19"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="18"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="8"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="19"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="18"/>
       <c r="E56" s="8"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="8"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="19"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="18"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="8"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="19"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="18"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="8"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="19"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="18"/>
       <c r="E59" s="8"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
     </row>
     <row r="60" ht="14.25" spans="1:7">
       <c r="A60" s="8"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="23"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="22"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="24"/>
+      <c r="G60" s="23"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="8"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="19"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="18"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="8"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="19"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="18"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="8"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="19"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="18"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="8"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="19"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="18"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="8"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="19"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="18"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="8"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="19"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="18"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="8"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="19"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="18"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="8"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="19"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="18"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
     <row r="69" ht="14.25" spans="1:7">
       <c r="A69" s="8"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="23"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="22"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="17"/>
+      <c r="G69" s="16"/>
     </row>
     <row r="70" ht="14.25" spans="1:7">
       <c r="A70" s="8"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="23"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="22"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="8"/>
     </row>
     <row r="71" ht="14.25" spans="1:7">
       <c r="A71" s="8"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="23"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="22"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="8"/>
     </row>
     <row r="72" ht="14.25" spans="1:7">
       <c r="A72" s="8"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="23"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="22"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="24"/>
+      <c r="G72" s="23"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="8"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="19"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="18"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="8"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="19"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="18"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="8"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="19"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="18"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="8"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="19"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="18"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="8"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="19"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="18"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="8"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="19"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="18"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="8"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="19"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="18"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="8"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="19"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="18"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
     <row r="81" ht="14.25" spans="1:7">
       <c r="A81" s="8"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="23"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="22"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="8"/>
     </row>
     <row r="82" ht="14.25" spans="1:7">
       <c r="A82" s="8"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="23"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="22"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="24"/>
+      <c r="G82" s="23"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="8"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="19"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="18"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="8"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="19"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="18"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="8"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="19"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="18"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="8"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="19"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="18"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="8"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="19"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="18"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="8"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="19"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="18"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="8"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="19"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="18"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="8"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="19"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="18"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -9655,125 +9741,125 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="9" t="s">
-        <v>145</v>
+      <c r="A9" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="2:4">

--- a/周数据/《个人上线率统计表》-徐沛华.xlsx
+++ b/周数据/《个人上线率统计表》-徐沛华.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\hualala\NanJing\周数据\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1F372363-351A-434F-B1DF-C5CF54257663}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -15,12 +21,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">项目明细表!$F:$F</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="154">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -114,6 +120,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>S</t>
@@ -123,6 +130,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>AAS</t>
@@ -504,16 +512,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,6 +530,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -534,11 +539,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -546,18 +553,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -565,12 +575,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9.95"/>
+      <sz val="9.9499999999999993"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -578,28 +590,14 @@
       <sz val="11"/>
       <color rgb="FF777777"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -607,139 +605,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -748,7 +625,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="4" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,13 +643,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
+        <fgColor theme="9" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,7 +661,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
+        <fgColor theme="7" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,182 +671,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="32">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1280,251 +983,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1535,7 +996,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1562,7 +1023,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1571,7 +1032,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1580,7 +1041,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1601,7 +1062,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1616,7 +1077,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1638,12 +1099,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1662,9 +1117,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1680,9 +1132,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1696,12 +1145,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1749,62 +1192,36 @@
     <xf numFmtId="9" fontId="0" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2062,19 +1479,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.125" style="10" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="10" customWidth="1"/>
@@ -2090,816 +1507,816 @@
     <col min="13" max="13" width="18.625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="58"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="39" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="71"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="J2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="61" t="s">
+      <c r="K2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="M2" s="57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="72">
         <v>1</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="43">
         <v>1</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="44">
         <v>1</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48">
+      <c r="D3" s="45"/>
+      <c r="E3" s="45">
         <f>C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="49">
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="46">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="64"/>
-      <c r="J3" s="65" t="e">
+      <c r="I3" s="58"/>
+      <c r="J3" s="59" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="66">
+      <c r="K3" s="60">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="67">
+      <c r="L3" s="61">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="68">
+      <c r="M3" s="62">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="72"/>
+      <c r="B4" s="43">
         <v>2</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="44">
         <v>1</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45">
         <v>1</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="49">
-        <f t="shared" ref="H4:H26" si="0">F4-G4</f>
+      <c r="F4" s="46"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="46">
+        <f t="shared" ref="H4:H21" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65" t="e">
+      <c r="I4" s="58"/>
+      <c r="J4" s="59" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="66">
+      <c r="K4" s="60">
         <v>1</v>
       </c>
-      <c r="L4" s="67">
+      <c r="L4" s="61">
         <v>0</v>
       </c>
-      <c r="M4" s="68">
+      <c r="M4" s="62">
         <f t="shared" ref="M4:M26" si="1">L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="72"/>
+      <c r="B5" s="43">
         <v>3</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="44">
         <v>0</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45">
         <v>0</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="49">
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="64"/>
-      <c r="J5" s="65" t="e">
+      <c r="I5" s="58"/>
+      <c r="J5" s="59" t="e">
         <f t="shared" ref="J5:J26" si="2">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="66">
+      <c r="K5" s="60">
         <v>0</v>
       </c>
-      <c r="L5" s="67">
+      <c r="L5" s="61">
         <v>0</v>
       </c>
-      <c r="M5" s="68" t="e">
+      <c r="M5" s="62" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="72"/>
+      <c r="B6" s="43">
         <v>4</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="44">
         <v>0</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48">
+      <c r="D6" s="45"/>
+      <c r="E6" s="45">
         <v>0</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="49">
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65" t="e">
+      <c r="I6" s="58"/>
+      <c r="J6" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="66">
+      <c r="K6" s="60">
         <v>0</v>
       </c>
-      <c r="L6" s="67">
+      <c r="L6" s="61">
         <v>0</v>
       </c>
-      <c r="M6" s="68" t="e">
+      <c r="M6" s="62" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="72"/>
+      <c r="B7" s="43">
         <v>5</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="44">
         <v>1</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48">
+      <c r="D7" s="45"/>
+      <c r="E7" s="45">
         <v>1</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="49">
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65" t="e">
+      <c r="I7" s="58"/>
+      <c r="J7" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="66">
+      <c r="K7" s="60">
         <v>1</v>
       </c>
-      <c r="L7" s="67">
+      <c r="L7" s="61">
         <v>0</v>
       </c>
-      <c r="M7" s="68">
+      <c r="M7" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="55">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="73"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="69"/>
-      <c r="J8" s="70" t="e">
+      <c r="I8" s="63"/>
+      <c r="J8" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="71">
+      <c r="K8" s="65">
         <v>0</v>
       </c>
-      <c r="L8" s="72">
+      <c r="L8" s="66">
         <v>0</v>
       </c>
-      <c r="M8" s="73" t="e">
+      <c r="M8" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="72">
         <v>2</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="43">
         <v>8</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="44">
         <v>1</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="45">
         <v>1</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="49">
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="64"/>
-      <c r="J9" s="65">
+      <c r="I9" s="58"/>
+      <c r="J9" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="66">
+      <c r="K9" s="60">
         <f>C9+G9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="67">
+      <c r="L9" s="61">
         <f>D9+G9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="68">
+      <c r="M9" s="62">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="45"/>
-      <c r="B10" s="46">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="72"/>
+      <c r="B10" s="43">
         <v>10</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="44">
         <v>1</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48">
+      <c r="D10" s="45"/>
+      <c r="E10" s="45">
         <v>1</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="49">
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="64"/>
-      <c r="J10" s="65" t="e">
+      <c r="I10" s="58"/>
+      <c r="J10" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="66">
+      <c r="K10" s="60">
         <v>1</v>
       </c>
-      <c r="L10" s="67">
+      <c r="L10" s="61">
         <v>0</v>
       </c>
-      <c r="M10" s="68">
+      <c r="M10" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="49">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="72"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="64"/>
-      <c r="J11" s="65" t="e">
+      <c r="I11" s="58"/>
+      <c r="J11" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="66">
+      <c r="K11" s="60">
         <v>0</v>
       </c>
-      <c r="L11" s="67">
+      <c r="L11" s="61">
         <v>0</v>
       </c>
-      <c r="M11" s="68" t="e">
+      <c r="M11" s="62" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="45"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="49">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="72"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="64"/>
-      <c r="J12" s="65" t="e">
+      <c r="I12" s="58"/>
+      <c r="J12" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="66">
+      <c r="K12" s="60">
         <v>0</v>
       </c>
-      <c r="L12" s="67">
+      <c r="L12" s="61">
         <v>0</v>
       </c>
-      <c r="M12" s="68" t="e">
+      <c r="M12" s="62" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="49">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="72"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="64"/>
-      <c r="J13" s="65" t="e">
+      <c r="I13" s="58"/>
+      <c r="J13" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="66">
+      <c r="K13" s="60">
         <v>1</v>
       </c>
-      <c r="L13" s="67">
+      <c r="L13" s="61">
         <v>0</v>
       </c>
-      <c r="M13" s="68">
+      <c r="M13" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:13">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="55">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="73"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="69"/>
-      <c r="J14" s="70" t="e">
+      <c r="I14" s="63"/>
+      <c r="J14" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="71">
+      <c r="K14" s="65">
         <v>0</v>
       </c>
-      <c r="L14" s="72">
+      <c r="L14" s="66">
         <v>0</v>
       </c>
-      <c r="M14" s="73" t="e">
+      <c r="M14" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="72">
         <v>3</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="43">
         <v>11</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="44">
         <v>2</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="45">
         <v>1</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="45">
         <v>1</v>
       </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="49">
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="64"/>
-      <c r="J15" s="65">
+      <c r="I15" s="58"/>
+      <c r="J15" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="66">
+      <c r="K15" s="60">
         <f>C15+G15</f>
         <v>2</v>
       </c>
-      <c r="L15" s="67">
+      <c r="L15" s="61">
         <f>D15+G15</f>
         <v>1</v>
       </c>
-      <c r="M15" s="68">
+      <c r="M15" s="62">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="72"/>
+      <c r="B16" s="43">
         <v>12</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48">
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45">
         <v>1</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="49">
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="64"/>
-      <c r="J16" s="65" t="e">
+      <c r="I16" s="58"/>
+      <c r="J16" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="66">
+      <c r="K16" s="60">
         <v>1</v>
       </c>
-      <c r="L16" s="67">
+      <c r="L16" s="61">
         <v>0</v>
       </c>
-      <c r="M16" s="68">
+      <c r="M16" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="72"/>
+      <c r="B17" s="43">
         <v>13</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="44">
         <v>2</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="45">
         <v>3</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="49">
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65">
+      <c r="I17" s="58"/>
+      <c r="J17" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="66">
+      <c r="K17" s="60">
         <v>2</v>
       </c>
-      <c r="L17" s="67">
+      <c r="L17" s="61">
         <v>3</v>
       </c>
-      <c r="M17" s="68">
+      <c r="M17" s="62">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="72"/>
+      <c r="B18" s="43">
         <v>14</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="44">
         <v>2</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="45">
         <v>0</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="45">
         <v>2</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="49">
+      <c r="F18" s="46"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="64"/>
-      <c r="J18" s="65" t="e">
+      <c r="I18" s="58"/>
+      <c r="J18" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="66">
+      <c r="K18" s="60">
         <v>0</v>
       </c>
-      <c r="L18" s="67">
+      <c r="L18" s="61">
         <v>0</v>
       </c>
-      <c r="M18" s="68" t="e">
+      <c r="M18" s="62" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:13">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="70" t="e">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="72"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="66"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="68"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:13">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="55">
+      <c r="K19" s="60"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="62"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="73"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="69"/>
-      <c r="J20" s="70" t="e">
+      <c r="I20" s="63"/>
+      <c r="J20" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="71">
+      <c r="K20" s="65">
         <v>0</v>
       </c>
-      <c r="L20" s="72">
+      <c r="L20" s="66">
         <v>0</v>
       </c>
-      <c r="M20" s="73" t="e">
+      <c r="M20" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="72">
         <v>4</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21" s="43">
         <v>15</v>
       </c>
-      <c r="C21" s="47">
+      <c r="C21" s="44">
         <v>2</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="45">
         <v>1</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="45">
         <v>1</v>
       </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="49">
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="64"/>
-      <c r="J21" s="65">
+      <c r="I21" s="58"/>
+      <c r="J21" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K21" s="66">
+      <c r="K21" s="60">
         <v>2</v>
       </c>
-      <c r="L21" s="67">
+      <c r="L21" s="61">
         <v>1</v>
       </c>
-      <c r="M21" s="68">
+      <c r="M21" s="62">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="72"/>
+      <c r="B22" s="43">
         <v>16</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C22" s="44">
         <v>4</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="45">
         <v>3</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="45">
         <v>0</v>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65" t="e">
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="66">
+      <c r="K22" s="60">
         <v>4</v>
       </c>
-      <c r="L22" s="67">
+      <c r="L22" s="61">
         <v>0</v>
       </c>
-      <c r="M22" s="68">
+      <c r="M22" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="45"/>
-      <c r="B23" s="46">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="72"/>
+      <c r="B23" s="43">
         <v>17</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="44">
         <v>12</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="45">
         <v>10</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="45">
         <v>2</v>
       </c>
-      <c r="F23" s="49"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="64">
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="58">
         <v>3</v>
       </c>
-      <c r="J23" s="65">
+      <c r="J23" s="59">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="K23" s="66">
+      <c r="K23" s="60">
         <v>12</v>
       </c>
-      <c r="L23" s="67">
+      <c r="L23" s="61">
         <v>10</v>
       </c>
-      <c r="M23" s="68">
+      <c r="M23" s="62">
         <f t="shared" si="1"/>
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="45"/>
-      <c r="B24" s="46">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="72"/>
+      <c r="B24" s="43">
         <v>18</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="44">
         <v>13</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="45">
         <v>12</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="45">
         <v>1</v>
       </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="65">
+      <c r="F24" s="46"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K24" s="66">
+      <c r="K24" s="60">
         <v>13</v>
       </c>
-      <c r="L24" s="67">
+      <c r="L24" s="61">
         <v>12</v>
       </c>
-      <c r="M24" s="68">
+      <c r="M24" s="62">
         <f t="shared" si="1"/>
-        <v>0.923076923076923</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="45"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="65" t="e">
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="72"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="66"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="68" t="e">
+      <c r="K25" s="60"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="62" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:13">
-      <c r="A26" s="51"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="70" t="e">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="73"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="71"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="73" t="e">
+      <c r="K26" s="65"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2912,22 +2329,21 @@
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="A21:A26"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="3" width="11.5" customWidth="1"/>
@@ -2942,7 +2358,7 @@
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="1" ht="27" spans="1:15">
+    <row r="1" spans="1:15" s="25" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
@@ -2989,7 +2405,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>3</v>
       </c>
@@ -3036,7 +2452,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:15">
+    <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>4</v>
       </c>
@@ -3056,7 +2472,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>5</v>
       </c>
@@ -3103,7 +2519,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>6</v>
       </c>
@@ -3150,7 +2566,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>9</v>
       </c>
@@ -3197,7 +2613,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>11</v>
       </c>
@@ -3244,7 +2660,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>12</v>
       </c>
@@ -3265,7 +2681,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>13</v>
       </c>
@@ -3312,7 +2728,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>13</v>
       </c>
@@ -3359,7 +2775,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>13</v>
       </c>
@@ -3406,7 +2822,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>14</v>
       </c>
@@ -3427,7 +2843,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" s="10" customFormat="1" spans="1:15">
+    <row r="13" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>15</v>
       </c>
@@ -3474,7 +2890,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>16</v>
       </c>
@@ -3521,7 +2937,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" s="10" customFormat="1" spans="1:15">
+    <row r="15" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>16</v>
       </c>
@@ -3568,7 +2984,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" s="10" customFormat="1" spans="1:15">
+    <row r="16" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>17</v>
       </c>
@@ -3615,7 +3031,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" s="10" customFormat="1" spans="1:15">
+    <row r="17" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>17</v>
       </c>
@@ -3662,7 +3078,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" s="10" customFormat="1" spans="1:15">
+    <row r="18" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -3709,7 +3125,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -3756,7 +3172,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>17</v>
       </c>
@@ -3803,7 +3219,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" s="10" customFormat="1" spans="1:15">
+    <row r="21" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>17</v>
       </c>
@@ -3850,7 +3266,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>17</v>
       </c>
@@ -3897,7 +3313,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" s="26" customFormat="1" spans="1:15">
+    <row r="23" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="33">
         <v>18</v>
       </c>
@@ -3944,7 +3360,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" s="26" customFormat="1" spans="1:15">
+    <row r="24" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="33">
         <v>18</v>
       </c>
@@ -3991,7 +3407,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -4008,7 +3424,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -4025,7 +3441,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4042,7 +3458,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4059,7 +3475,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -4076,7 +3492,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -4093,7 +3509,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -4110,7 +3526,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -4127,7 +3543,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -4144,7 +3560,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -4161,7 +3577,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -4178,7 +3594,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4195,7 +3611,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -4212,7 +3628,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -4229,7 +3645,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -4246,7 +3662,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -4263,7 +3679,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -4280,7 +3696,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -4297,7 +3713,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -4314,7 +3730,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -4331,7 +3747,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -4348,7 +3764,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -4365,7 +3781,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -4382,7 +3798,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -4399,7 +3815,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -4416,7 +3832,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -4433,7 +3849,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -4450,7 +3866,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -4467,7 +3883,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -4484,7 +3900,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4501,7 +3917,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4518,7 +3934,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -4535,7 +3951,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4552,7 +3968,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4569,7 +3985,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -4586,7 +4002,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -4603,7 +4019,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4620,7 +4036,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4637,7 +4053,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4654,7 +4070,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4671,7 +4087,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4688,7 +4104,7 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4705,7 +4121,7 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4722,7 +4138,7 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4739,7 +4155,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4756,7 +4172,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -4773,7 +4189,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4790,7 +4206,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4807,7 +4223,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4824,7 +4240,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4841,7 +4257,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4858,7 +4274,7 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -4875,7 +4291,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4892,7 +4308,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -4909,7 +4325,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4926,7 +4342,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4943,7 +4359,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4960,7 +4376,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4977,7 +4393,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4994,7 +4410,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -5011,7 +4427,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -5028,7 +4444,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -5045,7 +4461,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -5062,7 +4478,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -5079,7 +4495,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -5096,7 +4512,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -5113,7 +4529,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -5130,7 +4546,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -5147,7 +4563,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -5164,7 +4580,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -5181,7 +4597,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -5198,7 +4614,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -5215,7 +4631,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -5232,7 +4648,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -5249,7 +4665,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -5266,7 +4682,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -5283,7 +4699,7 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -5300,7 +4716,7 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -5317,7 +4733,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -5334,7 +4750,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -5351,7 +4767,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -5368,7 +4784,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -5385,7 +4801,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -5402,7 +4818,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -5419,7 +4835,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -5436,7 +4852,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -5453,7 +4869,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -5470,7 +4886,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -5487,7 +4903,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -5504,7 +4920,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -5521,7 +4937,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -5538,7 +4954,7 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -5555,7 +4971,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -5572,7 +4988,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -5589,7 +5005,7 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -5606,7 +5022,7 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -5623,7 +5039,7 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -5640,7 +5056,7 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -5657,7 +5073,7 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -5674,7 +5090,7 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -5691,7 +5107,7 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -5708,7 +5124,7 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -5725,7 +5141,7 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -5742,7 +5158,7 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -5759,7 +5175,7 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -5776,7 +5192,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -5793,7 +5209,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -5810,7 +5226,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -5827,7 +5243,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -5844,7 +5260,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -5861,7 +5277,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -5878,7 +5294,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -5895,7 +5311,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -5912,7 +5328,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -5929,7 +5345,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -5946,7 +5362,7 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -5963,7 +5379,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -5980,7 +5396,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -5997,7 +5413,7 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -6014,7 +5430,7 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6031,7 +5447,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -6048,7 +5464,7 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -6065,7 +5481,7 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -6082,7 +5498,7 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -6099,7 +5515,7 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -6116,7 +5532,7 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -6133,7 +5549,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -6150,7 +5566,7 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -6167,7 +5583,7 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -6184,7 +5600,7 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6201,7 +5617,7 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6218,7 +5634,7 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6235,7 +5651,7 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6252,7 +5668,7 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6269,7 +5685,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6286,7 +5702,7 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6303,7 +5719,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6320,7 +5736,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6337,7 +5753,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6354,7 +5770,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -6371,7 +5787,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -6388,7 +5804,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -6405,7 +5821,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6422,7 +5838,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6439,7 +5855,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -6456,7 +5872,7 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6473,7 +5889,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6490,7 +5906,7 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6507,7 +5923,7 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6524,7 +5940,7 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6541,7 +5957,7 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C17